--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Ассистент\V4 ФИНАЛ\Юрики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5470151-942B-459A-99CA-F59BB6623859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773EA76-B2D3-47D6-AE79-2AA0339BD96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="1317">
   <si>
     <t>обслуживание</t>
   </si>
@@ -3580,17 +3580,492 @@
     <t>как подключить тариф</t>
   </si>
   <si>
-    <t>topics3</t>
-  </si>
-  <si>
-    <t>🞄БА</t>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>заказ наличных</t>
+  </si>
+  <si>
+    <t>Клиент имеет в виду платежку для налоговой предоставить.</t>
+  </si>
+  <si>
+    <t>нету слова перевод или платеж</t>
+  </si>
+  <si>
+    <t>Приложение  -кредит</t>
+  </si>
+  <si>
+    <t>У нас документ кажется нигде не классифицируется. Давайте тогда,где лидирует документы,то заполнять эту тематику. Там в любом случае перевод на оператора идёт.</t>
+  </si>
+  <si>
+    <t>При поступлении от иностранца,в любом случае через валютный контроль пройдут они.</t>
+  </si>
+  <si>
+    <t>Так как нужно,чтобы они предоставили документы на продление.</t>
+  </si>
+  <si>
+    <t>Сразу на выход на оператора, обращается Юр лицо,чтобы принять такой платёж.</t>
+  </si>
+  <si>
+    <t>Из этой фразы сложно установить точную потребность клиента, это может быть как касса, установка эквайринга, так и тех поддержка, на мой взгляд лучше пропустить ее через уточняющий вопрос для получения дополнительных вводных</t>
+  </si>
+  <si>
+    <t>Т.е. проблема с платежом, которая касается больше технического заполнения платежа в ИБ.</t>
+  </si>
+  <si>
+    <t>БА</t>
+  </si>
+  <si>
+    <t>Относим больше то, что связано с блокировкой платежа, с не списанием и с захолдированными деньгами. В данную тематику относятся вопросы, связанные с платежом, который уже сделан, почему не уходят деньги, висят.</t>
+  </si>
+  <si>
+    <t>Соответственно где будет вопрос по блокировке, разблокировке в Блокировка УКД -OS_UKD_Block.</t>
+  </si>
+  <si>
+    <t>Давайте просто определимся, что в указанных выше случаях будем относить в УКД -OS_UKD</t>
+  </si>
+  <si>
+    <t>Давайте поступим проще, если видим четко про телефон кидаем в телефон, видим сим … если фраза поменять сим</t>
+  </si>
+  <si>
+    <t>ведомость банковского контроля/ внесение изменений в бк</t>
+  </si>
+  <si>
+    <t>Если мы понимаем, что клиенту необходимо заказать наличные для получения, фразы, попадающие под правила: OS_Accounts деньги заказ наличных, OS_Withdraw_deposit_cash оформление получение деньги, OS_UKD оформление деньги мы отправляем на тематику Снятие и внесение наличных (OS_Withdraw_deposit_cash).</t>
+  </si>
+  <si>
+    <t>Фразы, связанные с налогообложением относим в Сервис бухгалтерию</t>
+  </si>
+  <si>
+    <t>Возврат по эквайрингу мы отправляем в Эквайринг прочее (OS_Acquiring_Other). С тематики Эквайринг техподдержка OS_Acquiring_Support идет заявка к сервисному партнеру, в данном случае нам это не нужно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">это сервис оплаты через приложение </t>
+  </si>
+  <si>
+    <t>Схожие правила OS_Bank_Addresses соединить с отделение, OS_Extension номер телефон отделение решили относить в тематику Адреса отделений Банка.</t>
+  </si>
+  <si>
+    <t>В банке есть услуга, когда клиент может провести сразу несколько платежей по реестру, но как правило, это относится к оплате зарплаты - В данных фразах мы не видим запроса на проведение зп платежей, поэтому при возникновении проблемы с платежом - относим к проблеме с платежом, если просто интересует оплата - в оформление платежа.</t>
+  </si>
+  <si>
+    <t>Если клиент говорит про экспорт или импорт операций, то здесь имеются ввиду  какие-либо операции в приложении</t>
+  </si>
+  <si>
+    <t>обычно дополнительный оквэд юрики регистрируют в егрюл,к нам они обращаются чтобы подтвердить что были изменения в оквэде или просто уточняют как можно добавить оквэд,можем оквэд в актуализацию отправить?так как все что они вносят в егрюл все это они подтверждают в банке,то есть актуализируют</t>
+  </si>
+  <si>
+    <t xml:space="preserve">это услуга, которая подключается в зарплатном проекте , поэтому выбираем Зарплатный проект </t>
+  </si>
+  <si>
+    <t>Приложение -кредит направляем в кредиты для бизнеса , так как приложения для кредитов крупного и среднего бизнеса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">если деньги перечисляет клиент на закрытый счет, то тогда направляем на закрытие счета. </t>
+  </si>
+  <si>
+    <t>будет задан уточняющий вопрос и исходя из ответа, клиент будет направлен на оператора КЦ ЮЛ или направлен на тематику «Физическое лицо Брокерский счет -OS_Broker_Account_Physical» с переводом на скилл ФЛ.</t>
+  </si>
+  <si>
+    <t>На текущий момент если вопрос клиента связан с открытием брокерского счета ЮЛ, тогда выбираем тематику Открытие счета (OS_New_Account) так как в этой тематике есть контекстные фразы связанные с открытием брокерского счета ЮЛ. Но по сценарной логике клиент будет направлен с тематики "Открытие счета (OS_New_Account)" на тематику "Счета -OS_Accounts" и переведен на оператора КЦ. Сам оператор не может открыть счет, но он может подсказать где это можно сделать.</t>
+  </si>
+  <si>
+    <t>Фразы: « электронный ключ токен», «истек срок действия токены» - фразы отправляем на укд, так как речь идёт о электронной подписи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИФы- Паевой инвестиционный фонд </t>
+  </si>
+  <si>
+    <t>Эквайринг прочее, это заявление заполняется касаемо эквайринга.</t>
+  </si>
+  <si>
+    <t>без слова "счет"</t>
+  </si>
+  <si>
+    <t>актуализировано, было УКД Доступы (OS_UKD_Accesses)</t>
+  </si>
+  <si>
+    <t>По «Статусу платежа» фразы «банковский день» отправляем в «Оформление платежа»</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Статус платежа (OS_Status_Pay) По «Проблеме с платежом» фразы как уточнить платеж, вопрос платеж, узнать платеж отправляем в «Оформление платежа»</t>
+  </si>
+  <si>
+    <t>По «Балансу» где речь идет о том что клиенту делали возврат, но средства не пришли, отправляем в «Отозвать платеж»</t>
+  </si>
+  <si>
+    <t>Из тематики «Бизнес карта» фразы где речь идет просто о виртуальной карте переносим в «Карты»</t>
+  </si>
+  <si>
+    <t>Из тематики «Получить кредит» все фразы где есть слова бизнес, ип, юр лицо переносим в интент «Кредиты для бизнеса»</t>
+  </si>
+  <si>
+    <t>Если расчетный счет физическое ой юридическое лицо-выбираем счета с вопросом по слову расчетный счет</t>
+  </si>
+  <si>
+    <t>выбираем  тех. Поддержка ( в пулах прописано)</t>
+  </si>
+  <si>
+    <t>у нас были изменения от 3.04.2025 ,что если нет слова ВЫЕЗД, то мы выбираем ерс менеджера,  так как встреча может быть и в офисе банка</t>
+  </si>
+  <si>
+    <t>любые фразы с этим словом</t>
+  </si>
+  <si>
+    <t>после БА выбираем курьера, потому что не понятно, кого именно имеет ввиду клиент-ЗП менеджера, или персонального менеджера, или курьера.</t>
+  </si>
+  <si>
+    <t>подразумевается банкомат</t>
+  </si>
+  <si>
+    <t>если фраза типа "рно оператор/юр.лицо/тех.поддержка", то выбираем рно,  если что то типа "карта рно", то тут карты</t>
+  </si>
+  <si>
+    <t>возможно нужен отдел кредитов</t>
+  </si>
+  <si>
+    <t>возможно клиенту нужен отдел эквайринга</t>
+  </si>
+  <si>
+    <t>чтобы уточнить физик или юрик</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P.s.: "первоначальный </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>капитал</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>так как изначальна нет понимания входящий или исходящий платеж, есть слово платеж</t>
+  </si>
+  <si>
+    <t>всегда выбираем задолженность кроме кредита, кредитной карты, кредитной карты для бизнеса, овердрафта</t>
+  </si>
+  <si>
+    <t>обслуживание онлайн кассы</t>
+  </si>
+  <si>
+    <t>БА, Из-за слова "Банк"</t>
+  </si>
+  <si>
+    <t>спасм, реклама живет в услугах</t>
+  </si>
+  <si>
+    <t>когда сама сумма списалась типо без подтверждения это лучше в рно</t>
+  </si>
+  <si>
+    <t>БА, Все вопросы с возвратом терминала  и расторжением направляем в эту тематику P.S "мне нужно снять терминал"-тоже расторжение</t>
+  </si>
+  <si>
+    <t>счет = карта и наоборот</t>
+  </si>
+  <si>
+    <t>БА, новый сценарий ,Условия по тарифу (OS_Tariff_info)</t>
+  </si>
+  <si>
+    <t>по доб номеру, если просит связаться с руковод или директором</t>
+  </si>
+  <si>
+    <t>ожидаемая норма прибыли</t>
+  </si>
+  <si>
+    <t>Оценка качеста</t>
+  </si>
+  <si>
+    <t>так как здесь может уточнить про банки партнеры и тд</t>
+  </si>
+  <si>
+    <t>расплатиться - подразумевается покупка по карте, транзакция через эквайринг, исходя из фразы проблема в самой карте</t>
+  </si>
+  <si>
+    <t>БА в июне файл Спорные кейсы БА июнь ЮЛ</t>
+  </si>
+  <si>
+    <t>все вопросы по интеграции терминала в тех экв</t>
+  </si>
+  <si>
+    <t>по вопросу непонятно только ли что клиент подал заявку или счет открыт давно, нет слова "заявка".</t>
+  </si>
+  <si>
+    <t>актуал, изменение и подтверждение почты</t>
+  </si>
+  <si>
+    <t>исключение "отдел обслуживания абонентов" - оператор</t>
+  </si>
+  <si>
+    <t>например КАСКО</t>
+  </si>
+  <si>
+    <t>СБП без эквайринга</t>
+  </si>
+  <si>
+    <t>не понятно, одобрили клиенту оформление или нет</t>
+  </si>
+  <si>
+    <t>подключение/расторжение идет через депозиты</t>
+  </si>
+  <si>
+    <t>Речь идет про лизинг</t>
+  </si>
+  <si>
+    <t>бенефициар-выгодоприобретатель</t>
+  </si>
+  <si>
+    <t>мультибанк это приложение для учёта операций в других банках для расчёта налогов и взносов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По данному слову понимаем,что речь про эквайринг </t>
+  </si>
+  <si>
+    <t>клиент победил в акции и хочет узнать об условиях получения</t>
+  </si>
+  <si>
+    <t>интернет для терминалов</t>
+  </si>
+  <si>
+    <t>Когда не понятно какой лимит, мы карты выбираем</t>
+  </si>
+  <si>
+    <t>Когда не понятно какое ограничение отправляем в блокировку счета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">но смотрим на каждую фразу в отдельности </t>
+  </si>
+  <si>
+    <t xml:space="preserve">БА( все варианты со ссловом физическая это физ. Лицо ) </t>
+  </si>
+  <si>
+    <t>белорусский налоговый номер</t>
+  </si>
+  <si>
+    <t>БА По этой фразе лучше выбрать тематику с УВ. Уточнить какой терминал интересует</t>
+  </si>
+  <si>
+    <t>БА: "надо изменить адрес чека", "изменить адрес терминала эквайринг" - Эквайринг техподдержка (OS_Acquiring_Support)</t>
+  </si>
+  <si>
+    <t>БА: "не совпадает сверка итогов"-Эквайринг техподдержка (OS_Acquiring_Support)</t>
+  </si>
+  <si>
+    <t>БА конкретно в этой фразе выбираем оформление платежа. Если будут фразы просто оплата или платеж, то выбираем статус</t>
+  </si>
+  <si>
+    <t>БА банк разгружает линию, поэтому практически все вопросы по эквайрингу консультирует теперь сервисный партнер</t>
+  </si>
+  <si>
+    <t>БА с 03.12.2024 были изменения и теперь это Оформление платежа</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> конфа</t>
+  </si>
+  <si>
+    <r>
+      <t>Фразы с возвратом</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> клиенту</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Фразы со </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>списанием у клиента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Завка на открытие/закрытие, оформить заявку-это прочее БА</t>
+  </si>
+  <si>
+    <t>по слову узнать</t>
+  </si>
+  <si>
+    <t>так как там есть проверка физ юр и возможность входа дает премиальная бизнес карта</t>
+  </si>
+  <si>
+    <t>КИБ-Крупный инвестиционный бизнес</t>
+  </si>
+  <si>
+    <t>запрос банка/из банка поступил запрос</t>
+  </si>
+  <si>
+    <t>возможно, хочет выставить счет.Обычно указывается выставленный счет</t>
+  </si>
+  <si>
+    <t>На личный счет</t>
+  </si>
+  <si>
+    <t>Сервис срочный перевод</t>
+  </si>
+  <si>
+    <t>вкл-возобновляемая кредитная линия</t>
+  </si>
+  <si>
+    <t>Не понятно,про тарифы карты или про платеж по карте</t>
+  </si>
+  <si>
+    <t>Из за слова соедините, приоритет оператор</t>
+  </si>
+  <si>
+    <t>БА.Смотрим из контекста.Если будет перевод денег/средств-это оформление платежа</t>
+  </si>
+  <si>
+    <t>сервис проверки контрагентов-это услуга</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> API — универсальная технология, которая позволяет напрямую обмениваться данными с банком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БА На TEE можете внимание не обращать. Послушал звонки где было распознано это слово, это ASR непонятное бормотание клиентов распознает как tee
+</t>
+  </si>
+  <si>
+    <t>БА у открытия счета больше приоритет</t>
+  </si>
+  <si>
+    <t>БА от 13.02.2025</t>
+  </si>
+  <si>
+    <t>Возможно, кофе терминал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БА, новый сценарий </t>
+  </si>
+  <si>
+    <t>не понятен вопрос-счет приоритетом</t>
+  </si>
+  <si>
+    <t>БА Я посмотрел похожие кейся, речь в них идет про оформление второго эквайринга</t>
+  </si>
+  <si>
+    <t>БА Да, в прошлый раз выбрал тематику Снятие и внесение наличных (OS_Withdraw_deposit_cash), посмотрел похожие кейсы, для них больше подходит тематика Зачисление по эквайрингу или банкомату (OS_Acquiring_or_not_Pay). Т.е. если речь про зачисление через банкомат, выбираем OS_Acquiring_or_not_Pay</t>
+  </si>
+  <si>
+    <t>Здесь речь о пин коде для рутокена(ЭЦП)</t>
+  </si>
+  <si>
+    <t>БА Если во фразе есть упоминание про изменение роли или о подключении в приложении, тогда выбираем УКД (OS_UKD)</t>
+  </si>
+  <si>
+    <t>второй чек</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UP — конструктор лояльности и мобильных приложений, который поможет удержать существующих клиентов и привлечь новых покупателей в бизнес</t>
+  </si>
+  <si>
+    <t>роль</t>
+  </si>
+  <si>
+    <t>из-за слова "печать"</t>
+  </si>
+  <si>
+    <t>Универсальный передаточный документ (УПД)</t>
+  </si>
+  <si>
+    <t>т.к. во множественном числе</t>
+  </si>
+  <si>
+    <t>нет слова ВЫЕЗД</t>
+  </si>
+  <si>
+    <t>ДБО-дистанционное банковское обслуживание</t>
+  </si>
+  <si>
+    <t>из-за слова лицо</t>
+  </si>
+  <si>
+    <t>-Финанс — это система для операционного обслуживания клиентов и дебиторов по факторингу.</t>
+  </si>
+  <si>
+    <t>Есть такая услуга-проверка сотрудника.Если есть фо фразе проверка сотрудника банка-это мошенничество</t>
+  </si>
+  <si>
+    <t>это кредитный счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БА Если нужен квво для начисления ЗП тоже выбираем эту тематику </t>
+  </si>
+  <si>
+    <t>БА Фраза отдаленно похожая, но в этой фразе "нужно оплатить платеж который выставлен у вас в автоматом не могу зайти" больше акцент идет на платеж</t>
+  </si>
+  <si>
+    <t>БА Для этой фразы оставляем Карты для Бизнеса (OS_Card_Business), баланс не подходит, здесь речь идет скорее всего про оплату по эквайрингу</t>
+  </si>
+  <si>
+    <t>БА,  новый сценарий</t>
+  </si>
+  <si>
+    <t>-Сквош — одна из любимых игр наших партнёров. Теперь бесплатных тренировок и турниров станет больше: игры пройдут в 21 городе России.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БА, когда одно слово </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3633,6 +4108,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -3679,7 +4170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3704,6 +4195,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4338,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2773680-67AB-4233-9C97-EFB5A20E4C41}">
   <dimension ref="A1:D853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A838" workbookViewId="0">
-      <selection activeCell="D850" sqref="D850"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4347,7 +4839,7 @@
     <col min="1" max="1" width="40.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4407,6 +4899,9 @@
       <c r="C5" s="4" t="s">
         <v>976</v>
       </c>
+      <c r="D5" t="s">
+        <v>1182</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -4418,6 +4913,9 @@
       <c r="C6" s="4" t="s">
         <v>977</v>
       </c>
+      <c r="D6" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -4440,6 +4938,9 @@
       <c r="C8" s="4" t="s">
         <v>977</v>
       </c>
+      <c r="D8" t="s">
+        <v>1184</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -4517,6 +5018,7 @@
       <c r="C15" s="4" t="s">
         <v>979</v>
       </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -4529,7 +5031,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
@@ -4540,7 +5042,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
@@ -4551,7 +5053,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>73</v>
       </c>
@@ -4562,7 +5064,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>74</v>
       </c>
@@ -4573,7 +5075,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
@@ -4584,7 +5086,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -4594,8 +5096,11 @@
       <c r="C22" s="4" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="9" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>80</v>
       </c>
@@ -4606,7 +5111,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>81</v>
       </c>
@@ -4617,7 +5122,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -4628,7 +5133,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>84</v>
       </c>
@@ -4639,7 +5144,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -4650,7 +5155,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>87</v>
       </c>
@@ -4661,7 +5166,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
@@ -4672,7 +5177,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>90</v>
       </c>
@@ -4683,7 +5188,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>92</v>
       </c>
@@ -4693,8 +5198,11 @@
       <c r="C31" s="4" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
@@ -4715,6 +5223,9 @@
       <c r="C33" s="4" t="s">
         <v>988</v>
       </c>
+      <c r="D33" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
@@ -4737,6 +5248,9 @@
       <c r="C35" s="4" t="s">
         <v>989</v>
       </c>
+      <c r="D35" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
@@ -4748,6 +5262,9 @@
       <c r="C36" s="4" t="s">
         <v>990</v>
       </c>
+      <c r="D36" t="s">
+        <v>1189</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
@@ -4759,6 +5276,9 @@
       <c r="C37" s="4" t="s">
         <v>991</v>
       </c>
+      <c r="D37" t="s">
+        <v>1190</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
@@ -4825,6 +5345,9 @@
       <c r="C43" s="4" t="s">
         <v>995</v>
       </c>
+      <c r="D43" t="s">
+        <v>1184</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -4858,7 +5381,9 @@
       <c r="C46" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="10" t="s">
+        <v>1191</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
@@ -4893,7 +5418,7 @@
         <v>996</v>
       </c>
       <c r="D49" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -4906,6 +5431,9 @@
       <c r="C50" s="4" t="s">
         <v>996</v>
       </c>
+      <c r="D50" t="s">
+        <v>1193</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -4961,6 +5489,9 @@
       <c r="C55" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D55" t="s">
+        <v>1194</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
@@ -4983,6 +5514,9 @@
       <c r="C57" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D57" t="s">
+        <v>1195</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
@@ -5027,6 +5561,9 @@
       <c r="C61" s="4" t="s">
         <v>998</v>
       </c>
+      <c r="D61" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
@@ -5061,7 +5598,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>140</v>
       </c>
@@ -5072,7 +5609,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>141</v>
       </c>
@@ -5083,7 +5620,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>142</v>
       </c>
@@ -5094,7 +5631,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>144</v>
       </c>
@@ -5105,7 +5642,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>145</v>
       </c>
@@ -5116,7 +5653,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>146</v>
       </c>
@@ -5126,8 +5663,11 @@
       <c r="C70" s="4" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="9" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>147</v>
       </c>
@@ -5138,7 +5678,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>148</v>
       </c>
@@ -5148,8 +5688,11 @@
       <c r="C72" s="4" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>149</v>
       </c>
@@ -5160,7 +5703,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>150</v>
       </c>
@@ -5171,7 +5714,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>151</v>
       </c>
@@ -5181,8 +5724,11 @@
       <c r="C75" s="4" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>152</v>
       </c>
@@ -5192,8 +5738,11 @@
       <c r="C76" s="4" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>154</v>
       </c>
@@ -5204,7 +5753,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>156</v>
       </c>
@@ -5214,8 +5763,11 @@
       <c r="C78" s="4" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>157</v>
       </c>
@@ -5226,7 +5778,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>159</v>
       </c>
@@ -5237,7 +5789,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>161</v>
       </c>
@@ -5248,7 +5800,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>162</v>
       </c>
@@ -5258,8 +5810,9 @@
       <c r="C82" s="4" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>163</v>
       </c>
@@ -5270,7 +5823,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>165</v>
       </c>
@@ -5280,8 +5833,9 @@
       <c r="C84" s="4" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>166</v>
       </c>
@@ -5292,7 +5846,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>167</v>
       </c>
@@ -5303,7 +5857,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>168</v>
       </c>
@@ -5314,7 +5868,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>170</v>
       </c>
@@ -5324,8 +5878,11 @@
       <c r="C88" s="4" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>171</v>
       </c>
@@ -5336,7 +5893,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>172</v>
       </c>
@@ -5347,7 +5904,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>173</v>
       </c>
@@ -5357,8 +5914,11 @@
       <c r="C91" s="4" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>174</v>
       </c>
@@ -5368,8 +5928,11 @@
       <c r="C92" s="4" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>175</v>
       </c>
@@ -5380,7 +5943,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>176</v>
       </c>
@@ -5390,8 +5953,11 @@
       <c r="C94" s="4" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>177</v>
       </c>
@@ -5401,8 +5967,11 @@
       <c r="C95" s="4" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>178</v>
       </c>
@@ -5413,7 +5982,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>1153</v>
       </c>
@@ -5424,7 +5993,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>179</v>
       </c>
@@ -5434,8 +6003,11 @@
       <c r="C98" s="4" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>180</v>
       </c>
@@ -5446,7 +6018,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>181</v>
       </c>
@@ -5457,7 +6029,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>182</v>
       </c>
@@ -5468,7 +6040,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>183</v>
       </c>
@@ -5478,8 +6050,11 @@
       <c r="C102" s="4" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>185</v>
       </c>
@@ -5489,8 +6064,11 @@
       <c r="C103" s="4" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>187</v>
       </c>
@@ -5500,8 +6078,11 @@
       <c r="C104" s="4" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>189</v>
       </c>
@@ -5512,7 +6093,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>190</v>
       </c>
@@ -5523,7 +6104,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>191</v>
       </c>
@@ -5533,8 +6114,11 @@
       <c r="C107" s="4" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>192</v>
       </c>
@@ -5544,8 +6128,11 @@
       <c r="C108" s="4" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>194</v>
       </c>
@@ -5556,7 +6143,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>195</v>
       </c>
@@ -5567,7 +6154,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>108</v>
       </c>
@@ -5578,7 +6165,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>196</v>
       </c>
@@ -5587,6 +6174,9 @@
       </c>
       <c r="C112" s="4" t="s">
         <v>1019</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -5599,6 +6189,9 @@
       <c r="C113" s="4" t="s">
         <v>1020</v>
       </c>
+      <c r="D113" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
@@ -5610,6 +6203,9 @@
       <c r="C114" s="4" t="s">
         <v>1020</v>
       </c>
+      <c r="D114" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
@@ -5654,6 +6250,9 @@
       <c r="C118" s="4" t="s">
         <v>1024</v>
       </c>
+      <c r="D118" t="s">
+        <v>1184</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
@@ -5709,6 +6308,7 @@
       <c r="C123" s="4" t="s">
         <v>1026</v>
       </c>
+      <c r="D123" s="9"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
@@ -5720,6 +6320,7 @@
       <c r="C124" s="4" t="s">
         <v>1026</v>
       </c>
+      <c r="D124" s="9"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -5742,7 +6343,9 @@
       <c r="C126" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="D126" s="11"/>
+      <c r="D126" s="11" t="s">
+        <v>1216</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
@@ -5754,6 +6357,9 @@
       <c r="C127" s="4" t="s">
         <v>1028</v>
       </c>
+      <c r="D127" t="s">
+        <v>1217</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
@@ -5765,8 +6371,11 @@
       <c r="C128" s="4" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>216</v>
       </c>
@@ -5777,7 +6386,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>217</v>
       </c>
@@ -5788,7 +6397,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>218</v>
       </c>
@@ -5799,7 +6408,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>219</v>
       </c>
@@ -5809,8 +6418,11 @@
       <c r="C132" s="4" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>221</v>
       </c>
@@ -5820,8 +6432,11 @@
       <c r="C133" s="4" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>222</v>
       </c>
@@ -5832,7 +6447,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>223</v>
       </c>
@@ -5843,7 +6458,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>225</v>
       </c>
@@ -5853,8 +6468,9 @@
       <c r="C136" s="4" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" s="9"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>226</v>
       </c>
@@ -5865,7 +6481,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>227</v>
       </c>
@@ -5875,8 +6491,9 @@
       <c r="C138" s="4" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>229</v>
       </c>
@@ -5887,7 +6504,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>230</v>
       </c>
@@ -5898,7 +6515,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>231</v>
       </c>
@@ -5908,8 +6525,11 @@
       <c r="C141" s="4" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>232</v>
       </c>
@@ -5920,7 +6540,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>233</v>
       </c>
@@ -5931,7 +6551,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>234</v>
       </c>
@@ -5942,7 +6562,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>235</v>
       </c>
@@ -5953,7 +6573,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>237</v>
       </c>
@@ -5964,7 +6584,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>238</v>
       </c>
@@ -5974,8 +6594,11 @@
       <c r="C147" s="4" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>239</v>
       </c>
@@ -5986,7 +6609,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>240</v>
       </c>
@@ -5997,7 +6620,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>241</v>
       </c>
@@ -6008,7 +6631,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>242</v>
       </c>
@@ -6019,7 +6642,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>244</v>
       </c>
@@ -6030,7 +6653,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>245</v>
       </c>
@@ -6040,8 +6663,11 @@
       <c r="C153" s="4" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>246</v>
       </c>
@@ -6052,7 +6678,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>248</v>
       </c>
@@ -6063,7 +6689,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>249</v>
       </c>
@@ -6074,7 +6700,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>250</v>
       </c>
@@ -6085,7 +6711,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>252</v>
       </c>
@@ -6096,7 +6722,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>253</v>
       </c>
@@ -6106,8 +6732,11 @@
       <c r="C159" s="4" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>254</v>
       </c>
@@ -6128,6 +6757,9 @@
       <c r="C161" s="4" t="s">
         <v>1037</v>
       </c>
+      <c r="D161" t="s">
+        <v>1184</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
@@ -6140,7 +6772,7 @@
         <v>1038</v>
       </c>
       <c r="D162" t="s">
-        <v>1182</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -6208,6 +6840,9 @@
       <c r="C168" s="4" t="s">
         <v>1039</v>
       </c>
+      <c r="D168" t="s">
+        <v>1226</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
@@ -6220,7 +6855,7 @@
         <v>1039</v>
       </c>
       <c r="D169" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -6332,6 +6967,9 @@
       <c r="C179" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D179" t="s">
+        <v>1227</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
@@ -6365,6 +7003,9 @@
       <c r="C182" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D182" t="s">
+        <v>1228</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
@@ -6376,6 +7017,9 @@
       <c r="C183" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D183" t="s">
+        <v>1229</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
@@ -6398,6 +7042,9 @@
       <c r="C185" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D185" t="s">
+        <v>1230</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
@@ -6409,6 +7056,9 @@
       <c r="C186" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D186" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
@@ -6420,6 +7070,9 @@
       <c r="C187" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D187" t="s">
+        <v>1232</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
@@ -6431,6 +7084,9 @@
       <c r="C188" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D188" t="s">
+        <v>1233</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
@@ -6442,6 +7098,9 @@
       <c r="C189" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D189" t="s">
+        <v>1234</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
@@ -6465,7 +7124,7 @@
         <v>1043</v>
       </c>
       <c r="D191" t="s">
-        <v>1182</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -6479,7 +7138,7 @@
         <v>1043</v>
       </c>
       <c r="D192" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -6493,7 +7152,7 @@
         <v>1043</v>
       </c>
       <c r="D193" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -6517,6 +7176,9 @@
       <c r="C195" s="4" t="s">
         <v>1043</v>
       </c>
+      <c r="D195" t="s">
+        <v>1236</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
@@ -6528,6 +7190,9 @@
       <c r="C196" s="4" t="s">
         <v>1043</v>
       </c>
+      <c r="D196" t="s">
+        <v>1237</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
@@ -6540,7 +7205,7 @@
         <v>1043</v>
       </c>
       <c r="D197" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -6554,7 +7219,7 @@
         <v>1043</v>
       </c>
       <c r="D198" t="s">
-        <v>1182</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -6568,7 +7233,7 @@
         <v>1043</v>
       </c>
       <c r="D199" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -6592,6 +7257,9 @@
       <c r="C201" s="4" t="s">
         <v>1044</v>
       </c>
+      <c r="D201" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
@@ -6602,7 +7270,7 @@
         <v>1044</v>
       </c>
       <c r="D202" t="s">
-        <v>1182</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -6659,6 +7327,9 @@
       <c r="C207" s="4" t="s">
         <v>1045</v>
       </c>
+      <c r="D207" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
@@ -6681,6 +7352,9 @@
       <c r="C209" s="4" t="s">
         <v>1045</v>
       </c>
+      <c r="D209" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
@@ -6758,6 +7432,9 @@
       <c r="C216" s="4" t="s">
         <v>1046</v>
       </c>
+      <c r="D216" t="s">
+        <v>1243</v>
+      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
@@ -6780,6 +7457,9 @@
       <c r="C218" s="4" t="s">
         <v>1047</v>
       </c>
+      <c r="D218" t="s">
+        <v>1244</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
@@ -6802,6 +7482,9 @@
       <c r="C220" s="4" t="s">
         <v>1047</v>
       </c>
+      <c r="D220" t="s">
+        <v>1245</v>
+      </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
@@ -6825,7 +7508,7 @@
         <v>1047</v>
       </c>
       <c r="D222" t="s">
-        <v>1182</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -6838,6 +7521,9 @@
       <c r="C223" s="4" t="s">
         <v>1047</v>
       </c>
+      <c r="D223" t="s">
+        <v>1247</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
@@ -6849,8 +7535,11 @@
       <c r="C224" s="4" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>331</v>
       </c>
@@ -6860,8 +7549,11 @@
       <c r="C225" s="4" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>332</v>
       </c>
@@ -6872,7 +7564,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>333</v>
       </c>
@@ -6883,7 +7575,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>334</v>
       </c>
@@ -6894,7 +7586,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>335</v>
       </c>
@@ -6904,8 +7596,11 @@
       <c r="C229" s="4" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>336</v>
       </c>
@@ -6916,7 +7611,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>337</v>
       </c>
@@ -6927,7 +7622,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>338</v>
       </c>
@@ -6938,7 +7633,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>339</v>
       </c>
@@ -6948,8 +7643,11 @@
       <c r="C233" s="4" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>340</v>
       </c>
@@ -6960,7 +7658,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>341</v>
       </c>
@@ -6971,7 +7669,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>342</v>
       </c>
@@ -6982,7 +7680,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>343</v>
       </c>
@@ -6993,7 +7691,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>344</v>
       </c>
@@ -7004,7 +7702,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>346</v>
       </c>
@@ -7015,7 +7713,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>348</v>
       </c>
@@ -7026,7 +7724,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>349</v>
       </c>
@@ -7037,7 +7735,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>350</v>
       </c>
@@ -7047,8 +7745,11 @@
       <c r="C242" s="4" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>351</v>
       </c>
@@ -7059,7 +7760,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>352</v>
       </c>
@@ -7070,7 +7771,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>353</v>
       </c>
@@ -7081,7 +7782,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>354</v>
       </c>
@@ -7092,7 +7793,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>355</v>
       </c>
@@ -7102,8 +7803,11 @@
       <c r="C247" s="4" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>356</v>
       </c>
@@ -7114,7 +7818,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>358</v>
       </c>
@@ -7125,7 +7829,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>360</v>
       </c>
@@ -7136,7 +7840,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>361</v>
       </c>
@@ -7147,7 +7851,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>362</v>
       </c>
@@ -7157,8 +7861,11 @@
       <c r="C252" s="4" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>363</v>
       </c>
@@ -7168,8 +7875,11 @@
       <c r="C253" s="4" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>364</v>
       </c>
@@ -7180,7 +7890,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>366</v>
       </c>
@@ -7190,8 +7900,11 @@
       <c r="C255" s="4" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>367</v>
       </c>
@@ -7200,6 +7913,9 @@
       </c>
       <c r="C256" s="4" t="s">
         <v>1057</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -7245,6 +7961,9 @@
       <c r="C260" s="4" t="s">
         <v>1057</v>
       </c>
+      <c r="D260" t="s">
+        <v>1258</v>
+      </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
@@ -7300,6 +8019,9 @@
       <c r="C265" s="4" t="s">
         <v>1059</v>
       </c>
+      <c r="D265" t="s">
+        <v>1259</v>
+      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
@@ -7312,7 +8034,7 @@
         <v>1060</v>
       </c>
       <c r="D266" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -7326,7 +8048,7 @@
         <v>1060</v>
       </c>
       <c r="D267" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -7340,7 +8062,7 @@
         <v>1060</v>
       </c>
       <c r="D268" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -7354,7 +8076,7 @@
         <v>1060</v>
       </c>
       <c r="D269" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -7444,6 +8166,9 @@
       <c r="C277" s="4" t="s">
         <v>1063</v>
       </c>
+      <c r="D277" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
@@ -7467,7 +8192,7 @@
         <v>1065</v>
       </c>
       <c r="D279" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -7481,7 +8206,7 @@
         <v>1065</v>
       </c>
       <c r="D280" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -7495,7 +8220,7 @@
         <v>1065</v>
       </c>
       <c r="D281" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -7508,6 +8233,9 @@
       <c r="C282" s="4" t="s">
         <v>1065</v>
       </c>
+      <c r="D282" t="s">
+        <v>1261</v>
+      </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
@@ -7531,7 +8259,7 @@
         <v>1065</v>
       </c>
       <c r="D284" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -7545,7 +8273,7 @@
         <v>1065</v>
       </c>
       <c r="D285" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -7559,7 +8287,7 @@
         <v>1065</v>
       </c>
       <c r="D286" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -7573,7 +8301,7 @@
         <v>1065</v>
       </c>
       <c r="D287" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -7608,6 +8336,9 @@
       <c r="C290" s="4" t="s">
         <v>1066</v>
       </c>
+      <c r="D290" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -7642,7 +8373,7 @@
         <v>1066</v>
       </c>
       <c r="D293" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -7666,6 +8397,9 @@
       <c r="C295" s="4" t="s">
         <v>1066</v>
       </c>
+      <c r="D295" t="s">
+        <v>1263</v>
+      </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
@@ -7678,7 +8412,7 @@
         <v>1066</v>
       </c>
       <c r="D296" t="s">
-        <v>1182</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -7692,7 +8426,7 @@
         <v>1066</v>
       </c>
       <c r="D297" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -7717,7 +8451,7 @@
         <v>1068</v>
       </c>
       <c r="D299" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -7741,6 +8475,9 @@
       <c r="C301" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D301" t="s">
+        <v>1265</v>
+      </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
@@ -7753,7 +8490,7 @@
         <v>1071</v>
       </c>
       <c r="D302" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -7767,7 +8504,7 @@
         <v>1071</v>
       </c>
       <c r="D303" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -7781,7 +8518,7 @@
         <v>1071</v>
       </c>
       <c r="D304" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -7839,7 +8576,7 @@
         <v>1073</v>
       </c>
       <c r="D309" t="s">
-        <v>1182</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -7853,7 +8590,7 @@
         <v>1073</v>
       </c>
       <c r="D310" t="s">
-        <v>1182</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -7867,7 +8604,7 @@
         <v>1073</v>
       </c>
       <c r="D311" t="s">
-        <v>1182</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -7892,7 +8629,7 @@
         <v>1074</v>
       </c>
       <c r="D313" t="s">
-        <v>1182</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -7906,7 +8643,7 @@
         <v>1074</v>
       </c>
       <c r="D314" t="s">
-        <v>1182</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -7920,7 +8657,7 @@
         <v>1074</v>
       </c>
       <c r="D315" t="s">
-        <v>1182</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -7934,7 +8671,7 @@
         <v>1074</v>
       </c>
       <c r="D316" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -7969,6 +8706,9 @@
       <c r="C319" s="4" t="s">
         <v>1075</v>
       </c>
+      <c r="D319" t="s">
+        <v>1272</v>
+      </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
@@ -7980,6 +8720,9 @@
       <c r="C320" s="4" t="s">
         <v>1075</v>
       </c>
+      <c r="D320" t="s">
+        <v>1273</v>
+      </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
@@ -7991,6 +8734,9 @@
       <c r="C321" s="4" t="s">
         <v>1075</v>
       </c>
+      <c r="D321" t="s">
+        <v>1274</v>
+      </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
@@ -8113,7 +8859,7 @@
         <v>1078</v>
       </c>
       <c r="D332" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -8160,7 +8906,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>451</v>
       </c>
@@ -8171,7 +8917,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>452</v>
       </c>
@@ -8181,8 +8927,11 @@
       <c r="C338" s="4" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D338" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>453</v>
       </c>
@@ -8193,7 +8942,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>454</v>
       </c>
@@ -8204,7 +8953,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>455</v>
       </c>
@@ -8215,7 +8964,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>456</v>
       </c>
@@ -8226,7 +8975,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>457</v>
       </c>
@@ -8237,7 +8986,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>458</v>
       </c>
@@ -8247,8 +8996,11 @@
       <c r="C344" s="4" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D344" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>460</v>
       </c>
@@ -8258,8 +9010,11 @@
       <c r="C345" s="4" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D345" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>461</v>
       </c>
@@ -8269,8 +9024,11 @@
       <c r="C346" s="4" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D346" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>462</v>
       </c>
@@ -8280,8 +9038,11 @@
       <c r="C347" s="4" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D347" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>463</v>
       </c>
@@ -8292,7 +9053,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>465</v>
       </c>
@@ -8303,7 +9064,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>466</v>
       </c>
@@ -8314,7 +9075,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>467</v>
       </c>
@@ -8325,7 +9086,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>468</v>
       </c>
@@ -8334,6 +9095,9 @@
       </c>
       <c r="C352" s="4" t="s">
         <v>1084</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1280</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -8358,7 +9122,7 @@
         <v>1084</v>
       </c>
       <c r="D354" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -8493,7 +9257,7 @@
         <v>1088</v>
       </c>
       <c r="D366" t="s">
-        <v>1182</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -8506,6 +9270,9 @@
       <c r="C367" s="4" t="s">
         <v>1088</v>
       </c>
+      <c r="D367" t="s">
+        <v>1281</v>
+      </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
@@ -8529,7 +9296,7 @@
         <v>1088</v>
       </c>
       <c r="D369" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -8543,7 +9310,7 @@
         <v>1089</v>
       </c>
       <c r="D370" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -8590,7 +9357,7 @@
         <v>1090</v>
       </c>
       <c r="D374" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -8604,7 +9371,7 @@
         <v>1090</v>
       </c>
       <c r="D375" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -8618,7 +9385,7 @@
         <v>1090</v>
       </c>
       <c r="D376" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -8643,7 +9410,7 @@
         <v>1090</v>
       </c>
       <c r="D378" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -8657,7 +9424,7 @@
         <v>1090</v>
       </c>
       <c r="D379" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -8671,7 +9438,7 @@
         <v>1090</v>
       </c>
       <c r="D380" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -8685,7 +9452,7 @@
         <v>1090</v>
       </c>
       <c r="D381" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -8699,7 +9466,7 @@
         <v>1090</v>
       </c>
       <c r="D382" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -8713,7 +9480,7 @@
         <v>1090</v>
       </c>
       <c r="D383" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -8727,7 +9494,7 @@
         <v>1090</v>
       </c>
       <c r="D384" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -8741,7 +9508,7 @@
         <v>1090</v>
       </c>
       <c r="D385" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -8755,7 +9522,7 @@
         <v>1090</v>
       </c>
       <c r="D386" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -8779,6 +9546,9 @@
       <c r="C388" s="4" t="s">
         <v>1092</v>
       </c>
+      <c r="D388" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
@@ -8790,6 +9560,9 @@
       <c r="C389" s="4" t="s">
         <v>1093</v>
       </c>
+      <c r="D389" t="s">
+        <v>1283</v>
+      </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
@@ -8812,6 +9585,9 @@
       <c r="C391" s="4" t="s">
         <v>1094</v>
       </c>
+      <c r="D391" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
@@ -8857,7 +9633,7 @@
         <v>1095</v>
       </c>
       <c r="D395" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -8871,7 +9647,7 @@
         <v>1095</v>
       </c>
       <c r="D396" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -8885,7 +9661,7 @@
         <v>1095</v>
       </c>
       <c r="D397" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -8899,7 +9675,7 @@
         <v>1095</v>
       </c>
       <c r="D398" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -8913,7 +9689,7 @@
         <v>1095</v>
       </c>
       <c r="D399" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -8927,7 +9703,7 @@
         <v>1095</v>
       </c>
       <c r="D400" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -8952,7 +9728,7 @@
         <v>1095</v>
       </c>
       <c r="D402" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -8966,7 +9742,7 @@
         <v>1095</v>
       </c>
       <c r="D403" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -8980,7 +9756,7 @@
         <v>1095</v>
       </c>
       <c r="D404" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -8994,7 +9770,7 @@
         <v>1095</v>
       </c>
       <c r="D405" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -9007,6 +9783,9 @@
       <c r="C406" s="4" t="s">
         <v>1095</v>
       </c>
+      <c r="D406" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
@@ -9019,7 +9798,7 @@
         <v>1095</v>
       </c>
       <c r="D407" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -9143,7 +9922,7 @@
         <v>1101</v>
       </c>
       <c r="D418" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -9157,7 +9936,7 @@
         <v>1101</v>
       </c>
       <c r="D419" t="s">
-        <v>1182</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -9171,7 +9950,7 @@
         <v>1102</v>
       </c>
       <c r="D420" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -9207,7 +9986,7 @@
         <v>1102</v>
       </c>
       <c r="D423" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -9265,7 +10044,7 @@
         <v>1104</v>
       </c>
       <c r="D428" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -9345,7 +10124,7 @@
         <v>1107</v>
       </c>
       <c r="D435" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -9359,7 +10138,7 @@
         <v>1107</v>
       </c>
       <c r="D436" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -9373,7 +10152,7 @@
         <v>1107</v>
       </c>
       <c r="D437" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -9387,7 +10166,7 @@
         <v>1107</v>
       </c>
       <c r="D438" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -9401,7 +10180,7 @@
         <v>1107</v>
       </c>
       <c r="D439" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -9415,7 +10194,7 @@
         <v>1107</v>
       </c>
       <c r="D440" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -9483,6 +10262,9 @@
       <c r="C446" s="4" t="s">
         <v>1109</v>
       </c>
+      <c r="D446" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
@@ -9527,6 +10309,9 @@
       <c r="C450" s="4" t="s">
         <v>1111</v>
       </c>
+      <c r="D450" t="s">
+        <v>1288</v>
+      </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
@@ -9539,7 +10324,7 @@
         <v>1112</v>
       </c>
       <c r="D451" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -9553,7 +10338,7 @@
         <v>1112</v>
       </c>
       <c r="D452" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -9567,7 +10352,7 @@
         <v>1112</v>
       </c>
       <c r="D453" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -9581,7 +10366,7 @@
         <v>1112</v>
       </c>
       <c r="D454" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -9606,7 +10391,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A457" s="3" t="s">
         <v>577</v>
       </c>
@@ -9616,8 +10401,8 @@
       <c r="C457" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="D457" t="s">
-        <v>1182</v>
+      <c r="D457" s="12" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -9675,7 +10460,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
         <v>1172</v>
       </c>
@@ -9685,8 +10470,8 @@
       <c r="C463" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="D463" t="s">
-        <v>1182</v>
+      <c r="D463" s="12" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -9700,7 +10485,7 @@
         <v>1114</v>
       </c>
       <c r="D464" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -9714,7 +10499,7 @@
         <v>1115</v>
       </c>
       <c r="D465" t="s">
-        <v>1182</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -9837,6 +10622,9 @@
       <c r="C476" s="4" t="s">
         <v>1117</v>
       </c>
+      <c r="D476" t="s">
+        <v>1292</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
@@ -9948,7 +10736,7 @@
         <v>1119</v>
       </c>
       <c r="D486" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -10094,7 +10882,7 @@
         <v>1121</v>
       </c>
       <c r="D499" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -10108,7 +10896,7 @@
         <v>1121</v>
       </c>
       <c r="D500" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -10122,7 +10910,7 @@
         <v>1121</v>
       </c>
       <c r="D501" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -10136,7 +10924,7 @@
         <v>1121</v>
       </c>
       <c r="D502" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -10172,7 +10960,7 @@
         <v>1121</v>
       </c>
       <c r="D505" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -10219,7 +11007,7 @@
         <v>1121</v>
       </c>
       <c r="D509" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -10266,7 +11054,7 @@
         <v>7</v>
       </c>
       <c r="D513" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
@@ -10280,7 +11068,7 @@
         <v>7</v>
       </c>
       <c r="D514" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
@@ -10294,7 +11082,7 @@
         <v>7</v>
       </c>
       <c r="D515" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -10308,7 +11096,7 @@
         <v>7</v>
       </c>
       <c r="D516" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -10344,7 +11132,7 @@
         <v>7</v>
       </c>
       <c r="D519" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -10358,7 +11146,7 @@
         <v>7</v>
       </c>
       <c r="D520" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -10437,6 +11225,9 @@
       <c r="C527" s="4" t="s">
         <v>1123</v>
       </c>
+      <c r="D527" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
@@ -10471,7 +11262,7 @@
         <v>1124</v>
       </c>
       <c r="D530" t="s">
-        <v>1182</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
@@ -10485,7 +11276,7 @@
         <v>1124</v>
       </c>
       <c r="D531" t="s">
-        <v>1182</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -10498,6 +11289,9 @@
       <c r="C532" s="4" t="s">
         <v>1124</v>
       </c>
+      <c r="D532" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
@@ -10510,7 +11304,7 @@
         <v>1124</v>
       </c>
       <c r="D533" t="s">
-        <v>1182</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
@@ -10523,6 +11317,9 @@
       <c r="C534" s="4" t="s">
         <v>1124</v>
       </c>
+      <c r="D534" t="s">
+        <v>1299</v>
+      </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
@@ -10534,6 +11331,9 @@
       <c r="C535" s="4" t="s">
         <v>1125</v>
       </c>
+      <c r="D535" t="s">
+        <v>1300</v>
+      </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
@@ -10556,6 +11356,9 @@
       <c r="C537" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="D537" t="s">
+        <v>1301</v>
+      </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
@@ -10820,6 +11623,9 @@
       <c r="C561" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D561" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="3" t="s">
@@ -10832,7 +11638,7 @@
         <v>15</v>
       </c>
       <c r="D562" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
@@ -10846,7 +11652,7 @@
         <v>15</v>
       </c>
       <c r="D563" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
@@ -10860,7 +11666,7 @@
         <v>15</v>
       </c>
       <c r="D564" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
@@ -10874,7 +11680,7 @@
         <v>15</v>
       </c>
       <c r="D565" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
@@ -10888,7 +11694,7 @@
         <v>15</v>
       </c>
       <c r="D566" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
@@ -10902,7 +11708,7 @@
         <v>15</v>
       </c>
       <c r="D567" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
@@ -10916,7 +11722,7 @@
         <v>15</v>
       </c>
       <c r="D568" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
@@ -10930,7 +11736,7 @@
         <v>15</v>
       </c>
       <c r="D569" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
@@ -10944,7 +11750,7 @@
         <v>15</v>
       </c>
       <c r="D570" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
@@ -10958,7 +11764,7 @@
         <v>15</v>
       </c>
       <c r="D571" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
@@ -10972,7 +11778,7 @@
         <v>15</v>
       </c>
       <c r="D572" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
@@ -10986,7 +11792,7 @@
         <v>15</v>
       </c>
       <c r="D573" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
@@ -11000,7 +11806,7 @@
         <v>15</v>
       </c>
       <c r="D574" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
@@ -11014,7 +11820,7 @@
         <v>15</v>
       </c>
       <c r="D575" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
@@ -11028,7 +11834,7 @@
         <v>15</v>
       </c>
       <c r="D576" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
@@ -11042,7 +11848,7 @@
         <v>15</v>
       </c>
       <c r="D577" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
@@ -11056,7 +11862,7 @@
         <v>15</v>
       </c>
       <c r="D578" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
@@ -11070,7 +11876,7 @@
         <v>15</v>
       </c>
       <c r="D579" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
@@ -11084,7 +11890,7 @@
         <v>15</v>
       </c>
       <c r="D580" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
@@ -11098,7 +11904,7 @@
         <v>15</v>
       </c>
       <c r="D581" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
@@ -11112,7 +11918,7 @@
         <v>15</v>
       </c>
       <c r="D582" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
@@ -11126,7 +11932,7 @@
         <v>15</v>
       </c>
       <c r="D583" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
@@ -11140,7 +11946,7 @@
         <v>15</v>
       </c>
       <c r="D584" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
@@ -11154,7 +11960,7 @@
         <v>15</v>
       </c>
       <c r="D585" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
@@ -11167,6 +11973,9 @@
       <c r="C586" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D586" t="s">
+        <v>1303</v>
+      </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
@@ -11179,7 +11988,7 @@
         <v>15</v>
       </c>
       <c r="D587" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
@@ -11193,7 +12002,7 @@
         <v>15</v>
       </c>
       <c r="D588" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
@@ -11207,7 +12016,7 @@
         <v>15</v>
       </c>
       <c r="D589" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
@@ -11221,7 +12030,7 @@
         <v>15</v>
       </c>
       <c r="D590" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
@@ -11235,7 +12044,7 @@
         <v>15</v>
       </c>
       <c r="D591" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
@@ -11249,7 +12058,7 @@
         <v>15</v>
       </c>
       <c r="D592" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
@@ -11263,7 +12072,7 @@
         <v>15</v>
       </c>
       <c r="D593" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
@@ -11277,7 +12086,7 @@
         <v>15</v>
       </c>
       <c r="D594" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
@@ -11291,7 +12100,7 @@
         <v>15</v>
       </c>
       <c r="D595" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
@@ -11305,7 +12114,7 @@
         <v>15</v>
       </c>
       <c r="D596" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
@@ -11319,7 +12128,7 @@
         <v>15</v>
       </c>
       <c r="D597" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
@@ -11333,7 +12142,7 @@
         <v>15</v>
       </c>
       <c r="D598" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
@@ -11347,7 +12156,7 @@
         <v>15</v>
       </c>
       <c r="D599" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
@@ -11361,7 +12170,7 @@
         <v>15</v>
       </c>
       <c r="D600" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
@@ -11375,7 +12184,7 @@
         <v>15</v>
       </c>
       <c r="D601" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
@@ -11389,7 +12198,7 @@
         <v>15</v>
       </c>
       <c r="D602" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
@@ -11403,7 +12212,7 @@
         <v>15</v>
       </c>
       <c r="D603" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
@@ -11417,7 +12226,7 @@
         <v>15</v>
       </c>
       <c r="D604" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
@@ -11431,7 +12240,7 @@
         <v>15</v>
       </c>
       <c r="D605" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
@@ -11445,7 +12254,7 @@
         <v>15</v>
       </c>
       <c r="D606" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
@@ -11459,7 +12268,7 @@
         <v>15</v>
       </c>
       <c r="D607" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
@@ -11473,7 +12282,7 @@
         <v>15</v>
       </c>
       <c r="D608" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
@@ -11487,7 +12296,7 @@
         <v>15</v>
       </c>
       <c r="D609" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
@@ -11501,7 +12310,7 @@
         <v>15</v>
       </c>
       <c r="D610" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
@@ -11515,7 +12324,7 @@
         <v>15</v>
       </c>
       <c r="D611" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
@@ -11529,7 +12338,7 @@
         <v>15</v>
       </c>
       <c r="D612" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
@@ -11543,7 +12352,7 @@
         <v>15</v>
       </c>
       <c r="D613" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
@@ -11557,7 +12366,7 @@
         <v>15</v>
       </c>
       <c r="D614" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
@@ -11571,7 +12380,7 @@
         <v>15</v>
       </c>
       <c r="D615" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
@@ -11727,6 +12536,9 @@
       <c r="C629" s="4" t="s">
         <v>1133</v>
       </c>
+      <c r="D629" t="s">
+        <v>1304</v>
+      </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="3" t="s">
@@ -11805,7 +12617,7 @@
         <v>1134</v>
       </c>
       <c r="D636" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
@@ -11819,7 +12631,7 @@
         <v>1134</v>
       </c>
       <c r="D637" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
@@ -11833,7 +12645,7 @@
         <v>1134</v>
       </c>
       <c r="D638" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
@@ -11847,7 +12659,7 @@
         <v>1134</v>
       </c>
       <c r="D639" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
@@ -11861,7 +12673,7 @@
         <v>1134</v>
       </c>
       <c r="D640" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
@@ -11875,7 +12687,7 @@
         <v>1134</v>
       </c>
       <c r="D641" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
@@ -11889,7 +12701,7 @@
         <v>1134</v>
       </c>
       <c r="D642" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
@@ -11903,7 +12715,7 @@
         <v>18</v>
       </c>
       <c r="D643" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
@@ -11982,6 +12794,9 @@
       <c r="C650" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D650" t="s">
+        <v>1305</v>
+      </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="3" t="s">
@@ -12335,7 +13150,7 @@
         <v>24</v>
       </c>
       <c r="D682" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
@@ -12382,7 +13197,7 @@
         <v>25</v>
       </c>
       <c r="D686" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
@@ -12396,7 +13211,7 @@
         <v>25</v>
       </c>
       <c r="D687" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
@@ -12410,7 +13225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="3" t="s">
         <v>811</v>
       </c>
@@ -12421,7 +13236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="3" t="s">
         <v>812</v>
       </c>
@@ -12432,7 +13247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="3" t="s">
         <v>813</v>
       </c>
@@ -12443,7 +13258,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="3" t="s">
         <v>814</v>
       </c>
@@ -12454,7 +13269,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="3" t="s">
         <v>815</v>
       </c>
@@ -12465,7 +13280,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="3" t="s">
         <v>816</v>
       </c>
@@ -12476,7 +13291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="3" t="s">
         <v>817</v>
       </c>
@@ -12487,7 +13302,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="3" t="s">
         <v>818</v>
       </c>
@@ -12498,7 +13313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="3" t="s">
         <v>819</v>
       </c>
@@ -12508,8 +13323,11 @@
       <c r="C697" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D697" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="3" t="s">
         <v>820</v>
       </c>
@@ -12520,7 +13338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="3" t="s">
         <v>821</v>
       </c>
@@ -12531,7 +13349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="3" t="s">
         <v>822</v>
       </c>
@@ -12542,7 +13360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="3" t="s">
         <v>823</v>
       </c>
@@ -12553,7 +13371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="3" t="s">
         <v>824</v>
       </c>
@@ -12563,8 +13381,11 @@
       <c r="C702" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D702" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="3" t="s">
         <v>825</v>
       </c>
@@ -12575,7 +13396,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="3" t="s">
         <v>826</v>
       </c>
@@ -12586,7 +13407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="3" t="s">
         <v>827</v>
       </c>
@@ -12597,7 +13418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="3" t="s">
         <v>828</v>
       </c>
@@ -12608,7 +13429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
         <v>829</v>
       </c>
@@ -12619,7 +13440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="3" t="s">
         <v>831</v>
       </c>
@@ -12630,7 +13451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="3" t="s">
         <v>832</v>
       </c>
@@ -12641,7 +13462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="3" t="s">
         <v>833</v>
       </c>
@@ -12652,7 +13473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="3" t="s">
         <v>834</v>
       </c>
@@ -12663,7 +13484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="3" t="s">
         <v>835</v>
       </c>
@@ -12674,7 +13495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="3" t="s">
         <v>836</v>
       </c>
@@ -12685,7 +13506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="3" t="s">
         <v>837</v>
       </c>
@@ -12696,7 +13517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
         <v>838</v>
       </c>
@@ -12707,7 +13528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
         <v>839</v>
       </c>
@@ -12717,8 +13538,11 @@
       <c r="C716" s="4" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D716" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="3" t="s">
         <v>840</v>
       </c>
@@ -12729,7 +13553,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="3" t="s">
         <v>841</v>
       </c>
@@ -12740,7 +13564,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="3" t="s">
         <v>842</v>
       </c>
@@ -12751,7 +13575,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="3" t="s">
         <v>843</v>
       </c>
@@ -12760,6 +13584,9 @@
       </c>
       <c r="C720" s="4" t="s">
         <v>1142</v>
+      </c>
+      <c r="D720" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
@@ -12805,6 +13632,9 @@
       <c r="C724" s="4" t="s">
         <v>1143</v>
       </c>
+      <c r="D724" t="s">
+        <v>1310</v>
+      </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="3" t="s">
@@ -12839,7 +13669,7 @@
         <v>31</v>
       </c>
       <c r="D727" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
@@ -12853,7 +13683,7 @@
         <v>31</v>
       </c>
       <c r="D728" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
@@ -12867,7 +13697,7 @@
         <v>31</v>
       </c>
       <c r="D729" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
@@ -12881,7 +13711,7 @@
         <v>31</v>
       </c>
       <c r="D730" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
@@ -12895,7 +13725,7 @@
         <v>31</v>
       </c>
       <c r="D731" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
@@ -12909,7 +13739,7 @@
         <v>31</v>
       </c>
       <c r="D732" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
@@ -12923,7 +13753,7 @@
         <v>31</v>
       </c>
       <c r="D733" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
@@ -12937,7 +13767,7 @@
         <v>31</v>
       </c>
       <c r="D734" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
@@ -12951,7 +13781,7 @@
         <v>31</v>
       </c>
       <c r="D735" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
@@ -12965,7 +13795,7 @@
         <v>31</v>
       </c>
       <c r="D736" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
@@ -12979,7 +13809,7 @@
         <v>31</v>
       </c>
       <c r="D737" t="s">
-        <v>1182</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
@@ -12993,7 +13823,7 @@
         <v>31</v>
       </c>
       <c r="D738" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
@@ -13007,7 +13837,7 @@
         <v>31</v>
       </c>
       <c r="D739" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
@@ -13021,7 +13851,7 @@
         <v>31</v>
       </c>
       <c r="D740" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
@@ -13035,7 +13865,7 @@
         <v>31</v>
       </c>
       <c r="D741" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
@@ -13049,7 +13879,7 @@
         <v>31</v>
       </c>
       <c r="D742" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
@@ -13074,7 +13904,7 @@
         <v>31</v>
       </c>
       <c r="D744" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
@@ -13088,7 +13918,7 @@
         <v>31</v>
       </c>
       <c r="D745" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
@@ -13102,7 +13932,7 @@
         <v>31</v>
       </c>
       <c r="D746" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
@@ -13116,7 +13946,7 @@
         <v>31</v>
       </c>
       <c r="D747" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.3">
@@ -13130,7 +13960,7 @@
         <v>31</v>
       </c>
       <c r="D748" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
@@ -13144,7 +13974,7 @@
         <v>31</v>
       </c>
       <c r="D749" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
@@ -13158,7 +13988,7 @@
         <v>31</v>
       </c>
       <c r="D750" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
@@ -13172,7 +14002,7 @@
         <v>31</v>
       </c>
       <c r="D751" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
@@ -13186,7 +14016,7 @@
         <v>31</v>
       </c>
       <c r="D752" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
@@ -13200,7 +14030,7 @@
         <v>31</v>
       </c>
       <c r="D753" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
@@ -13214,7 +14044,7 @@
         <v>31</v>
       </c>
       <c r="D754" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
@@ -13228,7 +14058,7 @@
         <v>31</v>
       </c>
       <c r="D755" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
@@ -13242,7 +14072,7 @@
         <v>31</v>
       </c>
       <c r="D756" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
@@ -13256,7 +14086,7 @@
         <v>31</v>
       </c>
       <c r="D757" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
@@ -13347,7 +14177,7 @@
         <v>34</v>
       </c>
       <c r="D765" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.3">
@@ -13372,7 +14202,7 @@
         <v>34</v>
       </c>
       <c r="D767" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.3">
@@ -13386,7 +14216,7 @@
         <v>34</v>
       </c>
       <c r="D768" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
@@ -13411,7 +14241,7 @@
         <v>34</v>
       </c>
       <c r="D770" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.3">
@@ -13425,7 +14255,7 @@
         <v>34</v>
       </c>
       <c r="D771" t="s">
-        <v>1182</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
@@ -13450,7 +14280,7 @@
         <v>34</v>
       </c>
       <c r="D773" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
@@ -13464,7 +14294,7 @@
         <v>1145</v>
       </c>
       <c r="D774" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
@@ -13478,7 +14308,7 @@
         <v>1145</v>
       </c>
       <c r="D775" t="s">
-        <v>1182</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
@@ -13492,7 +14322,7 @@
         <v>1145</v>
       </c>
       <c r="D776" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
@@ -13506,7 +14336,7 @@
         <v>1145</v>
       </c>
       <c r="D777" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
@@ -13553,7 +14383,7 @@
         <v>35</v>
       </c>
       <c r="D781" t="s">
-        <v>1182</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
@@ -13589,7 +14419,7 @@
         <v>35</v>
       </c>
       <c r="D784" t="s">
-        <v>1182</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.3">
@@ -13647,7 +14477,7 @@
         <v>36</v>
       </c>
       <c r="D789" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.3">
@@ -13770,6 +14600,9 @@
       <c r="C800" s="4" t="s">
         <v>1147</v>
       </c>
+      <c r="D800" t="s">
+        <v>1315</v>
+      </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" s="3" t="s">
@@ -13782,7 +14615,7 @@
         <v>1148</v>
       </c>
       <c r="D801" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.3">
@@ -13796,7 +14629,7 @@
         <v>1148</v>
       </c>
       <c r="D802" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.3">
@@ -13821,7 +14654,7 @@
         <v>1148</v>
       </c>
       <c r="D804" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.3">
@@ -13835,7 +14668,7 @@
         <v>1148</v>
       </c>
       <c r="D805" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
@@ -13849,7 +14682,7 @@
         <v>1148</v>
       </c>
       <c r="D806" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.3">
@@ -13862,8 +14695,8 @@
       <c r="C807" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="D807" t="s">
-        <v>1182</v>
+      <c r="D807" s="9" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
@@ -13877,7 +14710,7 @@
         <v>1148</v>
       </c>
       <c r="D808" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.3">
@@ -13891,7 +14724,7 @@
         <v>1148</v>
       </c>
       <c r="D809" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.3">
@@ -13903,7 +14736,7 @@
         <v>1148</v>
       </c>
       <c r="D810" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.3">
@@ -13917,7 +14750,7 @@
         <v>1148</v>
       </c>
       <c r="D811" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
@@ -13931,7 +14764,7 @@
         <v>1148</v>
       </c>
       <c r="D812" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
@@ -13945,7 +14778,7 @@
         <v>1148</v>
       </c>
       <c r="D813" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.3">
@@ -13959,7 +14792,7 @@
         <v>1148</v>
       </c>
       <c r="D814" t="s">
-        <v>1182</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.3">
@@ -13973,7 +14806,7 @@
         <v>1148</v>
       </c>
       <c r="D815" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
@@ -13987,7 +14820,7 @@
         <v>1148</v>
       </c>
       <c r="D816" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.3">
@@ -14001,7 +14834,7 @@
         <v>1150</v>
       </c>
       <c r="D817" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.3">
@@ -14015,7 +14848,7 @@
         <v>1150</v>
       </c>
       <c r="D818" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.3">
@@ -14029,7 +14862,7 @@
         <v>1150</v>
       </c>
       <c r="D819" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
@@ -14043,7 +14876,7 @@
         <v>1150</v>
       </c>
       <c r="D820" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
@@ -14057,7 +14890,7 @@
         <v>1150</v>
       </c>
       <c r="D821" s="9" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
@@ -14071,7 +14904,7 @@
         <v>1150</v>
       </c>
       <c r="D822" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.3">
@@ -14085,7 +14918,7 @@
         <v>1150</v>
       </c>
       <c r="D823" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.3">
@@ -14099,7 +14932,7 @@
         <v>1150</v>
       </c>
       <c r="D824" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
@@ -14113,7 +14946,7 @@
         <v>1150</v>
       </c>
       <c r="D825" t="s">
-        <v>1182</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
@@ -14127,7 +14960,7 @@
         <v>1150</v>
       </c>
       <c r="D826" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
@@ -14141,7 +14974,7 @@
         <v>1150</v>
       </c>
       <c r="D827" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.3">
@@ -14155,7 +14988,7 @@
         <v>1150</v>
       </c>
       <c r="D828" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.3">
@@ -14169,7 +15002,7 @@
         <v>1150</v>
       </c>
       <c r="D829" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
@@ -14194,7 +15027,7 @@
         <v>13</v>
       </c>
       <c r="D831" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
@@ -14208,7 +15041,7 @@
         <v>13</v>
       </c>
       <c r="D832" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.3">
@@ -14222,7 +15055,7 @@
         <v>13</v>
       </c>
       <c r="D833" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
@@ -14236,7 +15069,7 @@
         <v>13</v>
       </c>
       <c r="D834" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.3">
@@ -14250,7 +15083,7 @@
         <v>13</v>
       </c>
       <c r="D835" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.3">
@@ -14264,7 +15097,7 @@
         <v>13</v>
       </c>
       <c r="D836" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.3">
@@ -14278,7 +15111,7 @@
         <v>13</v>
       </c>
       <c r="D837" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.3">
@@ -14292,7 +15125,7 @@
         <v>13</v>
       </c>
       <c r="D838" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.3">
@@ -14317,7 +15150,7 @@
         <v>13</v>
       </c>
       <c r="D840" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.3">
@@ -14331,7 +15164,7 @@
         <v>13</v>
       </c>
       <c r="D841" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.3">
@@ -14356,7 +15189,7 @@
         <v>13</v>
       </c>
       <c r="D843" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.3">
@@ -14370,7 +15203,7 @@
         <v>13</v>
       </c>
       <c r="D844" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.3">
@@ -14406,7 +15239,7 @@
         <v>1151</v>
       </c>
       <c r="D847" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Ассистент\V4 ФИНАЛ\Юрики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Ассистент\V4 ФИНАЛ\Юрики\1.04 ком, поиск по части слова UX, кастомная модель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773EA76-B2D3-47D6-AE79-2AA0339BD96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF062B2-6BE2-48B4-8871-3A511A391015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="1360">
   <si>
     <t>обслуживание</t>
   </si>
@@ -4059,6 +4059,135 @@
   </si>
   <si>
     <t xml:space="preserve">БА, когда одно слово </t>
+  </si>
+  <si>
+    <t>вопрос по терминалу банкомат банка</t>
+  </si>
+  <si>
+    <t>Проблема с банкоматом (OS_ATM_Operation)</t>
+  </si>
+  <si>
+    <t>БА Для такой фразы лучше выбирать Проблема с банкоматом -OS_ATM_Operation, т.е. опираемся на миро</t>
+  </si>
+  <si>
+    <t>мне вернулись деньги по возврату</t>
+  </si>
+  <si>
+    <t>реферальная программа для открытия счета</t>
+  </si>
+  <si>
+    <t>я подал документы на ип на открытие хочу закрыть</t>
+  </si>
+  <si>
+    <t>Закрыть счет ЮЛ -OS_Account_off_Business</t>
+  </si>
+  <si>
+    <t>пересчет блять</t>
+  </si>
+  <si>
+    <t>возврат билета</t>
+  </si>
+  <si>
+    <t>платежный документ</t>
+  </si>
+  <si>
+    <t>проблема активации кредитной карты не приходит смс оповещение</t>
+  </si>
+  <si>
+    <t>Активация карты -OS_Activation</t>
+  </si>
+  <si>
+    <t>УКД -OS_UKD</t>
+  </si>
+  <si>
+    <t>мне нужно проверить платежное поручение</t>
+  </si>
+  <si>
+    <t>не могу скопировать сво с карты</t>
+  </si>
+  <si>
+    <t>Карты-OS_Card</t>
+  </si>
+  <si>
+    <t>я сейчас напишу жалобу на робота потому что мне это порядком дело соедините с оператором</t>
+  </si>
+  <si>
+    <t>Обращения -OS_Claim</t>
+  </si>
+  <si>
+    <t>не прошел платеж через банкомат</t>
+  </si>
+  <si>
+    <t>перевод платежа</t>
+  </si>
+  <si>
+    <t>переводы и оплаты</t>
+  </si>
+  <si>
+    <t>по обслуживанию бизнеса у нас зависла платежка в обработке</t>
+  </si>
+  <si>
+    <t>по расчетному кассовому счету</t>
+  </si>
+  <si>
+    <t>Счета -OS_Accounts_Q</t>
+  </si>
+  <si>
+    <t>по вопросу экспорта</t>
+  </si>
+  <si>
+    <t>активировать зарплатную карту</t>
+  </si>
+  <si>
+    <t>оператор рно</t>
+  </si>
+  <si>
+    <t>Решение Налогового Органа (РНО) -OS_RNO</t>
+  </si>
+  <si>
+    <t>проводятся ли платежи в выходные дни если платеж пришел с другого банка</t>
+  </si>
+  <si>
+    <t>Платежи в праздники (OS_Pay_Work)</t>
+  </si>
+  <si>
+    <t>архивные данные по операциям</t>
+  </si>
+  <si>
+    <t xml:space="preserve">возврат </t>
+  </si>
+  <si>
+    <t>оформить возврат</t>
+  </si>
+  <si>
+    <t>можете сказать</t>
+  </si>
+  <si>
+    <t>статус плательщика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в бюджетке указываются статусы: 1, 2, 3, 4, 5 </t>
+  </si>
+  <si>
+    <t>а как работника подключить</t>
+  </si>
+  <si>
+    <t>🞄08.07.2025</t>
+  </si>
+  <si>
+    <t>🞄09.07.2025</t>
+  </si>
+  <si>
+    <t>🞄10.07.2025</t>
+  </si>
+  <si>
+    <t>🞄15.07.2025</t>
+  </si>
+  <si>
+    <t>🞄16.07.2025</t>
+  </si>
+  <si>
+    <t>мне нужно встретиться сотрудником банка чтобы получить qr код и электронный ключик</t>
   </si>
 </sst>
 </file>
@@ -4170,7 +4299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4196,6 +4325,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4828,17 +4969,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2773680-67AB-4233-9C97-EFB5A20E4C41}">
-  <dimension ref="A1:D853"/>
+  <dimension ref="A1:D882"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A865" workbookViewId="0">
+      <selection activeCell="A867" sqref="A867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" style="15" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4849,7 +4990,7 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
@@ -15253,7 +15394,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" s="3" t="s">
         <v>969</v>
       </c>
@@ -15264,7 +15405,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" s="3" t="s">
         <v>970</v>
       </c>
@@ -15275,7 +15416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" s="3" t="s">
         <v>971</v>
       </c>
@@ -15286,7 +15427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" s="3" t="s">
         <v>972</v>
       </c>
@@ -15297,7 +15438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="853" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="3" t="s">
         <v>973</v>
       </c>
@@ -15306,6 +15447,394 @@
       </c>
       <c r="C853" s="4" t="s">
         <v>1149</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B854" t="s">
+        <v>215</v>
+      </c>
+      <c r="C854" s="16" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B855" t="s">
+        <v>215</v>
+      </c>
+      <c r="C855" s="16" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B856" t="s">
+        <v>160</v>
+      </c>
+      <c r="C856" s="16" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B857" t="s">
+        <v>561</v>
+      </c>
+      <c r="C857" s="16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D857" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B858" t="s">
+        <v>132</v>
+      </c>
+      <c r="C858" s="16" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C859" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D859" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A860" s="13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B860" t="s">
+        <v>56</v>
+      </c>
+      <c r="C860" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D860" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A861" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B861" t="s">
+        <v>48</v>
+      </c>
+      <c r="C861" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A862" s="13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C862" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A863" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B863" t="s">
+        <v>271</v>
+      </c>
+      <c r="C863" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A864" s="13" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B864" t="s">
+        <v>215</v>
+      </c>
+      <c r="C864" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A865" s="13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B865" t="s">
+        <v>70</v>
+      </c>
+      <c r="C865" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A866" s="13" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C866" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A867" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C867" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D867" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A868" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B868" t="s">
+        <v>70</v>
+      </c>
+      <c r="C868" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A869" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C869" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A870" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B870" t="s">
+        <v>85</v>
+      </c>
+      <c r="C870" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A871" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="B871" t="s">
+        <v>70</v>
+      </c>
+      <c r="C871" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A872" s="13" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C872" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A873" s="13" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B873" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C873" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A874" s="13" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B874" t="s">
+        <v>70</v>
+      </c>
+      <c r="C874" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A875" s="13" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B875" t="s">
+        <v>70</v>
+      </c>
+      <c r="C875" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A876" s="13" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B876" t="s">
+        <v>85</v>
+      </c>
+      <c r="C876" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A877" s="13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C877" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A878" s="13" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B878" t="s">
+        <v>271</v>
+      </c>
+      <c r="C878" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A879" s="13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C879" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A880" s="13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C880" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C881" s="16" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B882" t="s">
+        <v>89</v>
+      </c>
+      <c r="C882" s="16" t="s">
+        <v>1358</v>
       </c>
     </row>
   </sheetData>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Ассистент\V4 ФИНАЛ\Юрики\1.04 ком, поиск по части слова UX, кастомная модель\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Юрики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF062B2-6BE2-48B4-8871-3A511A391015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76BE2F2-8FFA-4A8B-AA55-A0257B8D9990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="1404">
   <si>
     <t>обслуживание</t>
   </si>
@@ -3730,20 +3730,516 @@
     <t>чтобы уточнить физик или юрик</t>
   </si>
   <si>
+    <t>так как изначальна нет понимания входящий или исходящий платеж, есть слово платеж</t>
+  </si>
+  <si>
+    <t>всегда выбираем задолженность кроме кредита, кредитной карты, кредитной карты для бизнеса, овердрафта</t>
+  </si>
+  <si>
+    <t>обслуживание онлайн кассы</t>
+  </si>
+  <si>
+    <t>БА, Из-за слова "Банк"</t>
+  </si>
+  <si>
+    <t>спасм, реклама живет в услугах</t>
+  </si>
+  <si>
+    <t>когда сама сумма списалась типо без подтверждения это лучше в рно</t>
+  </si>
+  <si>
+    <t>БА, Все вопросы с возвратом терминала  и расторжением направляем в эту тематику P.S "мне нужно снять терминал"-тоже расторжение</t>
+  </si>
+  <si>
+    <t>счет = карта и наоборот</t>
+  </si>
+  <si>
+    <t>БА, новый сценарий ,Условия по тарифу (OS_Tariff_info)</t>
+  </si>
+  <si>
+    <t>по доб номеру, если просит связаться с руковод или директором</t>
+  </si>
+  <si>
+    <t>ожидаемая норма прибыли</t>
+  </si>
+  <si>
+    <t>Оценка качеста</t>
+  </si>
+  <si>
+    <t>так как здесь может уточнить про банки партнеры и тд</t>
+  </si>
+  <si>
+    <t>расплатиться - подразумевается покупка по карте, транзакция через эквайринг, исходя из фразы проблема в самой карте</t>
+  </si>
+  <si>
+    <t>БА в июне файл Спорные кейсы БА июнь ЮЛ</t>
+  </si>
+  <si>
+    <t>все вопросы по интеграции терминала в тех экв</t>
+  </si>
+  <si>
+    <t>по вопросу непонятно только ли что клиент подал заявку или счет открыт давно, нет слова "заявка".</t>
+  </si>
+  <si>
+    <t>актуал, изменение и подтверждение почты</t>
+  </si>
+  <si>
+    <t>исключение "отдел обслуживания абонентов" - оператор</t>
+  </si>
+  <si>
+    <t>например КАСКО</t>
+  </si>
+  <si>
+    <t>СБП без эквайринга</t>
+  </si>
+  <si>
+    <t>не понятно, одобрили клиенту оформление или нет</t>
+  </si>
+  <si>
+    <t>подключение/расторжение идет через депозиты</t>
+  </si>
+  <si>
+    <t>Речь идет про лизинг</t>
+  </si>
+  <si>
+    <t>бенефициар-выгодоприобретатель</t>
+  </si>
+  <si>
+    <t>мультибанк это приложение для учёта операций в других банках для расчёта налогов и взносов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По данному слову понимаем,что речь про эквайринг </t>
+  </si>
+  <si>
+    <t>клиент победил в акции и хочет узнать об условиях получения</t>
+  </si>
+  <si>
+    <t>интернет для терминалов</t>
+  </si>
+  <si>
+    <t>Когда не понятно какой лимит, мы карты выбираем</t>
+  </si>
+  <si>
+    <t>Когда не понятно какое ограничение отправляем в блокировку счета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">но смотрим на каждую фразу в отдельности </t>
+  </si>
+  <si>
+    <t xml:space="preserve">БА( все варианты со ссловом физическая это физ. Лицо ) </t>
+  </si>
+  <si>
+    <t>белорусский налоговый номер</t>
+  </si>
+  <si>
+    <t>БА По этой фразе лучше выбрать тематику с УВ. Уточнить какой терминал интересует</t>
+  </si>
+  <si>
+    <t>БА: "надо изменить адрес чека", "изменить адрес терминала эквайринг" - Эквайринг техподдержка (OS_Acquiring_Support)</t>
+  </si>
+  <si>
+    <t>БА: "не совпадает сверка итогов"-Эквайринг техподдержка (OS_Acquiring_Support)</t>
+  </si>
+  <si>
+    <t>БА конкретно в этой фразе выбираем оформление платежа. Если будут фразы просто оплата или платеж, то выбираем статус</t>
+  </si>
+  <si>
+    <t>БА банк разгружает линию, поэтому практически все вопросы по эквайрингу консультирует теперь сервисный партнер</t>
+  </si>
+  <si>
+    <t>БА с 03.12.2024 были изменения и теперь это Оформление платежа</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> конфа</t>
+  </si>
+  <si>
+    <t>Завка на открытие/закрытие, оформить заявку-это прочее БА</t>
+  </si>
+  <si>
+    <t>по слову узнать</t>
+  </si>
+  <si>
+    <t>так как там есть проверка физ юр и возможность входа дает премиальная бизнес карта</t>
+  </si>
+  <si>
+    <t>КИБ-Крупный инвестиционный бизнес</t>
+  </si>
+  <si>
+    <t>запрос банка/из банка поступил запрос</t>
+  </si>
+  <si>
+    <t>возможно, хочет выставить счет.Обычно указывается выставленный счет</t>
+  </si>
+  <si>
+    <t>На личный счет</t>
+  </si>
+  <si>
+    <t>Сервис срочный перевод</t>
+  </si>
+  <si>
+    <t>вкл-возобновляемая кредитная линия</t>
+  </si>
+  <si>
+    <t>Не понятно,про тарифы карты или про платеж по карте</t>
+  </si>
+  <si>
+    <t>Из за слова соедините, приоритет оператор</t>
+  </si>
+  <si>
+    <t>БА.Смотрим из контекста.Если будет перевод денег/средств-это оформление платежа</t>
+  </si>
+  <si>
+    <t>сервис проверки контрагентов-это услуга</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> API — универсальная технология, которая позволяет напрямую обмениваться данными с банком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БА На TEE можете внимание не обращать. Послушал звонки где было распознано это слово, это ASR непонятное бормотание клиентов распознает как tee
+</t>
+  </si>
+  <si>
+    <t>БА у открытия счета больше приоритет</t>
+  </si>
+  <si>
+    <t>БА от 13.02.2025</t>
+  </si>
+  <si>
+    <t>Возможно, кофе терминал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БА, новый сценарий </t>
+  </si>
+  <si>
+    <t>не понятен вопрос-счет приоритетом</t>
+  </si>
+  <si>
+    <t>БА Я посмотрел похожие кейся, речь в них идет про оформление второго эквайринга</t>
+  </si>
+  <si>
+    <t>БА Да, в прошлый раз выбрал тематику Снятие и внесение наличных (OS_Withdraw_deposit_cash), посмотрел похожие кейсы, для них больше подходит тематика Зачисление по эквайрингу или банкомату (OS_Acquiring_or_not_Pay). Т.е. если речь про зачисление через банкомат, выбираем OS_Acquiring_or_not_Pay</t>
+  </si>
+  <si>
+    <t>Здесь речь о пин коде для рутокена(ЭЦП)</t>
+  </si>
+  <si>
+    <t>БА Если во фразе есть упоминание про изменение роли или о подключении в приложении, тогда выбираем УКД (OS_UKD)</t>
+  </si>
+  <si>
+    <t>второй чек</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UP — конструктор лояльности и мобильных приложений, который поможет удержать существующих клиентов и привлечь новых покупателей в бизнес</t>
+  </si>
+  <si>
+    <t>роль</t>
+  </si>
+  <si>
+    <t>из-за слова "печать"</t>
+  </si>
+  <si>
+    <t>Универсальный передаточный документ (УПД)</t>
+  </si>
+  <si>
+    <t>т.к. во множественном числе</t>
+  </si>
+  <si>
+    <t>нет слова ВЫЕЗД</t>
+  </si>
+  <si>
+    <t>ДБО-дистанционное банковское обслуживание</t>
+  </si>
+  <si>
+    <t>из-за слова лицо</t>
+  </si>
+  <si>
+    <t>-Финанс — это система для операционного обслуживания клиентов и дебиторов по факторингу.</t>
+  </si>
+  <si>
+    <t>Есть такая услуга-проверка сотрудника.Если есть фо фразе проверка сотрудника банка-это мошенничество</t>
+  </si>
+  <si>
+    <t>это кредитный счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БА Если нужен квво для начисления ЗП тоже выбираем эту тематику </t>
+  </si>
+  <si>
+    <t>БА Фраза отдаленно похожая, но в этой фразе "нужно оплатить платеж который выставлен у вас в автоматом не могу зайти" больше акцент идет на платеж</t>
+  </si>
+  <si>
+    <t>БА Для этой фразы оставляем Карты для Бизнеса (OS_Card_Business), баланс не подходит, здесь речь идет скорее всего про оплату по эквайрингу</t>
+  </si>
+  <si>
+    <t>БА,  новый сценарий</t>
+  </si>
+  <si>
+    <t>-Сквош — одна из любимых игр наших партнёров. Теперь бесплатных тренировок и турниров станет больше: игры пройдут в 21 городе России.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БА, когда одно слово </t>
+  </si>
+  <si>
+    <t>вопрос по терминалу банкомат банка</t>
+  </si>
+  <si>
+    <t>Проблема с банкоматом (OS_ATM_Operation)</t>
+  </si>
+  <si>
+    <t>БА Для такой фразы лучше выбирать Проблема с банкоматом -OS_ATM_Operation, т.е. опираемся на миро</t>
+  </si>
+  <si>
+    <t>мне вернулись деньги по возврату</t>
+  </si>
+  <si>
+    <t>реферальная программа для открытия счета</t>
+  </si>
+  <si>
+    <t>я подал документы на ип на открытие хочу закрыть</t>
+  </si>
+  <si>
+    <t>Закрыть счет ЮЛ -OS_Account_off_Business</t>
+  </si>
+  <si>
+    <t>пересчет блять</t>
+  </si>
+  <si>
+    <t>возврат билета</t>
+  </si>
+  <si>
+    <t>платежный документ</t>
+  </si>
+  <si>
+    <t>проблема активации кредитной карты не приходит смс оповещение</t>
+  </si>
+  <si>
+    <t>Активация карты -OS_Activation</t>
+  </si>
+  <si>
+    <t>УКД -OS_UKD</t>
+  </si>
+  <si>
+    <t>мне нужно проверить платежное поручение</t>
+  </si>
+  <si>
+    <t>не могу скопировать сво с карты</t>
+  </si>
+  <si>
+    <t>Карты-OS_Card</t>
+  </si>
+  <si>
+    <t>я сейчас напишу жалобу на робота потому что мне это порядком дело соедините с оператором</t>
+  </si>
+  <si>
+    <t>Обращения -OS_Claim</t>
+  </si>
+  <si>
+    <t>не прошел платеж через банкомат</t>
+  </si>
+  <si>
+    <t>перевод платежа</t>
+  </si>
+  <si>
+    <t>переводы и оплаты</t>
+  </si>
+  <si>
+    <t>по обслуживанию бизнеса у нас зависла платежка в обработке</t>
+  </si>
+  <si>
+    <t>по расчетному кассовому счету</t>
+  </si>
+  <si>
+    <t>Счета -OS_Accounts_Q</t>
+  </si>
+  <si>
+    <t>по вопросу экспорта</t>
+  </si>
+  <si>
+    <t>активировать зарплатную карту</t>
+  </si>
+  <si>
+    <t>оператор рно</t>
+  </si>
+  <si>
+    <t>Решение Налогового Органа (РНО) -OS_RNO</t>
+  </si>
+  <si>
+    <t>проводятся ли платежи в выходные дни если платеж пришел с другого банка</t>
+  </si>
+  <si>
+    <t>Платежи в праздники (OS_Pay_Work)</t>
+  </si>
+  <si>
+    <t>архивные данные по операциям</t>
+  </si>
+  <si>
+    <t xml:space="preserve">возврат </t>
+  </si>
+  <si>
+    <t>оформить возврат</t>
+  </si>
+  <si>
+    <t>можете сказать</t>
+  </si>
+  <si>
+    <t>статус плательщика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в бюджетке указываются статусы: 1, 2, 3, 4, 5 </t>
+  </si>
+  <si>
+    <t>а как работника подключить</t>
+  </si>
+  <si>
+    <t>🞄08.07.2025</t>
+  </si>
+  <si>
+    <t>🞄09.07.2025</t>
+  </si>
+  <si>
+    <t>🞄10.07.2025</t>
+  </si>
+  <si>
+    <t>🞄15.07.2025</t>
+  </si>
+  <si>
+    <t>🞄16.07.2025</t>
+  </si>
+  <si>
+    <t>мне нужно встретиться сотрудником банка чтобы получить qr код и электронный ключик</t>
+  </si>
+  <si>
+    <t>🞄22.07.2025</t>
+  </si>
+  <si>
+    <t>🞄23.07.2025</t>
+  </si>
+  <si>
+    <t>оператор нужен техническая ошибка расчетный счет поддержка</t>
+  </si>
+  <si>
+    <t>мне нужно подтвердить айди</t>
+  </si>
+  <si>
+    <t>заем финанс</t>
+  </si>
+  <si>
+    <t>вакансия</t>
+  </si>
+  <si>
+    <t>просто сейф или ячейка</t>
+  </si>
+  <si>
+    <t>система приема пожертвований</t>
+  </si>
+  <si>
+    <t>по ип на счет видео звонка</t>
+  </si>
+  <si>
+    <t>реестр требований</t>
+  </si>
+  <si>
+    <t>банк украл деньги</t>
+  </si>
+  <si>
+    <t>требования фнс</t>
+  </si>
+  <si>
+    <t>утечка конфиденциальных данных, произошла утечка данных</t>
+  </si>
+  <si>
+    <t>у меня пытались взломать госуслуги поэтому я сейчас хочу заблокировать все свои карты</t>
+  </si>
+  <si>
+    <t>а у меня сняли комиссию хотела бы узнать по какому поводу</t>
+  </si>
+  <si>
+    <t>вопрос по обслуживанию бизнеса и когда деньги поступят на налоговый счет</t>
+  </si>
+  <si>
+    <t>бизнес если нет денег на расчетном счете блокируется не счет</t>
+  </si>
+  <si>
+    <t>скажите пожалуйста с какого банкомата можно пополнять карту альфа банк партнеры</t>
+  </si>
+  <si>
+    <t>Адреса банкоматов Банка (OS_ATM_Addresses)</t>
+  </si>
+  <si>
+    <t>обмен билета, билет</t>
+  </si>
+  <si>
+    <t>отключить плату тариф по моему ип</t>
+  </si>
+  <si>
+    <t>господи у меня все счета заблокировали карту в том числе надо разблокировать срочно я не могу из аэропорта ехать даже такси вызвать поэтому свяжите меня с оператором</t>
+  </si>
+  <si>
+    <t>непонятная ситуация со счетом</t>
+  </si>
+  <si>
+    <t>взломали госуслуги/соцсети</t>
+  </si>
+  <si>
+    <t>вчера чек по возврату сделал мне поступило</t>
+  </si>
+  <si>
+    <t>не проходят платежи по иис по расчетному счету</t>
+  </si>
+  <si>
+    <t>Кредитная карта для Бизнеса (OS_Credit_Card_Business)</t>
+  </si>
+  <si>
+    <t>алло елена</t>
+  </si>
+  <si>
+    <t>как перевести деньги со средства по брокерскому счету на расчетный счет для бизнеса</t>
+  </si>
+  <si>
+    <t>соедините с оператором пенсия</t>
+  </si>
+  <si>
+    <t>проблема с сим картой взлом</t>
+  </si>
+  <si>
+    <t>не связался менеджер по открытию счета дополнительный</t>
+  </si>
+  <si>
+    <t>хотел попросить ближайший терминал альфа по поводу по банкомат терминал альфа банкомат</t>
+  </si>
+  <si>
+    <t>адм банкоматы банка</t>
+  </si>
+  <si>
+    <t>карта сто дней без процентов повышение лимита</t>
+  </si>
+  <si>
+    <t>Физическое лицо Кредитка (OS_Physical_Credit_Card)</t>
+  </si>
+  <si>
+    <t>🞄17.07.2025</t>
+  </si>
+  <si>
+    <t>🞄18.07.2025</t>
+  </si>
+  <si>
+    <t>🞄21.07.2025</t>
+  </si>
+  <si>
+    <t>а за что казначейство списало тысячу рублей там с чем то</t>
+  </si>
+  <si>
+    <t>хочу закрыть счет кредитной карты для бизнеса</t>
+  </si>
+  <si>
+    <t>у меня вопрос по мошенничеству на мой счет якобы поступили деньги</t>
+  </si>
+  <si>
+    <t>на расчетном счете заморожена сумма налога до сих пор не списана почему</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">P.s.: "первоначальный </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>капитал</t>
+      <t>P.s.: "первоначальный капитал</t>
     </r>
     <r>
       <rPr>
@@ -3757,143 +4253,8 @@
     </r>
   </si>
   <si>
-    <t>так как изначальна нет понимания входящий или исходящий платеж, есть слово платеж</t>
-  </si>
-  <si>
-    <t>всегда выбираем задолженность кроме кредита, кредитной карты, кредитной карты для бизнеса, овердрафта</t>
-  </si>
-  <si>
-    <t>обслуживание онлайн кассы</t>
-  </si>
-  <si>
-    <t>БА, Из-за слова "Банк"</t>
-  </si>
-  <si>
-    <t>спасм, реклама живет в услугах</t>
-  </si>
-  <si>
-    <t>когда сама сумма списалась типо без подтверждения это лучше в рно</t>
-  </si>
-  <si>
-    <t>БА, Все вопросы с возвратом терминала  и расторжением направляем в эту тематику P.S "мне нужно снять терминал"-тоже расторжение</t>
-  </si>
-  <si>
-    <t>счет = карта и наоборот</t>
-  </si>
-  <si>
-    <t>БА, новый сценарий ,Условия по тарифу (OS_Tariff_info)</t>
-  </si>
-  <si>
-    <t>по доб номеру, если просит связаться с руковод или директором</t>
-  </si>
-  <si>
-    <t>ожидаемая норма прибыли</t>
-  </si>
-  <si>
-    <t>Оценка качеста</t>
-  </si>
-  <si>
-    <t>так как здесь может уточнить про банки партнеры и тд</t>
-  </si>
-  <si>
-    <t>расплатиться - подразумевается покупка по карте, транзакция через эквайринг, исходя из фразы проблема в самой карте</t>
-  </si>
-  <si>
-    <t>БА в июне файл Спорные кейсы БА июнь ЮЛ</t>
-  </si>
-  <si>
-    <t>все вопросы по интеграции терминала в тех экв</t>
-  </si>
-  <si>
-    <t>по вопросу непонятно только ли что клиент подал заявку или счет открыт давно, нет слова "заявка".</t>
-  </si>
-  <si>
-    <t>актуал, изменение и подтверждение почты</t>
-  </si>
-  <si>
-    <t>исключение "отдел обслуживания абонентов" - оператор</t>
-  </si>
-  <si>
-    <t>например КАСКО</t>
-  </si>
-  <si>
-    <t>СБП без эквайринга</t>
-  </si>
-  <si>
-    <t>не понятно, одобрили клиенту оформление или нет</t>
-  </si>
-  <si>
-    <t>подключение/расторжение идет через депозиты</t>
-  </si>
-  <si>
-    <t>Речь идет про лизинг</t>
-  </si>
-  <si>
-    <t>бенефициар-выгодоприобретатель</t>
-  </si>
-  <si>
-    <t>мультибанк это приложение для учёта операций в других банках для расчёта налогов и взносов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">По данному слову понимаем,что речь про эквайринг </t>
-  </si>
-  <si>
-    <t>клиент победил в акции и хочет узнать об условиях получения</t>
-  </si>
-  <si>
-    <t>интернет для терминалов</t>
-  </si>
-  <si>
-    <t>Когда не понятно какой лимит, мы карты выбираем</t>
-  </si>
-  <si>
-    <t>Когда не понятно какое ограничение отправляем в блокировку счета</t>
-  </si>
-  <si>
-    <t xml:space="preserve">но смотрим на каждую фразу в отдельности </t>
-  </si>
-  <si>
-    <t xml:space="preserve">БА( все варианты со ссловом физическая это физ. Лицо ) </t>
-  </si>
-  <si>
-    <t>белорусский налоговый номер</t>
-  </si>
-  <si>
-    <t>БА По этой фразе лучше выбрать тематику с УВ. Уточнить какой терминал интересует</t>
-  </si>
-  <si>
-    <t>БА: "надо изменить адрес чека", "изменить адрес терминала эквайринг" - Эквайринг техподдержка (OS_Acquiring_Support)</t>
-  </si>
-  <si>
-    <t>БА: "не совпадает сверка итогов"-Эквайринг техподдержка (OS_Acquiring_Support)</t>
-  </si>
-  <si>
-    <t>БА конкретно в этой фразе выбираем оформление платежа. Если будут фразы просто оплата или платеж, то выбираем статус</t>
-  </si>
-  <si>
-    <t>БА банк разгружает линию, поэтому практически все вопросы по эквайрингу консультирует теперь сервисный партнер</t>
-  </si>
-  <si>
-    <t>БА с 03.12.2024 были изменения и теперь это Оформление платежа</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> конфа</t>
-  </si>
-  <si>
     <r>
-      <t>Фразы с возвратом</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> клиенту</t>
+      <t>Фразы с возвратом клиенту</t>
     </r>
     <r>
       <rPr>
@@ -3908,19 +4269,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Фразы со </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>списанием у клиента</t>
+      <t>Фразы со списанием у клиента</t>
     </r>
     <r>
       <rPr>
@@ -3934,267 +4283,14 @@
     </r>
   </si>
   <si>
-    <t>Завка на открытие/закрытие, оформить заявку-это прочее БА</t>
-  </si>
-  <si>
-    <t>по слову узнать</t>
-  </si>
-  <si>
-    <t>так как там есть проверка физ юр и возможность входа дает премиальная бизнес карта</t>
-  </si>
-  <si>
-    <t>КИБ-Крупный инвестиционный бизнес</t>
-  </si>
-  <si>
-    <t>запрос банка/из банка поступил запрос</t>
-  </si>
-  <si>
-    <t>возможно, хочет выставить счет.Обычно указывается выставленный счет</t>
-  </si>
-  <si>
-    <t>На личный счет</t>
-  </si>
-  <si>
-    <t>Сервис срочный перевод</t>
-  </si>
-  <si>
-    <t>вкл-возобновляемая кредитная линия</t>
-  </si>
-  <si>
-    <t>Не понятно,про тарифы карты или про платеж по карте</t>
-  </si>
-  <si>
-    <t>Из за слова соедините, приоритет оператор</t>
-  </si>
-  <si>
-    <t>БА.Смотрим из контекста.Если будет перевод денег/средств-это оформление платежа</t>
-  </si>
-  <si>
-    <t>сервис проверки контрагентов-это услуга</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> API — универсальная технология, которая позволяет напрямую обмениваться данными с банком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БА На TEE можете внимание не обращать. Послушал звонки где было распознано это слово, это ASR непонятное бормотание клиентов распознает как tee
-</t>
-  </si>
-  <si>
-    <t>БА у открытия счета больше приоритет</t>
-  </si>
-  <si>
-    <t>БА от 13.02.2025</t>
-  </si>
-  <si>
-    <t>Возможно, кофе терминал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БА, новый сценарий </t>
-  </si>
-  <si>
-    <t>не понятен вопрос-счет приоритетом</t>
-  </si>
-  <si>
-    <t>БА Я посмотрел похожие кейся, речь в них идет про оформление второго эквайринга</t>
-  </si>
-  <si>
-    <t>БА Да, в прошлый раз выбрал тематику Снятие и внесение наличных (OS_Withdraw_deposit_cash), посмотрел похожие кейсы, для них больше подходит тематика Зачисление по эквайрингу или банкомату (OS_Acquiring_or_not_Pay). Т.е. если речь про зачисление через банкомат, выбираем OS_Acquiring_or_not_Pay</t>
-  </si>
-  <si>
-    <t>Здесь речь о пин коде для рутокена(ЭЦП)</t>
-  </si>
-  <si>
-    <t>БА Если во фразе есть упоминание про изменение роли или о подключении в приложении, тогда выбираем УКД (OS_UKD)</t>
-  </si>
-  <si>
-    <t>второй чек</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UP — конструктор лояльности и мобильных приложений, который поможет удержать существующих клиентов и привлечь новых покупателей в бизнес</t>
-  </si>
-  <si>
-    <t>роль</t>
-  </si>
-  <si>
-    <t>из-за слова "печать"</t>
-  </si>
-  <si>
-    <t>Универсальный передаточный документ (УПД)</t>
-  </si>
-  <si>
-    <t>т.к. во множественном числе</t>
-  </si>
-  <si>
-    <t>нет слова ВЫЕЗД</t>
-  </si>
-  <si>
-    <t>ДБО-дистанционное банковское обслуживание</t>
-  </si>
-  <si>
-    <t>из-за слова лицо</t>
-  </si>
-  <si>
-    <t>-Финанс — это система для операционного обслуживания клиентов и дебиторов по факторингу.</t>
-  </si>
-  <si>
-    <t>Есть такая услуга-проверка сотрудника.Если есть фо фразе проверка сотрудника банка-это мошенничество</t>
-  </si>
-  <si>
-    <t>это кредитный счет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БА Если нужен квво для начисления ЗП тоже выбираем эту тематику </t>
-  </si>
-  <si>
-    <t>БА Фраза отдаленно похожая, но в этой фразе "нужно оплатить платеж который выставлен у вас в автоматом не могу зайти" больше акцент идет на платеж</t>
-  </si>
-  <si>
-    <t>БА Для этой фразы оставляем Карты для Бизнеса (OS_Card_Business), баланс не подходит, здесь речь идет скорее всего про оплату по эквайрингу</t>
-  </si>
-  <si>
-    <t>БА,  новый сценарий</t>
-  </si>
-  <si>
-    <t>-Сквош — одна из любимых игр наших партнёров. Теперь бесплатных тренировок и турниров станет больше: игры пройдут в 21 городе России.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БА, когда одно слово </t>
-  </si>
-  <si>
-    <t>вопрос по терминалу банкомат банка</t>
-  </si>
-  <si>
-    <t>Проблема с банкоматом (OS_ATM_Operation)</t>
-  </si>
-  <si>
-    <t>БА Для такой фразы лучше выбирать Проблема с банкоматом -OS_ATM_Operation, т.е. опираемся на миро</t>
-  </si>
-  <si>
-    <t>мне вернулись деньги по возврату</t>
-  </si>
-  <si>
-    <t>реферальная программа для открытия счета</t>
-  </si>
-  <si>
-    <t>я подал документы на ип на открытие хочу закрыть</t>
-  </si>
-  <si>
-    <t>Закрыть счет ЮЛ -OS_Account_off_Business</t>
-  </si>
-  <si>
-    <t>пересчет блять</t>
-  </si>
-  <si>
-    <t>возврат билета</t>
-  </si>
-  <si>
-    <t>платежный документ</t>
-  </si>
-  <si>
-    <t>проблема активации кредитной карты не приходит смс оповещение</t>
-  </si>
-  <si>
-    <t>Активация карты -OS_Activation</t>
-  </si>
-  <si>
-    <t>УКД -OS_UKD</t>
-  </si>
-  <si>
-    <t>мне нужно проверить платежное поручение</t>
-  </si>
-  <si>
-    <t>не могу скопировать сво с карты</t>
-  </si>
-  <si>
-    <t>Карты-OS_Card</t>
-  </si>
-  <si>
-    <t>я сейчас напишу жалобу на робота потому что мне это порядком дело соедините с оператором</t>
-  </si>
-  <si>
-    <t>Обращения -OS_Claim</t>
-  </si>
-  <si>
-    <t>не прошел платеж через банкомат</t>
-  </si>
-  <si>
-    <t>перевод платежа</t>
-  </si>
-  <si>
-    <t>переводы и оплаты</t>
-  </si>
-  <si>
-    <t>по обслуживанию бизнеса у нас зависла платежка в обработке</t>
-  </si>
-  <si>
-    <t>по расчетному кассовому счету</t>
-  </si>
-  <si>
-    <t>Счета -OS_Accounts_Q</t>
-  </si>
-  <si>
-    <t>по вопросу экспорта</t>
-  </si>
-  <si>
-    <t>активировать зарплатную карту</t>
-  </si>
-  <si>
-    <t>оператор рно</t>
-  </si>
-  <si>
-    <t>Решение Налогового Органа (РНО) -OS_RNO</t>
-  </si>
-  <si>
-    <t>проводятся ли платежи в выходные дни если платеж пришел с другого банка</t>
-  </si>
-  <si>
-    <t>Платежи в праздники (OS_Pay_Work)</t>
-  </si>
-  <si>
-    <t>архивные данные по операциям</t>
-  </si>
-  <si>
-    <t xml:space="preserve">возврат </t>
-  </si>
-  <si>
-    <t>оформить возврат</t>
-  </si>
-  <si>
-    <t>можете сказать</t>
-  </si>
-  <si>
-    <t>статус плательщика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в бюджетке указываются статусы: 1, 2, 3, 4, 5 </t>
-  </si>
-  <si>
-    <t>а как работника подключить</t>
-  </si>
-  <si>
-    <t>🞄08.07.2025</t>
-  </si>
-  <si>
-    <t>🞄09.07.2025</t>
-  </si>
-  <si>
-    <t>🞄10.07.2025</t>
-  </si>
-  <si>
-    <t>🞄15.07.2025</t>
-  </si>
-  <si>
-    <t>🞄16.07.2025</t>
-  </si>
-  <si>
-    <t>мне нужно встретиться сотрудником банка чтобы получить qr код и электронный ключик</t>
+    <t>Приоритетность разблокирвока счета</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4241,20 +4337,34 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001016"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color rgb="FF343332"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4295,11 +4405,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4321,26 +4432,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{C7A14A64-6A09-416E-A11E-D6139BD69E65}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4969,17 +5087,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2773680-67AB-4233-9C97-EFB5A20E4C41}">
-  <dimension ref="A1:D882"/>
+  <dimension ref="A1:D917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A865" workbookViewId="0">
-      <selection activeCell="A867" sqref="A867"/>
+    <sheetView tabSelected="1" topLeftCell="A895" workbookViewId="0">
+      <selection activeCell="D902" sqref="D902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.44140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" style="11" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4993,7 +5111,7 @@
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -5007,6 +5125,7 @@
       <c r="C2" s="4" t="s">
         <v>974</v>
       </c>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -5018,6 +5137,7 @@
       <c r="C3" s="4" t="s">
         <v>974</v>
       </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -5029,6 +5149,7 @@
       <c r="C4" s="4" t="s">
         <v>975</v>
       </c>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -5040,7 +5161,7 @@
       <c r="C5" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="14" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -5054,7 +5175,7 @@
       <c r="C6" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="14" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -5068,6 +5189,7 @@
       <c r="C7" s="4" t="s">
         <v>977</v>
       </c>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -5079,7 +5201,7 @@
       <c r="C8" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="14" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -5093,6 +5215,7 @@
       <c r="C9" s="4" t="s">
         <v>978</v>
       </c>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -5104,6 +5227,7 @@
       <c r="C10" s="4" t="s">
         <v>978</v>
       </c>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -5115,6 +5239,7 @@
       <c r="C11" s="4" t="s">
         <v>979</v>
       </c>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -5126,6 +5251,7 @@
       <c r="C12" s="4" t="s">
         <v>979</v>
       </c>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -5137,6 +5263,7 @@
       <c r="C13" s="4" t="s">
         <v>979</v>
       </c>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -5148,6 +5275,7 @@
       <c r="C14" s="4" t="s">
         <v>979</v>
       </c>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -5159,7 +5287,7 @@
       <c r="C15" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -5171,6 +5299,7 @@
       <c r="C16" s="4" t="s">
         <v>980</v>
       </c>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -5182,6 +5311,7 @@
       <c r="C17" s="4" t="s">
         <v>980</v>
       </c>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -5193,6 +5323,7 @@
       <c r="C18" s="4" t="s">
         <v>981</v>
       </c>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -5204,6 +5335,7 @@
       <c r="C19" s="4" t="s">
         <v>982</v>
       </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -5215,6 +5347,7 @@
       <c r="C20" s="4" t="s">
         <v>982</v>
       </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -5226,6 +5359,7 @@
       <c r="C21" s="4" t="s">
         <v>982</v>
       </c>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -5237,7 +5371,7 @@
       <c r="C22" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="15" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -5251,6 +5385,7 @@
       <c r="C23" s="4" t="s">
         <v>983</v>
       </c>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -5262,6 +5397,7 @@
       <c r="C24" s="4" t="s">
         <v>984</v>
       </c>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -5273,6 +5409,7 @@
       <c r="C25" s="4" t="s">
         <v>984</v>
       </c>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -5284,6 +5421,7 @@
       <c r="C26" s="4" t="s">
         <v>984</v>
       </c>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -5295,6 +5433,7 @@
       <c r="C27" s="4" t="s">
         <v>984</v>
       </c>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -5306,6 +5445,7 @@
       <c r="C28" s="4" t="s">
         <v>984</v>
       </c>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -5317,6 +5457,7 @@
       <c r="C29" s="4" t="s">
         <v>984</v>
       </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -5328,6 +5469,7 @@
       <c r="C30" s="4" t="s">
         <v>985</v>
       </c>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -5339,7 +5481,7 @@
       <c r="C31" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="14" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -5353,6 +5495,7 @@
       <c r="C32" s="4" t="s">
         <v>987</v>
       </c>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -5364,7 +5507,7 @@
       <c r="C33" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="14" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -5378,6 +5521,7 @@
       <c r="C34" s="4" t="s">
         <v>988</v>
       </c>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
@@ -5389,7 +5533,7 @@
       <c r="C35" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="14" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -5403,7 +5547,7 @@
       <c r="C36" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="14" t="s">
         <v>1189</v>
       </c>
     </row>
@@ -5417,7 +5561,7 @@
       <c r="C37" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="14" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -5431,6 +5575,7 @@
       <c r="C38" s="4" t="s">
         <v>991</v>
       </c>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -5442,6 +5587,7 @@
       <c r="C39" s="4" t="s">
         <v>992</v>
       </c>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -5453,6 +5599,7 @@
       <c r="C40" s="4" t="s">
         <v>993</v>
       </c>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
@@ -5464,6 +5611,7 @@
       <c r="C41" s="4" t="s">
         <v>994</v>
       </c>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
@@ -5475,6 +5623,7 @@
       <c r="C42" s="4" t="s">
         <v>995</v>
       </c>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
@@ -5486,7 +5635,7 @@
       <c r="C43" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="14" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -5500,6 +5649,7 @@
       <c r="C44" s="4" t="s">
         <v>995</v>
       </c>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
@@ -5511,6 +5661,7 @@
       <c r="C45" s="4" t="s">
         <v>996</v>
       </c>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -5522,7 +5673,7 @@
       <c r="C46" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -5536,6 +5687,7 @@
       <c r="C47" s="4" t="s">
         <v>996</v>
       </c>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
@@ -5547,6 +5699,7 @@
       <c r="C48" s="4" t="s">
         <v>996</v>
       </c>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
@@ -5558,7 +5711,7 @@
       <c r="C49" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -5572,7 +5725,7 @@
       <c r="C50" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="14" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -5586,6 +5739,7 @@
       <c r="C51" s="4" t="s">
         <v>996</v>
       </c>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
@@ -5597,6 +5751,7 @@
       <c r="C52" s="4" t="s">
         <v>996</v>
       </c>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
@@ -5608,6 +5763,7 @@
       <c r="C53" s="4" t="s">
         <v>996</v>
       </c>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -5619,6 +5775,7 @@
       <c r="C54" s="4" t="s">
         <v>996</v>
       </c>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
@@ -5630,7 +5787,7 @@
       <c r="C55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="14" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -5644,6 +5801,7 @@
       <c r="C56" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
@@ -5655,7 +5813,7 @@
       <c r="C57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="14" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -5669,6 +5827,7 @@
       <c r="C58" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
@@ -5680,6 +5839,7 @@
       <c r="C59" s="4" t="s">
         <v>997</v>
       </c>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
@@ -5691,6 +5851,7 @@
       <c r="C60" s="4" t="s">
         <v>998</v>
       </c>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
@@ -5702,7 +5863,7 @@
       <c r="C61" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="14" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -5716,6 +5877,7 @@
       <c r="C62" s="4" t="s">
         <v>999</v>
       </c>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
@@ -5727,6 +5889,7 @@
       <c r="C63" s="4" t="s">
         <v>999</v>
       </c>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
@@ -5738,6 +5901,7 @@
       <c r="C64" s="4" t="s">
         <v>999</v>
       </c>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
@@ -5749,6 +5913,7 @@
       <c r="C65" s="4" t="s">
         <v>999</v>
       </c>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
@@ -5760,6 +5925,7 @@
       <c r="C66" s="4" t="s">
         <v>999</v>
       </c>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
@@ -5771,6 +5937,7 @@
       <c r="C67" s="4" t="s">
         <v>1000</v>
       </c>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -5782,6 +5949,7 @@
       <c r="C68" s="4" t="s">
         <v>1000</v>
       </c>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -5793,6 +5961,7 @@
       <c r="C69" s="4" t="s">
         <v>1000</v>
       </c>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
@@ -5804,7 +5973,7 @@
       <c r="C70" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="15" t="s">
         <v>1197</v>
       </c>
     </row>
@@ -5818,6 +5987,7 @@
       <c r="C71" s="4" t="s">
         <v>1001</v>
       </c>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -5829,7 +5999,7 @@
       <c r="C72" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="14" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -5843,6 +6013,7 @@
       <c r="C73" s="4" t="s">
         <v>1001</v>
       </c>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
@@ -5854,6 +6025,7 @@
       <c r="C74" s="4" t="s">
         <v>1001</v>
       </c>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
@@ -5865,7 +6037,7 @@
       <c r="C75" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="14" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -5879,7 +6051,7 @@
       <c r="C76" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="14" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -5893,6 +6065,7 @@
       <c r="C77" s="4" t="s">
         <v>1002</v>
       </c>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
@@ -5904,7 +6077,7 @@
       <c r="C78" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="14" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -5918,6 +6091,7 @@
       <c r="C79" s="4" t="s">
         <v>1003</v>
       </c>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
@@ -5929,6 +6103,7 @@
       <c r="C80" s="4" t="s">
         <v>1003</v>
       </c>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
@@ -5940,6 +6115,7 @@
       <c r="C81" s="4" t="s">
         <v>1003</v>
       </c>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
@@ -5951,7 +6127,7 @@
       <c r="C82" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="D82" s="9"/>
+      <c r="D82" s="15"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
@@ -5963,6 +6139,7 @@
       <c r="C83" s="4" t="s">
         <v>1003</v>
       </c>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
@@ -5974,7 +6151,7 @@
       <c r="C84" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="D84" s="9"/>
+      <c r="D84" s="15"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
@@ -5986,6 +6163,7 @@
       <c r="C85" s="4" t="s">
         <v>1003</v>
       </c>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
@@ -5997,6 +6175,7 @@
       <c r="C86" s="4" t="s">
         <v>1003</v>
       </c>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -6008,6 +6187,7 @@
       <c r="C87" s="4" t="s">
         <v>1004</v>
       </c>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
@@ -6019,7 +6199,7 @@
       <c r="C88" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="14" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -6033,6 +6213,7 @@
       <c r="C89" s="4" t="s">
         <v>1005</v>
       </c>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
@@ -6044,6 +6225,7 @@
       <c r="C90" s="4" t="s">
         <v>1006</v>
       </c>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
@@ -6055,7 +6237,7 @@
       <c r="C91" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="14" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -6069,7 +6251,7 @@
       <c r="C92" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="14" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -6083,6 +6265,7 @@
       <c r="C93" s="4" t="s">
         <v>1008</v>
       </c>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
@@ -6094,7 +6277,7 @@
       <c r="C94" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="14" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -6108,7 +6291,7 @@
       <c r="C95" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="14" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -6122,6 +6305,7 @@
       <c r="C96" s="4" t="s">
         <v>1011</v>
       </c>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
@@ -6133,6 +6317,7 @@
       <c r="C97" s="4" t="s">
         <v>1011</v>
       </c>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
@@ -6144,7 +6329,7 @@
       <c r="C98" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="14" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -6158,6 +6343,7 @@
       <c r="C99" s="4" t="s">
         <v>1013</v>
       </c>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
@@ -6169,6 +6355,7 @@
       <c r="C100" s="4" t="s">
         <v>1013</v>
       </c>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
@@ -6180,6 +6367,7 @@
       <c r="C101" s="4" t="s">
         <v>1014</v>
       </c>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
@@ -6191,7 +6379,7 @@
       <c r="C102" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="14" t="s">
         <v>1208</v>
       </c>
     </row>
@@ -6205,7 +6393,7 @@
       <c r="C103" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="14" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -6219,7 +6407,7 @@
       <c r="C104" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="14" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -6233,6 +6421,7 @@
       <c r="C105" s="4" t="s">
         <v>1016</v>
       </c>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -6244,6 +6433,7 @@
       <c r="C106" s="4" t="s">
         <v>1016</v>
       </c>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
@@ -6255,7 +6445,7 @@
       <c r="C107" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="14" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -6269,7 +6459,7 @@
       <c r="C108" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="14" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -6283,6 +6473,7 @@
       <c r="C109" s="4" t="s">
         <v>1018</v>
       </c>
+      <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
@@ -6294,6 +6485,7 @@
       <c r="C110" s="4" t="s">
         <v>1018</v>
       </c>
+      <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
@@ -6305,6 +6497,7 @@
       <c r="C111" s="4" t="s">
         <v>1018</v>
       </c>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
@@ -6316,7 +6509,7 @@
       <c r="C112" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="14" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -6330,7 +6523,7 @@
       <c r="C113" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="14" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -6344,7 +6537,7 @@
       <c r="C114" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="14" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -6358,6 +6551,7 @@
       <c r="C115" s="4" t="s">
         <v>1021</v>
       </c>
+      <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
@@ -6369,6 +6563,7 @@
       <c r="C116" s="4" t="s">
         <v>1022</v>
       </c>
+      <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
@@ -6380,6 +6575,7 @@
       <c r="C117" s="4" t="s">
         <v>1023</v>
       </c>
+      <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
@@ -6391,7 +6587,7 @@
       <c r="C118" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="14" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -6405,6 +6601,7 @@
       <c r="C119" s="4" t="s">
         <v>1025</v>
       </c>
+      <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
@@ -6416,6 +6613,7 @@
       <c r="C120" s="4" t="s">
         <v>1025</v>
       </c>
+      <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
@@ -6427,6 +6625,7 @@
       <c r="C121" s="4" t="s">
         <v>1025</v>
       </c>
+      <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
@@ -6438,6 +6637,7 @@
       <c r="C122" s="4" t="s">
         <v>1025</v>
       </c>
+      <c r="D122" s="14"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
@@ -6449,7 +6649,7 @@
       <c r="C123" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="D123" s="9"/>
+      <c r="D123" s="15"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
@@ -6461,7 +6661,7 @@
       <c r="C124" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="D124" s="9"/>
+      <c r="D124" s="15"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -6473,6 +6673,7 @@
       <c r="C125" s="4" t="s">
         <v>1027</v>
       </c>
+      <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
@@ -6484,7 +6685,7 @@
       <c r="C126" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="14" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -6498,7 +6699,7 @@
       <c r="C127" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="14" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -6512,7 +6713,7 @@
       <c r="C128" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="14" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -6526,6 +6727,7 @@
       <c r="C129" s="4" t="s">
         <v>1028</v>
       </c>
+      <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
@@ -6537,6 +6739,7 @@
       <c r="C130" s="4" t="s">
         <v>1028</v>
       </c>
+      <c r="D130" s="14"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
@@ -6548,6 +6751,7 @@
       <c r="C131" s="4" t="s">
         <v>1028</v>
       </c>
+      <c r="D131" s="14"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
@@ -6559,7 +6763,7 @@
       <c r="C132" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="14" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -6573,7 +6777,7 @@
       <c r="C133" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="14" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -6587,6 +6791,7 @@
       <c r="C134" s="4" t="s">
         <v>1029</v>
       </c>
+      <c r="D134" s="14"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
@@ -6598,6 +6803,7 @@
       <c r="C135" s="4" t="s">
         <v>1029</v>
       </c>
+      <c r="D135" s="14"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
@@ -6609,7 +6815,7 @@
       <c r="C136" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="D136" s="9"/>
+      <c r="D136" s="15"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
@@ -6621,6 +6827,7 @@
       <c r="C137" s="4" t="s">
         <v>1030</v>
       </c>
+      <c r="D137" s="14"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
@@ -6632,7 +6839,7 @@
       <c r="C138" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="D138" s="9"/>
+      <c r="D138" s="15"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
@@ -6644,6 +6851,7 @@
       <c r="C139" s="4" t="s">
         <v>1030</v>
       </c>
+      <c r="D139" s="14"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
@@ -6655,6 +6863,7 @@
       <c r="C140" s="4" t="s">
         <v>1030</v>
       </c>
+      <c r="D140" s="14"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
@@ -6666,7 +6875,7 @@
       <c r="C141" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="14" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -6680,6 +6889,7 @@
       <c r="C142" s="4" t="s">
         <v>1030</v>
       </c>
+      <c r="D142" s="14"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
@@ -6691,6 +6901,7 @@
       <c r="C143" s="4" t="s">
         <v>1031</v>
       </c>
+      <c r="D143" s="14"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
@@ -6702,6 +6913,7 @@
       <c r="C144" s="4" t="s">
         <v>1031</v>
       </c>
+      <c r="D144" s="14"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
@@ -6713,6 +6925,7 @@
       <c r="C145" s="4" t="s">
         <v>1031</v>
       </c>
+      <c r="D145" s="14"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
@@ -6724,6 +6937,7 @@
       <c r="C146" s="4" t="s">
         <v>1031</v>
       </c>
+      <c r="D146" s="14"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
@@ -6735,7 +6949,7 @@
       <c r="C147" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="14" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -6749,6 +6963,7 @@
       <c r="C148" s="4" t="s">
         <v>1032</v>
       </c>
+      <c r="D148" s="14"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
@@ -6760,6 +6975,7 @@
       <c r="C149" s="4" t="s">
         <v>1033</v>
       </c>
+      <c r="D149" s="14"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
@@ -6771,6 +6987,7 @@
       <c r="C150" s="4" t="s">
         <v>1034</v>
       </c>
+      <c r="D150" s="14"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
@@ -6782,6 +6999,7 @@
       <c r="C151" s="4" t="s">
         <v>1034</v>
       </c>
+      <c r="D151" s="14"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
@@ -6793,6 +7011,7 @@
       <c r="C152" s="4" t="s">
         <v>1034</v>
       </c>
+      <c r="D152" s="14"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
@@ -6804,7 +7023,7 @@
       <c r="C153" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="14" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -6818,6 +7037,7 @@
       <c r="C154" s="4" t="s">
         <v>1034</v>
       </c>
+      <c r="D154" s="14"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
@@ -6829,6 +7049,7 @@
       <c r="C155" s="4" t="s">
         <v>1034</v>
       </c>
+      <c r="D155" s="14"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
@@ -6840,6 +7061,7 @@
       <c r="C156" s="4" t="s">
         <v>1034</v>
       </c>
+      <c r="D156" s="14"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
@@ -6851,6 +7073,7 @@
       <c r="C157" s="4" t="s">
         <v>1034</v>
       </c>
+      <c r="D157" s="14"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
@@ -6862,6 +7085,7 @@
       <c r="C158" s="4" t="s">
         <v>1035</v>
       </c>
+      <c r="D158" s="14"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
@@ -6873,7 +7097,7 @@
       <c r="C159" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="14" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -6887,6 +7111,7 @@
       <c r="C160" s="4" t="s">
         <v>1036</v>
       </c>
+      <c r="D160" s="14"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
@@ -6898,7 +7123,7 @@
       <c r="C161" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="14" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -6912,7 +7137,7 @@
       <c r="C162" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="14" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -6926,6 +7151,7 @@
       <c r="C163" s="4" t="s">
         <v>1038</v>
       </c>
+      <c r="D163" s="14"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
@@ -6937,6 +7163,7 @@
       <c r="C164" s="4" t="s">
         <v>1038</v>
       </c>
+      <c r="D164" s="14"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
@@ -6948,6 +7175,7 @@
       <c r="C165" s="4" t="s">
         <v>1038</v>
       </c>
+      <c r="D165" s="14"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
@@ -6959,6 +7187,7 @@
       <c r="C166" s="4" t="s">
         <v>1038</v>
       </c>
+      <c r="D166" s="14"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
@@ -6970,6 +7199,7 @@
       <c r="C167" s="4" t="s">
         <v>1038</v>
       </c>
+      <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
@@ -6981,7 +7211,7 @@
       <c r="C168" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="14" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -6995,7 +7225,7 @@
       <c r="C169" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -7009,6 +7239,7 @@
       <c r="C170" s="4" t="s">
         <v>1040</v>
       </c>
+      <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
@@ -7020,6 +7251,7 @@
       <c r="C171" s="4" t="s">
         <v>1041</v>
       </c>
+      <c r="D171" s="14"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
@@ -7031,6 +7263,7 @@
       <c r="C172" s="4" t="s">
         <v>1041</v>
       </c>
+      <c r="D172" s="14"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
@@ -7042,6 +7275,7 @@
       <c r="C173" s="4" t="s">
         <v>1041</v>
       </c>
+      <c r="D173" s="14"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
@@ -7053,6 +7287,7 @@
       <c r="C174" s="4" t="s">
         <v>1041</v>
       </c>
+      <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
@@ -7064,6 +7299,7 @@
       <c r="C175" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
@@ -7075,6 +7311,7 @@
       <c r="C176" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
@@ -7086,6 +7323,7 @@
       <c r="C177" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
@@ -7097,6 +7335,7 @@
       <c r="C178" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D178" s="14"/>
     </row>
     <row r="179" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
@@ -7108,7 +7347,7 @@
       <c r="C179" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="14" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -7122,6 +7361,7 @@
       <c r="C180" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
@@ -7133,6 +7373,7 @@
       <c r="C181" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
@@ -7144,7 +7385,7 @@
       <c r="C182" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="14" t="s">
         <v>1228</v>
       </c>
     </row>
@@ -7158,7 +7399,7 @@
       <c r="C183" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="14" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -7172,6 +7413,7 @@
       <c r="C184" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
@@ -7183,7 +7425,7 @@
       <c r="C185" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="14" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -7197,8 +7439,8 @@
       <c r="C186" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="D186" t="s">
-        <v>1231</v>
+      <c r="D186" s="14" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -7211,8 +7453,8 @@
       <c r="C187" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="D187" t="s">
-        <v>1232</v>
+      <c r="D187" s="14" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -7225,8 +7467,8 @@
       <c r="C188" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="D188" t="s">
-        <v>1233</v>
+      <c r="D188" s="14" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -7239,8 +7481,8 @@
       <c r="C189" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="D189" t="s">
-        <v>1234</v>
+      <c r="D189" s="14" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -7253,6 +7495,7 @@
       <c r="C190" s="4" t="s">
         <v>1042</v>
       </c>
+      <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
@@ -7264,8 +7507,8 @@
       <c r="C191" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="D191" t="s">
-        <v>1235</v>
+      <c r="D191" s="14" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -7278,7 +7521,7 @@
       <c r="C192" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -7292,7 +7535,7 @@
       <c r="C193" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -7306,6 +7549,7 @@
       <c r="C194" s="4" t="s">
         <v>1043</v>
       </c>
+      <c r="D194" s="14"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
@@ -7317,8 +7561,8 @@
       <c r="C195" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="D195" t="s">
-        <v>1236</v>
+      <c r="D195" s="14" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -7331,8 +7575,8 @@
       <c r="C196" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="D196" t="s">
-        <v>1237</v>
+      <c r="D196" s="14" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -7345,7 +7589,7 @@
       <c r="C197" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -7359,8 +7603,8 @@
       <c r="C198" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="D198" t="s">
-        <v>1238</v>
+      <c r="D198" s="14" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -7373,7 +7617,7 @@
       <c r="C199" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -7387,6 +7631,7 @@
       <c r="C200" s="4" t="s">
         <v>1044</v>
       </c>
+      <c r="D200" s="14"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
@@ -7398,8 +7643,8 @@
       <c r="C201" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="D201" t="s">
-        <v>1239</v>
+      <c r="D201" s="14" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -7410,8 +7655,8 @@
       <c r="C202" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="D202" t="s">
-        <v>1240</v>
+      <c r="D202" s="14" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -7424,6 +7669,7 @@
       <c r="C203" s="4" t="s">
         <v>1044</v>
       </c>
+      <c r="D203" s="14"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
@@ -7435,6 +7681,7 @@
       <c r="C204" s="4" t="s">
         <v>1045</v>
       </c>
+      <c r="D204" s="14"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
@@ -7446,6 +7693,7 @@
       <c r="C205" s="4" t="s">
         <v>1045</v>
       </c>
+      <c r="D205" s="14"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
@@ -7457,6 +7705,7 @@
       <c r="C206" s="4" t="s">
         <v>1045</v>
       </c>
+      <c r="D206" s="14"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -7468,8 +7717,8 @@
       <c r="C207" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="D207" t="s">
-        <v>1241</v>
+      <c r="D207" s="14" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -7482,6 +7731,7 @@
       <c r="C208" s="4" t="s">
         <v>1045</v>
       </c>
+      <c r="D208" s="14"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
@@ -7493,8 +7743,8 @@
       <c r="C209" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="D209" t="s">
-        <v>1242</v>
+      <c r="D209" s="14" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -7507,6 +7757,7 @@
       <c r="C210" s="4" t="s">
         <v>1045</v>
       </c>
+      <c r="D210" s="14"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
@@ -7518,6 +7769,7 @@
       <c r="C211" s="4" t="s">
         <v>1045</v>
       </c>
+      <c r="D211" s="14"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
@@ -7529,6 +7781,7 @@
       <c r="C212" s="4" t="s">
         <v>1046</v>
       </c>
+      <c r="D212" s="14"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
@@ -7540,6 +7793,7 @@
       <c r="C213" s="4" t="s">
         <v>1046</v>
       </c>
+      <c r="D213" s="14"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
@@ -7551,6 +7805,7 @@
       <c r="C214" s="4" t="s">
         <v>1046</v>
       </c>
+      <c r="D214" s="14"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
@@ -7562,6 +7817,7 @@
       <c r="C215" s="4" t="s">
         <v>1046</v>
       </c>
+      <c r="D215" s="14"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
@@ -7573,8 +7829,8 @@
       <c r="C216" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="D216" t="s">
-        <v>1243</v>
+      <c r="D216" s="14" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -7587,6 +7843,7 @@
       <c r="C217" s="4" t="s">
         <v>1046</v>
       </c>
+      <c r="D217" s="14"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
@@ -7598,8 +7855,8 @@
       <c r="C218" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="D218" t="s">
-        <v>1244</v>
+      <c r="D218" s="14" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -7612,6 +7869,7 @@
       <c r="C219" s="4" t="s">
         <v>1047</v>
       </c>
+      <c r="D219" s="14"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
@@ -7623,8 +7881,8 @@
       <c r="C220" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="D220" t="s">
-        <v>1245</v>
+      <c r="D220" s="14" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -7637,6 +7895,7 @@
       <c r="C221" s="4" t="s">
         <v>1047</v>
       </c>
+      <c r="D221" s="14"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
@@ -7648,8 +7907,8 @@
       <c r="C222" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="D222" t="s">
-        <v>1246</v>
+      <c r="D222" s="14" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -7662,8 +7921,8 @@
       <c r="C223" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="D223" t="s">
-        <v>1247</v>
+      <c r="D223" s="14" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -7676,8 +7935,8 @@
       <c r="C224" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="D224" t="s">
-        <v>1248</v>
+      <c r="D224" s="14" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -7690,8 +7949,8 @@
       <c r="C225" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="D225" t="s">
-        <v>1249</v>
+      <c r="D225" s="14" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -7704,6 +7963,7 @@
       <c r="C226" s="4" t="s">
         <v>1047</v>
       </c>
+      <c r="D226" s="14"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
@@ -7715,6 +7975,7 @@
       <c r="C227" s="4" t="s">
         <v>1047</v>
       </c>
+      <c r="D227" s="14"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
@@ -7726,6 +7987,7 @@
       <c r="C228" s="4" t="s">
         <v>1047</v>
       </c>
+      <c r="D228" s="14"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
@@ -7737,8 +7999,8 @@
       <c r="C229" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="D229" t="s">
-        <v>1250</v>
+      <c r="D229" s="14" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -7751,6 +8013,7 @@
       <c r="C230" s="4" t="s">
         <v>1048</v>
       </c>
+      <c r="D230" s="14"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
@@ -7762,6 +8025,7 @@
       <c r="C231" s="4" t="s">
         <v>1048</v>
       </c>
+      <c r="D231" s="14"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
@@ -7773,6 +8037,7 @@
       <c r="C232" s="4" t="s">
         <v>1048</v>
       </c>
+      <c r="D232" s="14"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
@@ -7784,8 +8049,8 @@
       <c r="C233" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="D233" t="s">
-        <v>1251</v>
+      <c r="D233" s="14" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -7798,6 +8063,7 @@
       <c r="C234" s="4" t="s">
         <v>1049</v>
       </c>
+      <c r="D234" s="14"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
@@ -7809,6 +8075,7 @@
       <c r="C235" s="4" t="s">
         <v>1049</v>
       </c>
+      <c r="D235" s="14"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
@@ -7820,6 +8087,7 @@
       <c r="C236" s="4" t="s">
         <v>1050</v>
       </c>
+      <c r="D236" s="14"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
@@ -7831,6 +8099,7 @@
       <c r="C237" s="4" t="s">
         <v>1051</v>
       </c>
+      <c r="D237" s="14"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
@@ -7842,6 +8111,7 @@
       <c r="C238" s="4" t="s">
         <v>1051</v>
       </c>
+      <c r="D238" s="14"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
@@ -7853,6 +8123,7 @@
       <c r="C239" s="4" t="s">
         <v>1051</v>
       </c>
+      <c r="D239" s="14"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
@@ -7864,6 +8135,7 @@
       <c r="C240" s="4" t="s">
         <v>1052</v>
       </c>
+      <c r="D240" s="14"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
@@ -7875,6 +8147,7 @@
       <c r="C241" s="4" t="s">
         <v>1052</v>
       </c>
+      <c r="D241" s="14"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
@@ -7886,8 +8159,8 @@
       <c r="C242" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="D242" t="s">
-        <v>1252</v>
+      <c r="D242" s="14" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -7900,6 +8173,7 @@
       <c r="C243" s="4" t="s">
         <v>1053</v>
       </c>
+      <c r="D243" s="14"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
@@ -7911,6 +8185,7 @@
       <c r="C244" s="4" t="s">
         <v>1053</v>
       </c>
+      <c r="D244" s="14"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
@@ -7922,6 +8197,7 @@
       <c r="C245" s="4" t="s">
         <v>1054</v>
       </c>
+      <c r="D245" s="14"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
@@ -7933,6 +8209,7 @@
       <c r="C246" s="4" t="s">
         <v>1055</v>
       </c>
+      <c r="D246" s="14"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
@@ -7944,8 +8221,8 @@
       <c r="C247" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="D247" t="s">
-        <v>1253</v>
+      <c r="D247" s="14" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -7958,6 +8235,7 @@
       <c r="C248" s="4" t="s">
         <v>1056</v>
       </c>
+      <c r="D248" s="14"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
@@ -7969,6 +8247,7 @@
       <c r="C249" s="4" t="s">
         <v>1056</v>
       </c>
+      <c r="D249" s="14"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
@@ -7980,6 +8259,7 @@
       <c r="C250" s="4" t="s">
         <v>1056</v>
       </c>
+      <c r="D250" s="14"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
@@ -7991,6 +8271,7 @@
       <c r="C251" s="4" t="s">
         <v>1056</v>
       </c>
+      <c r="D251" s="14"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
@@ -8002,8 +8283,8 @@
       <c r="C252" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="D252" t="s">
-        <v>1254</v>
+      <c r="D252" s="14" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -8016,8 +8297,8 @@
       <c r="C253" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="D253" t="s">
-        <v>1255</v>
+      <c r="D253" s="14" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -8030,6 +8311,7 @@
       <c r="C254" s="4" t="s">
         <v>1057</v>
       </c>
+      <c r="D254" s="14"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
@@ -8041,8 +8323,8 @@
       <c r="C255" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="D255" t="s">
-        <v>1256</v>
+      <c r="D255" s="14" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -8055,8 +8337,8 @@
       <c r="C256" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="D256" t="s">
-        <v>1257</v>
+      <c r="D256" s="14" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -8069,6 +8351,7 @@
       <c r="C257" s="4" t="s">
         <v>1057</v>
       </c>
+      <c r="D257" s="14"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
@@ -8080,6 +8363,7 @@
       <c r="C258" s="4" t="s">
         <v>1057</v>
       </c>
+      <c r="D258" s="14"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
@@ -8091,6 +8375,7 @@
       <c r="C259" s="4" t="s">
         <v>1057</v>
       </c>
+      <c r="D259" s="14"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
@@ -8102,8 +8387,8 @@
       <c r="C260" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="D260" t="s">
-        <v>1258</v>
+      <c r="D260" s="14" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -8116,6 +8401,7 @@
       <c r="C261" s="4" t="s">
         <v>1057</v>
       </c>
+      <c r="D261" s="14"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
@@ -8127,6 +8413,7 @@
       <c r="C262" s="4" t="s">
         <v>1057</v>
       </c>
+      <c r="D262" s="14"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
@@ -8138,6 +8425,7 @@
       <c r="C263" s="4" t="s">
         <v>1058</v>
       </c>
+      <c r="D263" s="14"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
@@ -8149,6 +8437,7 @@
       <c r="C264" s="4" t="s">
         <v>1058</v>
       </c>
+      <c r="D264" s="14"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
@@ -8160,8 +8449,8 @@
       <c r="C265" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="D265" t="s">
-        <v>1259</v>
+      <c r="D265" s="14" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -8174,7 +8463,7 @@
       <c r="C266" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8188,7 +8477,7 @@
       <c r="C267" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8202,7 +8491,7 @@
       <c r="C268" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8216,7 +8505,7 @@
       <c r="C269" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8230,6 +8519,7 @@
       <c r="C270" s="4" t="s">
         <v>1061</v>
       </c>
+      <c r="D270" s="14"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
@@ -8241,6 +8531,7 @@
       <c r="C271" s="4" t="s">
         <v>1061</v>
       </c>
+      <c r="D271" s="14"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
@@ -8252,6 +8543,7 @@
       <c r="C272" s="4" t="s">
         <v>1062</v>
       </c>
+      <c r="D272" s="14"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
@@ -8263,6 +8555,7 @@
       <c r="C273" s="4" t="s">
         <v>1062</v>
       </c>
+      <c r="D273" s="14"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
@@ -8274,6 +8567,7 @@
       <c r="C274" s="4" t="s">
         <v>1062</v>
       </c>
+      <c r="D274" s="14"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
@@ -8285,6 +8579,7 @@
       <c r="C275" s="4" t="s">
         <v>1063</v>
       </c>
+      <c r="D275" s="14"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
@@ -8296,6 +8591,7 @@
       <c r="C276" s="4" t="s">
         <v>1063</v>
       </c>
+      <c r="D276" s="14"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
@@ -8307,8 +8603,8 @@
       <c r="C277" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="D277" t="s">
-        <v>1260</v>
+      <c r="D277" s="14" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -8321,6 +8617,7 @@
       <c r="C278" s="4" t="s">
         <v>1064</v>
       </c>
+      <c r="D278" s="14"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -8332,7 +8629,7 @@
       <c r="C279" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8346,7 +8643,7 @@
       <c r="C280" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8360,7 +8657,7 @@
       <c r="C281" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8374,8 +8671,8 @@
       <c r="C282" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="D282" t="s">
-        <v>1261</v>
+      <c r="D282" s="14" t="s">
+        <v>1260</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -8388,6 +8685,7 @@
       <c r="C283" s="4" t="s">
         <v>1065</v>
       </c>
+      <c r="D283" s="14"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
@@ -8399,7 +8697,7 @@
       <c r="C284" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8413,7 +8711,7 @@
       <c r="C285" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8427,7 +8725,7 @@
       <c r="C286" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8441,7 +8739,7 @@
       <c r="C287" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8455,6 +8753,7 @@
       <c r="C288" s="4" t="s">
         <v>1066</v>
       </c>
+      <c r="D288" s="14"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
@@ -8466,6 +8765,7 @@
       <c r="C289" s="4" t="s">
         <v>1066</v>
       </c>
+      <c r="D289" s="14"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
@@ -8477,8 +8777,8 @@
       <c r="C290" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="D290" t="s">
-        <v>1262</v>
+      <c r="D290" s="14" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -8491,6 +8791,7 @@
       <c r="C291" s="4" t="s">
         <v>1066</v>
       </c>
+      <c r="D291" s="14"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
@@ -8502,6 +8803,7 @@
       <c r="C292" s="4" t="s">
         <v>1066</v>
       </c>
+      <c r="D292" s="14"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
@@ -8513,7 +8815,7 @@
       <c r="C293" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8527,6 +8829,7 @@
       <c r="C294" s="4" t="s">
         <v>1066</v>
       </c>
+      <c r="D294" s="14"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
@@ -8538,8 +8841,8 @@
       <c r="C295" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="D295" t="s">
-        <v>1263</v>
+      <c r="D295" s="14" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -8552,8 +8855,8 @@
       <c r="C296" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="D296" t="s">
-        <v>1264</v>
+      <c r="D296" s="14" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -8566,7 +8869,7 @@
       <c r="C297" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8580,6 +8883,7 @@
       <c r="C298" s="4" t="s">
         <v>1067</v>
       </c>
+      <c r="D298" s="14"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
@@ -8591,7 +8895,7 @@
       <c r="C299" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8605,6 +8909,7 @@
       <c r="C300" s="4" t="s">
         <v>1069</v>
       </c>
+      <c r="D300" s="14"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
@@ -8616,8 +8921,8 @@
       <c r="C301" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="D301" t="s">
-        <v>1265</v>
+      <c r="D301" s="14" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -8630,7 +8935,7 @@
       <c r="C302" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8644,7 +8949,7 @@
       <c r="C303" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8658,7 +8963,7 @@
       <c r="C304" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8672,6 +8977,7 @@
       <c r="C305" s="4" t="s">
         <v>1072</v>
       </c>
+      <c r="D305" s="14"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
@@ -8683,6 +8989,7 @@
       <c r="C306" s="4" t="s">
         <v>1072</v>
       </c>
+      <c r="D306" s="14"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
@@ -8694,6 +9001,7 @@
       <c r="C307" s="4" t="s">
         <v>1072</v>
       </c>
+      <c r="D307" s="14"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
@@ -8705,6 +9013,7 @@
       <c r="C308" s="4" t="s">
         <v>1072</v>
       </c>
+      <c r="D308" s="14"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
@@ -8716,8 +9025,8 @@
       <c r="C309" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="D309" t="s">
-        <v>1266</v>
+      <c r="D309" s="14" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -8730,8 +9039,8 @@
       <c r="C310" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="D310" t="s">
-        <v>1267</v>
+      <c r="D310" s="14" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -8744,8 +9053,8 @@
       <c r="C311" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="D311" t="s">
-        <v>1268</v>
+      <c r="D311" s="14" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -8758,6 +9067,7 @@
       <c r="C312" s="4" t="s">
         <v>1073</v>
       </c>
+      <c r="D312" s="14"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
@@ -8769,8 +9079,8 @@
       <c r="C313" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="D313" t="s">
-        <v>1269</v>
+      <c r="D313" s="14" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -8783,8 +9093,8 @@
       <c r="C314" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="D314" t="s">
-        <v>1270</v>
+      <c r="D314" s="14" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -8797,8 +9107,8 @@
       <c r="C315" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="D315" t="s">
-        <v>1271</v>
+      <c r="D315" s="14" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -8811,7 +9121,7 @@
       <c r="C316" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -8825,6 +9135,7 @@
       <c r="C317" s="4" t="s">
         <v>1074</v>
       </c>
+      <c r="D317" s="14"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
@@ -8836,6 +9147,7 @@
       <c r="C318" s="4" t="s">
         <v>1074</v>
       </c>
+      <c r="D318" s="14"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
@@ -8847,8 +9159,8 @@
       <c r="C319" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="D319" t="s">
-        <v>1272</v>
+      <c r="D319" s="14" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -8861,8 +9173,8 @@
       <c r="C320" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="D320" t="s">
-        <v>1273</v>
+      <c r="D320" s="14" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -8875,8 +9187,8 @@
       <c r="C321" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="D321" t="s">
-        <v>1274</v>
+      <c r="D321" s="14" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -8889,6 +9201,7 @@
       <c r="C322" s="4" t="s">
         <v>1075</v>
       </c>
+      <c r="D322" s="14"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
@@ -8900,6 +9213,7 @@
       <c r="C323" s="4" t="s">
         <v>1075</v>
       </c>
+      <c r="D323" s="14"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
@@ -8911,6 +9225,7 @@
       <c r="C324" s="4" t="s">
         <v>1075</v>
       </c>
+      <c r="D324" s="14"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
@@ -8922,6 +9237,7 @@
       <c r="C325" s="4" t="s">
         <v>1075</v>
       </c>
+      <c r="D325" s="14"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
@@ -8933,6 +9249,7 @@
       <c r="C326" s="4" t="s">
         <v>1075</v>
       </c>
+      <c r="D326" s="14"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
@@ -8944,6 +9261,7 @@
       <c r="C327" s="4" t="s">
         <v>1076</v>
       </c>
+      <c r="D327" s="14"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
@@ -8955,6 +9273,7 @@
       <c r="C328" s="4" t="s">
         <v>1077</v>
       </c>
+      <c r="D328" s="14"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
@@ -8966,6 +9285,7 @@
       <c r="C329" s="4" t="s">
         <v>1077</v>
       </c>
+      <c r="D329" s="14"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
@@ -8977,6 +9297,7 @@
       <c r="C330" s="4" t="s">
         <v>1077</v>
       </c>
+      <c r="D330" s="14"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
@@ -8988,6 +9309,7 @@
       <c r="C331" s="4" t="s">
         <v>1077</v>
       </c>
+      <c r="D331" s="14"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
@@ -8999,7 +9321,7 @@
       <c r="C332" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9013,6 +9335,7 @@
       <c r="C333" s="4" t="s">
         <v>1079</v>
       </c>
+      <c r="D333" s="14"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
@@ -9024,6 +9347,7 @@
       <c r="C334" s="4" t="s">
         <v>1080</v>
       </c>
+      <c r="D334" s="14"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
@@ -9035,6 +9359,7 @@
       <c r="C335" s="4" t="s">
         <v>1080</v>
       </c>
+      <c r="D335" s="14"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
@@ -9046,6 +9371,7 @@
       <c r="C336" s="4" t="s">
         <v>1081</v>
       </c>
+      <c r="D336" s="14"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
@@ -9057,6 +9383,7 @@
       <c r="C337" s="4" t="s">
         <v>1081</v>
       </c>
+      <c r="D337" s="14"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
@@ -9068,8 +9395,8 @@
       <c r="C338" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="D338" t="s">
-        <v>1275</v>
+      <c r="D338" s="14" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -9082,6 +9409,7 @@
       <c r="C339" s="4" t="s">
         <v>1082</v>
       </c>
+      <c r="D339" s="14"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
@@ -9093,6 +9421,7 @@
       <c r="C340" s="4" t="s">
         <v>1082</v>
       </c>
+      <c r="D340" s="14"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
@@ -9104,6 +9433,7 @@
       <c r="C341" s="4" t="s">
         <v>1082</v>
       </c>
+      <c r="D341" s="14"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
@@ -9115,6 +9445,7 @@
       <c r="C342" s="4" t="s">
         <v>1082</v>
       </c>
+      <c r="D342" s="14"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
@@ -9126,6 +9457,7 @@
       <c r="C343" s="4" t="s">
         <v>1082</v>
       </c>
+      <c r="D343" s="14"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
@@ -9137,8 +9469,8 @@
       <c r="C344" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="D344" t="s">
-        <v>1276</v>
+      <c r="D344" s="14" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -9151,8 +9483,8 @@
       <c r="C345" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="D345" t="s">
-        <v>1277</v>
+      <c r="D345" s="14" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -9165,8 +9497,8 @@
       <c r="C346" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="D346" t="s">
-        <v>1278</v>
+      <c r="D346" s="14" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -9179,8 +9511,8 @@
       <c r="C347" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="D347" t="s">
-        <v>1279</v>
+      <c r="D347" s="14" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -9193,6 +9525,7 @@
       <c r="C348" s="4" t="s">
         <v>1083</v>
       </c>
+      <c r="D348" s="14"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
@@ -9204,6 +9537,7 @@
       <c r="C349" s="4" t="s">
         <v>1084</v>
       </c>
+      <c r="D349" s="14"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
@@ -9215,6 +9549,7 @@
       <c r="C350" s="4" t="s">
         <v>1084</v>
       </c>
+      <c r="D350" s="14"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
@@ -9226,6 +9561,7 @@
       <c r="C351" s="4" t="s">
         <v>1084</v>
       </c>
+      <c r="D351" s="14"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
@@ -9237,8 +9573,8 @@
       <c r="C352" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="D352" t="s">
-        <v>1280</v>
+      <c r="D352" s="14" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -9251,6 +9587,7 @@
       <c r="C353" s="4" t="s">
         <v>1084</v>
       </c>
+      <c r="D353" s="14"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
@@ -9262,7 +9599,7 @@
       <c r="C354" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9276,6 +9613,7 @@
       <c r="C355" s="4" t="s">
         <v>1085</v>
       </c>
+      <c r="D355" s="14"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
@@ -9287,6 +9625,7 @@
       <c r="C356" s="4" t="s">
         <v>1085</v>
       </c>
+      <c r="D356" s="14"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
@@ -9298,6 +9637,7 @@
       <c r="C357" s="4" t="s">
         <v>1085</v>
       </c>
+      <c r="D357" s="14"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
@@ -9309,6 +9649,7 @@
       <c r="C358" s="4" t="s">
         <v>1086</v>
       </c>
+      <c r="D358" s="14"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
@@ -9320,6 +9661,7 @@
       <c r="C359" s="4" t="s">
         <v>1086</v>
       </c>
+      <c r="D359" s="14"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
@@ -9331,6 +9673,7 @@
       <c r="C360" s="4" t="s">
         <v>1087</v>
       </c>
+      <c r="D360" s="14"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
@@ -9342,6 +9685,7 @@
       <c r="C361" s="4" t="s">
         <v>1087</v>
       </c>
+      <c r="D361" s="14"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
@@ -9353,6 +9697,7 @@
       <c r="C362" s="4" t="s">
         <v>1087</v>
       </c>
+      <c r="D362" s="14"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
@@ -9364,6 +9709,7 @@
       <c r="C363" s="4" t="s">
         <v>1087</v>
       </c>
+      <c r="D363" s="14"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
@@ -9375,6 +9721,7 @@
       <c r="C364" s="4" t="s">
         <v>1087</v>
       </c>
+      <c r="D364" s="14"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
@@ -9386,6 +9733,7 @@
       <c r="C365" s="4" t="s">
         <v>1087</v>
       </c>
+      <c r="D365" s="14"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
@@ -9397,8 +9745,8 @@
       <c r="C366" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D366" t="s">
-        <v>1271</v>
+      <c r="D366" s="14" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -9411,8 +9759,8 @@
       <c r="C367" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D367" t="s">
-        <v>1281</v>
+      <c r="D367" s="14" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -9425,6 +9773,7 @@
       <c r="C368" s="4" t="s">
         <v>1088</v>
       </c>
+      <c r="D368" s="14"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
@@ -9436,7 +9785,7 @@
       <c r="C369" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9450,7 +9799,7 @@
       <c r="C370" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9464,6 +9813,7 @@
       <c r="C371" s="4" t="s">
         <v>1089</v>
       </c>
+      <c r="D371" s="14"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
@@ -9475,6 +9825,7 @@
       <c r="C372" s="4" t="s">
         <v>1089</v>
       </c>
+      <c r="D372" s="14"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
@@ -9486,6 +9837,7 @@
       <c r="C373" s="4" t="s">
         <v>1089</v>
       </c>
+      <c r="D373" s="14"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
@@ -9497,7 +9849,7 @@
       <c r="C374" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9511,7 +9863,7 @@
       <c r="C375" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9525,7 +9877,7 @@
       <c r="C376" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9539,6 +9891,7 @@
       <c r="C377" s="4" t="s">
         <v>1090</v>
       </c>
+      <c r="D377" s="14"/>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
@@ -9550,7 +9903,7 @@
       <c r="C378" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9564,7 +9917,7 @@
       <c r="C379" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9578,7 +9931,7 @@
       <c r="C380" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9592,7 +9945,7 @@
       <c r="C381" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9606,7 +9959,7 @@
       <c r="C382" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9620,7 +9973,7 @@
       <c r="C383" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9634,7 +9987,7 @@
       <c r="C384" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9648,7 +10001,7 @@
       <c r="C385" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9662,7 +10015,7 @@
       <c r="C386" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9676,6 +10029,7 @@
       <c r="C387" s="4" t="s">
         <v>1091</v>
       </c>
+      <c r="D387" s="14"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
@@ -9687,8 +10041,8 @@
       <c r="C388" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="D388" t="s">
-        <v>1282</v>
+      <c r="D388" s="14" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -9701,8 +10055,8 @@
       <c r="C389" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="D389" t="s">
-        <v>1283</v>
+      <c r="D389" s="14" t="s">
+        <v>1280</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -9715,6 +10069,7 @@
       <c r="C390" s="4" t="s">
         <v>1093</v>
       </c>
+      <c r="D390" s="14"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
@@ -9726,8 +10081,8 @@
       <c r="C391" s="4" t="s">
         <v>1094</v>
       </c>
-      <c r="D391" t="s">
-        <v>1284</v>
+      <c r="D391" s="14" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -9740,6 +10095,7 @@
       <c r="C392" s="4" t="s">
         <v>1094</v>
       </c>
+      <c r="D392" s="14"/>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
@@ -9751,6 +10107,7 @@
       <c r="C393" s="4" t="s">
         <v>1094</v>
       </c>
+      <c r="D393" s="14"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
@@ -9762,6 +10119,7 @@
       <c r="C394" s="4" t="s">
         <v>1094</v>
       </c>
+      <c r="D394" s="14"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
@@ -9773,7 +10131,7 @@
       <c r="C395" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D395" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9787,7 +10145,7 @@
       <c r="C396" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9801,7 +10159,7 @@
       <c r="C397" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9815,7 +10173,7 @@
       <c r="C398" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9829,7 +10187,7 @@
       <c r="C399" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9843,7 +10201,7 @@
       <c r="C400" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9857,6 +10215,7 @@
       <c r="C401" s="4" t="s">
         <v>1095</v>
       </c>
+      <c r="D401" s="14"/>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
@@ -9868,7 +10227,7 @@
       <c r="C402" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9882,7 +10241,7 @@
       <c r="C403" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9896,7 +10255,7 @@
       <c r="C404" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9910,7 +10269,7 @@
       <c r="C405" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9924,8 +10283,8 @@
       <c r="C406" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D406" t="s">
-        <v>1285</v>
+      <c r="D406" s="14" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -9938,7 +10297,7 @@
       <c r="C407" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -9952,6 +10311,7 @@
       <c r="C408" s="4" t="s">
         <v>1096</v>
       </c>
+      <c r="D408" s="14"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
@@ -9963,6 +10323,7 @@
       <c r="C409" s="4" t="s">
         <v>1097</v>
       </c>
+      <c r="D409" s="14"/>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
@@ -9974,6 +10335,7 @@
       <c r="C410" s="4" t="s">
         <v>1098</v>
       </c>
+      <c r="D410" s="14"/>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
@@ -9985,6 +10347,7 @@
       <c r="C411" s="4" t="s">
         <v>1099</v>
       </c>
+      <c r="D411" s="14"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
@@ -9996,6 +10359,7 @@
       <c r="C412" s="4" t="s">
         <v>1099</v>
       </c>
+      <c r="D412" s="14"/>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
@@ -10007,6 +10371,7 @@
       <c r="C413" s="4" t="s">
         <v>1100</v>
       </c>
+      <c r="D413" s="14"/>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
@@ -10018,6 +10383,7 @@
       <c r="C414" s="4" t="s">
         <v>1100</v>
       </c>
+      <c r="D414" s="14"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
@@ -10029,6 +10395,7 @@
       <c r="C415" s="4" t="s">
         <v>1100</v>
       </c>
+      <c r="D415" s="14"/>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
@@ -10040,6 +10407,7 @@
       <c r="C416" s="4" t="s">
         <v>1100</v>
       </c>
+      <c r="D416" s="14"/>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
@@ -10051,6 +10419,7 @@
       <c r="C417" s="4" t="s">
         <v>1100</v>
       </c>
+      <c r="D417" s="14"/>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
@@ -10062,7 +10431,7 @@
       <c r="C418" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D418" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10076,8 +10445,8 @@
       <c r="C419" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="D419" t="s">
-        <v>1286</v>
+      <c r="D419" s="14" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -10090,7 +10459,7 @@
       <c r="C420" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10104,6 +10473,7 @@
       <c r="C421" s="4" t="s">
         <v>1102</v>
       </c>
+      <c r="D421" s="14"/>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
@@ -10115,6 +10485,7 @@
       <c r="C422" s="4" t="s">
         <v>1102</v>
       </c>
+      <c r="D422" s="14"/>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
@@ -10126,7 +10497,7 @@
       <c r="C423" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D423" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10140,6 +10511,7 @@
       <c r="C424" s="4" t="s">
         <v>1102</v>
       </c>
+      <c r="D424" s="14"/>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
@@ -10151,6 +10523,7 @@
       <c r="C425" s="4" t="s">
         <v>1102</v>
       </c>
+      <c r="D425" s="14"/>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
@@ -10162,6 +10535,7 @@
       <c r="C426" s="4" t="s">
         <v>1102</v>
       </c>
+      <c r="D426" s="14"/>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
@@ -10173,6 +10547,7 @@
       <c r="C427" s="4" t="s">
         <v>1103</v>
       </c>
+      <c r="D427" s="14"/>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
@@ -10184,7 +10559,7 @@
       <c r="C428" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10198,6 +10573,7 @@
       <c r="C429" s="4" t="s">
         <v>1105</v>
       </c>
+      <c r="D429" s="14"/>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
@@ -10209,6 +10585,7 @@
       <c r="C430" s="4" t="s">
         <v>1105</v>
       </c>
+      <c r="D430" s="14"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
@@ -10220,6 +10597,7 @@
       <c r="C431" s="4" t="s">
         <v>1105</v>
       </c>
+      <c r="D431" s="14"/>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
@@ -10231,6 +10609,7 @@
       <c r="C432" s="4" t="s">
         <v>1105</v>
       </c>
+      <c r="D432" s="14"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
@@ -10242,6 +10621,7 @@
       <c r="C433" s="4" t="s">
         <v>1105</v>
       </c>
+      <c r="D433" s="14"/>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
@@ -10253,6 +10633,7 @@
       <c r="C434" s="4" t="s">
         <v>1106</v>
       </c>
+      <c r="D434" s="14"/>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
@@ -10264,7 +10645,7 @@
       <c r="C435" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D435" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10278,7 +10659,7 @@
       <c r="C436" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10292,7 +10673,7 @@
       <c r="C437" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D437" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10306,7 +10687,7 @@
       <c r="C438" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D438" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10320,7 +10701,7 @@
       <c r="C439" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D439" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10334,7 +10715,7 @@
       <c r="C440" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D440" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10348,6 +10729,7 @@
       <c r="C441" s="4" t="s">
         <v>1108</v>
       </c>
+      <c r="D441" s="14"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
@@ -10359,6 +10741,7 @@
       <c r="C442" s="4" t="s">
         <v>1108</v>
       </c>
+      <c r="D442" s="14"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
@@ -10370,6 +10753,7 @@
       <c r="C443" s="4" t="s">
         <v>1108</v>
       </c>
+      <c r="D443" s="14"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
@@ -10381,6 +10765,7 @@
       <c r="C444" s="4" t="s">
         <v>1108</v>
       </c>
+      <c r="D444" s="14"/>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
@@ -10392,6 +10777,7 @@
       <c r="C445" s="4" t="s">
         <v>1108</v>
       </c>
+      <c r="D445" s="14"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
@@ -10403,8 +10789,8 @@
       <c r="C446" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="D446" t="s">
-        <v>1287</v>
+      <c r="D446" s="14" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -10417,6 +10803,7 @@
       <c r="C447" s="4" t="s">
         <v>1110</v>
       </c>
+      <c r="D447" s="14"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
@@ -10428,6 +10815,7 @@
       <c r="C448" s="4" t="s">
         <v>1110</v>
       </c>
+      <c r="D448" s="14"/>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
@@ -10439,6 +10827,7 @@
       <c r="C449" s="4" t="s">
         <v>1111</v>
       </c>
+      <c r="D449" s="14"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
@@ -10450,8 +10839,8 @@
       <c r="C450" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="D450" t="s">
-        <v>1288</v>
+      <c r="D450" s="14" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -10464,7 +10853,7 @@
       <c r="C451" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D451" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10478,7 +10867,7 @@
       <c r="C452" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D452" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10492,7 +10881,7 @@
       <c r="C453" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D453" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10506,7 +10895,7 @@
       <c r="C454" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D454" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10520,6 +10909,7 @@
       <c r="C455" s="4" t="s">
         <v>1113</v>
       </c>
+      <c r="D455" s="14"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
@@ -10531,6 +10921,7 @@
       <c r="C456" s="4" t="s">
         <v>1113</v>
       </c>
+      <c r="D456" s="14"/>
     </row>
     <row r="457" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A457" s="3" t="s">
@@ -10542,8 +10933,8 @@
       <c r="C457" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="D457" s="12" t="s">
-        <v>1289</v>
+      <c r="D457" s="10" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -10556,6 +10947,7 @@
       <c r="C458" s="4" t="s">
         <v>1114</v>
       </c>
+      <c r="D458" s="14"/>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
@@ -10567,6 +10959,7 @@
       <c r="C459" s="4" t="s">
         <v>1114</v>
       </c>
+      <c r="D459" s="14"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
@@ -10578,6 +10971,7 @@
       <c r="C460" s="4" t="s">
         <v>1114</v>
       </c>
+      <c r="D460" s="14"/>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
@@ -10589,6 +10983,7 @@
       <c r="C461" s="4" t="s">
         <v>1114</v>
       </c>
+      <c r="D461" s="14"/>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
@@ -10600,6 +10995,7 @@
       <c r="C462" s="4" t="s">
         <v>1114</v>
       </c>
+      <c r="D462" s="14"/>
     </row>
     <row r="463" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
@@ -10611,8 +11007,8 @@
       <c r="C463" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="D463" s="12" t="s">
-        <v>1290</v>
+      <c r="D463" s="10" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -10625,7 +11021,7 @@
       <c r="C464" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="D464" t="s">
+      <c r="D464" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -10639,8 +11035,8 @@
       <c r="C465" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="D465" t="s">
-        <v>1291</v>
+      <c r="D465" s="14" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -10653,6 +11049,7 @@
       <c r="C466" s="4" t="s">
         <v>1115</v>
       </c>
+      <c r="D466" s="14"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
@@ -10664,6 +11061,7 @@
       <c r="C467" s="4" t="s">
         <v>1115</v>
       </c>
+      <c r="D467" s="14"/>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
@@ -10675,6 +11073,7 @@
       <c r="C468" s="4" t="s">
         <v>1115</v>
       </c>
+      <c r="D468" s="14"/>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
@@ -10686,6 +11085,7 @@
       <c r="C469" s="4" t="s">
         <v>1115</v>
       </c>
+      <c r="D469" s="14"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
@@ -10697,6 +11097,7 @@
       <c r="C470" s="4" t="s">
         <v>1115</v>
       </c>
+      <c r="D470" s="14"/>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
@@ -10708,6 +11109,7 @@
       <c r="C471" s="4" t="s">
         <v>1115</v>
       </c>
+      <c r="D471" s="14"/>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
@@ -10719,6 +11121,7 @@
       <c r="C472" s="4" t="s">
         <v>1115</v>
       </c>
+      <c r="D472" s="14"/>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
@@ -10730,6 +11133,7 @@
       <c r="C473" s="4" t="s">
         <v>1116</v>
       </c>
+      <c r="D473" s="14"/>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
@@ -10741,6 +11145,7 @@
       <c r="C474" s="4" t="s">
         <v>1117</v>
       </c>
+      <c r="D474" s="14"/>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
@@ -10752,6 +11157,7 @@
       <c r="C475" s="4" t="s">
         <v>1117</v>
       </c>
+      <c r="D475" s="14"/>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
@@ -10763,8 +11169,8 @@
       <c r="C476" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="D476" t="s">
-        <v>1292</v>
+      <c r="D476" s="14" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -10777,6 +11183,7 @@
       <c r="C477" s="4" t="s">
         <v>1117</v>
       </c>
+      <c r="D477" s="14"/>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
@@ -10788,6 +11195,7 @@
       <c r="C478" s="4" t="s">
         <v>1117</v>
       </c>
+      <c r="D478" s="14"/>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
@@ -10799,6 +11207,7 @@
       <c r="C479" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D479" s="14"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
@@ -10810,6 +11219,7 @@
       <c r="C480" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D480" s="14"/>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
@@ -10821,6 +11231,7 @@
       <c r="C481" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D481" s="14"/>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
@@ -10832,6 +11243,7 @@
       <c r="C482" s="4" t="s">
         <v>1118</v>
       </c>
+      <c r="D482" s="14"/>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
@@ -10843,6 +11255,7 @@
       <c r="C483" s="4" t="s">
         <v>1118</v>
       </c>
+      <c r="D483" s="14"/>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
@@ -10854,6 +11267,7 @@
       <c r="C484" s="4" t="s">
         <v>1118</v>
       </c>
+      <c r="D484" s="14"/>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
@@ -10865,6 +11279,7 @@
       <c r="C485" s="4" t="s">
         <v>1119</v>
       </c>
+      <c r="D485" s="14"/>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
@@ -10876,8 +11291,8 @@
       <c r="C486" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="D486" t="s">
-        <v>1293</v>
+      <c r="D486" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -10890,6 +11305,7 @@
       <c r="C487" s="4" t="s">
         <v>1119</v>
       </c>
+      <c r="D487" s="14"/>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
@@ -10901,6 +11317,7 @@
       <c r="C488" s="4" t="s">
         <v>1119</v>
       </c>
+      <c r="D488" s="14"/>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
@@ -10912,6 +11329,7 @@
       <c r="C489" s="4" t="s">
         <v>1119</v>
       </c>
+      <c r="D489" s="14"/>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
@@ -10923,6 +11341,7 @@
       <c r="C490" s="4" t="s">
         <v>1120</v>
       </c>
+      <c r="D490" s="14"/>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
@@ -10934,6 +11353,7 @@
       <c r="C491" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D491" s="14"/>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
@@ -10945,6 +11365,7 @@
       <c r="C492" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D492" s="14"/>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
@@ -10956,6 +11377,7 @@
       <c r="C493" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D493" s="14"/>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
@@ -10967,6 +11389,7 @@
       <c r="C494" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D494" s="14"/>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
@@ -10978,6 +11401,7 @@
       <c r="C495" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D495" s="14"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
@@ -10989,6 +11413,7 @@
       <c r="C496" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D496" s="14"/>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
@@ -11000,6 +11425,7 @@
       <c r="C497" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D497" s="14"/>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
@@ -11011,6 +11437,7 @@
       <c r="C498" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D498" s="14"/>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
@@ -11022,7 +11449,7 @@
       <c r="C499" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="D499" t="s">
+      <c r="D499" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11036,7 +11463,7 @@
       <c r="C500" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="D500" t="s">
+      <c r="D500" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11050,7 +11477,7 @@
       <c r="C501" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="D501" t="s">
+      <c r="D501" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11064,7 +11491,7 @@
       <c r="C502" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="D502" t="s">
+      <c r="D502" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11078,6 +11505,7 @@
       <c r="C503" s="4" t="s">
         <v>1121</v>
       </c>
+      <c r="D503" s="14"/>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
@@ -11089,6 +11517,7 @@
       <c r="C504" s="4" t="s">
         <v>1121</v>
       </c>
+      <c r="D504" s="14"/>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
@@ -11100,7 +11529,7 @@
       <c r="C505" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="D505" t="s">
+      <c r="D505" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11114,6 +11543,7 @@
       <c r="C506" s="4" t="s">
         <v>1121</v>
       </c>
+      <c r="D506" s="14"/>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
@@ -11125,6 +11555,7 @@
       <c r="C507" s="4" t="s">
         <v>1121</v>
       </c>
+      <c r="D507" s="14"/>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
@@ -11136,6 +11567,7 @@
       <c r="C508" s="4" t="s">
         <v>1121</v>
       </c>
+      <c r="D508" s="14"/>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
@@ -11147,7 +11579,7 @@
       <c r="C509" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="D509" t="s">
+      <c r="D509" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11161,6 +11593,7 @@
       <c r="C510" s="4" t="s">
         <v>1122</v>
       </c>
+      <c r="D510" s="14"/>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
@@ -11172,6 +11605,7 @@
       <c r="C511" s="4" t="s">
         <v>1122</v>
       </c>
+      <c r="D511" s="14"/>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
@@ -11183,6 +11617,7 @@
       <c r="C512" s="4" t="s">
         <v>1122</v>
       </c>
+      <c r="D512" s="14"/>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
@@ -11194,7 +11629,7 @@
       <c r="C513" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D513" t="s">
+      <c r="D513" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11208,7 +11643,7 @@
       <c r="C514" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D514" t="s">
+      <c r="D514" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11222,7 +11657,7 @@
       <c r="C515" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D515" t="s">
+      <c r="D515" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11236,7 +11671,7 @@
       <c r="C516" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D516" t="s">
+      <c r="D516" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11250,6 +11685,7 @@
       <c r="C517" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D517" s="14"/>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
@@ -11261,6 +11697,7 @@
       <c r="C518" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D518" s="14"/>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
@@ -11272,7 +11709,7 @@
       <c r="C519" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D519" t="s">
+      <c r="D519" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11286,7 +11723,7 @@
       <c r="C520" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D520" t="s">
+      <c r="D520" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11300,6 +11737,7 @@
       <c r="C521" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D521" s="14"/>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
@@ -11311,6 +11749,7 @@
       <c r="C522" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D522" s="14"/>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
@@ -11322,6 +11761,7 @@
       <c r="C523" s="4" t="s">
         <v>1123</v>
       </c>
+      <c r="D523" s="14"/>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
@@ -11333,6 +11773,7 @@
       <c r="C524" s="4" t="s">
         <v>1123</v>
       </c>
+      <c r="D524" s="14"/>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
@@ -11344,6 +11785,7 @@
       <c r="C525" s="4" t="s">
         <v>1123</v>
       </c>
+      <c r="D525" s="14"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
@@ -11355,6 +11797,7 @@
       <c r="C526" s="4" t="s">
         <v>1123</v>
       </c>
+      <c r="D526" s="14"/>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
@@ -11366,8 +11809,8 @@
       <c r="C527" s="4" t="s">
         <v>1123</v>
       </c>
-      <c r="D527" t="s">
-        <v>1294</v>
+      <c r="D527" s="14" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
@@ -11380,6 +11823,7 @@
       <c r="C528" s="4" t="s">
         <v>1123</v>
       </c>
+      <c r="D528" s="14"/>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
@@ -11391,6 +11835,7 @@
       <c r="C529" s="4" t="s">
         <v>1124</v>
       </c>
+      <c r="D529" s="14"/>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
@@ -11402,8 +11847,8 @@
       <c r="C530" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="D530" t="s">
-        <v>1295</v>
+      <c r="D530" s="14" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
@@ -11416,8 +11861,8 @@
       <c r="C531" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="D531" t="s">
-        <v>1296</v>
+      <c r="D531" s="14" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -11430,8 +11875,8 @@
       <c r="C532" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="D532" t="s">
-        <v>1297</v>
+      <c r="D532" s="14" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
@@ -11444,8 +11889,8 @@
       <c r="C533" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="D533" t="s">
-        <v>1298</v>
+      <c r="D533" s="14" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
@@ -11458,8 +11903,8 @@
       <c r="C534" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="D534" t="s">
-        <v>1299</v>
+      <c r="D534" s="14" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
@@ -11472,8 +11917,8 @@
       <c r="C535" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="D535" t="s">
-        <v>1300</v>
+      <c r="D535" s="14" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
@@ -11486,6 +11931,7 @@
       <c r="C536" s="4" t="s">
         <v>1125</v>
       </c>
+      <c r="D536" s="14"/>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
@@ -11497,8 +11943,8 @@
       <c r="C537" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D537" t="s">
-        <v>1301</v>
+      <c r="D537" s="14" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
@@ -11511,6 +11957,7 @@
       <c r="C538" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="D538" s="14"/>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
@@ -11522,6 +11969,7 @@
       <c r="C539" s="4" t="s">
         <v>1126</v>
       </c>
+      <c r="D539" s="14"/>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
@@ -11533,6 +11981,7 @@
       <c r="C540" s="4" t="s">
         <v>1126</v>
       </c>
+      <c r="D540" s="14"/>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
@@ -11544,6 +11993,7 @@
       <c r="C541" s="4" t="s">
         <v>1126</v>
       </c>
+      <c r="D541" s="14"/>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
@@ -11555,6 +12005,7 @@
       <c r="C542" s="4" t="s">
         <v>1126</v>
       </c>
+      <c r="D542" s="14"/>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
@@ -11566,6 +12017,7 @@
       <c r="C543" s="4" t="s">
         <v>1126</v>
       </c>
+      <c r="D543" s="14"/>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
@@ -11577,8 +12029,9 @@
       <c r="C544" s="4" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D544" s="14"/>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
         <v>664</v>
       </c>
@@ -11588,8 +12041,9 @@
       <c r="C545" s="4" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D545" s="14"/>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
         <v>665</v>
       </c>
@@ -11599,8 +12053,9 @@
       <c r="C546" s="4" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D546" s="14"/>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
         <v>666</v>
       </c>
@@ -11610,8 +12065,9 @@
       <c r="C547" s="4" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D547" s="14"/>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
         <v>667</v>
       </c>
@@ -11621,8 +12077,9 @@
       <c r="C548" s="4" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D548" s="14"/>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
         <v>668</v>
       </c>
@@ -11632,8 +12089,9 @@
       <c r="C549" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D549" s="14"/>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="3" t="s">
         <v>669</v>
       </c>
@@ -11643,8 +12101,9 @@
       <c r="C550" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D550" s="14"/>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
         <v>671</v>
       </c>
@@ -11654,8 +12113,9 @@
       <c r="C551" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D551" s="14"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
         <v>672</v>
       </c>
@@ -11665,8 +12125,9 @@
       <c r="C552" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D552" s="14"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
         <v>673</v>
       </c>
@@ -11676,8 +12137,9 @@
       <c r="C553" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D553" s="14"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="3" t="s">
         <v>674</v>
       </c>
@@ -11687,8 +12149,9 @@
       <c r="C554" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D554" s="14"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
         <v>675</v>
       </c>
@@ -11698,8 +12161,9 @@
       <c r="C555" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D555" s="14"/>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="3" t="s">
         <v>676</v>
       </c>
@@ -11709,8 +12173,9 @@
       <c r="C556" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D556" s="14"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
         <v>677</v>
       </c>
@@ -11720,8 +12185,9 @@
       <c r="C557" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D557" s="14"/>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="3" t="s">
         <v>678</v>
       </c>
@@ -11731,8 +12197,9 @@
       <c r="C558" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D558" s="14"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
         <v>679</v>
       </c>
@@ -11742,8 +12209,9 @@
       <c r="C559" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D559" s="14"/>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="3" t="s">
         <v>680</v>
       </c>
@@ -11753,6 +12221,7 @@
       <c r="C560" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D560" s="14"/>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
@@ -11764,8 +12233,8 @@
       <c r="C561" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D561" t="s">
-        <v>1302</v>
+      <c r="D561" s="14" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
@@ -11778,7 +12247,7 @@
       <c r="C562" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D562" t="s">
+      <c r="D562" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11792,7 +12261,7 @@
       <c r="C563" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D563" t="s">
+      <c r="D563" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11806,7 +12275,7 @@
       <c r="C564" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D564" t="s">
+      <c r="D564" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11820,7 +12289,7 @@
       <c r="C565" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D565" t="s">
+      <c r="D565" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11834,7 +12303,7 @@
       <c r="C566" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D566" t="s">
+      <c r="D566" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11848,7 +12317,7 @@
       <c r="C567" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D567" t="s">
+      <c r="D567" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11862,7 +12331,7 @@
       <c r="C568" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D568" t="s">
+      <c r="D568" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11876,7 +12345,7 @@
       <c r="C569" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D569" t="s">
+      <c r="D569" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11890,7 +12359,7 @@
       <c r="C570" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D570" t="s">
+      <c r="D570" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11904,7 +12373,7 @@
       <c r="C571" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D571" t="s">
+      <c r="D571" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11918,7 +12387,7 @@
       <c r="C572" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D572" t="s">
+      <c r="D572" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11932,7 +12401,7 @@
       <c r="C573" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D573" t="s">
+      <c r="D573" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11946,7 +12415,7 @@
       <c r="C574" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D574" t="s">
+      <c r="D574" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11960,7 +12429,7 @@
       <c r="C575" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D575" t="s">
+      <c r="D575" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11974,7 +12443,7 @@
       <c r="C576" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D576" t="s">
+      <c r="D576" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -11988,7 +12457,7 @@
       <c r="C577" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D577" t="s">
+      <c r="D577" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12002,7 +12471,7 @@
       <c r="C578" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D578" t="s">
+      <c r="D578" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12016,7 +12485,7 @@
       <c r="C579" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D579" t="s">
+      <c r="D579" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12030,7 +12499,7 @@
       <c r="C580" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D580" t="s">
+      <c r="D580" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12044,7 +12513,7 @@
       <c r="C581" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D581" t="s">
+      <c r="D581" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12058,7 +12527,7 @@
       <c r="C582" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D582" t="s">
+      <c r="D582" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12072,7 +12541,7 @@
       <c r="C583" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D583" t="s">
+      <c r="D583" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12086,7 +12555,7 @@
       <c r="C584" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D584" t="s">
+      <c r="D584" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12100,7 +12569,7 @@
       <c r="C585" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D585" t="s">
+      <c r="D585" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12114,8 +12583,8 @@
       <c r="C586" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D586" t="s">
-        <v>1303</v>
+      <c r="D586" s="14" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
@@ -12128,7 +12597,7 @@
       <c r="C587" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D587" t="s">
+      <c r="D587" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12142,7 +12611,7 @@
       <c r="C588" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D588" t="s">
+      <c r="D588" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12156,7 +12625,7 @@
       <c r="C589" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D589" t="s">
+      <c r="D589" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12170,7 +12639,7 @@
       <c r="C590" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D590" t="s">
+      <c r="D590" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12184,7 +12653,7 @@
       <c r="C591" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D591" t="s">
+      <c r="D591" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12198,7 +12667,7 @@
       <c r="C592" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D592" t="s">
+      <c r="D592" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12212,7 +12681,7 @@
       <c r="C593" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D593" t="s">
+      <c r="D593" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12226,7 +12695,7 @@
       <c r="C594" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D594" t="s">
+      <c r="D594" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12240,7 +12709,7 @@
       <c r="C595" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D595" t="s">
+      <c r="D595" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12254,7 +12723,7 @@
       <c r="C596" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D596" t="s">
+      <c r="D596" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12268,7 +12737,7 @@
       <c r="C597" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D597" t="s">
+      <c r="D597" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12282,7 +12751,7 @@
       <c r="C598" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D598" t="s">
+      <c r="D598" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12296,7 +12765,7 @@
       <c r="C599" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D599" t="s">
+      <c r="D599" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12310,7 +12779,7 @@
       <c r="C600" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D600" t="s">
+      <c r="D600" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12324,7 +12793,7 @@
       <c r="C601" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D601" t="s">
+      <c r="D601" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12338,7 +12807,7 @@
       <c r="C602" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D602" t="s">
+      <c r="D602" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12352,7 +12821,7 @@
       <c r="C603" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D603" t="s">
+      <c r="D603" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12366,7 +12835,7 @@
       <c r="C604" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D604" t="s">
+      <c r="D604" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12380,7 +12849,7 @@
       <c r="C605" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D605" t="s">
+      <c r="D605" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12394,7 +12863,7 @@
       <c r="C606" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D606" t="s">
+      <c r="D606" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12408,7 +12877,7 @@
       <c r="C607" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D607" t="s">
+      <c r="D607" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12422,7 +12891,7 @@
       <c r="C608" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D608" t="s">
+      <c r="D608" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12436,7 +12905,7 @@
       <c r="C609" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D609" t="s">
+      <c r="D609" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12450,7 +12919,7 @@
       <c r="C610" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D610" t="s">
+      <c r="D610" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12464,7 +12933,7 @@
       <c r="C611" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D611" t="s">
+      <c r="D611" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12478,7 +12947,7 @@
       <c r="C612" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D612" t="s">
+      <c r="D612" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12492,7 +12961,7 @@
       <c r="C613" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D613" t="s">
+      <c r="D613" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12506,7 +12975,7 @@
       <c r="C614" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D614" t="s">
+      <c r="D614" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12520,7 +12989,7 @@
       <c r="C615" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D615" t="s">
+      <c r="D615" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12534,6 +13003,7 @@
       <c r="C616" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D616" s="14"/>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
@@ -12545,6 +13015,7 @@
       <c r="C617" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D617" s="14"/>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="3" t="s">
@@ -12556,6 +13027,7 @@
       <c r="C618" s="4" t="s">
         <v>1130</v>
       </c>
+      <c r="D618" s="14"/>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
@@ -12567,6 +13039,7 @@
       <c r="C619" s="4" t="s">
         <v>1131</v>
       </c>
+      <c r="D619" s="14"/>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="3" t="s">
@@ -12578,6 +13051,7 @@
       <c r="C620" s="4" t="s">
         <v>1132</v>
       </c>
+      <c r="D620" s="14"/>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
@@ -12589,6 +13063,7 @@
       <c r="C621" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D621" s="14"/>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
@@ -12600,6 +13075,7 @@
       <c r="C622" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D622" s="14"/>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
@@ -12611,6 +13087,7 @@
       <c r="C623" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D623" s="14"/>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
@@ -12622,6 +13099,7 @@
       <c r="C624" s="4" t="s">
         <v>1133</v>
       </c>
+      <c r="D624" s="14"/>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
@@ -12633,6 +13111,7 @@
       <c r="C625" s="4" t="s">
         <v>1133</v>
       </c>
+      <c r="D625" s="14"/>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
@@ -12644,6 +13123,7 @@
       <c r="C626" s="4" t="s">
         <v>1133</v>
       </c>
+      <c r="D626" s="14"/>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
@@ -12655,6 +13135,7 @@
       <c r="C627" s="4" t="s">
         <v>1133</v>
       </c>
+      <c r="D627" s="14"/>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="3" t="s">
@@ -12666,6 +13147,7 @@
       <c r="C628" s="4" t="s">
         <v>1133</v>
       </c>
+      <c r="D628" s="14"/>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
@@ -12677,8 +13159,8 @@
       <c r="C629" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="D629" t="s">
-        <v>1304</v>
+      <c r="D629" s="14" t="s">
+        <v>1301</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
@@ -12691,6 +13173,7 @@
       <c r="C630" s="4" t="s">
         <v>1133</v>
       </c>
+      <c r="D630" s="14"/>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
@@ -12702,6 +13185,7 @@
       <c r="C631" s="4" t="s">
         <v>1133</v>
       </c>
+      <c r="D631" s="14"/>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="3" t="s">
@@ -12713,6 +13197,7 @@
       <c r="C632" s="4" t="s">
         <v>1133</v>
       </c>
+      <c r="D632" s="14"/>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
@@ -12724,6 +13209,7 @@
       <c r="C633" s="4" t="s">
         <v>1133</v>
       </c>
+      <c r="D633" s="14"/>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="3" t="s">
@@ -12735,6 +13221,7 @@
       <c r="C634" s="4" t="s">
         <v>1134</v>
       </c>
+      <c r="D634" s="14"/>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
@@ -12746,6 +13233,7 @@
       <c r="C635" s="4" t="s">
         <v>1134</v>
       </c>
+      <c r="D635" s="14"/>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="3" t="s">
@@ -12757,7 +13245,7 @@
       <c r="C636" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="D636" t="s">
+      <c r="D636" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12771,7 +13259,7 @@
       <c r="C637" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="D637" t="s">
+      <c r="D637" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12785,7 +13273,7 @@
       <c r="C638" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="D638" t="s">
+      <c r="D638" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12799,7 +13287,7 @@
       <c r="C639" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="D639" t="s">
+      <c r="D639" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12813,7 +13301,7 @@
       <c r="C640" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="D640" t="s">
+      <c r="D640" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12827,7 +13315,7 @@
       <c r="C641" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="D641" t="s">
+      <c r="D641" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12841,7 +13329,7 @@
       <c r="C642" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="D642" t="s">
+      <c r="D642" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12855,7 +13343,7 @@
       <c r="C643" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D643" t="s">
+      <c r="D643" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -12869,6 +13357,7 @@
       <c r="C644" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D644" s="14"/>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="3" t="s">
@@ -12880,6 +13369,7 @@
       <c r="C645" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D645" s="14"/>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="3" t="s">
@@ -12891,6 +13381,7 @@
       <c r="C646" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D646" s="14"/>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
@@ -12902,6 +13393,7 @@
       <c r="C647" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D647" s="14"/>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="3" t="s">
@@ -12913,6 +13405,7 @@
       <c r="C648" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D648" s="14"/>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="3" t="s">
@@ -12924,6 +13417,7 @@
       <c r="C649" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D649" s="14"/>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="3" t="s">
@@ -12935,8 +13429,8 @@
       <c r="C650" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D650" t="s">
-        <v>1305</v>
+      <c r="D650" s="14" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
@@ -12949,6 +13443,7 @@
       <c r="C651" s="4" t="s">
         <v>1135</v>
       </c>
+      <c r="D651" s="14"/>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="3" t="s">
@@ -12960,6 +13455,7 @@
       <c r="C652" s="4" t="s">
         <v>1135</v>
       </c>
+      <c r="D652" s="14"/>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="3" t="s">
@@ -12971,6 +13467,7 @@
       <c r="C653" s="4" t="s">
         <v>1135</v>
       </c>
+      <c r="D653" s="14"/>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="3" t="s">
@@ -12982,6 +13479,7 @@
       <c r="C654" s="4" t="s">
         <v>1136</v>
       </c>
+      <c r="D654" s="14"/>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="3" t="s">
@@ -12993,6 +13491,7 @@
       <c r="C655" s="4" t="s">
         <v>1136</v>
       </c>
+      <c r="D655" s="14"/>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
@@ -13004,8 +13503,9 @@
       <c r="C656" s="4" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D656" s="14"/>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="3" t="s">
         <v>778</v>
       </c>
@@ -13015,8 +13515,9 @@
       <c r="C657" s="4" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D657" s="14"/>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="3" t="s">
         <v>779</v>
       </c>
@@ -13026,8 +13527,9 @@
       <c r="C658" s="4" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D658" s="14"/>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="3" t="s">
         <v>780</v>
       </c>
@@ -13037,8 +13539,9 @@
       <c r="C659" s="4" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D659" s="14"/>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="3" t="s">
         <v>781</v>
       </c>
@@ -13048,8 +13551,9 @@
       <c r="C660" s="4" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D660" s="14"/>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
         <v>782</v>
       </c>
@@ -13059,8 +13563,9 @@
       <c r="C661" s="4" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D661" s="14"/>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="3" t="s">
         <v>783</v>
       </c>
@@ -13070,8 +13575,9 @@
       <c r="C662" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D662" s="14"/>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="3" t="s">
         <v>784</v>
       </c>
@@ -13081,8 +13587,9 @@
       <c r="C663" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D663" s="14"/>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="3" t="s">
         <v>785</v>
       </c>
@@ -13092,8 +13599,9 @@
       <c r="C664" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D664" s="14"/>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="3" t="s">
         <v>786</v>
       </c>
@@ -13103,8 +13611,9 @@
       <c r="C665" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D665" s="14"/>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="3" t="s">
         <v>787</v>
       </c>
@@ -13114,8 +13623,9 @@
       <c r="C666" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D666" s="14"/>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="3" t="s">
         <v>788</v>
       </c>
@@ -13125,8 +13635,9 @@
       <c r="C667" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D667" s="14"/>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="3" t="s">
         <v>789</v>
       </c>
@@ -13136,8 +13647,9 @@
       <c r="C668" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D668" s="14"/>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="3" t="s">
         <v>790</v>
       </c>
@@ -13147,8 +13659,9 @@
       <c r="C669" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D669" s="14"/>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="3" t="s">
         <v>791</v>
       </c>
@@ -13158,8 +13671,9 @@
       <c r="C670" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D670" s="14"/>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="3" t="s">
         <v>792</v>
       </c>
@@ -13169,8 +13683,9 @@
       <c r="C671" s="4" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D671" s="14"/>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="3" t="s">
         <v>793</v>
       </c>
@@ -13180,6 +13695,7 @@
       <c r="C672" s="4" t="s">
         <v>1138</v>
       </c>
+      <c r="D672" s="14"/>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="3" t="s">
@@ -13191,6 +13707,7 @@
       <c r="C673" s="4" t="s">
         <v>1138</v>
       </c>
+      <c r="D673" s="14"/>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
@@ -13202,6 +13719,7 @@
       <c r="C674" s="4" t="s">
         <v>1138</v>
       </c>
+      <c r="D674" s="14"/>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
@@ -13213,6 +13731,7 @@
       <c r="C675" s="4" t="s">
         <v>1139</v>
       </c>
+      <c r="D675" s="14"/>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="3" t="s">
@@ -13224,6 +13743,7 @@
       <c r="C676" s="4" t="s">
         <v>1139</v>
       </c>
+      <c r="D676" s="14"/>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="3" t="s">
@@ -13235,6 +13755,7 @@
       <c r="C677" s="4" t="s">
         <v>1139</v>
       </c>
+      <c r="D677" s="14"/>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="3" t="s">
@@ -13246,6 +13767,7 @@
       <c r="C678" s="4" t="s">
         <v>1139</v>
       </c>
+      <c r="D678" s="14"/>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="3" t="s">
@@ -13257,6 +13779,7 @@
       <c r="C679" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D679" s="14"/>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="3" t="s">
@@ -13268,6 +13791,7 @@
       <c r="C680" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D680" s="14"/>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="3" t="s">
@@ -13279,6 +13803,7 @@
       <c r="C681" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D681" s="14"/>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="3" t="s">
@@ -13290,7 +13815,7 @@
       <c r="C682" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D682" t="s">
+      <c r="D682" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13304,6 +13829,7 @@
       <c r="C683" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D683" s="14"/>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="3" t="s">
@@ -13315,6 +13841,7 @@
       <c r="C684" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D684" s="14"/>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="3" t="s">
@@ -13326,6 +13853,7 @@
       <c r="C685" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D685" s="14"/>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="3" t="s">
@@ -13337,7 +13865,7 @@
       <c r="C686" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D686" t="s">
+      <c r="D686" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13351,7 +13879,7 @@
       <c r="C687" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D687" t="s">
+      <c r="D687" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13365,6 +13893,7 @@
       <c r="C688" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D688" s="14"/>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="3" t="s">
@@ -13376,6 +13905,7 @@
       <c r="C689" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D689" s="14"/>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="3" t="s">
@@ -13387,6 +13917,7 @@
       <c r="C690" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="D690" s="14"/>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="3" t="s">
@@ -13398,6 +13929,7 @@
       <c r="C691" s="4" t="s">
         <v>1140</v>
       </c>
+      <c r="D691" s="14"/>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="3" t="s">
@@ -13409,6 +13941,7 @@
       <c r="C692" s="4" t="s">
         <v>1140</v>
       </c>
+      <c r="D692" s="14"/>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="3" t="s">
@@ -13420,6 +13953,7 @@
       <c r="C693" s="4" t="s">
         <v>1140</v>
       </c>
+      <c r="D693" s="14"/>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="3" t="s">
@@ -13431,6 +13965,7 @@
       <c r="C694" s="4" t="s">
         <v>1140</v>
       </c>
+      <c r="D694" s="14"/>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="3" t="s">
@@ -13442,6 +13977,7 @@
       <c r="C695" s="4" t="s">
         <v>1140</v>
       </c>
+      <c r="D695" s="14"/>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="3" t="s">
@@ -13453,6 +13989,7 @@
       <c r="C696" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="D696" s="14"/>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="3" t="s">
@@ -13464,8 +14001,8 @@
       <c r="C697" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D697" t="s">
-        <v>1306</v>
+      <c r="D697" s="14" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
@@ -13478,6 +14015,7 @@
       <c r="C698" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="D698" s="14"/>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="3" t="s">
@@ -13489,6 +14027,7 @@
       <c r="C699" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="D699" s="14"/>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="3" t="s">
@@ -13500,6 +14039,7 @@
       <c r="C700" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="D700" s="14"/>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="3" t="s">
@@ -13511,6 +14051,7 @@
       <c r="C701" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="D701" s="14"/>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="3" t="s">
@@ -13522,8 +14063,8 @@
       <c r="C702" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D702" t="s">
-        <v>1307</v>
+      <c r="D702" s="14" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
@@ -13536,6 +14077,7 @@
       <c r="C703" s="4" t="s">
         <v>1141</v>
       </c>
+      <c r="D703" s="14"/>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="3" t="s">
@@ -13547,6 +14089,7 @@
       <c r="C704" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D704" s="14"/>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="3" t="s">
@@ -13558,6 +14101,7 @@
       <c r="C705" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D705" s="14"/>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="3" t="s">
@@ -13569,6 +14113,7 @@
       <c r="C706" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D706" s="14"/>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
@@ -13580,6 +14125,7 @@
       <c r="C707" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D707" s="14"/>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="3" t="s">
@@ -13591,6 +14137,7 @@
       <c r="C708" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D708" s="14"/>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="3" t="s">
@@ -13602,6 +14149,7 @@
       <c r="C709" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D709" s="14"/>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="3" t="s">
@@ -13613,6 +14161,7 @@
       <c r="C710" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D710" s="14"/>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="3" t="s">
@@ -13624,6 +14173,7 @@
       <c r="C711" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D711" s="14"/>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="3" t="s">
@@ -13635,6 +14185,7 @@
       <c r="C712" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D712" s="14"/>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="3" t="s">
@@ -13646,6 +14197,7 @@
       <c r="C713" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D713" s="14"/>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="3" t="s">
@@ -13657,6 +14209,7 @@
       <c r="C714" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D714" s="14"/>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
@@ -13668,6 +14221,7 @@
       <c r="C715" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D715" s="14"/>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
@@ -13679,8 +14233,8 @@
       <c r="C716" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="D716" t="s">
-        <v>1308</v>
+      <c r="D716" s="14" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
@@ -13693,6 +14247,7 @@
       <c r="C717" s="4" t="s">
         <v>1142</v>
       </c>
+      <c r="D717" s="14"/>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="3" t="s">
@@ -13704,6 +14259,7 @@
       <c r="C718" s="4" t="s">
         <v>1142</v>
       </c>
+      <c r="D718" s="14"/>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="3" t="s">
@@ -13715,6 +14271,7 @@
       <c r="C719" s="4" t="s">
         <v>1142</v>
       </c>
+      <c r="D719" s="14"/>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="3" t="s">
@@ -13726,8 +14283,8 @@
       <c r="C720" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="D720" t="s">
-        <v>1309</v>
+      <c r="D720" s="14" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
@@ -13740,6 +14297,7 @@
       <c r="C721" s="4" t="s">
         <v>1142</v>
       </c>
+      <c r="D721" s="14"/>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="3" t="s">
@@ -13751,6 +14309,7 @@
       <c r="C722" s="4" t="s">
         <v>1142</v>
       </c>
+      <c r="D722" s="14"/>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="3" t="s">
@@ -13762,6 +14321,7 @@
       <c r="C723" s="4" t="s">
         <v>1142</v>
       </c>
+      <c r="D723" s="14"/>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="3" t="s">
@@ -13773,8 +14333,8 @@
       <c r="C724" s="4" t="s">
         <v>1143</v>
       </c>
-      <c r="D724" t="s">
-        <v>1310</v>
+      <c r="D724" s="14" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
@@ -13787,6 +14347,7 @@
       <c r="C725" s="4" t="s">
         <v>1143</v>
       </c>
+      <c r="D725" s="14"/>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="3" t="s">
@@ -13798,6 +14359,7 @@
       <c r="C726" s="4" t="s">
         <v>1143</v>
       </c>
+      <c r="D726" s="14"/>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="3" t="s">
@@ -13809,7 +14371,7 @@
       <c r="C727" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D727" t="s">
+      <c r="D727" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13823,7 +14385,7 @@
       <c r="C728" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D728" t="s">
+      <c r="D728" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13837,7 +14399,7 @@
       <c r="C729" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D729" t="s">
+      <c r="D729" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13851,7 +14413,7 @@
       <c r="C730" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D730" t="s">
+      <c r="D730" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13865,7 +14427,7 @@
       <c r="C731" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D731" t="s">
+      <c r="D731" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13879,7 +14441,7 @@
       <c r="C732" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D732" t="s">
+      <c r="D732" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13893,7 +14455,7 @@
       <c r="C733" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D733" t="s">
+      <c r="D733" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13907,7 +14469,7 @@
       <c r="C734" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D734" t="s">
+      <c r="D734" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13921,7 +14483,7 @@
       <c r="C735" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D735" t="s">
+      <c r="D735" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13935,7 +14497,7 @@
       <c r="C736" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D736" t="s">
+      <c r="D736" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13949,8 +14511,8 @@
       <c r="C737" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D737" t="s">
-        <v>1311</v>
+      <c r="D737" s="14" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
@@ -13963,7 +14525,7 @@
       <c r="C738" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D738" t="s">
+      <c r="D738" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13977,7 +14539,7 @@
       <c r="C739" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D739" t="s">
+      <c r="D739" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13991,7 +14553,7 @@
       <c r="C740" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D740" t="s">
+      <c r="D740" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14005,7 +14567,7 @@
       <c r="C741" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D741" t="s">
+      <c r="D741" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14019,7 +14581,7 @@
       <c r="C742" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D742" t="s">
+      <c r="D742" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14033,6 +14595,7 @@
       <c r="C743" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="D743" s="14"/>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="3" t="s">
@@ -14044,7 +14607,7 @@
       <c r="C744" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D744" t="s">
+      <c r="D744" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14058,7 +14621,7 @@
       <c r="C745" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D745" t="s">
+      <c r="D745" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14072,7 +14635,7 @@
       <c r="C746" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D746" t="s">
+      <c r="D746" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14086,7 +14649,7 @@
       <c r="C747" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D747" t="s">
+      <c r="D747" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14100,7 +14663,7 @@
       <c r="C748" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D748" t="s">
+      <c r="D748" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14114,7 +14677,7 @@
       <c r="C749" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D749" t="s">
+      <c r="D749" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14128,7 +14691,7 @@
       <c r="C750" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D750" t="s">
+      <c r="D750" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14142,7 +14705,7 @@
       <c r="C751" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D751" t="s">
+      <c r="D751" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14156,7 +14719,7 @@
       <c r="C752" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D752" t="s">
+      <c r="D752" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14170,7 +14733,7 @@
       <c r="C753" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D753" t="s">
+      <c r="D753" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14184,7 +14747,7 @@
       <c r="C754" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D754" t="s">
+      <c r="D754" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14198,7 +14761,7 @@
       <c r="C755" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D755" t="s">
+      <c r="D755" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14212,7 +14775,7 @@
       <c r="C756" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D756" t="s">
+      <c r="D756" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14226,7 +14789,7 @@
       <c r="C757" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D757" t="s">
+      <c r="D757" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14240,6 +14803,7 @@
       <c r="C758" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D758" s="14"/>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="3" t="s">
@@ -14251,6 +14815,7 @@
       <c r="C759" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D759" s="14"/>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="3" t="s">
@@ -14262,6 +14827,7 @@
       <c r="C760" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D760" s="14"/>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="3" t="s">
@@ -14273,6 +14839,7 @@
       <c r="C761" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D761" s="14"/>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="3" t="s">
@@ -14284,6 +14851,7 @@
       <c r="C762" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D762" s="14"/>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="3" t="s">
@@ -14295,6 +14863,7 @@
       <c r="C763" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D763" s="14"/>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="3" t="s">
@@ -14306,6 +14875,7 @@
       <c r="C764" s="4" t="s">
         <v>1144</v>
       </c>
+      <c r="D764" s="14"/>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="3" t="s">
@@ -14317,7 +14887,7 @@
       <c r="C765" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D765" t="s">
+      <c r="D765" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14331,6 +14901,7 @@
       <c r="C766" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D766" s="14"/>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="3" t="s">
@@ -14342,7 +14913,7 @@
       <c r="C767" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D767" t="s">
+      <c r="D767" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14356,7 +14927,7 @@
       <c r="C768" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D768" t="s">
+      <c r="D768" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14370,6 +14941,7 @@
       <c r="C769" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D769" s="14"/>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" s="3" t="s">
@@ -14381,7 +14953,7 @@
       <c r="C770" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D770" t="s">
+      <c r="D770" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14395,8 +14967,8 @@
       <c r="C771" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D771" t="s">
-        <v>1312</v>
+      <c r="D771" s="14" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
@@ -14409,6 +14981,7 @@
       <c r="C772" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D772" s="14"/>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="3" t="s">
@@ -14420,7 +14993,7 @@
       <c r="C773" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D773" t="s">
+      <c r="D773" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14434,7 +15007,7 @@
       <c r="C774" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="D774" t="s">
+      <c r="D774" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14448,8 +15021,8 @@
       <c r="C775" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="D775" t="s">
-        <v>1313</v>
+      <c r="D775" s="14" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
@@ -14462,7 +15035,7 @@
       <c r="C776" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="D776" t="s">
+      <c r="D776" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14476,7 +15049,7 @@
       <c r="C777" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="D777" t="s">
+      <c r="D777" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14490,6 +15063,7 @@
       <c r="C778" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D778" s="14"/>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="3" t="s">
@@ -14501,6 +15075,7 @@
       <c r="C779" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D779" s="14"/>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="3" t="s">
@@ -14512,6 +15087,7 @@
       <c r="C780" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D780" s="14"/>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" s="3" t="s">
@@ -14523,8 +15099,8 @@
       <c r="C781" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D781" t="s">
-        <v>1314</v>
+      <c r="D781" s="14" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
@@ -14537,6 +15113,7 @@
       <c r="C782" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D782" s="14"/>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" s="3" t="s">
@@ -14548,6 +15125,7 @@
       <c r="C783" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D783" s="14"/>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" s="3" t="s">
@@ -14559,8 +15137,8 @@
       <c r="C784" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D784" t="s">
-        <v>1314</v>
+      <c r="D784" s="14" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.3">
@@ -14573,6 +15151,7 @@
       <c r="C785" s="4" t="s">
         <v>1146</v>
       </c>
+      <c r="D785" s="14"/>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="3" t="s">
@@ -14584,6 +15163,7 @@
       <c r="C786" s="4" t="s">
         <v>1146</v>
       </c>
+      <c r="D786" s="14"/>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="3" t="s">
@@ -14595,6 +15175,7 @@
       <c r="C787" s="4" t="s">
         <v>1146</v>
       </c>
+      <c r="D787" s="14"/>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="3" t="s">
@@ -14606,6 +15187,7 @@
       <c r="C788" s="4" t="s">
         <v>1146</v>
       </c>
+      <c r="D788" s="14"/>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="3" t="s">
@@ -14617,7 +15199,7 @@
       <c r="C789" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D789" t="s">
+      <c r="D789" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14631,6 +15213,7 @@
       <c r="C790" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D790" s="14"/>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="3" t="s">
@@ -14642,6 +15225,7 @@
       <c r="C791" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D791" s="14"/>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" s="3" t="s">
@@ -14653,6 +15237,7 @@
       <c r="C792" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D792" s="14"/>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="3" t="s">
@@ -14664,6 +15249,7 @@
       <c r="C793" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D793" s="14"/>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="3" t="s">
@@ -14675,6 +15261,7 @@
       <c r="C794" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D794" s="14"/>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="3" t="s">
@@ -14686,6 +15273,7 @@
       <c r="C795" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D795" s="14"/>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="3" t="s">
@@ -14697,6 +15285,7 @@
       <c r="C796" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D796" s="14"/>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="3" t="s">
@@ -14708,6 +15297,7 @@
       <c r="C797" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="D797" s="14"/>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="7" t="s">
@@ -14719,6 +15309,7 @@
       <c r="C798" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="D798" s="14"/>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="3" t="s">
@@ -14730,6 +15321,7 @@
       <c r="C799" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D799" s="14"/>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" s="3" t="s">
@@ -14741,8 +15333,8 @@
       <c r="C800" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="D800" t="s">
-        <v>1315</v>
+      <c r="D800" s="14" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
@@ -14755,7 +15347,7 @@
       <c r="C801" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D801" t="s">
+      <c r="D801" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14769,7 +15361,7 @@
       <c r="C802" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D802" t="s">
+      <c r="D802" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14783,6 +15375,7 @@
       <c r="C803" s="4" t="s">
         <v>1148</v>
       </c>
+      <c r="D803" s="14"/>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" s="3" t="s">
@@ -14794,7 +15387,7 @@
       <c r="C804" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D804" t="s">
+      <c r="D804" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14808,7 +15401,7 @@
       <c r="C805" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D805" t="s">
+      <c r="D805" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14822,7 +15415,7 @@
       <c r="C806" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D806" t="s">
+      <c r="D806" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14836,8 +15429,8 @@
       <c r="C807" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="D807" s="9" t="s">
-        <v>1293</v>
+      <c r="D807" s="15" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
@@ -14850,7 +15443,7 @@
       <c r="C808" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D808" t="s">
+      <c r="D808" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14864,7 +15457,7 @@
       <c r="C809" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D809" t="s">
+      <c r="D809" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14876,7 +15469,7 @@
       <c r="C810" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D810" t="s">
+      <c r="D810" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14890,7 +15483,7 @@
       <c r="C811" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D811" t="s">
+      <c r="D811" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14904,7 +15497,7 @@
       <c r="C812" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D812" t="s">
+      <c r="D812" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14918,7 +15511,7 @@
       <c r="C813" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D813" t="s">
+      <c r="D813" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14932,8 +15525,8 @@
       <c r="C814" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D814" t="s">
-        <v>1316</v>
+      <c r="D814" s="14" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.3">
@@ -14946,7 +15539,7 @@
       <c r="C815" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D815" t="s">
+      <c r="D815" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14960,7 +15553,7 @@
       <c r="C816" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D816" t="s">
+      <c r="D816" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14974,8 +15567,8 @@
       <c r="C817" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D817" t="s">
-        <v>1293</v>
+      <c r="D817" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.3">
@@ -14988,8 +15581,8 @@
       <c r="C818" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D818" t="s">
-        <v>1293</v>
+      <c r="D818" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.3">
@@ -15002,8 +15595,8 @@
       <c r="C819" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D819" t="s">
-        <v>1293</v>
+      <c r="D819" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
@@ -15016,8 +15609,8 @@
       <c r="C820" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D820" t="s">
-        <v>1293</v>
+      <c r="D820" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
@@ -15030,8 +15623,8 @@
       <c r="C821" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D821" s="9" t="s">
-        <v>1293</v>
+      <c r="D821" s="15" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
@@ -15044,8 +15637,8 @@
       <c r="C822" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D822" t="s">
-        <v>1293</v>
+      <c r="D822" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.3">
@@ -15058,8 +15651,8 @@
       <c r="C823" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D823" t="s">
-        <v>1293</v>
+      <c r="D823" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.3">
@@ -15072,8 +15665,8 @@
       <c r="C824" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D824" t="s">
-        <v>1293</v>
+      <c r="D824" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
@@ -15086,8 +15679,8 @@
       <c r="C825" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D825" t="s">
-        <v>1314</v>
+      <c r="D825" s="14" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
@@ -15100,8 +15693,8 @@
       <c r="C826" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D826" t="s">
-        <v>1293</v>
+      <c r="D826" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
@@ -15114,8 +15707,8 @@
       <c r="C827" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D827" t="s">
-        <v>1293</v>
+      <c r="D827" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.3">
@@ -15128,8 +15721,8 @@
       <c r="C828" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D828" t="s">
-        <v>1293</v>
+      <c r="D828" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.3">
@@ -15142,8 +15735,8 @@
       <c r="C829" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D829" t="s">
-        <v>1293</v>
+      <c r="D829" s="14" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
@@ -15156,6 +15749,7 @@
       <c r="C830" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D830" s="14"/>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" s="3" t="s">
@@ -15167,7 +15761,7 @@
       <c r="C831" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D831" t="s">
+      <c r="D831" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15181,7 +15775,7 @@
       <c r="C832" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D832" t="s">
+      <c r="D832" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15195,7 +15789,7 @@
       <c r="C833" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D833" t="s">
+      <c r="D833" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15209,7 +15803,7 @@
       <c r="C834" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D834" t="s">
+      <c r="D834" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15223,7 +15817,7 @@
       <c r="C835" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D835" t="s">
+      <c r="D835" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15237,7 +15831,7 @@
       <c r="C836" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D836" t="s">
+      <c r="D836" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15251,7 +15845,7 @@
       <c r="C837" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D837" t="s">
+      <c r="D837" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15265,7 +15859,7 @@
       <c r="C838" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D838" t="s">
+      <c r="D838" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15279,6 +15873,7 @@
       <c r="C839" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D839" s="14"/>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" s="3" t="s">
@@ -15290,7 +15885,7 @@
       <c r="C840" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D840" t="s">
+      <c r="D840" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15304,7 +15899,7 @@
       <c r="C841" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D841" t="s">
+      <c r="D841" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15318,6 +15913,7 @@
       <c r="C842" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D842" s="14"/>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" s="3" t="s">
@@ -15329,7 +15925,7 @@
       <c r="C843" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D843" t="s">
+      <c r="D843" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15343,7 +15939,7 @@
       <c r="C844" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D844" t="s">
+      <c r="D844" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15357,6 +15953,7 @@
       <c r="C845" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="D845" s="14"/>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" s="3" t="s">
@@ -15368,6 +15965,7 @@
       <c r="C846" s="4" t="s">
         <v>1151</v>
       </c>
+      <c r="D846" s="14"/>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A847" s="3" t="s">
@@ -15379,7 +15977,7 @@
       <c r="C847" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="D847" t="s">
+      <c r="D847" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -15393,6 +15991,7 @@
       <c r="C848" s="4" t="s">
         <v>1152</v>
       </c>
+      <c r="D848" s="14"/>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" s="3" t="s">
@@ -15404,6 +16003,7 @@
       <c r="C849" s="4" t="s">
         <v>1152</v>
       </c>
+      <c r="D849" s="14"/>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" s="3" t="s">
@@ -15415,6 +16015,7 @@
       <c r="C850" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="D850" s="14"/>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" s="3" t="s">
@@ -15426,6 +16027,7 @@
       <c r="C851" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="D851" s="14"/>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" s="3" t="s">
@@ -15437,6 +16039,7 @@
       <c r="C852" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="D852" s="14"/>
     </row>
     <row r="853" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="3" t="s">
@@ -15448,394 +16051,823 @@
       <c r="C853" s="4" t="s">
         <v>1149</v>
       </c>
+      <c r="D853" s="14"/>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A854" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B854" t="s">
+      <c r="A854" s="14" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B854" s="14" t="s">
         <v>215</v>
       </c>
       <c r="C854" s="16" t="s">
         <v>1149</v>
       </c>
+      <c r="D854" s="14"/>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A855" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B855" t="s">
+      <c r="A855" s="14" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B855" s="14" t="s">
         <v>215</v>
       </c>
       <c r="C855" s="16" t="s">
         <v>1149</v>
       </c>
+      <c r="D855" s="14"/>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A856" t="s">
+      <c r="A856" s="14" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B856" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C856" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D856" s="14"/>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A857" s="14" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B857" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C857" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D857" s="14" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A858" s="14" t="s">
         <v>1350</v>
       </c>
-      <c r="B856" t="s">
-        <v>160</v>
-      </c>
-      <c r="C856" s="16" t="s">
+      <c r="B858" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C858" s="16" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D858" s="14"/>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A859" s="14" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B859" s="14" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C859" s="16" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A857" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B857" t="s">
-        <v>561</v>
-      </c>
-      <c r="C857" s="16" t="s">
+      <c r="D859" s="14" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A860" s="17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B860" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C860" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D860" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A861" s="17" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B861" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C861" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D861" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A862" s="17" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B862" s="14" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C862" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D862" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A863" s="17" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B863" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C863" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D863" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A864" s="17" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B864" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C864" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D864" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A865" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B865" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C865" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D865" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A866" s="17" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B866" s="14" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C866" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D866" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A867" s="17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B867" s="14" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C867" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D867" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A868" s="17" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B868" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C868" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D868" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A869" s="17" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B869" s="14" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C869" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D869" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A870" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="B870" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C870" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D870" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A871" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="B871" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C871" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D871" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A872" s="17" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B872" s="14" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C872" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D872" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A873" s="17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B873" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C873" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D873" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A874" s="17" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B874" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C874" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D874" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A875" s="17" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B875" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C875" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D875" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A876" s="17" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B876" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C876" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D876" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A877" s="17" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B877" s="14" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C877" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D877" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A878" s="17" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B878" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C878" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D878" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A879" s="17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B879" s="14" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C879" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D879" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A880" s="17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B880" s="14" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C880" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D880" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A881" s="14" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B881" s="14" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C881" s="16" t="s">
         <v>1355</v>
       </c>
-      <c r="D857" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A858" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B858" t="s">
-        <v>132</v>
-      </c>
-      <c r="C858" s="16" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A859" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B859" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C859" s="16" t="s">
+      <c r="D881" s="14"/>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A882" s="14" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B882" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C882" s="16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D882" s="14"/>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A883" s="19" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B883" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C883" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D883" s="14"/>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A884" s="19" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B884" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C884" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D884" s="14"/>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A885" s="19" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B885" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C885" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D885" s="14"/>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A886" s="19" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B886" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C886" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D886" s="14"/>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A887" s="19" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B887" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C887" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D887" s="14"/>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A888" s="12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B888" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C888" s="20" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D888" s="14"/>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A889" s="19" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B889" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C889" s="20" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D889" s="14"/>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A890" s="19" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B890" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C890" s="20" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D890" s="14"/>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A891" s="19" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B891" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C891" s="20" t="s">
         <v>1357</v>
       </c>
-      <c r="D859" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A860" s="13" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B860" t="s">
-        <v>56</v>
-      </c>
-      <c r="C860" s="16" t="s">
+      <c r="D891" s="14"/>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A892" s="19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B892" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="C892" s="20" t="s">
         <v>1357</v>
       </c>
-      <c r="D860" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A861" s="13" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B861" t="s">
-        <v>48</v>
-      </c>
-      <c r="C861" s="16" t="s">
+      <c r="D892" s="14"/>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A893" s="19" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B893" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C893" s="20" t="s">
         <v>1357</v>
       </c>
-      <c r="D861" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="862" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A862" s="13" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B862" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C862" s="16" t="s">
+      <c r="D893" s="14"/>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A894" s="19" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B894" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="C894" s="20" t="s">
         <v>1357</v>
       </c>
-      <c r="D862" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A863" s="13" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B863" t="s">
+      <c r="D894" s="14"/>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A895" s="19" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B895" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C895" s="20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D895" s="14"/>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A896" s="19" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B896" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C896" s="20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D896" s="14"/>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A897" s="19" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B897" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C897" s="20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D897" s="14"/>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A898" s="19" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B898" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C898" s="20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D898" s="14"/>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A899" s="19" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B899" s="19" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C899" s="20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D899" s="14"/>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A900" s="19" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B900" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="C863" s="16" t="s">
+      <c r="C900" s="20" t="s">
         <v>1357</v>
       </c>
-      <c r="D863" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A864" s="13" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B864" t="s">
-        <v>215</v>
-      </c>
-      <c r="C864" s="16" t="s">
+      <c r="D900" s="14"/>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A901" s="19" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B901" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="C901" s="20" t="s">
         <v>1357</v>
       </c>
-      <c r="D864" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A865" s="13" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B865" t="s">
-        <v>70</v>
-      </c>
-      <c r="C865" s="16" t="s">
+      <c r="D901" s="14"/>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A902" s="19" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B902" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C902" s="20" t="s">
         <v>1357</v>
       </c>
-      <c r="D865" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="866" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A866" s="13" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B866" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C866" s="16" t="s">
+      <c r="D902" s="14" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A903" s="12" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B903" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C903" s="20" t="s">
         <v>1357</v>
       </c>
-      <c r="D866" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="867" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A867" s="13" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B867" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C867" s="16" t="s">
+      <c r="D903" s="14"/>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A904" s="19" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B904" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="C904" s="20" t="s">
         <v>1357</v>
       </c>
-      <c r="D867" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A868" s="13" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B868" t="s">
-        <v>70</v>
-      </c>
-      <c r="C868" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D868" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A869" s="13" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B869" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C869" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D869" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A870" s="13" t="s">
-        <v>626</v>
-      </c>
-      <c r="B870" t="s">
-        <v>85</v>
-      </c>
-      <c r="C870" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D870" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A871" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="B871" t="s">
-        <v>70</v>
-      </c>
-      <c r="C871" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D871" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="872" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A872" s="13" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B872" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C872" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D872" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A873" s="13" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B873" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="C873" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D873" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A874" s="13" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B874" t="s">
-        <v>70</v>
-      </c>
-      <c r="C874" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D874" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A875" s="13" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B875" t="s">
-        <v>70</v>
-      </c>
-      <c r="C875" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D875" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="876" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A876" s="13" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B876" t="s">
-        <v>85</v>
-      </c>
-      <c r="C876" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D876" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A877" s="13" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B877" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C877" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D877" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A878" s="13" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B878" t="s">
-        <v>271</v>
-      </c>
-      <c r="C878" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D878" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A879" s="13" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B879" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C879" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D879" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A880" s="13" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B880" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C880" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D880" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A881" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B881" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C881" s="16" t="s">
+      <c r="D904" s="14"/>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A905" s="19" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B905" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C905" s="20" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A882" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B882" t="s">
-        <v>89</v>
-      </c>
-      <c r="C882" s="16" t="s">
+      <c r="D905" s="14"/>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A906" s="19" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B906" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C906" s="20" t="s">
         <v>1358</v>
       </c>
+      <c r="D906" s="14"/>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A907" s="19" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B907" s="19" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C907" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D907" s="14"/>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A908" s="19" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B908" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C908" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D908" s="14"/>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A909" s="19" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B909" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C909" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D909" s="14"/>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A910" s="19" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B910" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C910" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D910" s="14"/>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A911" s="19" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B911" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="C911" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D911" s="14"/>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A912" s="19" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B912" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C912" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D912" s="14"/>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A913" s="19" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B913" s="19" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C913" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D913" s="14"/>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A914" s="19" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B914" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C914" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D914" s="14"/>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A915" s="19" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B915" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C915" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D915" s="14"/>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A916" s="19" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B916" s="19" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C916" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D916" s="14"/>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A917" s="19" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B917" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C917" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D917" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A853" xr:uid="{D2773680-67AB-4233-9C97-EFB5A20E4C41}"/>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Юрики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76BE2F2-8FFA-4A8B-AA55-A0257B8D9990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F5A46-B97B-4467-8DF0-E23843519FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Юрики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F5A46-B97B-4467-8DF0-E23843519FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098482D2-F452-4DA0-8EF3-B74A8BC5CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4283,7 +4283,7 @@
     </r>
   </si>
   <si>
-    <t>Приоритетность разблокирвока счета</t>
+    <t>Приоритетность разблокировка счета</t>
   </si>
 </sst>
 </file>
@@ -5089,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2773680-67AB-4233-9C97-EFB5A20E4C41}">
   <dimension ref="A1:D917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A895" workbookViewId="0">
-      <selection activeCell="D902" sqref="D902"/>
+    <sheetView tabSelected="1" topLeftCell="A883" workbookViewId="0">
+      <selection activeCell="D903" sqref="D903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Юрики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06486C9-F3B4-4750-B899-CB48A4CD0E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$853</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="1441">
   <si>
     <t>обслуживание</t>
   </si>
@@ -4582,17 +4582,150 @@
       <t xml:space="preserve"> сумма налога до сих пор не списана почему</t>
     </r>
   </si>
+  <si>
+    <t>работает ли сегодня платежи маркетплейсов</t>
+  </si>
+  <si>
+    <t>продать</t>
+  </si>
+  <si>
+    <t>я хочу узнать в каком банке я могу продать золото-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">обман банка </t>
+  </si>
+  <si>
+    <t>очередность платежей</t>
+  </si>
+  <si>
+    <t>заменить батарею</t>
+  </si>
+  <si>
+    <t>проблема с обслуживанием проблема с обслуживанием счета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">я хочу узнать в городе махачкале в банкомате по проспекту шамиля есть деньги или нет/ есть ли деньги в банкомате </t>
+  </si>
+  <si>
+    <t>продажа на маркет поясах</t>
+  </si>
+  <si>
+    <t>по вопросу инвестиционного кредитования</t>
+  </si>
+  <si>
+    <t>ну там мое дело</t>
+  </si>
+  <si>
+    <t>вхождение в альфа клуб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если незаконно или несанкционированно списали деньги </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">мне нужен вопрос решить по переводу денег в другую организацию а мой личный </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>кабинет заблокирован</t>
+    </r>
+  </si>
+  <si>
+    <t>вопрос когда мои деньги поступят в фнс</t>
+  </si>
+  <si>
+    <t>Директ банк</t>
+  </si>
+  <si>
+    <t>Альфа-директ,  Альфа-инвестиции</t>
+  </si>
+  <si>
+    <t>резервирование суммы</t>
+  </si>
+  <si>
+    <t>по поводу канал телеграм канала альфа банка</t>
+  </si>
+  <si>
+    <t>оплата налога через заблокированный счет</t>
+  </si>
+  <si>
+    <t>отправлял письмо на розыск денег ответа нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розыск платежа( просто не видит платеж) </t>
+  </si>
+  <si>
+    <t>Розыск денег ( из-за слова "денеги" )</t>
+  </si>
+  <si>
+    <t>как подключить зарплатный проект при смене генерального директора</t>
+  </si>
+  <si>
+    <t>Смена директора (OS_Actualization_director)</t>
+  </si>
+  <si>
+    <t>отправляем сюда металлические счета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">договорились на созвоне такие фразы направлять в этот интент </t>
+  </si>
+  <si>
+    <t>есть услуга совместно с бухгалтерией «Моё дело»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если деньги спил банк,  то баланс, а если нет слова "банк",  то мошен. </t>
+  </si>
+  <si>
+    <t>альфа</t>
+  </si>
+  <si>
+    <t>выдача займа</t>
+  </si>
+  <si>
+    <t>🞄25.07.2025</t>
+  </si>
+  <si>
+    <t>🞄28.07.2025</t>
+  </si>
+  <si>
+    <t>🞄29.07.2025</t>
+  </si>
+  <si>
+    <t>🞄30.07.2025</t>
+  </si>
+  <si>
+    <t>🞄31.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рутокен | пин код для токена </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4650,13 +4783,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF001016"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4705,6 +4831,15 @@
       <color rgb="FF343332"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4744,32 +4879,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4777,30 +4913,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2" xr:uid="{C7A14A64-6A09-416E-A11E-D6139BD69E65}"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5154,7 +5298,20 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Лист1"/>
@@ -5428,14 +5585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2773680-67AB-4233-9C97-EFB5A20E4C41}">
-  <dimension ref="A1:D919"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D946"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A930" workbookViewId="0">
+      <selection activeCell="B946" sqref="B946"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.109375" style="1" customWidth="1"/>
@@ -5443,7 +5600,7 @@
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5457,7 +5614,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
@@ -5469,7 +5626,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
@@ -5481,7 +5638,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
@@ -5493,7 +5650,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
@@ -5507,7 +5664,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
@@ -5521,7 +5678,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -5533,7 +5690,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
@@ -5547,7 +5704,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -5559,7 +5716,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
         <v>58</v>
       </c>
@@ -5571,7 +5728,7 @@
       </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
@@ -5583,7 +5740,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
         <v>62</v>
       </c>
@@ -5595,7 +5752,7 @@
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
         <v>64</v>
       </c>
@@ -5607,7 +5764,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>66</v>
       </c>
@@ -5619,7 +5776,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
         <v>1329</v>
       </c>
@@ -5631,7 +5788,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>67</v>
       </c>
@@ -5643,7 +5800,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
         <v>1330</v>
       </c>
@@ -5655,7 +5812,7 @@
       </c>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>1331</v>
       </c>
@@ -5667,7 +5824,7 @@
       </c>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
         <v>69</v>
       </c>
@@ -5679,7 +5836,7 @@
       </c>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
         <v>70</v>
       </c>
@@ -5691,7 +5848,7 @@
       </c>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
         <v>72</v>
       </c>
@@ -5703,7 +5860,7 @@
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>74</v>
       </c>
@@ -5717,7 +5874,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
         <v>76</v>
       </c>
@@ -5729,7 +5886,7 @@
       </c>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
         <v>77</v>
       </c>
@@ -5741,7 +5898,7 @@
       </c>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
         <v>79</v>
       </c>
@@ -5753,7 +5910,7 @@
       </c>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>80</v>
       </c>
@@ -5765,7 +5922,7 @@
       </c>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
         <v>81</v>
       </c>
@@ -5777,7 +5934,7 @@
       </c>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
         <v>82</v>
       </c>
@@ -5789,7 +5946,7 @@
       </c>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
@@ -5801,7 +5958,7 @@
       </c>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>85</v>
       </c>
@@ -5813,7 +5970,7 @@
       </c>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
         <v>87</v>
       </c>
@@ -5827,7 +5984,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
         <v>89</v>
       </c>
@@ -5839,7 +5996,7 @@
       </c>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
         <v>91</v>
       </c>
@@ -5853,7 +6010,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
         <v>92</v>
       </c>
@@ -5865,7 +6022,7 @@
       </c>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
         <v>94</v>
       </c>
@@ -5879,7 +6036,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
         <v>96</v>
       </c>
@@ -5893,7 +6050,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
         <v>97</v>
       </c>
@@ -5907,7 +6064,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
         <v>99</v>
       </c>
@@ -5919,7 +6076,7 @@
       </c>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
         <v>101</v>
       </c>
@@ -5931,7 +6088,7 @@
       </c>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
         <v>103</v>
       </c>
@@ -5943,7 +6100,7 @@
       </c>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
         <v>104</v>
       </c>
@@ -5955,7 +6112,7 @@
       </c>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
         <v>106</v>
       </c>
@@ -5967,7 +6124,7 @@
       </c>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
         <v>107</v>
       </c>
@@ -5981,7 +6138,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
         <v>108</v>
       </c>
@@ -5993,7 +6150,7 @@
       </c>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
         <v>110</v>
       </c>
@@ -6005,7 +6162,7 @@
       </c>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
         <v>111</v>
       </c>
@@ -6019,7 +6176,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
@@ -6031,7 +6188,7 @@
       </c>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
         <v>113</v>
       </c>
@@ -6043,7 +6200,7 @@
       </c>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
         <v>114</v>
       </c>
@@ -6057,7 +6214,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
         <v>115</v>
       </c>
@@ -6071,7 +6228,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -6083,7 +6240,7 @@
       </c>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="9" t="s">
         <v>117</v>
       </c>
@@ -6095,7 +6252,7 @@
       </c>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
         <v>118</v>
       </c>
@@ -6107,7 +6264,7 @@
       </c>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="9" t="s">
         <v>119</v>
       </c>
@@ -6119,7 +6276,7 @@
       </c>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="9" t="s">
         <v>120</v>
       </c>
@@ -6133,7 +6290,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="9" t="s">
         <v>122</v>
       </c>
@@ -6145,7 +6302,7 @@
       </c>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="9" t="s">
         <v>123</v>
       </c>
@@ -6159,7 +6316,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="9" t="s">
         <v>124</v>
       </c>
@@ -6171,7 +6328,7 @@
       </c>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="9" t="s">
         <v>125</v>
       </c>
@@ -6183,7 +6340,7 @@
       </c>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
         <v>127</v>
       </c>
@@ -6195,7 +6352,7 @@
       </c>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
         <v>128</v>
       </c>
@@ -6209,7 +6366,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="9" t="s">
         <v>129</v>
       </c>
@@ -6221,7 +6378,7 @@
       </c>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="9" t="s">
         <v>131</v>
       </c>
@@ -6233,7 +6390,7 @@
       </c>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="9" t="s">
         <v>133</v>
       </c>
@@ -6245,7 +6402,7 @@
       </c>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
         <v>134</v>
       </c>
@@ -6257,7 +6414,7 @@
       </c>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="9" t="s">
         <v>135</v>
       </c>
@@ -6269,7 +6426,7 @@
       </c>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="9" t="s">
         <v>136</v>
       </c>
@@ -6281,7 +6438,7 @@
       </c>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" s="9" t="s">
         <v>138</v>
       </c>
@@ -6293,7 +6450,7 @@
       </c>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" s="9" t="s">
         <v>139</v>
       </c>
@@ -6305,7 +6462,7 @@
       </c>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" s="9" t="s">
         <v>140</v>
       </c>
@@ -6319,7 +6476,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" s="9" t="s">
         <v>141</v>
       </c>
@@ -6331,7 +6488,7 @@
       </c>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" s="9" t="s">
         <v>142</v>
       </c>
@@ -6345,7 +6502,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" s="9" t="s">
         <v>143</v>
       </c>
@@ -6357,7 +6514,7 @@
       </c>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" s="9" t="s">
         <v>144</v>
       </c>
@@ -6369,7 +6526,7 @@
       </c>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" s="9" t="s">
         <v>145</v>
       </c>
@@ -6383,7 +6540,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" s="8" t="s">
         <v>146</v>
       </c>
@@ -6397,7 +6554,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" s="9" t="s">
         <v>148</v>
       </c>
@@ -6409,7 +6566,7 @@
       </c>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" s="9" t="s">
         <v>1333</v>
       </c>
@@ -6423,7 +6580,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" s="10" t="s">
         <v>150</v>
       </c>
@@ -6435,7 +6592,7 @@
       </c>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" s="9" t="s">
         <v>152</v>
       </c>
@@ -6447,7 +6604,7 @@
       </c>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" s="9" t="s">
         <v>154</v>
       </c>
@@ -6459,7 +6616,7 @@
       </c>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" s="10" t="s">
         <v>155</v>
       </c>
@@ -6471,7 +6628,7 @@
       </c>
       <c r="D82" s="18"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" s="10" t="s">
         <v>156</v>
       </c>
@@ -6483,7 +6640,7 @@
       </c>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" s="9" t="s">
         <v>158</v>
       </c>
@@ -6495,7 +6652,7 @@
       </c>
       <c r="D84" s="18"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" s="9" t="s">
         <v>159</v>
       </c>
@@ -6507,7 +6664,7 @@
       </c>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" s="9" t="s">
         <v>160</v>
       </c>
@@ -6519,7 +6676,7 @@
       </c>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" s="10" t="s">
         <v>161</v>
       </c>
@@ -6531,7 +6688,7 @@
       </c>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" s="10" t="s">
         <v>163</v>
       </c>
@@ -6545,7 +6702,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" s="10" t="s">
         <v>164</v>
       </c>
@@ -6557,7 +6714,7 @@
       </c>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" s="10" t="s">
         <v>165</v>
       </c>
@@ -6569,7 +6726,7 @@
       </c>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" s="10" t="s">
         <v>166</v>
       </c>
@@ -6583,7 +6740,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" s="10" t="s">
         <v>167</v>
       </c>
@@ -6597,7 +6754,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" s="10" t="s">
         <v>168</v>
       </c>
@@ -6609,7 +6766,7 @@
       </c>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" s="9" t="s">
         <v>169</v>
       </c>
@@ -6623,7 +6780,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" s="10" t="s">
         <v>170</v>
       </c>
@@ -6637,7 +6794,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" s="10" t="s">
         <v>171</v>
       </c>
@@ -6649,7 +6806,7 @@
       </c>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" s="10" t="s">
         <v>1109</v>
       </c>
@@ -6661,7 +6818,7 @@
       </c>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" s="10" t="s">
         <v>1334</v>
       </c>
@@ -6675,7 +6832,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" s="10" t="s">
         <v>172</v>
       </c>
@@ -6687,7 +6844,7 @@
       </c>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" s="10" t="s">
         <v>173</v>
       </c>
@@ -6699,7 +6856,7 @@
       </c>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" s="10" t="s">
         <v>174</v>
       </c>
@@ -6711,7 +6868,7 @@
       </c>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" s="10" t="s">
         <v>175</v>
       </c>
@@ -6725,7 +6882,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" s="10" t="s">
         <v>177</v>
       </c>
@@ -6739,7 +6896,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" s="10" t="s">
         <v>179</v>
       </c>
@@ -6753,7 +6910,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" s="10" t="s">
         <v>181</v>
       </c>
@@ -6765,7 +6922,7 @@
       </c>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" s="10" t="s">
         <v>182</v>
       </c>
@@ -6777,7 +6934,7 @@
       </c>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" s="5" t="s">
         <v>183</v>
       </c>
@@ -6791,7 +6948,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" s="10" t="s">
         <v>184</v>
       </c>
@@ -6805,7 +6962,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" s="9" t="s">
         <v>186</v>
       </c>
@@ -6817,7 +6974,7 @@
       </c>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" s="10" t="s">
         <v>187</v>
       </c>
@@ -6829,7 +6986,7 @@
       </c>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" s="10" t="s">
         <v>103</v>
       </c>
@@ -6841,7 +6998,7 @@
       </c>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" s="10" t="s">
         <v>188</v>
       </c>
@@ -6855,7 +7012,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" s="5" t="s">
         <v>189</v>
       </c>
@@ -6869,7 +7026,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" s="10" t="s">
         <v>190</v>
       </c>
@@ -6883,7 +7040,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" s="10" t="s">
         <v>191</v>
       </c>
@@ -6895,7 +7052,7 @@
       </c>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" s="11" t="s">
         <v>192</v>
       </c>
@@ -6907,7 +7064,7 @@
       </c>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" s="9" t="s">
         <v>1379</v>
       </c>
@@ -6919,7 +7076,7 @@
       </c>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" s="10" t="s">
         <v>194</v>
       </c>
@@ -6933,7 +7090,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" s="10" t="s">
         <v>195</v>
       </c>
@@ -6945,7 +7102,7 @@
       </c>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" s="10" t="s">
         <v>196</v>
       </c>
@@ -6957,7 +7114,7 @@
       </c>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" s="10" t="s">
         <v>198</v>
       </c>
@@ -6969,7 +7126,7 @@
       </c>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" s="10" t="s">
         <v>199</v>
       </c>
@@ -6981,7 +7138,7 @@
       </c>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" s="10" t="s">
         <v>201</v>
       </c>
@@ -6993,7 +7150,7 @@
       </c>
       <c r="D123" s="18"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" s="10" t="s">
         <v>202</v>
       </c>
@@ -7005,7 +7162,7 @@
       </c>
       <c r="D124" s="18"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" s="10" t="s">
         <v>203</v>
       </c>
@@ -7017,7 +7174,7 @@
       </c>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" s="10" t="s">
         <v>204</v>
       </c>
@@ -7031,7 +7188,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" s="10" t="s">
         <v>205</v>
       </c>
@@ -7045,7 +7202,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" s="10" t="s">
         <v>206</v>
       </c>
@@ -7059,7 +7216,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" s="10" t="s">
         <v>208</v>
       </c>
@@ -7071,7 +7228,7 @@
       </c>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" s="10" t="s">
         <v>209</v>
       </c>
@@ -7083,7 +7240,7 @@
       </c>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" s="10" t="s">
         <v>210</v>
       </c>
@@ -7095,7 +7252,7 @@
       </c>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" s="10" t="s">
         <v>211</v>
       </c>
@@ -7109,7 +7266,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" s="10" t="s">
         <v>213</v>
       </c>
@@ -7123,7 +7280,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" s="10" t="s">
         <v>214</v>
       </c>
@@ -7135,7 +7292,7 @@
       </c>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" s="10" t="s">
         <v>215</v>
       </c>
@@ -7147,7 +7304,7 @@
       </c>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" s="10" t="s">
         <v>217</v>
       </c>
@@ -7159,7 +7316,7 @@
       </c>
       <c r="D136" s="18"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" s="10" t="s">
         <v>218</v>
       </c>
@@ -7171,7 +7328,7 @@
       </c>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" s="10" t="s">
         <v>219</v>
       </c>
@@ -7183,7 +7340,7 @@
       </c>
       <c r="D138" s="18"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" s="10" t="s">
         <v>221</v>
       </c>
@@ -7195,7 +7352,7 @@
       </c>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" s="10" t="s">
         <v>222</v>
       </c>
@@ -7207,7 +7364,7 @@
       </c>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" s="10" t="s">
         <v>223</v>
       </c>
@@ -7221,7 +7378,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" s="10" t="s">
         <v>224</v>
       </c>
@@ -7233,7 +7390,7 @@
       </c>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" s="10" t="s">
         <v>225</v>
       </c>
@@ -7245,7 +7402,7 @@
       </c>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" s="10" t="s">
         <v>226</v>
       </c>
@@ -7257,7 +7414,7 @@
       </c>
       <c r="D144" s="9"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" s="10" t="s">
         <v>227</v>
       </c>
@@ -7269,7 +7426,7 @@
       </c>
       <c r="D145" s="9"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" s="10" t="s">
         <v>229</v>
       </c>
@@ -7281,7 +7438,7 @@
       </c>
       <c r="D146" s="9"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" s="10" t="s">
         <v>230</v>
       </c>
@@ -7295,7 +7452,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" s="10" t="s">
         <v>231</v>
       </c>
@@ -7307,7 +7464,7 @@
       </c>
       <c r="D148" s="9"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" s="9" t="s">
         <v>232</v>
       </c>
@@ -7319,7 +7476,7 @@
       </c>
       <c r="D149" s="9"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" s="10" t="s">
         <v>233</v>
       </c>
@@ -7331,7 +7488,7 @@
       </c>
       <c r="D150" s="9"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" s="10" t="s">
         <v>234</v>
       </c>
@@ -7343,7 +7500,7 @@
       </c>
       <c r="D151" s="9"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" s="10" t="s">
         <v>236</v>
       </c>
@@ -7355,7 +7512,7 @@
       </c>
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" s="10" t="s">
         <v>238</v>
       </c>
@@ -7367,7 +7524,7 @@
       </c>
       <c r="D153" s="9"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" s="10" t="s">
         <v>240</v>
       </c>
@@ -7379,7 +7536,7 @@
       </c>
       <c r="D154" s="9"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" s="10" t="s">
         <v>241</v>
       </c>
@@ -7391,7 +7548,7 @@
       </c>
       <c r="D155" s="9"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" s="10" t="s">
         <v>242</v>
       </c>
@@ -7403,7 +7560,7 @@
       </c>
       <c r="D156" s="9"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" s="10" t="s">
         <v>244</v>
       </c>
@@ -7415,7 +7572,7 @@
       </c>
       <c r="D157" s="9"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" s="10" t="s">
         <v>245</v>
       </c>
@@ -7429,7 +7586,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" s="10" t="s">
         <v>246</v>
       </c>
@@ -7441,7 +7598,7 @@
       </c>
       <c r="D159" s="9"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" s="10" t="s">
         <v>248</v>
       </c>
@@ -7455,7 +7612,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" s="10" t="s">
         <v>249</v>
       </c>
@@ -7469,7 +7626,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" s="10" t="s">
         <v>250</v>
       </c>
@@ -7481,7 +7638,7 @@
       </c>
       <c r="D162" s="9"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" s="10" t="s">
         <v>252</v>
       </c>
@@ -7493,7 +7650,7 @@
       </c>
       <c r="D163" s="9"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" s="10" t="s">
         <v>253</v>
       </c>
@@ -7505,7 +7662,7 @@
       </c>
       <c r="D164" s="9"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" s="10" t="s">
         <v>254</v>
       </c>
@@ -7517,7 +7674,7 @@
       </c>
       <c r="D165" s="9"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" s="10" t="s">
         <v>255</v>
       </c>
@@ -7529,7 +7686,7 @@
       </c>
       <c r="D166" s="9"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" s="10" t="s">
         <v>256</v>
       </c>
@@ -7543,7 +7700,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" s="10" t="s">
         <v>258</v>
       </c>
@@ -7557,7 +7714,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" s="10" t="s">
         <v>259</v>
       </c>
@@ -7569,7 +7726,7 @@
       </c>
       <c r="D169" s="9"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" s="10" t="s">
         <v>260</v>
       </c>
@@ -7581,7 +7738,7 @@
       </c>
       <c r="D170" s="9"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" s="10" t="s">
         <v>262</v>
       </c>
@@ -7593,7 +7750,7 @@
       </c>
       <c r="D171" s="9"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" s="10" t="s">
         <v>264</v>
       </c>
@@ -7605,7 +7762,7 @@
       </c>
       <c r="D172" s="9"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" s="10" t="s">
         <v>265</v>
       </c>
@@ -7617,7 +7774,7 @@
       </c>
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" s="10" t="s">
         <v>1110</v>
       </c>
@@ -7629,7 +7786,7 @@
       </c>
       <c r="D174" s="9"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" s="10" t="s">
         <v>266</v>
       </c>
@@ -7641,7 +7798,7 @@
       </c>
       <c r="D175" s="9"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" s="10" t="s">
         <v>267</v>
       </c>
@@ -7653,7 +7810,7 @@
       </c>
       <c r="D176" s="9"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" s="10" t="s">
         <v>268</v>
       </c>
@@ -7665,7 +7822,7 @@
       </c>
       <c r="D177" s="9"/>
     </row>
-    <row r="178" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="43.2">
       <c r="A178" s="19" t="s">
         <v>1111</v>
       </c>
@@ -7679,7 +7836,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" s="10" t="s">
         <v>270</v>
       </c>
@@ -7691,7 +7848,7 @@
       </c>
       <c r="D179" s="9"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" s="10" t="s">
         <v>271</v>
       </c>
@@ -7703,7 +7860,7 @@
       </c>
       <c r="D180" s="9"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" s="10" t="s">
         <v>273</v>
       </c>
@@ -7717,7 +7874,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" s="10" t="s">
         <v>274</v>
       </c>
@@ -7731,7 +7888,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" s="10" t="s">
         <v>275</v>
       </c>
@@ -7743,7 +7900,7 @@
       </c>
       <c r="D183" s="9"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" s="10" t="s">
         <v>276</v>
       </c>
@@ -7757,7 +7914,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" s="10" t="s">
         <v>278</v>
       </c>
@@ -7771,7 +7928,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4">
       <c r="A186" s="10" t="s">
         <v>279</v>
       </c>
@@ -7785,7 +7942,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" s="10" t="s">
         <v>280</v>
       </c>
@@ -7799,7 +7956,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" s="10" t="s">
         <v>282</v>
       </c>
@@ -7813,7 +7970,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" s="10" t="s">
         <v>284</v>
       </c>
@@ -7825,7 +7982,7 @@
       </c>
       <c r="D189" s="9"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" s="9" t="s">
         <v>285</v>
       </c>
@@ -7839,7 +7996,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" s="10" t="s">
         <v>1335</v>
       </c>
@@ -7853,7 +8010,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" s="9" t="s">
         <v>286</v>
       </c>
@@ -7867,7 +8024,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" s="10" t="s">
         <v>287</v>
       </c>
@@ -7879,7 +8036,7 @@
       </c>
       <c r="D193" s="9"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" s="9" t="s">
         <v>1336</v>
       </c>
@@ -7893,7 +8050,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4">
       <c r="A195" s="9" t="s">
         <v>288</v>
       </c>
@@ -7907,7 +8064,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4">
       <c r="A196" s="10" t="s">
         <v>289</v>
       </c>
@@ -7921,7 +8078,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4">
       <c r="A197" s="10" t="s">
         <v>290</v>
       </c>
@@ -7935,7 +8092,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" s="9" t="s">
         <v>291</v>
       </c>
@@ -7949,7 +8106,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="A199" s="9" t="s">
         <v>293</v>
       </c>
@@ -7961,7 +8118,7 @@
       </c>
       <c r="D199" s="9"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="A200" s="9" t="s">
         <v>294</v>
       </c>
@@ -7975,7 +8132,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4">
       <c r="A201" s="9" t="s">
         <v>295</v>
       </c>
@@ -7989,7 +8146,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4">
       <c r="A202" s="9" t="s">
         <v>0</v>
       </c>
@@ -8003,7 +8160,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" s="9" t="s">
         <v>297</v>
       </c>
@@ -8015,7 +8172,7 @@
       </c>
       <c r="D203" s="9"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" s="9" t="s">
         <v>298</v>
       </c>
@@ -8027,7 +8184,7 @@
       </c>
       <c r="D204" s="9"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4">
       <c r="A205" s="9" t="s">
         <v>299</v>
       </c>
@@ -8039,7 +8196,7 @@
       </c>
       <c r="D205" s="9"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4">
       <c r="A206" s="9" t="s">
         <v>300</v>
       </c>
@@ -8053,7 +8210,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4">
       <c r="A207" s="11" t="s">
         <v>302</v>
       </c>
@@ -8065,7 +8222,7 @@
       </c>
       <c r="D207" s="9"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4">
       <c r="A208" s="9" t="s">
         <v>303</v>
       </c>
@@ -8079,7 +8236,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4">
       <c r="A209" s="9" t="s">
         <v>304</v>
       </c>
@@ -8091,7 +8248,7 @@
       </c>
       <c r="D209" s="9"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4">
       <c r="A210" s="9" t="s">
         <v>305</v>
       </c>
@@ -8103,7 +8260,7 @@
       </c>
       <c r="D210" s="9"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="A211" s="9" t="s">
         <v>306</v>
       </c>
@@ -8115,7 +8272,7 @@
       </c>
       <c r="D211" s="9"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4">
       <c r="A212" s="9" t="s">
         <v>307</v>
       </c>
@@ -8127,7 +8284,7 @@
       </c>
       <c r="D212" s="9"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4">
       <c r="A213" s="9" t="s">
         <v>1337</v>
       </c>
@@ -8139,7 +8296,7 @@
       </c>
       <c r="D213" s="9"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4">
       <c r="A214" s="9" t="s">
         <v>309</v>
       </c>
@@ -8151,7 +8308,7 @@
       </c>
       <c r="D214" s="9"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4">
       <c r="A215" s="9" t="s">
         <v>310</v>
       </c>
@@ -8165,7 +8322,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4">
       <c r="A216" s="11" t="s">
         <v>311</v>
       </c>
@@ -8177,7 +8334,7 @@
       </c>
       <c r="D216" s="9"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4">
       <c r="A217" s="9" t="s">
         <v>312</v>
       </c>
@@ -8191,7 +8348,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4">
       <c r="A218" s="9" t="s">
         <v>313</v>
       </c>
@@ -8203,7 +8360,7 @@
       </c>
       <c r="D218" s="9"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4">
       <c r="A219" s="9" t="s">
         <v>314</v>
       </c>
@@ -8217,7 +8374,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4">
       <c r="A220" s="11" t="s">
         <v>315</v>
       </c>
@@ -8229,7 +8386,7 @@
       </c>
       <c r="D220" s="9"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4">
       <c r="A221" s="9" t="s">
         <v>316</v>
       </c>
@@ -8243,7 +8400,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4">
       <c r="A222" s="9" t="s">
         <v>317</v>
       </c>
@@ -8257,7 +8414,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4">
       <c r="A223" s="9" t="s">
         <v>318</v>
       </c>
@@ -8271,7 +8428,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4">
       <c r="A224" s="9" t="s">
         <v>319</v>
       </c>
@@ -8285,7 +8442,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="A225" s="9" t="s">
         <v>1338</v>
       </c>
@@ -8297,7 +8454,7 @@
       </c>
       <c r="D225" s="9"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="A226" s="9" t="s">
         <v>320</v>
       </c>
@@ -8311,7 +8468,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4">
       <c r="A227" s="11" t="s">
         <v>321</v>
       </c>
@@ -8323,7 +8480,7 @@
       </c>
       <c r="D227" s="9"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4">
       <c r="A228" s="9" t="s">
         <v>322</v>
       </c>
@@ -8337,7 +8494,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" s="9" t="s">
         <v>323</v>
       </c>
@@ -8349,7 +8506,7 @@
       </c>
       <c r="D229" s="9"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" s="9" t="s">
         <v>324</v>
       </c>
@@ -8361,7 +8518,7 @@
       </c>
       <c r="D230" s="9"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="A231" s="11" t="s">
         <v>325</v>
       </c>
@@ -8373,7 +8530,7 @@
       </c>
       <c r="D231" s="9"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="A232" s="9" t="s">
         <v>326</v>
       </c>
@@ -8387,7 +8544,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4">
       <c r="A233" s="9" t="s">
         <v>327</v>
       </c>
@@ -8399,7 +8556,7 @@
       </c>
       <c r="D233" s="9"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4">
       <c r="A234" s="9" t="s">
         <v>328</v>
       </c>
@@ -8411,7 +8568,7 @@
       </c>
       <c r="D234" s="9"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" s="9" t="s">
         <v>329</v>
       </c>
@@ -8423,7 +8580,7 @@
       </c>
       <c r="D235" s="9"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" s="9" t="s">
         <v>330</v>
       </c>
@@ -8435,7 +8592,7 @@
       </c>
       <c r="D236" s="9"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" s="9" t="s">
         <v>331</v>
       </c>
@@ -8447,7 +8604,7 @@
       </c>
       <c r="D237" s="9"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" s="9" t="s">
         <v>333</v>
       </c>
@@ -8459,7 +8616,7 @@
       </c>
       <c r="D238" s="9"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" s="9" t="s">
         <v>335</v>
       </c>
@@ -8471,7 +8628,7 @@
       </c>
       <c r="D239" s="9"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" s="9" t="s">
         <v>336</v>
       </c>
@@ -8483,7 +8640,7 @@
       </c>
       <c r="D240" s="9"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" s="9" t="s">
         <v>337</v>
       </c>
@@ -8497,7 +8654,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" s="9" t="s">
         <v>338</v>
       </c>
@@ -8509,7 +8666,7 @@
       </c>
       <c r="D242" s="9"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" s="9" t="s">
         <v>339</v>
       </c>
@@ -8521,7 +8678,7 @@
       </c>
       <c r="D243" s="9"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" s="9" t="s">
         <v>340</v>
       </c>
@@ -8533,7 +8690,7 @@
       </c>
       <c r="D244" s="9"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" s="9" t="s">
         <v>341</v>
       </c>
@@ -8545,7 +8702,7 @@
       </c>
       <c r="D245" s="9"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" s="9" t="s">
         <v>342</v>
       </c>
@@ -8559,7 +8716,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" s="9" t="s">
         <v>343</v>
       </c>
@@ -8571,7 +8728,7 @@
       </c>
       <c r="D247" s="9"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" s="11" t="s">
         <v>345</v>
       </c>
@@ -8583,7 +8740,7 @@
       </c>
       <c r="D248" s="9"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" s="9" t="s">
         <v>347</v>
       </c>
@@ -8595,7 +8752,7 @@
       </c>
       <c r="D249" s="9"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" s="9" t="s">
         <v>348</v>
       </c>
@@ -8607,7 +8764,7 @@
       </c>
       <c r="D250" s="9"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="A251" s="9" t="s">
         <v>349</v>
       </c>
@@ -8621,7 +8778,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="A252" s="9" t="s">
         <v>350</v>
       </c>
@@ -8635,7 +8792,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4">
       <c r="A253" s="9" t="s">
         <v>351</v>
       </c>
@@ -8647,7 +8804,7 @@
       </c>
       <c r="D253" s="9"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4">
       <c r="A254" s="9" t="s">
         <v>353</v>
       </c>
@@ -8661,7 +8818,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" s="9" t="s">
         <v>354</v>
       </c>
@@ -8675,7 +8832,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" s="11" t="s">
         <v>355</v>
       </c>
@@ -8687,7 +8844,7 @@
       </c>
       <c r="D256" s="9"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" s="9" t="s">
         <v>356</v>
       </c>
@@ -8699,7 +8856,7 @@
       </c>
       <c r="D257" s="9"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" s="9" t="s">
         <v>357</v>
       </c>
@@ -8711,7 +8868,7 @@
       </c>
       <c r="D258" s="9"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4">
       <c r="A259" s="9" t="s">
         <v>359</v>
       </c>
@@ -8725,7 +8882,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="A260" s="9" t="s">
         <v>360</v>
       </c>
@@ -8737,7 +8894,7 @@
       </c>
       <c r="D260" s="9"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="A261" s="11" t="s">
         <v>361</v>
       </c>
@@ -8749,7 +8906,7 @@
       </c>
       <c r="D261" s="9"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4">
       <c r="A262" s="9" t="s">
         <v>362</v>
       </c>
@@ -8761,7 +8918,7 @@
       </c>
       <c r="D262" s="9"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4">
       <c r="A263" s="9" t="s">
         <v>364</v>
       </c>
@@ -8773,7 +8930,7 @@
       </c>
       <c r="D263" s="9"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" s="9" t="s">
         <v>366</v>
       </c>
@@ -8787,7 +8944,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" s="9" t="s">
         <v>367</v>
       </c>
@@ -8801,7 +8958,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" s="9" t="s">
         <v>368</v>
       </c>
@@ -8815,7 +8972,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" s="9" t="s">
         <v>369</v>
       </c>
@@ -8829,7 +8986,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" s="9" t="s">
         <v>370</v>
       </c>
@@ -8843,7 +9000,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" s="9" t="s">
         <v>371</v>
       </c>
@@ -8855,7 +9012,7 @@
       </c>
       <c r="D269" s="9"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" s="9" t="s">
         <v>372</v>
       </c>
@@ -8867,7 +9024,7 @@
       </c>
       <c r="D270" s="9"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" s="11" t="s">
         <v>373</v>
       </c>
@@ -8879,7 +9036,7 @@
       </c>
       <c r="D271" s="9"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" s="9" t="s">
         <v>374</v>
       </c>
@@ -8891,7 +9048,7 @@
       </c>
       <c r="D272" s="9"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4">
       <c r="A273" s="11" t="s">
         <v>375</v>
       </c>
@@ -8903,7 +9060,7 @@
       </c>
       <c r="D273" s="9"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4">
       <c r="A274" s="11" t="s">
         <v>376</v>
       </c>
@@ -8915,7 +9072,7 @@
       </c>
       <c r="D274" s="9"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4">
       <c r="A275" s="11" t="s">
         <v>377</v>
       </c>
@@ -8927,7 +9084,7 @@
       </c>
       <c r="D275" s="9"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4">
       <c r="A276" s="11" t="s">
         <v>378</v>
       </c>
@@ -8941,7 +9098,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4">
       <c r="A277" s="9" t="s">
         <v>1339</v>
       </c>
@@ -8953,7 +9110,7 @@
       </c>
       <c r="D277" s="9"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4">
       <c r="A278" s="9" t="s">
         <v>379</v>
       </c>
@@ -8967,7 +9124,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4">
       <c r="A279" s="9" t="s">
         <v>380</v>
       </c>
@@ -8981,7 +9138,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4">
       <c r="A280" s="9" t="s">
         <v>381</v>
       </c>
@@ -8995,7 +9152,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" ht="28.8">
       <c r="A281" s="11" t="s">
         <v>382</v>
       </c>
@@ -9009,7 +9166,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4">
       <c r="A282" s="9" t="s">
         <v>383</v>
       </c>
@@ -9021,7 +9178,7 @@
       </c>
       <c r="D282" s="9"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4">
       <c r="A283" s="9" t="s">
         <v>384</v>
       </c>
@@ -9035,7 +9192,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4">
       <c r="A284" s="9" t="s">
         <v>385</v>
       </c>
@@ -9049,7 +9206,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4">
       <c r="A285" s="9" t="s">
         <v>386</v>
       </c>
@@ -9063,7 +9220,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4">
       <c r="A286" s="9" t="s">
         <v>388</v>
       </c>
@@ -9077,7 +9234,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4">
       <c r="A287" s="9" t="s">
         <v>389</v>
       </c>
@@ -9089,7 +9246,7 @@
       </c>
       <c r="D287" s="9"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4">
       <c r="A288" s="9" t="s">
         <v>390</v>
       </c>
@@ -9103,7 +9260,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4">
       <c r="A289" s="9" t="s">
         <v>392</v>
       </c>
@@ -9117,7 +9274,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4">
       <c r="A290" s="9" t="s">
         <v>393</v>
       </c>
@@ -9129,7 +9286,7 @@
       </c>
       <c r="D290" s="9"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4">
       <c r="A291" s="9" t="s">
         <v>1340</v>
       </c>
@@ -9141,7 +9298,7 @@
       </c>
       <c r="D291" s="9"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4">
       <c r="A292" s="11" t="s">
         <v>394</v>
       </c>
@@ -9155,7 +9312,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4">
       <c r="A293" s="9" t="s">
         <v>395</v>
       </c>
@@ -9167,7 +9324,7 @@
       </c>
       <c r="D293" s="9"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4">
       <c r="A294" s="9" t="s">
         <v>396</v>
       </c>
@@ -9181,7 +9338,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4">
       <c r="A295" s="9" t="s">
         <v>397</v>
       </c>
@@ -9195,7 +9352,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4">
       <c r="A296" s="9" t="s">
         <v>399</v>
       </c>
@@ -9209,7 +9366,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4">
       <c r="A297" s="9" t="s">
         <v>400</v>
       </c>
@@ -9221,7 +9378,7 @@
       </c>
       <c r="D297" s="9"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4">
       <c r="A298" s="9" t="s">
         <v>401</v>
       </c>
@@ -9235,7 +9392,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4">
       <c r="A299" s="9" t="s">
         <v>402</v>
       </c>
@@ -9247,7 +9404,7 @@
       </c>
       <c r="D299" s="9"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4">
       <c r="A300" s="9" t="s">
         <v>404</v>
       </c>
@@ -9261,7 +9418,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4">
       <c r="A301" s="10" t="s">
         <v>405</v>
       </c>
@@ -9275,7 +9432,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4">
       <c r="A302" s="10" t="s">
         <v>406</v>
       </c>
@@ -9289,7 +9446,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4">
       <c r="A303" s="10" t="s">
         <v>407</v>
       </c>
@@ -9303,7 +9460,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4">
       <c r="A304" s="9" t="s">
         <v>408</v>
       </c>
@@ -9315,7 +9472,7 @@
       </c>
       <c r="D304" s="9"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4">
       <c r="A305" s="9" t="s">
         <v>409</v>
       </c>
@@ -9327,7 +9484,7 @@
       </c>
       <c r="D305" s="9"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4">
       <c r="A306" s="9" t="s">
         <v>410</v>
       </c>
@@ -9339,7 +9496,7 @@
       </c>
       <c r="D306" s="9"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4">
       <c r="A307" s="9" t="s">
         <v>411</v>
       </c>
@@ -9351,7 +9508,7 @@
       </c>
       <c r="D307" s="9"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4">
       <c r="A308" s="9" t="s">
         <v>412</v>
       </c>
@@ -9365,7 +9522,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4">
       <c r="A309" s="9" t="s">
         <v>413</v>
       </c>
@@ -9379,7 +9536,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4">
       <c r="A310" s="9" t="s">
         <v>414</v>
       </c>
@@ -9393,7 +9550,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4">
       <c r="A311" s="9" t="s">
         <v>415</v>
       </c>
@@ -9405,7 +9562,7 @@
       </c>
       <c r="D311" s="9"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4">
       <c r="A312" s="9" t="s">
         <v>416</v>
       </c>
@@ -9419,7 +9576,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4">
       <c r="A313" s="9" t="s">
         <v>417</v>
       </c>
@@ -9433,7 +9590,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4">
       <c r="A314" s="9" t="s">
         <v>1381</v>
       </c>
@@ -9447,7 +9604,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4">
       <c r="A315" s="9" t="s">
         <v>1341</v>
       </c>
@@ -9461,7 +9618,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4">
       <c r="A316" s="9" t="s">
         <v>419</v>
       </c>
@@ -9473,7 +9630,7 @@
       </c>
       <c r="D316" s="9"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4">
       <c r="A317" s="9" t="s">
         <v>1342</v>
       </c>
@@ -9485,7 +9642,7 @@
       </c>
       <c r="D317" s="9"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4">
       <c r="A318" s="9" t="s">
         <v>1343</v>
       </c>
@@ -9499,7 +9656,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4">
       <c r="A319" s="9" t="s">
         <v>1382</v>
       </c>
@@ -9513,7 +9670,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4">
       <c r="A320" s="9" t="s">
         <v>1384</v>
       </c>
@@ -9527,7 +9684,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4">
       <c r="A321" s="9" t="s">
         <v>1386</v>
       </c>
@@ -9539,7 +9696,7 @@
       </c>
       <c r="D321" s="9"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4">
       <c r="A322" s="9" t="s">
         <v>1112</v>
       </c>
@@ -9551,7 +9708,7 @@
       </c>
       <c r="D322" s="9"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4">
       <c r="A323" s="9" t="s">
         <v>1113</v>
       </c>
@@ -9563,7 +9720,7 @@
       </c>
       <c r="D323" s="9"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4">
       <c r="A324" s="9" t="s">
         <v>420</v>
       </c>
@@ -9575,7 +9732,7 @@
       </c>
       <c r="D324" s="9"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4">
       <c r="A325" s="9" t="s">
         <v>1114</v>
       </c>
@@ -9587,7 +9744,7 @@
       </c>
       <c r="D325" s="9"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4">
       <c r="A326" s="9" t="s">
         <v>1344</v>
       </c>
@@ -9599,7 +9756,7 @@
       </c>
       <c r="D326" s="9"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4">
       <c r="A327" s="9" t="s">
         <v>421</v>
       </c>
@@ -9611,7 +9768,7 @@
       </c>
       <c r="D327" s="9"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4">
       <c r="A328" s="9" t="s">
         <v>422</v>
       </c>
@@ -9623,7 +9780,7 @@
       </c>
       <c r="D328" s="9"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4">
       <c r="A329" s="9" t="s">
         <v>423</v>
       </c>
@@ -9635,7 +9792,7 @@
       </c>
       <c r="D329" s="9"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4">
       <c r="A330" s="9" t="s">
         <v>425</v>
       </c>
@@ -9647,7 +9804,7 @@
       </c>
       <c r="D330" s="9"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4">
       <c r="A331" s="9" t="s">
         <v>426</v>
       </c>
@@ -9661,7 +9818,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4">
       <c r="A332" s="9" t="s">
         <v>427</v>
       </c>
@@ -9673,7 +9830,7 @@
       </c>
       <c r="D332" s="9"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4">
       <c r="A333" s="9" t="s">
         <v>428</v>
       </c>
@@ -9685,7 +9842,7 @@
       </c>
       <c r="D333" s="9"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4">
       <c r="A334" s="9" t="s">
         <v>430</v>
       </c>
@@ -9697,7 +9854,7 @@
       </c>
       <c r="D334" s="9"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4">
       <c r="A335" s="9" t="s">
         <v>431</v>
       </c>
@@ -9709,7 +9866,7 @@
       </c>
       <c r="D335" s="9"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4">
       <c r="A336" s="9" t="s">
         <v>432</v>
       </c>
@@ -9721,7 +9878,7 @@
       </c>
       <c r="D336" s="9"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4">
       <c r="A337" s="9" t="s">
         <v>433</v>
       </c>
@@ -9735,7 +9892,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4">
       <c r="A338" s="9" t="s">
         <v>434</v>
       </c>
@@ -9747,7 +9904,7 @@
       </c>
       <c r="D338" s="9"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4">
       <c r="A339" s="9" t="s">
         <v>435</v>
       </c>
@@ -9759,7 +9916,7 @@
       </c>
       <c r="D339" s="9"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4">
       <c r="A340" s="12" t="s">
         <v>436</v>
       </c>
@@ -9771,7 +9928,7 @@
       </c>
       <c r="D340" s="9"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4">
       <c r="A341" s="9" t="s">
         <v>437</v>
       </c>
@@ -9783,7 +9940,7 @@
       </c>
       <c r="D341" s="9"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4">
       <c r="A342" s="12" t="s">
         <v>438</v>
       </c>
@@ -9795,7 +9952,7 @@
       </c>
       <c r="D342" s="9"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4">
       <c r="A343" s="9" t="s">
         <v>439</v>
       </c>
@@ -9809,7 +9966,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4">
       <c r="A344" s="9" t="s">
         <v>441</v>
       </c>
@@ -9823,7 +9980,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4">
       <c r="A345" s="9" t="s">
         <v>442</v>
       </c>
@@ -9837,7 +9994,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4">
       <c r="A346" s="9" t="s">
         <v>443</v>
       </c>
@@ -9851,7 +10008,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4">
       <c r="A347" s="9" t="s">
         <v>444</v>
       </c>
@@ -9863,7 +10020,7 @@
       </c>
       <c r="D347" s="9"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4">
       <c r="A348" s="9" t="s">
         <v>446</v>
       </c>
@@ -9875,7 +10032,7 @@
       </c>
       <c r="D348" s="9"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4">
       <c r="A349" s="9" t="s">
         <v>447</v>
       </c>
@@ -9887,7 +10044,7 @@
       </c>
       <c r="D349" s="9"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4">
       <c r="A350" s="9" t="s">
         <v>448</v>
       </c>
@@ -9899,7 +10056,7 @@
       </c>
       <c r="D350" s="9"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4">
       <c r="A351" s="9" t="s">
         <v>449</v>
       </c>
@@ -9913,7 +10070,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4">
       <c r="A352" s="9" t="s">
         <v>450</v>
       </c>
@@ -9925,7 +10082,7 @@
       </c>
       <c r="D352" s="9"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4">
       <c r="A353" s="9" t="s">
         <v>451</v>
       </c>
@@ -9939,7 +10096,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4">
       <c r="A354" s="9" t="s">
         <v>453</v>
       </c>
@@ -9951,7 +10108,7 @@
       </c>
       <c r="D354" s="9"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4">
       <c r="A355" s="9" t="s">
         <v>454</v>
       </c>
@@ -9963,7 +10120,7 @@
       </c>
       <c r="D355" s="9"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4">
       <c r="A356" s="9" t="s">
         <v>455</v>
       </c>
@@ -9975,7 +10132,7 @@
       </c>
       <c r="D356" s="9"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4">
       <c r="A357" s="13" t="s">
         <v>456</v>
       </c>
@@ -9987,7 +10144,7 @@
       </c>
       <c r="D357" s="9"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4">
       <c r="A358" s="9" t="s">
         <v>457</v>
       </c>
@@ -9999,7 +10156,7 @@
       </c>
       <c r="D358" s="9"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4">
       <c r="A359" s="9" t="s">
         <v>458</v>
       </c>
@@ -10011,7 +10168,7 @@
       </c>
       <c r="D359" s="9"/>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4">
       <c r="A360" s="9" t="s">
         <v>459</v>
       </c>
@@ -10023,7 +10180,7 @@
       </c>
       <c r="D360" s="9"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4">
       <c r="A361" s="9" t="s">
         <v>460</v>
       </c>
@@ -10035,7 +10192,7 @@
       </c>
       <c r="D361" s="9"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4">
       <c r="A362" s="9" t="s">
         <v>461</v>
       </c>
@@ -10047,7 +10204,7 @@
       </c>
       <c r="D362" s="9"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4">
       <c r="A363" s="9" t="s">
         <v>462</v>
       </c>
@@ -10059,7 +10216,7 @@
       </c>
       <c r="D363" s="9"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4">
       <c r="A364" s="9" t="s">
         <v>463</v>
       </c>
@@ -10071,7 +10228,7 @@
       </c>
       <c r="D364" s="9"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4">
       <c r="A365" s="9" t="s">
         <v>464</v>
       </c>
@@ -10085,7 +10242,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4">
       <c r="A366" s="9" t="s">
         <v>1387</v>
       </c>
@@ -10099,7 +10256,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4">
       <c r="A367" s="9" t="s">
         <v>465</v>
       </c>
@@ -10111,7 +10268,7 @@
       </c>
       <c r="D367" s="9"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4">
       <c r="A368" s="9" t="s">
         <v>466</v>
       </c>
@@ -10125,7 +10282,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4">
       <c r="A369" s="10" t="s">
         <v>468</v>
       </c>
@@ -10139,7 +10296,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4">
       <c r="A370" s="10" t="s">
         <v>469</v>
       </c>
@@ -10151,7 +10308,7 @@
       </c>
       <c r="D370" s="9"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4">
       <c r="A371" s="14" t="s">
         <v>470</v>
       </c>
@@ -10163,7 +10320,7 @@
       </c>
       <c r="D371" s="9"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4">
       <c r="A372" s="10" t="s">
         <v>471</v>
       </c>
@@ -10175,7 +10332,7 @@
       </c>
       <c r="D372" s="9"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4">
       <c r="A373" s="9" t="s">
         <v>472</v>
       </c>
@@ -10189,7 +10346,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4">
       <c r="A374" s="9" t="s">
         <v>474</v>
       </c>
@@ -10203,7 +10360,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4">
       <c r="A375" s="9" t="s">
         <v>475</v>
       </c>
@@ -10217,7 +10374,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4">
       <c r="A376" s="13" t="s">
         <v>476</v>
       </c>
@@ -10229,7 +10386,7 @@
       </c>
       <c r="D376" s="9"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4">
       <c r="A377" s="9" t="s">
         <v>477</v>
       </c>
@@ -10243,7 +10400,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4">
       <c r="A378" s="9" t="s">
         <v>470</v>
       </c>
@@ -10257,7 +10414,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4">
       <c r="A379" s="9" t="s">
         <v>478</v>
       </c>
@@ -10271,7 +10428,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4">
       <c r="A380" s="9" t="s">
         <v>479</v>
       </c>
@@ -10285,7 +10442,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4">
       <c r="A381" s="9" t="s">
         <v>480</v>
       </c>
@@ -10299,7 +10456,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4">
       <c r="A382" s="9" t="s">
         <v>481</v>
       </c>
@@ -10313,7 +10470,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4">
       <c r="A383" s="9" t="s">
         <v>482</v>
       </c>
@@ -10327,7 +10484,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4">
       <c r="A384" s="9" t="s">
         <v>483</v>
       </c>
@@ -10341,7 +10498,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4">
       <c r="A385" s="9" t="s">
         <v>484</v>
       </c>
@@ -10355,7 +10512,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4">
       <c r="A386" s="9" t="s">
         <v>485</v>
       </c>
@@ -10367,7 +10524,7 @@
       </c>
       <c r="D386" s="9"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4">
       <c r="A387" s="9" t="s">
         <v>486</v>
       </c>
@@ -10381,7 +10538,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4">
       <c r="A388" s="9" t="s">
         <v>487</v>
       </c>
@@ -10395,7 +10552,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4">
       <c r="A389" s="9" t="s">
         <v>488</v>
       </c>
@@ -10407,7 +10564,7 @@
       </c>
       <c r="D389" s="9"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4">
       <c r="A390" s="9" t="s">
         <v>489</v>
       </c>
@@ -10421,7 +10578,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4">
       <c r="A391" s="13" t="s">
         <v>490</v>
       </c>
@@ -10433,7 +10590,7 @@
       </c>
       <c r="D391" s="9"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4">
       <c r="A392" s="9" t="s">
         <v>491</v>
       </c>
@@ -10445,7 +10602,7 @@
       </c>
       <c r="D392" s="9"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4">
       <c r="A393" s="9" t="s">
         <v>492</v>
       </c>
@@ -10457,7 +10614,7 @@
       </c>
       <c r="D393" s="9"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4">
       <c r="A394" s="15" t="s">
         <v>493</v>
       </c>
@@ -10471,7 +10628,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4">
       <c r="A395" s="15" t="s">
         <v>494</v>
       </c>
@@ -10485,7 +10642,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4">
       <c r="A396" s="9" t="s">
         <v>495</v>
       </c>
@@ -10499,7 +10656,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4">
       <c r="A397" s="9" t="s">
         <v>497</v>
       </c>
@@ -10513,7 +10670,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4">
       <c r="A398" s="15" t="s">
         <v>498</v>
       </c>
@@ -10527,7 +10684,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4">
       <c r="A399" s="9" t="s">
         <v>500</v>
       </c>
@@ -10541,7 +10698,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4">
       <c r="A400" s="15" t="s">
         <v>501</v>
       </c>
@@ -10553,7 +10710,7 @@
       </c>
       <c r="D400" s="9"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4">
       <c r="A401" s="15" t="s">
         <v>502</v>
       </c>
@@ -10567,7 +10724,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4">
       <c r="A402" s="13" t="s">
         <v>503</v>
       </c>
@@ -10581,7 +10738,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4">
       <c r="A403" s="9" t="s">
         <v>504</v>
       </c>
@@ -10595,7 +10752,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4">
       <c r="A404" s="9" t="s">
         <v>505</v>
       </c>
@@ -10609,7 +10766,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4">
       <c r="A405" s="15" t="s">
         <v>1115</v>
       </c>
@@ -10623,7 +10780,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4">
       <c r="A406" s="9" t="s">
         <v>506</v>
       </c>
@@ -10637,7 +10794,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4">
       <c r="A407" s="9" t="s">
         <v>507</v>
       </c>
@@ -10649,7 +10806,7 @@
       </c>
       <c r="D407" s="9"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4">
       <c r="A408" s="13" t="s">
         <v>508</v>
       </c>
@@ -10661,7 +10818,7 @@
       </c>
       <c r="D408" s="9"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4">
       <c r="A409" s="11" t="s">
         <v>509</v>
       </c>
@@ -10673,7 +10830,7 @@
       </c>
       <c r="D409" s="9"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4">
       <c r="A410" s="9" t="s">
         <v>512</v>
       </c>
@@ -10685,7 +10842,7 @@
       </c>
       <c r="D410" s="9"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4">
       <c r="A411" s="9" t="s">
         <v>513</v>
       </c>
@@ -10697,7 +10854,7 @@
       </c>
       <c r="D411" s="9"/>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4">
       <c r="A412" s="9" t="s">
         <v>514</v>
       </c>
@@ -10709,7 +10866,7 @@
       </c>
       <c r="D412" s="9"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4">
       <c r="A413" s="9" t="s">
         <v>515</v>
       </c>
@@ -10723,7 +10880,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4">
       <c r="A414" s="9" t="s">
         <v>516</v>
       </c>
@@ -10735,7 +10892,7 @@
       </c>
       <c r="D414" s="9"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4">
       <c r="A415" s="13" t="s">
         <v>517</v>
       </c>
@@ -10747,7 +10904,7 @@
       </c>
       <c r="D415" s="9"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4">
       <c r="A416" s="9" t="s">
         <v>518</v>
       </c>
@@ -10761,7 +10918,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4">
       <c r="A417" s="9" t="s">
         <v>519</v>
       </c>
@@ -10775,7 +10932,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4">
       <c r="A418" s="9" t="s">
         <v>520</v>
       </c>
@@ -10789,7 +10946,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4">
       <c r="A419" s="9" t="s">
         <v>521</v>
       </c>
@@ -10801,7 +10958,7 @@
       </c>
       <c r="D419" s="9"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4">
       <c r="A420" s="18" t="s">
         <v>522</v>
       </c>
@@ -10813,7 +10970,7 @@
       </c>
       <c r="D420" s="9"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4">
       <c r="A421" s="18" t="s">
         <v>523</v>
       </c>
@@ -10827,7 +10984,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4">
       <c r="A422" s="9" t="s">
         <v>524</v>
       </c>
@@ -10839,7 +10996,7 @@
       </c>
       <c r="D422" s="9"/>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4">
       <c r="A423" s="9" t="s">
         <v>525</v>
       </c>
@@ -10851,7 +11008,7 @@
       </c>
       <c r="D423" s="9"/>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4">
       <c r="A424" s="18" t="s">
         <v>526</v>
       </c>
@@ -10863,7 +11020,7 @@
       </c>
       <c r="D424" s="9"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4">
       <c r="A425" s="10" t="s">
         <v>527</v>
       </c>
@@ -10875,7 +11032,7 @@
       </c>
       <c r="D425" s="9"/>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4">
       <c r="A426" s="9" t="s">
         <v>1388</v>
       </c>
@@ -10889,7 +11046,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4">
       <c r="A427" s="11" t="s">
         <v>528</v>
       </c>
@@ -10901,7 +11058,7 @@
       </c>
       <c r="D427" s="9"/>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4">
       <c r="A428" s="9" t="s">
         <v>529</v>
       </c>
@@ -10913,7 +11070,7 @@
       </c>
       <c r="D428" s="9"/>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4">
       <c r="A429" s="9" t="s">
         <v>530</v>
       </c>
@@ -10925,7 +11082,7 @@
       </c>
       <c r="D429" s="9"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4">
       <c r="A430" s="9" t="s">
         <v>531</v>
       </c>
@@ -10937,7 +11094,7 @@
       </c>
       <c r="D430" s="9"/>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4">
       <c r="A431" s="9" t="s">
         <v>532</v>
       </c>
@@ -10949,7 +11106,7 @@
       </c>
       <c r="D431" s="9"/>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4">
       <c r="A432" s="9" t="s">
         <v>533</v>
       </c>
@@ -10961,7 +11118,7 @@
       </c>
       <c r="D432" s="9"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4">
       <c r="A433" s="9" t="s">
         <v>534</v>
       </c>
@@ -10975,7 +11132,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4">
       <c r="A434" s="9" t="s">
         <v>535</v>
       </c>
@@ -10989,7 +11146,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4">
       <c r="A435" s="9" t="s">
         <v>536</v>
       </c>
@@ -11003,7 +11160,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4">
       <c r="A436" s="9" t="s">
         <v>537</v>
       </c>
@@ -11017,7 +11174,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4">
       <c r="A437" s="9" t="s">
         <v>538</v>
       </c>
@@ -11031,7 +11188,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4">
       <c r="A438" s="9" t="s">
         <v>539</v>
       </c>
@@ -11045,7 +11202,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4">
       <c r="A439" s="9" t="s">
         <v>540</v>
       </c>
@@ -11057,7 +11214,7 @@
       </c>
       <c r="D439" s="9"/>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4">
       <c r="A440" s="9" t="s">
         <v>1116</v>
       </c>
@@ -11069,7 +11226,7 @@
       </c>
       <c r="D440" s="9"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4">
       <c r="A441" s="9" t="s">
         <v>542</v>
       </c>
@@ -11081,7 +11238,7 @@
       </c>
       <c r="D441" s="9"/>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4">
       <c r="A442" s="9" t="s">
         <v>543</v>
       </c>
@@ -11093,7 +11250,7 @@
       </c>
       <c r="D442" s="9"/>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4">
       <c r="A443" s="9" t="s">
         <v>544</v>
       </c>
@@ -11105,7 +11262,7 @@
       </c>
       <c r="D443" s="9"/>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4">
       <c r="A444" s="9" t="s">
         <v>545</v>
       </c>
@@ -11119,7 +11276,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4">
       <c r="A445" s="9" t="s">
         <v>1389</v>
       </c>
@@ -11131,7 +11288,7 @@
       </c>
       <c r="D445" s="9"/>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4">
       <c r="A446" s="9" t="s">
         <v>546</v>
       </c>
@@ -11143,7 +11300,7 @@
       </c>
       <c r="D446" s="9"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4">
       <c r="A447" s="9" t="s">
         <v>547</v>
       </c>
@@ -11155,7 +11312,7 @@
       </c>
       <c r="D447" s="9"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4">
       <c r="A448" s="9" t="s">
         <v>1345</v>
       </c>
@@ -11169,7 +11326,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4">
       <c r="A449" s="9" t="s">
         <v>548</v>
       </c>
@@ -11183,7 +11340,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4">
       <c r="A450" s="9" t="s">
         <v>549</v>
       </c>
@@ -11197,7 +11354,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4">
       <c r="A451" s="9" t="s">
         <v>551</v>
       </c>
@@ -11211,7 +11368,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4">
       <c r="A452" s="9" t="s">
         <v>552</v>
       </c>
@@ -11225,7 +11382,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4">
       <c r="A453" s="9" t="s">
         <v>553</v>
       </c>
@@ -11237,7 +11394,7 @@
       </c>
       <c r="D453" s="9"/>
     </row>
-    <row r="454" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" ht="15">
       <c r="A454" s="6" t="s">
         <v>556</v>
       </c>
@@ -11251,7 +11408,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4">
       <c r="A455" s="9" t="s">
         <v>1390</v>
       </c>
@@ -11263,7 +11420,7 @@
       </c>
       <c r="D455" s="9"/>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4">
       <c r="A456" s="9" t="s">
         <v>1391</v>
       </c>
@@ -11275,7 +11432,7 @@
       </c>
       <c r="D456" s="9"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4">
       <c r="A457" s="9" t="s">
         <v>1392</v>
       </c>
@@ -11287,7 +11444,7 @@
       </c>
       <c r="D457" s="9"/>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4">
       <c r="A458" s="9" t="s">
         <v>1117</v>
       </c>
@@ -11299,7 +11456,7 @@
       </c>
       <c r="D458" s="9"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4">
       <c r="A459" s="9" t="s">
         <v>557</v>
       </c>
@@ -11311,7 +11468,7 @@
       </c>
       <c r="D459" s="9"/>
     </row>
-    <row r="460" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" ht="15">
       <c r="A460" s="6" t="s">
         <v>1118</v>
       </c>
@@ -11325,7 +11482,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" ht="15">
       <c r="A461" s="6" t="s">
         <v>558</v>
       </c>
@@ -11339,7 +11496,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4">
       <c r="A462" s="9" t="s">
         <v>559</v>
       </c>
@@ -11353,7 +11510,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4">
       <c r="A463" s="9" t="s">
         <v>560</v>
       </c>
@@ -11365,7 +11522,7 @@
       </c>
       <c r="D463" s="9"/>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4">
       <c r="A464" s="9" t="s">
         <v>561</v>
       </c>
@@ -11377,7 +11534,7 @@
       </c>
       <c r="D464" s="9"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4">
       <c r="A465" s="9" t="s">
         <v>562</v>
       </c>
@@ -11389,7 +11546,7 @@
       </c>
       <c r="D465" s="9"/>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4">
       <c r="A466" s="9" t="s">
         <v>563</v>
       </c>
@@ -11401,7 +11558,7 @@
       </c>
       <c r="D466" s="9"/>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4">
       <c r="A467" s="9" t="s">
         <v>565</v>
       </c>
@@ -11413,7 +11570,7 @@
       </c>
       <c r="D467" s="9"/>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4">
       <c r="A468" s="9" t="s">
         <v>566</v>
       </c>
@@ -11425,7 +11582,7 @@
       </c>
       <c r="D468" s="9"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4">
       <c r="A469" s="9" t="s">
         <v>567</v>
       </c>
@@ -11437,7 +11594,7 @@
       </c>
       <c r="D469" s="9"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4">
       <c r="A470" s="11" t="s">
         <v>568</v>
       </c>
@@ -11449,7 +11606,7 @@
       </c>
       <c r="D470" s="9"/>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4">
       <c r="A471" s="9" t="s">
         <v>569</v>
       </c>
@@ -11461,7 +11618,7 @@
       </c>
       <c r="D471" s="9"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4">
       <c r="A472" s="9" t="s">
         <v>570</v>
       </c>
@@ -11473,7 +11630,7 @@
       </c>
       <c r="D472" s="9"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4">
       <c r="A473" s="9" t="s">
         <v>571</v>
       </c>
@@ -11487,7 +11644,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4">
       <c r="A474" s="9" t="s">
         <v>572</v>
       </c>
@@ -11499,7 +11656,7 @@
       </c>
       <c r="D474" s="9"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4">
       <c r="A475" s="9" t="s">
         <v>573</v>
       </c>
@@ -11511,7 +11668,7 @@
       </c>
       <c r="D475" s="9"/>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4">
       <c r="A476" s="9" t="s">
         <v>574</v>
       </c>
@@ -11523,7 +11680,7 @@
       </c>
       <c r="D476" s="9"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4">
       <c r="A477" s="9" t="s">
         <v>575</v>
       </c>
@@ -11535,7 +11692,7 @@
       </c>
       <c r="D477" s="9"/>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4">
       <c r="A478" s="9" t="s">
         <v>576</v>
       </c>
@@ -11547,7 +11704,7 @@
       </c>
       <c r="D478" s="9"/>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4">
       <c r="A479" s="13" t="s">
         <v>577</v>
       </c>
@@ -11559,7 +11716,7 @@
       </c>
       <c r="D479" s="9"/>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4">
       <c r="A480" s="9" t="s">
         <v>578</v>
       </c>
@@ -11571,7 +11728,7 @@
       </c>
       <c r="D480" s="9"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4">
       <c r="A481" s="9" t="s">
         <v>579</v>
       </c>
@@ -11583,7 +11740,7 @@
       </c>
       <c r="D481" s="9"/>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4">
       <c r="A482" s="9" t="s">
         <v>580</v>
       </c>
@@ -11595,7 +11752,7 @@
       </c>
       <c r="D482" s="9"/>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4">
       <c r="A483" s="9" t="s">
         <v>1393</v>
       </c>
@@ -11609,7 +11766,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4">
       <c r="A484" s="9" t="s">
         <v>583</v>
       </c>
@@ -11621,7 +11778,7 @@
       </c>
       <c r="D484" s="9"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4">
       <c r="A485" s="9" t="s">
         <v>1394</v>
       </c>
@@ -11633,7 +11790,7 @@
       </c>
       <c r="D485" s="9"/>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4">
       <c r="A486" s="9" t="s">
         <v>1119</v>
       </c>
@@ -11645,7 +11802,7 @@
       </c>
       <c r="D486" s="9"/>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4">
       <c r="A487" s="13" t="s">
         <v>585</v>
       </c>
@@ -11657,7 +11814,7 @@
       </c>
       <c r="D487" s="9"/>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4">
       <c r="A488" s="9" t="s">
         <v>586</v>
       </c>
@@ -11669,7 +11826,7 @@
       </c>
       <c r="D488" s="9"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4">
       <c r="A489" s="9" t="s">
         <v>587</v>
       </c>
@@ -11681,7 +11838,7 @@
       </c>
       <c r="D489" s="9"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4">
       <c r="A490" s="9" t="s">
         <v>588</v>
       </c>
@@ -11693,7 +11850,7 @@
       </c>
       <c r="D490" s="9"/>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4">
       <c r="A491" s="9" t="s">
         <v>589</v>
       </c>
@@ -11705,7 +11862,7 @@
       </c>
       <c r="D491" s="9"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4">
       <c r="A492" s="9" t="s">
         <v>590</v>
       </c>
@@ -11717,7 +11874,7 @@
       </c>
       <c r="D492" s="9"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4">
       <c r="A493" s="9" t="s">
         <v>591</v>
       </c>
@@ -11729,7 +11886,7 @@
       </c>
       <c r="D493" s="9"/>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4">
       <c r="A494" s="9" t="s">
         <v>592</v>
       </c>
@@ -11741,7 +11898,7 @@
       </c>
       <c r="D494" s="9"/>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4">
       <c r="A495" s="9" t="s">
         <v>593</v>
       </c>
@@ -11753,7 +11910,7 @@
       </c>
       <c r="D495" s="9"/>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4">
       <c r="A496" s="9" t="s">
         <v>594</v>
       </c>
@@ -11767,7 +11924,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4">
       <c r="A497" s="9" t="s">
         <v>595</v>
       </c>
@@ -11781,7 +11938,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4">
       <c r="A498" s="9" t="s">
         <v>596</v>
       </c>
@@ -11795,7 +11952,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4">
       <c r="A499" s="9" t="s">
         <v>597</v>
       </c>
@@ -11809,7 +11966,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4">
       <c r="A500" s="11" t="s">
         <v>598</v>
       </c>
@@ -11821,7 +11978,7 @@
       </c>
       <c r="D500" s="9"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4">
       <c r="A501" s="9" t="s">
         <v>599</v>
       </c>
@@ -11833,7 +11990,7 @@
       </c>
       <c r="D501" s="9"/>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4">
       <c r="A502" s="9" t="s">
         <v>600</v>
       </c>
@@ -11847,7 +12004,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4">
       <c r="A503" s="11" t="s">
         <v>601</v>
       </c>
@@ -11861,7 +12018,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4">
       <c r="A504" s="9" t="s">
         <v>602</v>
       </c>
@@ -11873,7 +12030,7 @@
       </c>
       <c r="D504" s="9"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4">
       <c r="A505" s="9" t="s">
         <v>603</v>
       </c>
@@ -11885,7 +12042,7 @@
       </c>
       <c r="D505" s="9"/>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4">
       <c r="A506" s="9" t="s">
         <v>604</v>
       </c>
@@ -11899,7 +12056,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4">
       <c r="A507" s="11" t="s">
         <v>605</v>
       </c>
@@ -11911,7 +12068,7 @@
       </c>
       <c r="D507" s="9"/>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4">
       <c r="A508" s="9" t="s">
         <v>606</v>
       </c>
@@ -11923,7 +12080,7 @@
       </c>
       <c r="D508" s="9"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4">
       <c r="A509" s="9" t="s">
         <v>607</v>
       </c>
@@ -11935,7 +12092,7 @@
       </c>
       <c r="D509" s="9"/>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4">
       <c r="A510" s="9" t="s">
         <v>608</v>
       </c>
@@ -11949,7 +12106,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4">
       <c r="A511" s="9" t="s">
         <v>609</v>
       </c>
@@ -11963,7 +12120,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4">
       <c r="A512" s="9" t="s">
         <v>611</v>
       </c>
@@ -11977,7 +12134,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4">
       <c r="A513" s="9" t="s">
         <v>612</v>
       </c>
@@ -11991,7 +12148,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4">
       <c r="A514" s="9" t="s">
         <v>613</v>
       </c>
@@ -12003,7 +12160,7 @@
       </c>
       <c r="D514" s="9"/>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4">
       <c r="A515" s="9" t="s">
         <v>614</v>
       </c>
@@ -12015,7 +12172,7 @@
       </c>
       <c r="D515" s="9"/>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4">
       <c r="A516" s="9" t="s">
         <v>615</v>
       </c>
@@ -12029,7 +12186,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4">
       <c r="A517" s="9" t="s">
         <v>616</v>
       </c>
@@ -12043,7 +12200,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4">
       <c r="A518" s="11" t="s">
         <v>617</v>
       </c>
@@ -12055,7 +12212,7 @@
       </c>
       <c r="D518" s="9"/>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4">
       <c r="A519" s="9" t="s">
         <v>618</v>
       </c>
@@ -12067,7 +12224,7 @@
       </c>
       <c r="D519" s="9"/>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4">
       <c r="A520" s="9" t="s">
         <v>619</v>
       </c>
@@ -12079,7 +12236,7 @@
       </c>
       <c r="D520" s="9"/>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4">
       <c r="A521" s="9" t="s">
         <v>620</v>
       </c>
@@ -12091,7 +12248,7 @@
       </c>
       <c r="D521" s="9"/>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4">
       <c r="A522" s="9" t="s">
         <v>621</v>
       </c>
@@ -12103,7 +12260,7 @@
       </c>
       <c r="D522" s="9"/>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4">
       <c r="A523" s="9" t="s">
         <v>1346</v>
       </c>
@@ -12115,7 +12272,7 @@
       </c>
       <c r="D523" s="9"/>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4">
       <c r="A524" s="9" t="s">
         <v>622</v>
       </c>
@@ -12129,7 +12286,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4">
       <c r="A525" s="9" t="s">
         <v>623</v>
       </c>
@@ -12141,7 +12298,7 @@
       </c>
       <c r="D525" s="9"/>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4">
       <c r="A526" s="9" t="s">
         <v>625</v>
       </c>
@@ -12153,7 +12310,7 @@
       </c>
       <c r="D526" s="9"/>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4">
       <c r="A527" s="9" t="s">
         <v>626</v>
       </c>
@@ -12167,7 +12324,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4">
       <c r="A528" s="9" t="s">
         <v>627</v>
       </c>
@@ -12181,7 +12338,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4">
       <c r="A529" s="9" t="s">
         <v>628</v>
       </c>
@@ -12195,7 +12352,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4">
       <c r="A530" s="9" t="s">
         <v>629</v>
       </c>
@@ -12209,7 +12366,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4">
       <c r="A531" s="13" t="s">
         <v>630</v>
       </c>
@@ -12223,7 +12380,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4">
       <c r="A532" s="9" t="s">
         <v>631</v>
       </c>
@@ -12237,7 +12394,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4">
       <c r="A533" s="9" t="s">
         <v>632</v>
       </c>
@@ -12249,7 +12406,7 @@
       </c>
       <c r="D533" s="9"/>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4">
       <c r="A534" s="9" t="s">
         <v>633</v>
       </c>
@@ -12263,7 +12420,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" ht="28.8">
       <c r="A535" s="9" t="s">
         <v>634</v>
       </c>
@@ -12277,7 +12434,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4">
       <c r="A536" s="9" t="s">
         <v>635</v>
       </c>
@@ -12289,7 +12446,7 @@
       </c>
       <c r="D536" s="9"/>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4">
       <c r="A537" s="9" t="s">
         <v>636</v>
       </c>
@@ -12301,7 +12458,7 @@
       </c>
       <c r="D537" s="9"/>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4">
       <c r="A538" s="9" t="s">
         <v>637</v>
       </c>
@@ -12313,7 +12470,7 @@
       </c>
       <c r="D538" s="9"/>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4">
       <c r="A539" s="13" t="s">
         <v>638</v>
       </c>
@@ -12325,7 +12482,7 @@
       </c>
       <c r="D539" s="9"/>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4">
       <c r="A540" s="9" t="s">
         <v>639</v>
       </c>
@@ -12337,7 +12494,7 @@
       </c>
       <c r="D540" s="9"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4">
       <c r="A541" s="9" t="s">
         <v>640</v>
       </c>
@@ -12349,7 +12506,7 @@
       </c>
       <c r="D541" s="9"/>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4">
       <c r="A542" s="9" t="s">
         <v>1347</v>
       </c>
@@ -12361,7 +12518,7 @@
       </c>
       <c r="D542" s="9"/>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4">
       <c r="A543" s="9" t="s">
         <v>641</v>
       </c>
@@ -12373,7 +12530,7 @@
       </c>
       <c r="D543" s="9"/>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4">
       <c r="A544" s="9" t="s">
         <v>642</v>
       </c>
@@ -12385,7 +12542,7 @@
       </c>
       <c r="D544" s="9"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4">
       <c r="A545" s="9" t="s">
         <v>643</v>
       </c>
@@ -12397,7 +12554,7 @@
       </c>
       <c r="D545" s="9"/>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4">
       <c r="A546" s="11" t="s">
         <v>644</v>
       </c>
@@ -12409,7 +12566,7 @@
       </c>
       <c r="D546" s="9"/>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4">
       <c r="A547" s="9" t="s">
         <v>646</v>
       </c>
@@ -12421,7 +12578,7 @@
       </c>
       <c r="D547" s="9"/>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4">
       <c r="A548" s="9" t="s">
         <v>647</v>
       </c>
@@ -12433,7 +12590,7 @@
       </c>
       <c r="D548" s="9"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4">
       <c r="A549" s="9" t="s">
         <v>648</v>
       </c>
@@ -12445,7 +12602,7 @@
       </c>
       <c r="D549" s="9"/>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4">
       <c r="A550" s="11" t="s">
         <v>649</v>
       </c>
@@ -12457,7 +12614,7 @@
       </c>
       <c r="D550" s="9"/>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4">
       <c r="A551" s="11" t="s">
         <v>650</v>
       </c>
@@ -12469,7 +12626,7 @@
       </c>
       <c r="D551" s="9"/>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4">
       <c r="A552" s="9" t="s">
         <v>651</v>
       </c>
@@ -12481,7 +12638,7 @@
       </c>
       <c r="D552" s="9"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4">
       <c r="A553" s="9" t="s">
         <v>652</v>
       </c>
@@ -12493,7 +12650,7 @@
       </c>
       <c r="D553" s="9"/>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4">
       <c r="A554" s="13" t="s">
         <v>653</v>
       </c>
@@ -12505,7 +12662,7 @@
       </c>
       <c r="D554" s="9"/>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4">
       <c r="A555" s="9" t="s">
         <v>654</v>
       </c>
@@ -12517,7 +12674,7 @@
       </c>
       <c r="D555" s="9"/>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4">
       <c r="A556" s="9" t="s">
         <v>655</v>
       </c>
@@ -12529,7 +12686,7 @@
       </c>
       <c r="D556" s="9"/>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4">
       <c r="A557" s="9" t="s">
         <v>656</v>
       </c>
@@ -12543,7 +12700,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4">
       <c r="A558" s="9" t="s">
         <v>657</v>
       </c>
@@ -12557,7 +12714,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4">
       <c r="A559" s="9" t="s">
         <v>658</v>
       </c>
@@ -12571,7 +12728,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4">
       <c r="A560" s="9" t="s">
         <v>1395</v>
       </c>
@@ -12585,7 +12742,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4">
       <c r="A561" s="9" t="s">
         <v>659</v>
       </c>
@@ -12599,7 +12756,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4">
       <c r="A562" s="9" t="s">
         <v>660</v>
       </c>
@@ -12613,7 +12770,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4">
       <c r="A563" s="9" t="s">
         <v>661</v>
       </c>
@@ -12627,7 +12784,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4">
       <c r="A564" s="9" t="s">
         <v>663</v>
       </c>
@@ -12641,7 +12798,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4">
       <c r="A565" s="9" t="s">
         <v>664</v>
       </c>
@@ -12655,7 +12812,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4">
       <c r="A566" s="9" t="s">
         <v>665</v>
       </c>
@@ -12669,7 +12826,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4">
       <c r="A567" s="9" t="s">
         <v>666</v>
       </c>
@@ -12683,7 +12840,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4">
       <c r="A568" s="9" t="s">
         <v>667</v>
       </c>
@@ -12697,7 +12854,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4">
       <c r="A569" s="9" t="s">
         <v>1396</v>
       </c>
@@ -12711,7 +12868,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4">
       <c r="A570" s="9" t="s">
         <v>668</v>
       </c>
@@ -12725,7 +12882,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4">
       <c r="A571" s="9" t="s">
         <v>669</v>
       </c>
@@ -12739,7 +12896,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4">
       <c r="A572" s="9" t="s">
         <v>670</v>
       </c>
@@ -12753,7 +12910,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4">
       <c r="A573" s="9" t="s">
         <v>671</v>
       </c>
@@ -12767,7 +12924,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4">
       <c r="A574" s="9" t="s">
         <v>672</v>
       </c>
@@ -12781,7 +12938,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4">
       <c r="A575" s="9" t="s">
         <v>1348</v>
       </c>
@@ -12795,7 +12952,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4">
       <c r="A576" s="9" t="s">
         <v>674</v>
       </c>
@@ -12809,7 +12966,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4">
       <c r="A577" s="9" t="s">
         <v>675</v>
       </c>
@@ -12823,7 +12980,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4">
       <c r="A578" s="9" t="s">
         <v>676</v>
       </c>
@@ -12837,7 +12994,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4">
       <c r="A579" s="9" t="s">
         <v>678</v>
       </c>
@@ -12851,7 +13008,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4">
       <c r="A580" s="9" t="s">
         <v>679</v>
       </c>
@@ -12865,7 +13022,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4">
       <c r="A581" s="9" t="s">
         <v>1397</v>
       </c>
@@ -12879,7 +13036,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4">
       <c r="A582" s="9" t="s">
         <v>680</v>
       </c>
@@ -12893,7 +13050,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4">
       <c r="A583" s="9" t="s">
         <v>681</v>
       </c>
@@ -12907,7 +13064,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4">
       <c r="A584" s="9" t="s">
         <v>1120</v>
       </c>
@@ -12921,7 +13078,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4">
       <c r="A585" s="9" t="s">
         <v>684</v>
       </c>
@@ -12935,7 +13092,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4">
       <c r="A586" s="9" t="s">
         <v>686</v>
       </c>
@@ -12949,7 +13106,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4">
       <c r="A587" s="9" t="s">
         <v>688</v>
       </c>
@@ -12963,7 +13120,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4">
       <c r="A588" s="9" t="s">
         <v>689</v>
       </c>
@@ -12977,7 +13134,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4">
       <c r="A589" s="9" t="s">
         <v>690</v>
       </c>
@@ -12991,7 +13148,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4">
       <c r="A590" s="9" t="s">
         <v>1121</v>
       </c>
@@ -13005,7 +13162,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4">
       <c r="A591" s="9" t="s">
         <v>691</v>
       </c>
@@ -13019,7 +13176,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4">
       <c r="A592" s="9" t="s">
         <v>1387</v>
       </c>
@@ -13033,7 +13190,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4">
       <c r="A593" s="9" t="s">
         <v>692</v>
       </c>
@@ -13047,7 +13204,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4">
       <c r="A594" s="9" t="s">
         <v>1122</v>
       </c>
@@ -13061,7 +13218,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4">
       <c r="A595" s="9" t="s">
         <v>693</v>
       </c>
@@ -13075,7 +13232,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4">
       <c r="A596" s="9" t="s">
         <v>694</v>
       </c>
@@ -13089,7 +13246,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4">
       <c r="A597" s="9" t="s">
         <v>695</v>
       </c>
@@ -13103,7 +13260,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4">
       <c r="A598" s="9" t="s">
         <v>696</v>
       </c>
@@ -13117,7 +13274,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4">
       <c r="A599" s="9" t="s">
         <v>697</v>
       </c>
@@ -13131,7 +13288,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4">
       <c r="A600" s="9" t="s">
         <v>698</v>
       </c>
@@ -13145,7 +13302,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4">
       <c r="A601" s="9" t="s">
         <v>699</v>
       </c>
@@ -13159,7 +13316,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4">
       <c r="A602" s="9" t="s">
         <v>1398</v>
       </c>
@@ -13173,7 +13330,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4">
       <c r="A603" s="9" t="s">
         <v>700</v>
       </c>
@@ -13187,7 +13344,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4">
       <c r="A604" s="9" t="s">
         <v>701</v>
       </c>
@@ -13201,7 +13358,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4">
       <c r="A605" s="9" t="s">
         <v>1123</v>
       </c>
@@ -13215,7 +13372,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4">
       <c r="A606" s="9" t="s">
         <v>1349</v>
       </c>
@@ -13229,7 +13386,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4">
       <c r="A607" s="9" t="s">
         <v>702</v>
       </c>
@@ -13243,7 +13400,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4">
       <c r="A608" s="9" t="s">
         <v>703</v>
       </c>
@@ -13257,7 +13414,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4">
       <c r="A609" s="9" t="s">
         <v>704</v>
       </c>
@@ -13271,7 +13428,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4">
       <c r="A610" s="9" t="s">
         <v>705</v>
       </c>
@@ -13285,7 +13442,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4">
       <c r="A611" s="9" t="s">
         <v>706</v>
       </c>
@@ -13299,7 +13456,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4">
       <c r="A612" s="9" t="s">
         <v>707</v>
       </c>
@@ -13311,7 +13468,7 @@
       </c>
       <c r="D612" s="9"/>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4">
       <c r="A613" s="10" t="s">
         <v>708</v>
       </c>
@@ -13323,7 +13480,7 @@
       </c>
       <c r="D613" s="9"/>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4">
       <c r="A614" s="9" t="s">
         <v>709</v>
       </c>
@@ -13335,7 +13492,7 @@
       </c>
       <c r="D614" s="9"/>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4">
       <c r="A615" s="9" t="s">
         <v>710</v>
       </c>
@@ -13347,7 +13504,7 @@
       </c>
       <c r="D615" s="9"/>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4">
       <c r="A616" s="9" t="s">
         <v>1350</v>
       </c>
@@ -13359,7 +13516,7 @@
       </c>
       <c r="D616" s="9"/>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4">
       <c r="A617" s="9" t="s">
         <v>711</v>
       </c>
@@ -13371,7 +13528,7 @@
       </c>
       <c r="D617" s="9"/>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4">
       <c r="A618" s="9" t="s">
         <v>712</v>
       </c>
@@ -13383,7 +13540,7 @@
       </c>
       <c r="D618" s="9"/>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4">
       <c r="A619" s="9" t="s">
         <v>713</v>
       </c>
@@ -13395,7 +13552,7 @@
       </c>
       <c r="D619" s="9"/>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4">
       <c r="A620" s="9" t="s">
         <v>1351</v>
       </c>
@@ -13407,7 +13564,7 @@
       </c>
       <c r="D620" s="9"/>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4">
       <c r="A621" s="9" t="s">
         <v>714</v>
       </c>
@@ -13419,7 +13576,7 @@
       </c>
       <c r="D621" s="9"/>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4">
       <c r="A622" s="9" t="s">
         <v>715</v>
       </c>
@@ -13431,7 +13588,7 @@
       </c>
       <c r="D622" s="9"/>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4">
       <c r="A623" s="9" t="s">
         <v>716</v>
       </c>
@@ -13443,7 +13600,7 @@
       </c>
       <c r="D623" s="9"/>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4">
       <c r="A624" s="9" t="s">
         <v>717</v>
       </c>
@@ -13455,7 +13612,7 @@
       </c>
       <c r="D624" s="9"/>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4">
       <c r="A625" s="9" t="s">
         <v>718</v>
       </c>
@@ -13469,7 +13626,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4">
       <c r="A626" s="9" t="s">
         <v>719</v>
       </c>
@@ -13481,7 +13638,7 @@
       </c>
       <c r="D626" s="9"/>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4">
       <c r="A627" s="9" t="s">
         <v>720</v>
       </c>
@@ -13493,7 +13650,7 @@
       </c>
       <c r="D627" s="9"/>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4">
       <c r="A628" s="9" t="s">
         <v>721</v>
       </c>
@@ -13505,7 +13662,7 @@
       </c>
       <c r="D628" s="9"/>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4">
       <c r="A629" s="9" t="s">
         <v>722</v>
       </c>
@@ -13517,7 +13674,7 @@
       </c>
       <c r="D629" s="9"/>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4">
       <c r="A630" s="11" t="s">
         <v>1352</v>
       </c>
@@ -13529,7 +13686,7 @@
       </c>
       <c r="D630" s="9"/>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4">
       <c r="A631" s="11" t="s">
         <v>1353</v>
       </c>
@@ -13541,7 +13698,7 @@
       </c>
       <c r="D631" s="9"/>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4">
       <c r="A632" s="9" t="s">
         <v>723</v>
       </c>
@@ -13555,7 +13712,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4">
       <c r="A633" s="9" t="s">
         <v>724</v>
       </c>
@@ -13569,7 +13726,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4">
       <c r="A634" s="9" t="s">
         <v>725</v>
       </c>
@@ -13583,7 +13740,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4">
       <c r="A635" s="9" t="s">
         <v>727</v>
       </c>
@@ -13597,7 +13754,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4">
       <c r="A636" s="9" t="s">
         <v>728</v>
       </c>
@@ -13611,7 +13768,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4">
       <c r="A637" s="9" t="s">
         <v>730</v>
       </c>
@@ -13625,7 +13782,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4">
       <c r="A638" s="9" t="s">
         <v>731</v>
       </c>
@@ -13639,7 +13796,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4">
       <c r="A639" s="9" t="s">
         <v>732</v>
       </c>
@@ -13651,7 +13808,7 @@
       </c>
       <c r="D639" s="9"/>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4">
       <c r="A640" s="9" t="s">
         <v>733</v>
       </c>
@@ -13663,7 +13820,7 @@
       </c>
       <c r="D640" s="9"/>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4">
       <c r="A641" s="10" t="s">
         <v>734</v>
       </c>
@@ -13675,7 +13832,7 @@
       </c>
       <c r="D641" s="9"/>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4">
       <c r="A642" s="9" t="s">
         <v>735</v>
       </c>
@@ -13687,7 +13844,7 @@
       </c>
       <c r="D642" s="9"/>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4">
       <c r="A643" s="9" t="s">
         <v>736</v>
       </c>
@@ -13699,7 +13856,7 @@
       </c>
       <c r="D643" s="9"/>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4">
       <c r="A644" s="13" t="s">
         <v>737</v>
       </c>
@@ -13711,7 +13868,7 @@
       </c>
       <c r="D644" s="9"/>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4">
       <c r="A645" s="9" t="s">
         <v>738</v>
       </c>
@@ -13725,7 +13882,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4">
       <c r="A646" s="10" t="s">
         <v>739</v>
       </c>
@@ -13737,7 +13894,7 @@
       </c>
       <c r="D646" s="9"/>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4">
       <c r="A647" s="9" t="s">
         <v>1354</v>
       </c>
@@ -13749,7 +13906,7 @@
       </c>
       <c r="D647" s="9"/>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4">
       <c r="A648" s="9" t="s">
         <v>740</v>
       </c>
@@ -13761,7 +13918,7 @@
       </c>
       <c r="D648" s="9"/>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4">
       <c r="A649" s="11" t="s">
         <v>741</v>
       </c>
@@ -13773,7 +13930,7 @@
       </c>
       <c r="D649" s="9"/>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4">
       <c r="A650" s="11" t="s">
         <v>742</v>
       </c>
@@ -13785,7 +13942,7 @@
       </c>
       <c r="D650" s="9"/>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4">
       <c r="A651" s="9" t="s">
         <v>743</v>
       </c>
@@ -13797,7 +13954,7 @@
       </c>
       <c r="D651" s="9"/>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4">
       <c r="A652" s="9" t="s">
         <v>744</v>
       </c>
@@ -13809,7 +13966,7 @@
       </c>
       <c r="D652" s="9"/>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4">
       <c r="A653" s="9" t="s">
         <v>745</v>
       </c>
@@ -13821,7 +13978,7 @@
       </c>
       <c r="D653" s="9"/>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4">
       <c r="A654" s="9" t="s">
         <v>746</v>
       </c>
@@ -13833,7 +13990,7 @@
       </c>
       <c r="D654" s="9"/>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4">
       <c r="A655" s="9" t="s">
         <v>747</v>
       </c>
@@ -13845,7 +14002,7 @@
       </c>
       <c r="D655" s="9"/>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4">
       <c r="A656" s="9" t="s">
         <v>748</v>
       </c>
@@ -13857,7 +14014,7 @@
       </c>
       <c r="D656" s="9"/>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4">
       <c r="A657" s="9" t="s">
         <v>749</v>
       </c>
@@ -13869,7 +14026,7 @@
       </c>
       <c r="D657" s="9"/>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4">
       <c r="A658" s="9" t="s">
         <v>750</v>
       </c>
@@ -13881,7 +14038,7 @@
       </c>
       <c r="D658" s="9"/>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4">
       <c r="A659" s="9" t="s">
         <v>751</v>
       </c>
@@ -13893,7 +14050,7 @@
       </c>
       <c r="D659" s="9"/>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4">
       <c r="A660" s="9" t="s">
         <v>752</v>
       </c>
@@ -13905,7 +14062,7 @@
       </c>
       <c r="D660" s="9"/>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4">
       <c r="A661" s="9" t="s">
         <v>753</v>
       </c>
@@ -13917,7 +14074,7 @@
       </c>
       <c r="D661" s="9"/>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4">
       <c r="A662" s="9" t="s">
         <v>754</v>
       </c>
@@ -13929,7 +14086,7 @@
       </c>
       <c r="D662" s="9"/>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4">
       <c r="A663" s="11" t="s">
         <v>755</v>
       </c>
@@ -13941,7 +14098,7 @@
       </c>
       <c r="D663" s="9"/>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4">
       <c r="A664" s="11" t="s">
         <v>756</v>
       </c>
@@ -13953,7 +14110,7 @@
       </c>
       <c r="D664" s="9"/>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4">
       <c r="A665" s="11" t="s">
         <v>757</v>
       </c>
@@ -13965,7 +14122,7 @@
       </c>
       <c r="D665" s="9"/>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4">
       <c r="A666" s="11" t="s">
         <v>758</v>
       </c>
@@ -13977,7 +14134,7 @@
       </c>
       <c r="D666" s="9"/>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4">
       <c r="A667" s="11" t="s">
         <v>759</v>
       </c>
@@ -13989,7 +14146,7 @@
       </c>
       <c r="D667" s="9"/>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4">
       <c r="A668" s="9" t="s">
         <v>760</v>
       </c>
@@ -14001,7 +14158,7 @@
       </c>
       <c r="D668" s="9"/>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4">
       <c r="A669" s="9" t="s">
         <v>761</v>
       </c>
@@ -14013,7 +14170,7 @@
       </c>
       <c r="D669" s="9"/>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4">
       <c r="A670" s="9" t="s">
         <v>762</v>
       </c>
@@ -14025,7 +14182,7 @@
       </c>
       <c r="D670" s="9"/>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4">
       <c r="A671" s="9" t="s">
         <v>763</v>
       </c>
@@ -14037,7 +14194,7 @@
       </c>
       <c r="D671" s="9"/>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4">
       <c r="A672" s="9" t="s">
         <v>764</v>
       </c>
@@ -14049,7 +14206,7 @@
       </c>
       <c r="D672" s="9"/>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4">
       <c r="A673" s="9" t="s">
         <v>765</v>
       </c>
@@ -14061,7 +14218,7 @@
       </c>
       <c r="D673" s="9"/>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4">
       <c r="A674" s="9" t="s">
         <v>766</v>
       </c>
@@ -14073,7 +14230,7 @@
       </c>
       <c r="D674" s="9"/>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4">
       <c r="A675" s="9" t="s">
         <v>767</v>
       </c>
@@ -14085,7 +14242,7 @@
       </c>
       <c r="D675" s="9"/>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4">
       <c r="A676" s="9" t="s">
         <v>768</v>
       </c>
@@ -14097,7 +14254,7 @@
       </c>
       <c r="D676" s="9"/>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4">
       <c r="A677" s="9" t="s">
         <v>769</v>
       </c>
@@ -14111,7 +14268,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4">
       <c r="A678" s="13" t="s">
         <v>770</v>
       </c>
@@ -14123,7 +14280,7 @@
       </c>
       <c r="D678" s="9"/>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4">
       <c r="A679" s="9" t="s">
         <v>771</v>
       </c>
@@ -14135,7 +14292,7 @@
       </c>
       <c r="D679" s="9"/>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4">
       <c r="A680" s="9" t="s">
         <v>773</v>
       </c>
@@ -14149,7 +14306,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4">
       <c r="A681" s="9" t="s">
         <v>774</v>
       </c>
@@ -14163,7 +14320,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4">
       <c r="A682" s="9" t="s">
         <v>776</v>
       </c>
@@ -14175,7 +14332,7 @@
       </c>
       <c r="D682" s="9"/>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4">
       <c r="A683" s="10" t="s">
         <v>1355</v>
       </c>
@@ -14187,7 +14344,7 @@
       </c>
       <c r="D683" s="9"/>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4">
       <c r="A684" s="9" t="s">
         <v>777</v>
       </c>
@@ -14199,7 +14356,7 @@
       </c>
       <c r="D684" s="9"/>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4">
       <c r="A685" s="9" t="s">
         <v>778</v>
       </c>
@@ -14211,7 +14368,7 @@
       </c>
       <c r="D685" s="9"/>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4">
       <c r="A686" s="9" t="s">
         <v>779</v>
       </c>
@@ -14223,7 +14380,7 @@
       </c>
       <c r="D686" s="9"/>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4">
       <c r="A687" s="9" t="s">
         <v>780</v>
       </c>
@@ -14235,7 +14392,7 @@
       </c>
       <c r="D687" s="9"/>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4">
       <c r="A688" s="9" t="s">
         <v>781</v>
       </c>
@@ -14247,7 +14404,7 @@
       </c>
       <c r="D688" s="9"/>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4">
       <c r="A689" s="9" t="s">
         <v>782</v>
       </c>
@@ -14259,7 +14416,7 @@
       </c>
       <c r="D689" s="9"/>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4">
       <c r="A690" s="9" t="s">
         <v>783</v>
       </c>
@@ -14271,7 +14428,7 @@
       </c>
       <c r="D690" s="9"/>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4">
       <c r="A691" s="9" t="s">
         <v>784</v>
       </c>
@@ -14285,7 +14442,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4">
       <c r="A692" s="9" t="s">
         <v>785</v>
       </c>
@@ -14297,7 +14454,7 @@
       </c>
       <c r="D692" s="9"/>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4">
       <c r="A693" s="9" t="s">
         <v>786</v>
       </c>
@@ -14309,7 +14466,7 @@
       </c>
       <c r="D693" s="9"/>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4">
       <c r="A694" s="9" t="s">
         <v>787</v>
       </c>
@@ -14321,7 +14478,7 @@
       </c>
       <c r="D694" s="9"/>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4">
       <c r="A695" s="9" t="s">
         <v>788</v>
       </c>
@@ -14333,7 +14490,7 @@
       </c>
       <c r="D695" s="9"/>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4">
       <c r="A696" s="9" t="s">
         <v>789</v>
       </c>
@@ -14347,7 +14504,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4">
       <c r="A697" s="9" t="s">
         <v>790</v>
       </c>
@@ -14359,7 +14516,7 @@
       </c>
       <c r="D697" s="9"/>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4">
       <c r="A698" s="9" t="s">
         <v>791</v>
       </c>
@@ -14371,7 +14528,7 @@
       </c>
       <c r="D698" s="9"/>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4">
       <c r="A699" s="9" t="s">
         <v>792</v>
       </c>
@@ -14383,7 +14540,7 @@
       </c>
       <c r="D699" s="9"/>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4">
       <c r="A700" s="9" t="s">
         <v>793</v>
       </c>
@@ -14395,7 +14552,7 @@
       </c>
       <c r="D700" s="9"/>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4">
       <c r="A701" s="9" t="s">
         <v>794</v>
       </c>
@@ -14407,7 +14564,7 @@
       </c>
       <c r="D701" s="9"/>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4">
       <c r="A702" s="9" t="s">
         <v>796</v>
       </c>
@@ -14419,7 +14576,7 @@
       </c>
       <c r="D702" s="9"/>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4">
       <c r="A703" s="9" t="s">
         <v>797</v>
       </c>
@@ -14431,7 +14588,7 @@
       </c>
       <c r="D703" s="9"/>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4">
       <c r="A704" s="9" t="s">
         <v>798</v>
       </c>
@@ -14443,7 +14600,7 @@
       </c>
       <c r="D704" s="9"/>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4">
       <c r="A705" s="9" t="s">
         <v>799</v>
       </c>
@@ -14455,7 +14612,7 @@
       </c>
       <c r="D705" s="9"/>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4">
       <c r="A706" s="9" t="s">
         <v>800</v>
       </c>
@@ -14467,7 +14624,7 @@
       </c>
       <c r="D706" s="9"/>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4">
       <c r="A707" s="9" t="s">
         <v>801</v>
       </c>
@@ -14479,7 +14636,7 @@
       </c>
       <c r="D707" s="9"/>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4">
       <c r="A708" s="9" t="s">
         <v>802</v>
       </c>
@@ -14491,7 +14648,7 @@
       </c>
       <c r="D708" s="9"/>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4">
       <c r="A709" s="9" t="s">
         <v>803</v>
       </c>
@@ -14503,7 +14660,7 @@
       </c>
       <c r="D709" s="9"/>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4">
       <c r="A710" s="9" t="s">
         <v>1356</v>
       </c>
@@ -14517,7 +14674,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4">
       <c r="A711" s="9" t="s">
         <v>804</v>
       </c>
@@ -14529,7 +14686,7 @@
       </c>
       <c r="D711" s="9"/>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4">
       <c r="A712" s="9" t="s">
         <v>805</v>
       </c>
@@ -14541,7 +14698,7 @@
       </c>
       <c r="D712" s="9"/>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4">
       <c r="A713" s="9" t="s">
         <v>806</v>
       </c>
@@ -14553,7 +14710,7 @@
       </c>
       <c r="D713" s="9"/>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4">
       <c r="A714" s="9" t="s">
         <v>807</v>
       </c>
@@ -14567,7 +14724,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4">
       <c r="A715" s="9" t="s">
         <v>808</v>
       </c>
@@ -14579,7 +14736,7 @@
       </c>
       <c r="D715" s="9"/>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4">
       <c r="A716" s="9" t="s">
         <v>809</v>
       </c>
@@ -14591,7 +14748,7 @@
       </c>
       <c r="D716" s="9"/>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4">
       <c r="A717" s="9" t="s">
         <v>810</v>
       </c>
@@ -14603,7 +14760,7 @@
       </c>
       <c r="D717" s="9"/>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4">
       <c r="A718" s="9" t="s">
         <v>811</v>
       </c>
@@ -14617,7 +14774,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4">
       <c r="A719" s="9" t="s">
         <v>812</v>
       </c>
@@ -14629,7 +14786,7 @@
       </c>
       <c r="D719" s="9"/>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4">
       <c r="A720" s="9" t="s">
         <v>813</v>
       </c>
@@ -14641,7 +14798,7 @@
       </c>
       <c r="D720" s="9"/>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4">
       <c r="A721" s="9" t="s">
         <v>814</v>
       </c>
@@ -14655,7 +14812,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4">
       <c r="A722" s="9" t="s">
         <v>772</v>
       </c>
@@ -14669,7 +14826,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4">
       <c r="A723" s="9" t="s">
         <v>815</v>
       </c>
@@ -14683,7 +14840,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4">
       <c r="A724" s="9" t="s">
         <v>816</v>
       </c>
@@ -14697,7 +14854,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4">
       <c r="A725" s="9" t="s">
         <v>817</v>
       </c>
@@ -14711,7 +14868,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4">
       <c r="A726" s="9" t="s">
         <v>818</v>
       </c>
@@ -14725,7 +14882,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4">
       <c r="A727" s="9" t="s">
         <v>819</v>
       </c>
@@ -14739,7 +14896,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4">
       <c r="A728" s="9" t="s">
         <v>820</v>
       </c>
@@ -14753,7 +14910,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4">
       <c r="A729" s="9" t="s">
         <v>821</v>
       </c>
@@ -14767,7 +14924,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4">
       <c r="A730" s="9" t="s">
         <v>822</v>
       </c>
@@ -14781,7 +14938,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4">
       <c r="A731" s="9" t="s">
         <v>823</v>
       </c>
@@ -14795,7 +14952,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4">
       <c r="A732" s="9" t="s">
         <v>824</v>
       </c>
@@ -14809,7 +14966,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4">
       <c r="A733" s="9" t="s">
         <v>825</v>
       </c>
@@ -14823,7 +14980,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4">
       <c r="A734" s="9" t="s">
         <v>826</v>
       </c>
@@ -14837,7 +14994,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4">
       <c r="A735" s="9" t="s">
         <v>827</v>
       </c>
@@ -14851,7 +15008,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4">
       <c r="A736" s="9" t="s">
         <v>828</v>
       </c>
@@ -14865,7 +15022,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4">
       <c r="A737" s="9" t="s">
         <v>829</v>
       </c>
@@ -14877,7 +15034,7 @@
       </c>
       <c r="D737" s="9"/>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4">
       <c r="A738" s="9" t="s">
         <v>613</v>
       </c>
@@ -14891,7 +15048,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4">
       <c r="A739" s="9" t="s">
         <v>831</v>
       </c>
@@ -14905,7 +15062,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4">
       <c r="A740" s="9" t="s">
         <v>832</v>
       </c>
@@ -14919,7 +15076,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4">
       <c r="A741" s="9" t="s">
         <v>833</v>
       </c>
@@ -14933,7 +15090,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4">
       <c r="A742" s="9" t="s">
         <v>834</v>
       </c>
@@ -14947,7 +15104,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4">
       <c r="A743" s="9" t="s">
         <v>276</v>
       </c>
@@ -14961,7 +15118,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4">
       <c r="A744" s="9" t="s">
         <v>835</v>
       </c>
@@ -14975,7 +15132,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4">
       <c r="A745" s="9" t="s">
         <v>836</v>
       </c>
@@ -14989,7 +15146,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4">
       <c r="A746" s="9" t="s">
         <v>837</v>
       </c>
@@ -15003,7 +15160,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4">
       <c r="A747" s="9" t="s">
         <v>838</v>
       </c>
@@ -15017,7 +15174,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4">
       <c r="A748" s="9" t="s">
         <v>839</v>
       </c>
@@ -15031,7 +15188,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4">
       <c r="A749" s="9" t="s">
         <v>840</v>
       </c>
@@ -15045,7 +15202,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4">
       <c r="A750" s="9" t="s">
         <v>841</v>
       </c>
@@ -15059,7 +15216,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4">
       <c r="A751" s="9" t="s">
         <v>842</v>
       </c>
@@ -15073,7 +15230,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4">
       <c r="A752" s="10" t="s">
         <v>843</v>
       </c>
@@ -15085,7 +15242,7 @@
       </c>
       <c r="D752" s="9"/>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4">
       <c r="A753" s="9" t="s">
         <v>844</v>
       </c>
@@ -15097,7 +15254,7 @@
       </c>
       <c r="D753" s="9"/>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4">
       <c r="A754" s="9" t="s">
         <v>845</v>
       </c>
@@ -15109,7 +15266,7 @@
       </c>
       <c r="D754" s="9"/>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4">
       <c r="A755" s="9" t="s">
         <v>846</v>
       </c>
@@ -15121,7 +15278,7 @@
       </c>
       <c r="D755" s="9"/>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4">
       <c r="A756" s="9" t="s">
         <v>847</v>
       </c>
@@ -15133,7 +15290,7 @@
       </c>
       <c r="D756" s="9"/>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4">
       <c r="A757" s="9" t="s">
         <v>848</v>
       </c>
@@ -15145,7 +15302,7 @@
       </c>
       <c r="D757" s="9"/>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4">
       <c r="A758" s="11" t="s">
         <v>849</v>
       </c>
@@ -15157,7 +15314,7 @@
       </c>
       <c r="D758" s="9"/>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4">
       <c r="A759" s="9" t="s">
         <v>850</v>
       </c>
@@ -15171,7 +15328,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4">
       <c r="A760" s="9" t="s">
         <v>851</v>
       </c>
@@ -15183,7 +15340,7 @@
       </c>
       <c r="D760" s="9"/>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4">
       <c r="A761" s="9" t="s">
         <v>852</v>
       </c>
@@ -15197,7 +15354,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4">
       <c r="A762" s="9" t="s">
         <v>853</v>
       </c>
@@ -15211,7 +15368,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4">
       <c r="A763" s="9" t="s">
         <v>854</v>
       </c>
@@ -15223,7 +15380,7 @@
       </c>
       <c r="D763" s="9"/>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4">
       <c r="A764" s="9" t="s">
         <v>855</v>
       </c>
@@ -15237,7 +15394,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4">
       <c r="A765" s="9" t="s">
         <v>856</v>
       </c>
@@ -15251,7 +15408,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4">
       <c r="A766" s="9" t="s">
         <v>857</v>
       </c>
@@ -15263,7 +15420,7 @@
       </c>
       <c r="D766" s="9"/>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4">
       <c r="A767" s="9" t="s">
         <v>858</v>
       </c>
@@ -15277,7 +15434,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4">
       <c r="A768" s="9" t="s">
         <v>859</v>
       </c>
@@ -15291,7 +15448,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4">
       <c r="A769" s="9" t="s">
         <v>860</v>
       </c>
@@ -15305,7 +15462,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4">
       <c r="A770" s="9" t="s">
         <v>861</v>
       </c>
@@ -15319,7 +15476,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4">
       <c r="A771" s="9" t="s">
         <v>862</v>
       </c>
@@ -15333,7 +15490,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4">
       <c r="A772" s="9" t="s">
         <v>863</v>
       </c>
@@ -15345,7 +15502,7 @@
       </c>
       <c r="D772" s="9"/>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4">
       <c r="A773" s="9" t="s">
         <v>864</v>
       </c>
@@ -15357,7 +15514,7 @@
       </c>
       <c r="D773" s="9"/>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4">
       <c r="A774" s="9" t="s">
         <v>865</v>
       </c>
@@ -15369,7 +15526,7 @@
       </c>
       <c r="D774" s="9"/>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4">
       <c r="A775" s="9" t="s">
         <v>866</v>
       </c>
@@ -15383,7 +15540,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4">
       <c r="A776" s="9" t="s">
         <v>867</v>
       </c>
@@ -15395,7 +15552,7 @@
       </c>
       <c r="D776" s="9"/>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4">
       <c r="A777" s="9" t="s">
         <v>868</v>
       </c>
@@ -15407,7 +15564,7 @@
       </c>
       <c r="D777" s="9"/>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4">
       <c r="A778" s="9" t="s">
         <v>869</v>
       </c>
@@ -15421,7 +15578,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4">
       <c r="A779" s="9" t="s">
         <v>870</v>
       </c>
@@ -15433,7 +15590,7 @@
       </c>
       <c r="D779" s="9"/>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4">
       <c r="A780" s="9" t="s">
         <v>871</v>
       </c>
@@ -15445,7 +15602,7 @@
       </c>
       <c r="D780" s="9"/>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4">
       <c r="A781" s="9" t="s">
         <v>872</v>
       </c>
@@ -15457,7 +15614,7 @@
       </c>
       <c r="D781" s="9"/>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4">
       <c r="A782" s="9" t="s">
         <v>873</v>
       </c>
@@ -15469,7 +15626,7 @@
       </c>
       <c r="D782" s="9"/>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4">
       <c r="A783" s="9" t="s">
         <v>874</v>
       </c>
@@ -15483,7 +15640,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4">
       <c r="A784" s="9" t="s">
         <v>876</v>
       </c>
@@ -15495,7 +15652,7 @@
       </c>
       <c r="D784" s="9"/>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4">
       <c r="A785" s="9" t="s">
         <v>877</v>
       </c>
@@ -15507,7 +15664,7 @@
       </c>
       <c r="D785" s="9"/>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4">
       <c r="A786" s="9" t="s">
         <v>878</v>
       </c>
@@ -15519,7 +15676,7 @@
       </c>
       <c r="D786" s="9"/>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4">
       <c r="A787" s="10" t="s">
         <v>879</v>
       </c>
@@ -15531,7 +15688,7 @@
       </c>
       <c r="D787" s="9"/>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4">
       <c r="A788" s="9" t="s">
         <v>880</v>
       </c>
@@ -15543,7 +15700,7 @@
       </c>
       <c r="D788" s="9"/>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4">
       <c r="A789" s="9" t="s">
         <v>881</v>
       </c>
@@ -15555,7 +15712,7 @@
       </c>
       <c r="D789" s="9"/>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4">
       <c r="A790" s="9" t="s">
         <v>882</v>
       </c>
@@ -15567,7 +15724,7 @@
       </c>
       <c r="D790" s="9"/>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4">
       <c r="A791" s="20" t="s">
         <v>883</v>
       </c>
@@ -15579,7 +15736,7 @@
       </c>
       <c r="D791" s="9"/>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4">
       <c r="A792" s="9" t="s">
         <v>884</v>
       </c>
@@ -15591,7 +15748,7 @@
       </c>
       <c r="D792" s="9"/>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4">
       <c r="A793" s="9" t="s">
         <v>885</v>
       </c>
@@ -15605,7 +15762,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4">
       <c r="A794" s="9" t="s">
         <v>886</v>
       </c>
@@ -15619,7 +15776,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4">
       <c r="A795" s="9" t="s">
         <v>847</v>
       </c>
@@ -15633,7 +15790,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4">
       <c r="A796" s="9" t="s">
         <v>887</v>
       </c>
@@ -15645,7 +15802,7 @@
       </c>
       <c r="D796" s="9"/>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4">
       <c r="A797" s="9" t="s">
         <v>888</v>
       </c>
@@ -15659,7 +15816,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4">
       <c r="A798" s="9" t="s">
         <v>889</v>
       </c>
@@ -15673,7 +15830,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4">
       <c r="A799" s="9" t="s">
         <v>890</v>
       </c>
@@ -15687,7 +15844,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:4">
       <c r="A800" s="9" t="s">
         <v>893</v>
       </c>
@@ -15701,7 +15858,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:4">
       <c r="A801" s="9" t="s">
         <v>894</v>
       </c>
@@ -15715,7 +15872,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:4">
       <c r="A802" s="9" t="s">
         <v>895</v>
       </c>
@@ -15727,7 +15884,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:4">
       <c r="A803" s="9" t="s">
         <v>896</v>
       </c>
@@ -15741,7 +15898,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:4">
       <c r="A804" s="9" t="s">
         <v>897</v>
       </c>
@@ -15755,7 +15912,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:4">
       <c r="A805" s="9" t="s">
         <v>898</v>
       </c>
@@ -15769,7 +15926,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:4">
       <c r="A806" s="9" t="s">
         <v>899</v>
       </c>
@@ -15783,7 +15940,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:4">
       <c r="A807" s="9" t="s">
         <v>900</v>
       </c>
@@ -15797,7 +15954,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:4">
       <c r="A808" s="9" t="s">
         <v>1357</v>
       </c>
@@ -15811,7 +15968,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:4">
       <c r="A809" s="9" t="s">
         <v>901</v>
       </c>
@@ -15825,7 +15982,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:4">
       <c r="A810" s="9" t="s">
         <v>903</v>
       </c>
@@ -15839,7 +15996,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:4">
       <c r="A811" s="9" t="s">
         <v>904</v>
       </c>
@@ -15853,7 +16010,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:4">
       <c r="A812" s="9" t="s">
         <v>1399</v>
       </c>
@@ -15867,7 +16024,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:4">
       <c r="A813" s="9" t="s">
         <v>905</v>
       </c>
@@ -15881,7 +16038,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:4">
       <c r="A814" s="9" t="s">
         <v>906</v>
       </c>
@@ -15895,7 +16052,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:4">
       <c r="A815" s="9" t="s">
         <v>907</v>
       </c>
@@ -15909,7 +16066,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:4">
       <c r="A816" s="9" t="s">
         <v>908</v>
       </c>
@@ -15923,7 +16080,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:4">
       <c r="A817" s="9" t="s">
         <v>909</v>
       </c>
@@ -15937,7 +16094,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:4">
       <c r="A818" s="9" t="s">
         <v>910</v>
       </c>
@@ -15951,7 +16108,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:4">
       <c r="A819" s="9" t="s">
         <v>911</v>
       </c>
@@ -15965,7 +16122,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:4">
       <c r="A820" s="9" t="s">
         <v>912</v>
       </c>
@@ -15979,7 +16136,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:4">
       <c r="A821" s="9" t="s">
         <v>913</v>
       </c>
@@ -15993,7 +16150,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:4">
       <c r="A822" s="9" t="s">
         <v>914</v>
       </c>
@@ -16005,7 +16162,7 @@
       </c>
       <c r="D822" s="9"/>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:4">
       <c r="A823" s="9" t="s">
         <v>915</v>
       </c>
@@ -16019,7 +16176,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:4">
       <c r="A824" s="9" t="s">
         <v>916</v>
       </c>
@@ -16033,7 +16190,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:4">
       <c r="A825" s="9" t="s">
         <v>917</v>
       </c>
@@ -16047,7 +16204,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:4">
       <c r="A826" s="9" t="s">
         <v>918</v>
       </c>
@@ -16061,7 +16218,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:4">
       <c r="A827" s="9" t="s">
         <v>919</v>
       </c>
@@ -16075,7 +16232,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:4">
       <c r="A828" s="9" t="s">
         <v>920</v>
       </c>
@@ -16089,7 +16246,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:4">
       <c r="A829" s="9" t="s">
         <v>921</v>
       </c>
@@ -16103,7 +16260,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:4">
       <c r="A830" s="9" t="s">
         <v>922</v>
       </c>
@@ -16117,7 +16274,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:4">
       <c r="A831" s="9" t="s">
         <v>923</v>
       </c>
@@ -16129,7 +16286,7 @@
       </c>
       <c r="D831" s="9"/>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:4">
       <c r="A832" s="9" t="s">
         <v>924</v>
       </c>
@@ -16143,7 +16300,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:4">
       <c r="A833" s="9" t="s">
         <v>925</v>
       </c>
@@ -16157,7 +16314,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:4">
       <c r="A834" s="9" t="s">
         <v>926</v>
       </c>
@@ -16171,7 +16328,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:4">
       <c r="A835" s="9" t="s">
         <v>927</v>
       </c>
@@ -16185,7 +16342,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:4">
       <c r="A836" s="9" t="s">
         <v>928</v>
       </c>
@@ -16199,7 +16356,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:4">
       <c r="A837" s="9" t="s">
         <v>929</v>
       </c>
@@ -16211,7 +16368,7 @@
       </c>
       <c r="D837" s="9"/>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:4">
       <c r="A838" s="9" t="s">
         <v>930</v>
       </c>
@@ -16225,7 +16382,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:4">
       <c r="A839" s="9" t="s">
         <v>931</v>
       </c>
@@ -16239,7 +16396,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:4">
       <c r="A840" s="10" t="s">
         <v>932</v>
       </c>
@@ -16251,7 +16408,7 @@
       </c>
       <c r="D840" s="9"/>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:4">
       <c r="A841" s="9" t="s">
         <v>933</v>
       </c>
@@ -16265,7 +16422,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:4">
       <c r="A842" s="9" t="s">
         <v>934</v>
       </c>
@@ -16277,7 +16434,7 @@
       </c>
       <c r="D842" s="9"/>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:4">
       <c r="A843" s="9" t="s">
         <v>935</v>
       </c>
@@ -16289,7 +16446,7 @@
       </c>
       <c r="D843" s="9"/>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:4">
       <c r="A844" s="9" t="s">
         <v>891</v>
       </c>
@@ -16303,7 +16460,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:4">
       <c r="A845" s="11" t="s">
         <v>1358</v>
       </c>
@@ -16315,7 +16472,7 @@
       </c>
       <c r="D845" s="9"/>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:4">
       <c r="A846" s="9" t="s">
         <v>1277</v>
       </c>
@@ -16327,7 +16484,7 @@
       </c>
       <c r="D846" s="9"/>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:4">
       <c r="A847" s="9" t="s">
         <v>1278</v>
       </c>
@@ -16339,7 +16496,7 @@
       </c>
       <c r="D847" s="9"/>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:4">
       <c r="A848" s="9" t="s">
         <v>1279</v>
       </c>
@@ -16351,7 +16508,7 @@
       </c>
       <c r="D848" s="9"/>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:4">
       <c r="A849" s="9" t="s">
         <v>1280</v>
       </c>
@@ -16365,7 +16522,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:4">
       <c r="A850" s="9" t="s">
         <v>1282</v>
       </c>
@@ -16377,7 +16534,7 @@
       </c>
       <c r="D850" s="9"/>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:4">
       <c r="A851" s="10" t="s">
         <v>237</v>
       </c>
@@ -16391,7 +16548,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:4">
       <c r="A852" s="9" t="s">
         <v>1246</v>
       </c>
@@ -16405,7 +16562,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:4" ht="13.8" customHeight="1">
       <c r="A853" s="19" t="s">
         <v>1249</v>
       </c>
@@ -16419,7 +16576,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:4">
       <c r="A854" s="19" t="s">
         <v>1250</v>
       </c>
@@ -16433,7 +16590,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="855" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:4" ht="28.8">
       <c r="A855" s="19" t="s">
         <v>1251</v>
       </c>
@@ -16447,7 +16604,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:4">
       <c r="A856" s="19" t="s">
         <v>1253</v>
       </c>
@@ -16461,7 +16618,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:4">
       <c r="A857" s="19" t="s">
         <v>1254</v>
       </c>
@@ -16475,7 +16632,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:4">
       <c r="A858" s="19" t="s">
         <v>1255</v>
       </c>
@@ -16489,7 +16646,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="859" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:4" ht="28.8">
       <c r="A859" s="19" t="s">
         <v>1256</v>
       </c>
@@ -16503,7 +16660,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="860" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:4" ht="43.2">
       <c r="A860" s="19" t="s">
         <v>1359</v>
       </c>
@@ -16517,7 +16674,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:4">
       <c r="A861" s="19" t="s">
         <v>1259</v>
       </c>
@@ -16531,7 +16688,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:4">
       <c r="A862" s="19" t="s">
         <v>1260</v>
       </c>
@@ -16545,7 +16702,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:4">
       <c r="A863" s="19" t="s">
         <v>604</v>
       </c>
@@ -16559,7 +16716,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:4">
       <c r="A864" s="19" t="s">
         <v>542</v>
       </c>
@@ -16573,7 +16730,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="865" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:4" ht="43.2">
       <c r="A865" s="19" t="s">
         <v>1262</v>
       </c>
@@ -16587,7 +16744,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:4">
       <c r="A866" s="19" t="s">
         <v>1264</v>
       </c>
@@ -16601,7 +16758,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:4">
       <c r="A867" s="19" t="s">
         <v>1265</v>
       </c>
@@ -16615,7 +16772,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:4">
       <c r="A868" s="19" t="s">
         <v>1266</v>
       </c>
@@ -16629,7 +16786,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="869" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:4" ht="28.8">
       <c r="A869" s="19" t="s">
         <v>1267</v>
       </c>
@@ -16643,7 +16800,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:4">
       <c r="A870" s="19" t="s">
         <v>1268</v>
       </c>
@@ -16657,7 +16814,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:4">
       <c r="A871" s="19" t="s">
         <v>1270</v>
       </c>
@@ -16671,7 +16828,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:4">
       <c r="A872" s="19" t="s">
         <v>1271</v>
       </c>
@@ -16685,7 +16842,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:4">
       <c r="A873" s="19" t="s">
         <v>1272</v>
       </c>
@@ -16699,7 +16856,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:4">
       <c r="A874" s="9" t="s">
         <v>1274</v>
       </c>
@@ -16711,7 +16868,7 @@
       </c>
       <c r="D874" s="9"/>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:4">
       <c r="A875" s="9" t="s">
         <v>1276</v>
       </c>
@@ -16723,7 +16880,7 @@
       </c>
       <c r="D875" s="9"/>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:4">
       <c r="A876" s="9" t="s">
         <v>1290</v>
       </c>
@@ -16737,7 +16894,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:4">
       <c r="A877" s="9" t="s">
         <v>1291</v>
       </c>
@@ -16749,7 +16906,7 @@
       </c>
       <c r="D877" s="9"/>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:4">
       <c r="A878" s="9" t="s">
         <v>1292</v>
       </c>
@@ -16761,7 +16918,7 @@
       </c>
       <c r="D878" s="9"/>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4">
       <c r="A879" s="9" t="s">
         <v>1293</v>
       </c>
@@ -16773,7 +16930,7 @@
       </c>
       <c r="D879" s="9"/>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4">
       <c r="A880" s="9" t="s">
         <v>1294</v>
       </c>
@@ -16785,7 +16942,7 @@
       </c>
       <c r="D880" s="9"/>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:4">
       <c r="A881" s="13" t="s">
         <v>1295</v>
       </c>
@@ -16797,7 +16954,7 @@
       </c>
       <c r="D881" s="9"/>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:4">
       <c r="A882" s="9" t="s">
         <v>1296</v>
       </c>
@@ -16809,7 +16966,7 @@
       </c>
       <c r="D882" s="9"/>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:4">
       <c r="A883" s="9" t="s">
         <v>1297</v>
       </c>
@@ -16821,7 +16978,7 @@
       </c>
       <c r="D883" s="9"/>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:4">
       <c r="A884" s="10" t="s">
         <v>554</v>
       </c>
@@ -16833,7 +16990,7 @@
       </c>
       <c r="D884" s="9"/>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:4">
       <c r="A885" s="9" t="s">
         <v>1298</v>
       </c>
@@ -16845,7 +17002,7 @@
       </c>
       <c r="D885" s="9"/>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:4">
       <c r="A886" s="9" t="s">
         <v>1400</v>
       </c>
@@ -16857,7 +17014,7 @@
       </c>
       <c r="D886" s="9"/>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:4">
       <c r="A887" s="9" t="s">
         <v>1299</v>
       </c>
@@ -16869,7 +17026,7 @@
       </c>
       <c r="D887" s="9"/>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:4">
       <c r="A888" s="9" t="s">
         <v>1300</v>
       </c>
@@ -16881,7 +17038,7 @@
       </c>
       <c r="D888" s="9"/>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:4">
       <c r="A889" s="9" t="s">
         <v>1301</v>
       </c>
@@ -16893,7 +17050,7 @@
       </c>
       <c r="D889" s="9"/>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:4">
       <c r="A890" s="9" t="s">
         <v>1302</v>
       </c>
@@ -16907,7 +17064,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:4">
       <c r="A891" s="9" t="s">
         <v>1303</v>
       </c>
@@ -16919,7 +17076,7 @@
       </c>
       <c r="D891" s="9"/>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:4">
       <c r="A892" s="9" t="s">
         <v>1304</v>
       </c>
@@ -16931,7 +17088,7 @@
       </c>
       <c r="D892" s="9"/>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:4">
       <c r="A893" s="9" t="s">
         <v>1305</v>
       </c>
@@ -16943,7 +17100,7 @@
       </c>
       <c r="D893" s="9"/>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:4">
       <c r="A894" s="9" t="s">
         <v>1307</v>
       </c>
@@ -16955,7 +17112,7 @@
       </c>
       <c r="D894" s="9"/>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:4">
       <c r="A895" s="9" t="s">
         <v>1308</v>
       </c>
@@ -16969,7 +17126,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:4">
       <c r="A896" s="9" t="s">
         <v>1309</v>
       </c>
@@ -16983,7 +17140,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:4">
       <c r="A897" s="13" t="s">
         <v>1310</v>
       </c>
@@ -16995,7 +17152,7 @@
       </c>
       <c r="D897" s="9"/>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:4">
       <c r="A898" s="9" t="s">
         <v>1311</v>
       </c>
@@ -17007,7 +17164,7 @@
       </c>
       <c r="D898" s="9"/>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:4">
       <c r="A899" s="9" t="s">
         <v>511</v>
       </c>
@@ -17019,7 +17176,7 @@
       </c>
       <c r="D899" s="9"/>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:4">
       <c r="A900" s="9" t="s">
         <v>729</v>
       </c>
@@ -17033,7 +17190,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:4">
       <c r="A901" s="9" t="s">
         <v>875</v>
       </c>
@@ -17045,7 +17202,7 @@
       </c>
       <c r="D901" s="9"/>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:4">
       <c r="A902" s="9" t="s">
         <v>1312</v>
       </c>
@@ -17057,7 +17214,7 @@
       </c>
       <c r="D902" s="9"/>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:4">
       <c r="A903" s="9" t="s">
         <v>1313</v>
       </c>
@@ -17069,7 +17226,7 @@
       </c>
       <c r="D903" s="9"/>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:4">
       <c r="A904" s="9" t="s">
         <v>1401</v>
       </c>
@@ -17081,7 +17238,7 @@
       </c>
       <c r="D904" s="9"/>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:4">
       <c r="A905" s="9" t="s">
         <v>1315</v>
       </c>
@@ -17093,7 +17250,7 @@
       </c>
       <c r="D905" s="9"/>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:4">
       <c r="A906" s="9" t="s">
         <v>1316</v>
       </c>
@@ -17105,7 +17262,7 @@
       </c>
       <c r="D906" s="9"/>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:4">
       <c r="A907" s="9" t="s">
         <v>1317</v>
       </c>
@@ -17117,7 +17274,7 @@
       </c>
       <c r="D907" s="9"/>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:4">
       <c r="A908" s="9" t="s">
         <v>1318</v>
       </c>
@@ -17129,7 +17286,7 @@
       </c>
       <c r="D908" s="9"/>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:4">
       <c r="A909" s="9" t="s">
         <v>1319</v>
       </c>
@@ -17141,7 +17298,7 @@
       </c>
       <c r="D909" s="9"/>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:4">
       <c r="A910" s="9" t="s">
         <v>1320</v>
       </c>
@@ -17153,7 +17310,7 @@
       </c>
       <c r="D910" s="9"/>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:4">
       <c r="A911" s="9" t="s">
         <v>1321</v>
       </c>
@@ -17165,7 +17322,7 @@
       </c>
       <c r="D911" s="9"/>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:4">
       <c r="A912" s="9" t="s">
         <v>1402</v>
       </c>
@@ -17177,7 +17334,7 @@
       </c>
       <c r="D912" s="9"/>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:4">
       <c r="A913" s="9" t="s">
         <v>1322</v>
       </c>
@@ -17189,7 +17346,7 @@
       </c>
       <c r="D913" s="9"/>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:4">
       <c r="A914" s="9" t="s">
         <v>1403</v>
       </c>
@@ -17201,7 +17358,7 @@
       </c>
       <c r="D914" s="9"/>
     </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:4">
       <c r="A915" s="9" t="s">
         <v>1360</v>
       </c>
@@ -17213,7 +17370,7 @@
       </c>
       <c r="D915" s="9"/>
     </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:4">
       <c r="A916" s="9" t="s">
         <v>1361</v>
       </c>
@@ -17227,7 +17384,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:4">
       <c r="A917" s="9" t="s">
         <v>1362</v>
       </c>
@@ -17241,7 +17398,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:4">
       <c r="A918" s="9" t="s">
         <v>1363</v>
       </c>
@@ -17255,35 +17412,342 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:4">
       <c r="A919" s="9" t="s">
         <v>1364</v>
       </c>
       <c r="B919" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="C919" s="23" t="s">
+      <c r="C919" s="26" t="s">
         <v>1327</v>
       </c>
       <c r="D919" s="9" t="s">
         <v>1134</v>
       </c>
     </row>
+    <row r="920" spans="1:4">
+      <c r="A920" s="10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B920" t="s">
+        <v>308</v>
+      </c>
+      <c r="C920" s="25" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4">
+      <c r="A921" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B921" t="s">
+        <v>68</v>
+      </c>
+      <c r="C921" s="25" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4">
+      <c r="A922" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B922" t="s">
+        <v>151</v>
+      </c>
+      <c r="C922" s="25" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4">
+      <c r="A923" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B923" t="s">
+        <v>90</v>
+      </c>
+      <c r="C923" s="25" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4">
+      <c r="A924" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C924" s="25" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4">
+      <c r="A925" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B925" t="s">
+        <v>98</v>
+      </c>
+      <c r="C925" s="25" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4">
+      <c r="A926" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B926" t="s">
+        <v>228</v>
+      </c>
+      <c r="C926" s="25" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4">
+      <c r="A927" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C927" s="25" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4">
+      <c r="A928" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B928" t="s">
+        <v>47</v>
+      </c>
+      <c r="C928" s="25" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4">
+      <c r="A929" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B929" t="s">
+        <v>75</v>
+      </c>
+      <c r="C929" s="25" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4">
+      <c r="A930" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B930" t="s">
+        <v>51</v>
+      </c>
+      <c r="C930" s="25" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D930" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4">
+      <c r="A931" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B931" t="s">
+        <v>296</v>
+      </c>
+      <c r="C931" s="25" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4">
+      <c r="A932" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B932" t="s">
+        <v>687</v>
+      </c>
+      <c r="C932" s="25" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" ht="43.2">
+      <c r="A933" s="24" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B933" t="s">
+        <v>121</v>
+      </c>
+      <c r="C933" s="25" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4">
+      <c r="A934" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B934" t="s">
+        <v>541</v>
+      </c>
+      <c r="C934" s="25" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4">
+      <c r="A935" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B935" t="s">
+        <v>53</v>
+      </c>
+      <c r="C935" s="25" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4">
+      <c r="A936" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B936" t="s">
+        <v>185</v>
+      </c>
+      <c r="C936" s="25" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4">
+      <c r="A937" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B937" t="s">
+        <v>228</v>
+      </c>
+      <c r="C937" s="25" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4">
+      <c r="A938" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B938" t="s">
+        <v>47</v>
+      </c>
+      <c r="C938" s="25" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4">
+      <c r="A939" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B939" t="s">
+        <v>292</v>
+      </c>
+      <c r="C939" s="25" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4">
+      <c r="A940" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B940" t="s">
+        <v>90</v>
+      </c>
+      <c r="C940" s="25" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4">
+      <c r="A941" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C941" s="25" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4">
+      <c r="A942" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B942" t="s">
+        <v>55</v>
+      </c>
+      <c r="C942" s="25" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4">
+      <c r="A943" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C943" s="25" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4">
+      <c r="A944" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B944" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B945" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B946" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A853" xr:uid="{D2773680-67AB-4233-9C97-EFB5A20E4C41}"/>
+  <autoFilter ref="A1:A853"/>
   <hyperlinks>
-    <hyperlink ref="A791" r:id="rId1" display="https://markup.dh.moscow.alfaintra.net/profile" xr:uid="{D1AAC28E-8A9C-4C46-A6D1-81CD23F213C4}"/>
+    <hyperlink ref="A791" r:id="rId1" display="https://markup.dh.moscow.alfaintra.net/profile"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{25435AC7-C488-4B39-B68E-952D19F88C41}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'X:\Отчетность ЦПК\Разметка чат-бот\Отчет по разметке\Разметка Войс-бот\Физ лица\Разметка локалов\[data_locals_smoke_test_1.xlsx]Лист1'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C218</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Договоренности  таблица  ЮЛ.xlsx]Лист1'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B920:B946</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1475">
   <si>
     <t>обслуживание</t>
   </si>
@@ -4707,17 +4707,127 @@
   <si>
     <t xml:space="preserve">рутокен | пин код для токена </t>
   </si>
+  <si>
+    <t>изменение ставки ндс</t>
+  </si>
+  <si>
+    <t>соедините с оператором по альфа тревел</t>
+  </si>
+  <si>
+    <t>несанкционированно</t>
+  </si>
+  <si>
+    <t>насчет бизнеса и вкладов инвестиций соедините со специалистом</t>
+  </si>
+  <si>
+    <t>проблема со спецсчетом</t>
+  </si>
+  <si>
+    <t>узнать почему списывается комиссия переводов за переводы</t>
+  </si>
+  <si>
+    <t>соедините с оператором по взысканию с налогового органа юридического лица</t>
+  </si>
+  <si>
+    <t>билайн около битрейта</t>
+  </si>
+  <si>
+    <t>оформить сим карту и перейти со своим номером</t>
+  </si>
+  <si>
+    <t>нужно ваши в ваш банк добавить партнеры мой налог</t>
+  </si>
+  <si>
+    <t>право опцию подключенную свяжите с оператором</t>
+  </si>
+  <si>
+    <t>Альфа-Старт</t>
+  </si>
+  <si>
+    <t>не могу получить справку</t>
+  </si>
+  <si>
+    <t>не получил чек с банкомата</t>
+  </si>
+  <si>
+    <t>мне не начислены баллы за открытие брокерского счета у его клиента</t>
+  </si>
+  <si>
+    <t>работа банкомата в городе тихорецк</t>
+  </si>
+  <si>
+    <t>списание денег с расчетного счета по решению налоговой</t>
+  </si>
+  <si>
+    <t>мне нужен трансфер</t>
+  </si>
+  <si>
+    <t>потребительский нет</t>
+  </si>
+  <si>
+    <t>блокировка кредитной карты</t>
+  </si>
+  <si>
+    <t>разблокировка кредитной карты</t>
+  </si>
+  <si>
+    <t>купить непрофильные активы</t>
+  </si>
+  <si>
+    <t>хочу закрыть инвестиционный расчет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разблокировать карту забыла код ( не понятно какой код) </t>
+  </si>
+  <si>
+    <t>Разблокировка карты (OS_Unblock_Card)</t>
+  </si>
+  <si>
+    <t>разблокировать карту из-за пин-кода</t>
+  </si>
+  <si>
+    <t>Установка и смена пин-кода (OS_PIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">грабеж/ воровство </t>
+  </si>
+  <si>
+    <t>отмена чека/возврат чека</t>
+  </si>
+  <si>
+    <t>🞄01.08.2025</t>
+  </si>
+  <si>
+    <t>🞄04.08.2025</t>
+  </si>
+  <si>
+    <t>🞄05.08.2025</t>
+  </si>
+  <si>
+    <t>🞄06.08.2025</t>
+  </si>
+  <si>
+    <t>🞄07.08.2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4879,72 +4989,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 3" xfId="3"/>
+    <cellStyle name="Обычный 4" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5586,15 +5708,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D946"/>
+  <dimension ref="A1:D973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A930" workbookViewId="0">
-      <selection activeCell="B946" sqref="B946"/>
+    <sheetView tabSelected="1" topLeftCell="A941" workbookViewId="0">
+      <selection activeCell="C968" sqref="C968:C973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.44140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
@@ -17709,21 +17831,330 @@
       <c r="B944" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="945" spans="1:2">
+      <c r="C944" s="25" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3">
       <c r="A945" t="s">
         <v>1434</v>
       </c>
       <c r="B945" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="946" spans="1:2">
+      <c r="C945" s="25" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3">
       <c r="A946" t="s">
         <v>1440</v>
       </c>
       <c r="B946" t="s">
         <v>53</v>
+      </c>
+      <c r="C946" s="25" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3">
+      <c r="A947" s="28" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B947" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C947" s="29" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3">
+      <c r="A948" s="28" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B948" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C948" s="27" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3">
+      <c r="A949" s="28" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B949" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="C949" s="27" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3">
+      <c r="A950" s="28" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B950" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C950" s="27" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3">
+      <c r="A951" s="28" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B951" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C951" s="27" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3">
+      <c r="A952" s="28" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B952" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="C952" s="27" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c r="A953" s="28" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B953" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C953" s="27" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3">
+      <c r="A954" s="28" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B954" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C954" s="27" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3">
+      <c r="A955" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B955" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C955" s="27" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3">
+      <c r="A956" s="28" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B956" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="C956" s="27" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3">
+      <c r="A957" s="28" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B957" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C957" s="27" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3">
+      <c r="A958" s="28" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B958" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C958" s="27" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3">
+      <c r="A959" s="28" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B959" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C959" s="27" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3">
+      <c r="A960" s="28" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B960" s="28" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C960" s="27" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4">
+      <c r="A961" s="28" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B961" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C961" s="27" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4">
+      <c r="A962" s="28" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B962" s="28" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C962" s="27" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4">
+      <c r="A963" s="28" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B963" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C963" s="27" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4">
+      <c r="A964" s="28" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B964" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C964" s="27" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4">
+      <c r="A965" s="28" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B965" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C965" s="27" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4">
+      <c r="A966" s="28" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B966" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C966" s="27" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D966" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4">
+      <c r="A967" s="28" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B967" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C967" s="27" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4">
+      <c r="A968" s="28" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B968" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C968" s="27" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4">
+      <c r="A969" s="28" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B969" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C969" s="27" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4">
+      <c r="A970" s="28" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B970" s="28" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C970" s="27" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4">
+      <c r="A971" s="28" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B971" s="28" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C971" s="27" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4">
+      <c r="A972" s="28" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B972" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="C972" s="27" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4">
+      <c r="A973" s="28" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B973" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C973" s="27" t="s">
+        <v>1474</v>
       </c>
     </row>
   </sheetData>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Приложения\Сервис проверки фраз\Договоренности актуальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="1553">
   <si>
     <t>обслуживание</t>
   </si>
@@ -4590,17 +4590,145 @@
   <si>
     <t>на расчетном счете заморожена сумма налога до сих пор не списана почему</t>
   </si>
+  <si>
+    <t>за что мне пришел счет в альфа бизнес тринадцать сумму тринадцати тысяч</t>
+  </si>
+  <si>
+    <t>трудоустройство на работу</t>
+  </si>
+  <si>
+    <t>соедините с отделом счетов и выписок</t>
+  </si>
+  <si>
+    <t>деньги под рукой</t>
+  </si>
+  <si>
+    <t>клиент умер мне необходимо связаться со специалистом</t>
+  </si>
+  <si>
+    <t>в мобильном приложении не отражается исходящие платежи и не видно загруженного файла</t>
+  </si>
+  <si>
+    <t>вопрос по обслуживанию бизнеса контрагент двадцать четвертого февраля перечислил мне деньги неправильно указал номер расчетного счета</t>
+  </si>
+  <si>
+    <t>выгрузить ведомости в грузию</t>
+  </si>
+  <si>
+    <t>мне нужно открыть счет на обособленное подразделение счет для обособленного подразделения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">подключить/ отключить индикатор риска </t>
+  </si>
+  <si>
+    <t xml:space="preserve">списалась комиссия за индикатор риска </t>
+  </si>
+  <si>
+    <t>мне нужно было открыть мне дополнительный/связаться с оператором дополнительный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расследование платежа </t>
+  </si>
+  <si>
+    <t xml:space="preserve">тариф по расчетному счету </t>
+  </si>
+  <si>
+    <t>по техническому обслуживанию сейфа</t>
+  </si>
+  <si>
+    <t>мне надо повысить лимит снятия наличных с карты</t>
+  </si>
+  <si>
+    <t>директ банк один с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">терминал инкассация </t>
+  </si>
+  <si>
+    <t>мне нужен отдел счетов и расчетов альфа-банк</t>
+  </si>
+  <si>
+    <t>не видно карту в приложении</t>
+  </si>
+  <si>
+    <t>не могу положить в банкомате средства на счет</t>
+  </si>
+  <si>
+    <t>настройки,  настройки мне надо настроить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выписка в один с </t>
+  </si>
+  <si>
+    <t xml:space="preserve">выгразить платежи через 1с </t>
+  </si>
+  <si>
+    <t xml:space="preserve">установить ккт( контрольено кассовая техника) </t>
+  </si>
+  <si>
+    <t>вэд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выставленный счет </t>
+  </si>
+  <si>
+    <t xml:space="preserve">так как входящий перевод </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ведомость банковского контроля </t>
+  </si>
+  <si>
+    <t xml:space="preserve">эти 2 слова дают нам понимание,что речь идет про эквайринг , далее смотрим на контекст </t>
+  </si>
+  <si>
+    <t>🞄2025.08.27</t>
+  </si>
+  <si>
+    <t>🞄2025.08.28</t>
+  </si>
+  <si>
+    <t>🞄2025.08.29</t>
+  </si>
+  <si>
+    <t>🞄2025.09.01</t>
+  </si>
+  <si>
+    <t>🞄2025.09.02</t>
+  </si>
+  <si>
+    <t>🞄2025.09.03</t>
+  </si>
+  <si>
+    <t>🞄2025.09.04</t>
+  </si>
+  <si>
+    <t>🞄2025.09.05</t>
+  </si>
+  <si>
+    <t>🞄2025.09.09</t>
+  </si>
+  <si>
+    <t>🞄2025.09.10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4691,6 +4819,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF001016"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4730,59 +4865,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 3" xfId="3"/>
     <cellStyle name="Обычный 4" xfId="4"/>
     <cellStyle name="Обычный 5" xfId="5"/>
+    <cellStyle name="Обычный 6" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5411,10 +5557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1012"/>
+  <dimension ref="A1:D1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A987" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A1023" workbookViewId="0">
+      <selection activeCell="B1019" sqref="B1019"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18372,10 +18518,330 @@
       <c r="B1012" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1012" s="16" t="s">
+      <c r="C1012" s="22" t="s">
         <v>1486</v>
       </c>
       <c r="D1012" s="10"/>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1013" s="18" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1013" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1013" s="21" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D1013" s="20" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1014" s="18" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1014" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1014" s="21" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D1014" s="20"/>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1015" s="18" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1015" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1015" s="21" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D1015" s="20"/>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1016" s="18" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1016" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1016" s="21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D1016" s="20"/>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1017" s="18" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1017" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1017" s="21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D1017" s="20"/>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1018" s="18" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1018" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1018" s="21" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D1018" s="20"/>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1019" s="18" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1019" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1019" s="21" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D1019" s="20" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1020" s="18" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1020" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1020" s="21" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D1020" s="20" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1021" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1021" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1021" s="21" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D1021" s="20"/>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1022" s="18" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1022" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1022" s="21" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D1022" s="20"/>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1023" s="18" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1023" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1023" s="21" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D1023" s="20"/>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1024" s="18" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1024" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1024" s="21" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D1024" s="20"/>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1025" s="18" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1025" s="18" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1025" s="21" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D1025" s="20"/>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1026" s="18" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1026" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1026" s="21" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D1026" s="20"/>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1027" s="18" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1027" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1027" s="21" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D1027" s="20"/>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1028" s="18" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1028" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1028" s="21" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D1028" s="20"/>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1029" s="19" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1029" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1029" s="21" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1029" s="20"/>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1030" s="18" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1030" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1030" s="21" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1030" s="20" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1031" s="18" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1031" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1031" s="21" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1031" s="20"/>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1032" s="18" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1032" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1032" s="21" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1032" s="20"/>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1033" s="18" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1033" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1033" s="21" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1033" s="20"/>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1034" s="18" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1034" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1034" s="21" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D1034" s="20"/>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1035" s="18" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1035" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1035" s="21" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D1035" s="20"/>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1036" s="18" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1036" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1036" s="21" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D1036" s="20"/>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1037" s="18" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1037" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1037" s="21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D1037" s="20"/>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1038" s="18" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1038" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1038" s="21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D1038" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B973"/>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Приложения\Сервис проверки фраз\Договоренности актуальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,15 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$1:$B$973</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="1600">
   <si>
     <t>обслуживание</t>
   </si>
@@ -4710,17 +4711,191 @@
   <si>
     <t>🞄2025.09.10</t>
   </si>
+  <si>
+    <t>мне нужно перевести расчетный счет организации подразделения</t>
+  </si>
+  <si>
+    <t>подключение оплаты по qr коду</t>
+  </si>
+  <si>
+    <t>не прошел перевод по мвп</t>
+  </si>
+  <si>
+    <t>через сколько приходят деньги на карту</t>
+  </si>
+  <si>
+    <t>отменить доставку карты</t>
+  </si>
+  <si>
+    <t>отменить нужно саму доставку, карту закрывать не нужно, возожно сам хочет забрать</t>
+  </si>
+  <si>
+    <t>не приходит смс уведомление о платежах</t>
+  </si>
+  <si>
+    <t>есть слово "платеж" и СМС либо код</t>
+  </si>
+  <si>
+    <t>на счете карту</t>
+  </si>
+  <si>
+    <t>хочу оплатить счет банк не работает интернет банк</t>
+  </si>
+  <si>
+    <t>какой процент берет терминал при оплате tee кодом</t>
+  </si>
+  <si>
+    <t>как сделать займ займ учредителю</t>
+  </si>
+  <si>
+    <t>когда встречаются именно эти 2 слова учредитель и займ</t>
+  </si>
+  <si>
+    <t>обновить карту</t>
+  </si>
+  <si>
+    <t>реквайринг</t>
+  </si>
+  <si>
+    <t>когда поступят деньги</t>
+  </si>
+  <si>
+    <t>не проходит безналичный оплата по карте</t>
+  </si>
+  <si>
+    <t>программа альфа будущее стипендия</t>
+  </si>
+  <si>
+    <t>открыть карту по доверенности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доверенности приоритетнее тематики открытия счета, если во фразе есть доверенность выбираем доверенности </t>
+  </si>
+  <si>
+    <t>реестр платежей/оплаты/выплаты</t>
+  </si>
+  <si>
+    <t>платежи по терминалу| оплата по терминалу</t>
+  </si>
+  <si>
+    <t>проверить оплату по эквайрингу</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">мне нужно снять с учета </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF001016"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>гпх</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001016"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> вашего банка срочно</t>
+    </r>
+  </si>
+  <si>
+    <t>не юридического адреса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">реестр </t>
+  </si>
+  <si>
+    <t>хочу уточнить кредитную заявку</t>
+  </si>
+  <si>
+    <t>а валют мира счет не счет стоимость</t>
+  </si>
+  <si>
+    <t>уведомления не приходят о поступлении средств хотелось бы узнать</t>
+  </si>
+  <si>
+    <t>сверка нет</t>
+  </si>
+  <si>
+    <t>хочу перепривязать почту по платежам по сбп</t>
+  </si>
+  <si>
+    <t>открытие альфа бизнес</t>
+  </si>
+  <si>
+    <t>узнать какие платежи поступили вчера</t>
+  </si>
+  <si>
+    <t>входящие платежи</t>
+  </si>
+  <si>
+    <t>нужно поменять доставку лога на терминале</t>
+  </si>
+  <si>
+    <t>просто по ведению бизнес счета</t>
+  </si>
+  <si>
+    <t>🞄2025.09.11</t>
+  </si>
+  <si>
+    <t>🞄2025.09.12</t>
+  </si>
+  <si>
+    <t>🞄2025.09.25</t>
+  </si>
+  <si>
+    <t>🞄2025.12.16</t>
+  </si>
+  <si>
+    <t>🞄2025.09.17</t>
+  </si>
+  <si>
+    <t>🞄2025.08.18</t>
+  </si>
+  <si>
+    <t>🞄2025.09.23</t>
+  </si>
+  <si>
+    <t>🞄2025.09.24</t>
+  </si>
+  <si>
+    <t>🞄2025.09.26</t>
+  </si>
+  <si>
+    <t>🞄2025.10.01</t>
+  </si>
+  <si>
+    <t>🞄2025.10.06</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4826,6 +5001,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF001016"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4867,58 +5051,65 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -5294,6 +5485,25 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Изменения Иерархии"/>
+      <sheetName val="Лист2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -5557,10 +5767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1038"/>
+  <dimension ref="A1:D1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1023" workbookViewId="0">
-      <selection activeCell="B1019" sqref="B1019"/>
+    <sheetView tabSelected="1" topLeftCell="A1056" workbookViewId="0">
+      <selection activeCell="B1066" sqref="B1066"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18838,10 +19048,408 @@
       <c r="B1038" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C1038" s="21" t="s">
+      <c r="C1038" s="25" t="s">
         <v>1552</v>
       </c>
       <c r="D1038" s="20"/>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1039" s="23" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1039" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1039" s="24" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D1039" s="23"/>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1040" s="23" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1040" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1040" s="24" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D1040" s="23"/>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1041" s="23" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1041" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1041" s="24" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D1041" s="23"/>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1042" s="23" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1042" s="23" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1042" s="24" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D1042" s="23" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1043" s="23" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1043" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1043" s="24" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D1043" s="23" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1044" s="23" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1044" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1044" s="24" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D1044" s="23" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1045" s="23" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1045" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1045" s="24" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D1045" s="23"/>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1046" s="23" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1046" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1046" s="24" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D1046" s="23"/>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1047" s="23" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1047" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1047" s="24" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D1047" s="23"/>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1048" s="23" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1048" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1048" s="24" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D1048" s="23" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1049" s="23" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1049" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1049" s="24" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D1049" s="23"/>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1050" s="23" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1050" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1050" s="24" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D1050" s="23"/>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1051" s="23" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1051" s="23" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1051" s="24" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D1051" s="23" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1052" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1052" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1052" s="24" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D1052" s="23" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1053" s="23" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1053" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1053" s="24" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D1053" s="23"/>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1054" s="23" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1054" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1054" s="24" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D1054" s="23" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1055" s="23" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1055" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1055" s="24" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1055" s="23"/>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1056" s="23" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1056" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1056" s="24" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D1056" s="23"/>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1057" s="23" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1057" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1057" s="24" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D1057" s="23"/>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1058" s="6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1058" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1058" s="24" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1058" s="23"/>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1059" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1059" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1059" s="24" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1059" s="23"/>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1060" s="23" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1060" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1060" s="24" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1060" s="23"/>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1061" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1061" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1061" s="24" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1061" s="23"/>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1062" s="23" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1062" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1062" s="24" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1062" s="23"/>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1063" s="23" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1063" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1063" s="24" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D1063" s="23"/>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1064" s="23" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1064" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1064" s="24" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D1064" s="23"/>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1065" s="5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1065" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1065" s="24" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D1065" s="23"/>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1066" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1066" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1066" s="24" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D1066" s="23"/>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1067" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1067" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1067" s="24" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1067" s="23"/>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1068" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1068" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1068" s="24" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1068" s="23"/>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1069" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1069" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1069" s="24" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1069" s="23"/>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1070" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1070" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1070" s="24" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1070" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B973"/>
@@ -18853,13 +19461,19 @@
   <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[Договоренности  таблица  ЮЛ.xlsx]Лист1'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B920:B946</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'\\altcc\CC\Отчетность ЦПК\Разметка чат-бот\Отчет по разметке\Разметка Войс-бот\ЮР лица\[Договоренности  таблица  ЮЛ 1.xlsx]Лист1'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1039:C1070</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4854,15 +4854,9 @@
     <t>🞄2025.09.25</t>
   </si>
   <si>
-    <t>🞄2025.12.16</t>
-  </si>
-  <si>
     <t>🞄2025.09.17</t>
   </si>
   <si>
-    <t>🞄2025.08.18</t>
-  </si>
-  <si>
     <t>🞄2025.09.23</t>
   </si>
   <si>
@@ -4876,6 +4870,12 @@
   </si>
   <si>
     <t>🞄2025.10.06</t>
+  </si>
+  <si>
+    <t>🞄2025.09.18</t>
+  </si>
+  <si>
+    <t>🞄2025.09.16</t>
   </si>
 </sst>
 </file>
@@ -5769,8 +5769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1056" workbookViewId="0">
-      <selection activeCell="B1066" sqref="B1066"/>
+    <sheetView tabSelected="1" topLeftCell="A1037" workbookViewId="0">
+      <selection activeCell="C1042" sqref="C1042"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19111,7 +19111,7 @@
         <v>111</v>
       </c>
       <c r="C1043" s="24" t="s">
-        <v>1592</v>
+        <v>1599</v>
       </c>
       <c r="D1043" s="23" t="s">
         <v>1558</v>
@@ -19125,7 +19125,7 @@
         <v>40</v>
       </c>
       <c r="C1044" s="24" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D1044" s="23" t="s">
         <v>1560</v>
@@ -19139,7 +19139,7 @@
         <v>174</v>
       </c>
       <c r="C1045" s="24" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="D1045" s="23"/>
     </row>
@@ -19151,7 +19151,7 @@
         <v>40</v>
       </c>
       <c r="C1046" s="24" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="D1046" s="23"/>
     </row>
@@ -19163,7 +19163,7 @@
         <v>205</v>
       </c>
       <c r="C1047" s="24" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="D1047" s="23"/>
     </row>
@@ -19175,7 +19175,7 @@
         <v>30</v>
       </c>
       <c r="C1048" s="24" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D1048" s="23" t="s">
         <v>1565</v>
@@ -19189,7 +19189,7 @@
         <v>94</v>
       </c>
       <c r="C1049" s="24" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D1049" s="23"/>
     </row>
@@ -19201,7 +19201,7 @@
         <v>7</v>
       </c>
       <c r="C1050" s="24" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D1050" s="23"/>
     </row>
@@ -19267,7 +19267,7 @@
         <v>30</v>
       </c>
       <c r="C1055" s="24" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D1055" s="23"/>
     </row>
@@ -19303,7 +19303,7 @@
         <v>159</v>
       </c>
       <c r="C1058" s="24" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D1058" s="23"/>
     </row>
@@ -19315,7 +19315,7 @@
         <v>468</v>
       </c>
       <c r="C1059" s="24" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D1059" s="23"/>
     </row>
@@ -19327,7 +19327,7 @@
         <v>225</v>
       </c>
       <c r="C1060" s="24" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D1060" s="23"/>
     </row>
@@ -19339,7 +19339,7 @@
         <v>234</v>
       </c>
       <c r="C1061" s="24" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D1061" s="23"/>
     </row>
@@ -19351,7 +19351,7 @@
         <v>27</v>
       </c>
       <c r="C1062" s="24" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D1062" s="23"/>
     </row>
@@ -19363,7 +19363,7 @@
         <v>15</v>
       </c>
       <c r="C1063" s="24" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D1063" s="23"/>
     </row>
@@ -19375,7 +19375,7 @@
         <v>225</v>
       </c>
       <c r="C1064" s="24" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D1064" s="23"/>
     </row>
@@ -19387,7 +19387,7 @@
         <v>205</v>
       </c>
       <c r="C1065" s="24" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D1065" s="23"/>
     </row>
@@ -19399,7 +19399,7 @@
         <v>142</v>
       </c>
       <c r="C1066" s="24" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D1066" s="23"/>
     </row>
@@ -19411,7 +19411,7 @@
         <v>17</v>
       </c>
       <c r="C1067" s="24" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D1067" s="23"/>
     </row>
@@ -19423,7 +19423,7 @@
         <v>17</v>
       </c>
       <c r="C1068" s="24" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D1068" s="23"/>
     </row>
@@ -19435,7 +19435,7 @@
         <v>410</v>
       </c>
       <c r="C1069" s="24" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D1069" s="23"/>
     </row>
@@ -19447,7 +19447,7 @@
         <v>351</v>
       </c>
       <c r="C1070" s="24" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D1070" s="23"/>
     </row>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="1660">
   <si>
     <t>обслуживание</t>
   </si>
@@ -4877,17 +4877,205 @@
   <si>
     <t>🞄2025.09.16</t>
   </si>
+  <si>
+    <t>вопрос по кассовое обслуживание</t>
+  </si>
+  <si>
+    <t>комиссия/тарифы по услугам</t>
+  </si>
+  <si>
+    <t>бизнес тарифы по обслуживанию счетов</t>
+  </si>
+  <si>
+    <t>интересует списание процентов по операциям</t>
+  </si>
+  <si>
+    <t>Комиссии (OS_Commission)</t>
+  </si>
+  <si>
+    <t>Как взять потребительский кредит на покупку автомобил</t>
+  </si>
+  <si>
+    <t>Как рассчитать кредитный платеж по потребительскому кредиту для физлиц</t>
+  </si>
+  <si>
+    <t>действующий тариф</t>
+  </si>
+  <si>
+    <t>украли/ потеряли термал</t>
+  </si>
+  <si>
+    <t>как подключить эквайринг переводы без комиссии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">я хочу изминитить лимит приема на терминале </t>
+  </si>
+  <si>
+    <t>инкасса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">снятие наличных для зарплаты </t>
+  </si>
+  <si>
+    <t>комиссия за снятие наличных по карте</t>
+  </si>
+  <si>
+    <t>комиссия за внесение наличных по карте</t>
+  </si>
+  <si>
+    <t>Внесение наличных (OS_Deposit_Cash)</t>
+  </si>
+  <si>
+    <t>снять наличные с карты</t>
+  </si>
+  <si>
+    <t>внести наличные на карту</t>
+  </si>
+  <si>
+    <t>снятие наличных в кассе</t>
+  </si>
+  <si>
+    <t>Касса банка (OS_Kassa_banka)</t>
+  </si>
+  <si>
+    <t>внесение наличных в кассу</t>
+  </si>
+  <si>
+    <t>комиссия за снятие наличных в кассе</t>
+  </si>
+  <si>
+    <t>комиссия за внесение наличных в кассе</t>
+  </si>
+  <si>
+    <t>на счет юрлица</t>
+  </si>
+  <si>
+    <t>комиссия за перевод с карты</t>
+  </si>
+  <si>
+    <t>тарифы/комиссии по карте</t>
+  </si>
+  <si>
+    <t>тарифы/комиссии по бизнес карте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лимиты на снятие наличных </t>
+  </si>
+  <si>
+    <t>лимиты на внесение наличных</t>
+  </si>
+  <si>
+    <t>стоимость счета</t>
+  </si>
+  <si>
+    <t>процент на остаток по счету</t>
+  </si>
+  <si>
+    <t>внесение наличных по договору займа</t>
+  </si>
+  <si>
+    <t>снятие наличных по договору займа</t>
+  </si>
+  <si>
+    <t>комиссия/проценты по счету</t>
+  </si>
+  <si>
+    <t>если платеж в бюджет за третье лицо а какой процент берется комиссия за услугу банка</t>
+  </si>
+  <si>
+    <t>здравствуйте мне нужно узнать сколько комиссия берется за каждый платежное поручение которые налоговая процент на мошенничество</t>
+  </si>
+  <si>
+    <t>какая комиссия за снятие наличных в банкомате сбербанка</t>
+  </si>
+  <si>
+    <t>комиссия при пополнении дебетовой карты другого банка</t>
+  </si>
+  <si>
+    <t>вопрос по сделке купли продажи недвижимости</t>
+  </si>
+  <si>
+    <t>добрый день мне нужно узнать можно ли в клиент банке альфа бизнес онлайн сформировать отчет по эквайрингу</t>
+  </si>
+  <si>
+    <t>мне нужно разблокировать кредитную бизнес карту</t>
+  </si>
+  <si>
+    <t>вопрос по закрытию расчетного счета и оплате долга по счету</t>
+  </si>
+  <si>
+    <t>корректировка отправленного счета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эквайринг у меня не работает эвотор </t>
+  </si>
+  <si>
+    <t>эвотор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хотел бы уточнить про фому кассового чека </t>
+  </si>
+  <si>
+    <t>личный счет</t>
+  </si>
+  <si>
+    <t>На личный счет ФЛ в банке (OS_Personal_Account_Physical)</t>
+  </si>
+  <si>
+    <t>государственный контракт госконтракт</t>
+  </si>
+  <si>
+    <t>мы хочем отключить свою карту чтобы к нам не звонили с альфа банка</t>
+  </si>
+  <si>
+    <t>дебетовая карта зарплатного проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">если во фразе есть  "потреб",  то выбираем эту тематику </t>
+  </si>
+  <si>
+    <t xml:space="preserve">здесь выбираем потреб, так как может быть услуга, а не просто кредит для физика </t>
+  </si>
+  <si>
+    <t>«на счет юридического лица/ЮЛ/ИП/юрлица» строго эту фразу размечаем в «Юридическое лицо - OS_Juristic_Person», если будет фраза «счет юридического лица» - Счета (OS_Accounts_Q), так как у нас есть уточняющий вопрос в процессе комиссий «Подскажите пожалуйста кому будет перевод?</t>
+  </si>
+  <si>
+    <t>скорее всего клиенту нужна выписка по эквайрингу</t>
+  </si>
+  <si>
+    <t>🞄2025.10.16</t>
+  </si>
+  <si>
+    <t>🞄2025.10.09</t>
+  </si>
+  <si>
+    <t>🞄2025.10.10</t>
+  </si>
+  <si>
+    <t>🞄2025.10.14</t>
+  </si>
+  <si>
+    <t>🞄2025.10.15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5049,70 +5237,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
@@ -5120,6 +5314,7 @@
     <cellStyle name="Обычный 4" xfId="4"/>
     <cellStyle name="Обычный 5" xfId="5"/>
     <cellStyle name="Обычный 6" xfId="6"/>
+    <cellStyle name="Обычный 7" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5767,10 +5962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1070"/>
+  <dimension ref="A1:D1117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1037" workbookViewId="0">
-      <selection activeCell="C1042" sqref="C1042"/>
+    <sheetView tabSelected="1" topLeftCell="A1097" workbookViewId="0">
+      <selection activeCell="A1074" sqref="A1074:XFD1074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19440,16 +19635,600 @@
       <c r="D1069" s="23"/>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1070" s="5" t="s">
+      <c r="A1070" s="26" t="s">
         <v>1588</v>
       </c>
-      <c r="B1070" s="23" t="s">
+      <c r="B1070" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="C1070" s="24" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D1070" s="23"/>
+      <c r="C1070" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D1070" s="30"/>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1071" s="26" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1071" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D1071" s="30"/>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1072" s="26" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1072" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D1072" s="30"/>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1073" s="26" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1073" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D1073" s="30"/>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1074" s="26" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1074" s="27" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D1074" s="30"/>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1075" s="26" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1075" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1075" s="30" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1076" s="26" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1076" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1076" s="30" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1077" s="26" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1077" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1077" s="30"/>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1078" s="26" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1078" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1078" s="30"/>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1079" s="26" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1079" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1079" s="30"/>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1080" s="26" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1080" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1080" s="30"/>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1081" s="26" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1081" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1081" s="30"/>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1082" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1082" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1082" s="30"/>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1083" s="27" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1083" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1083" s="30"/>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1084" s="27" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1084" s="27" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1084" s="30"/>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1085" s="27" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1085" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1085" s="30"/>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1086" s="27" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1086" s="27" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1086" s="30"/>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1087" s="27" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1087" s="27" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1087" s="30"/>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1088" s="27" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1088" s="27" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1088" s="30"/>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1089" s="27" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1089" s="27" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1089" s="30"/>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1090" s="27" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1090" s="27" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1090" s="30"/>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1091" s="27" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1091" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1091" s="29" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1092" s="27" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1092" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1092" s="30"/>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1093" s="27" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1093" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1093" s="30"/>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1094" s="27" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1094" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1094" s="30"/>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1095" s="27" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1095" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1095" s="30"/>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1096" s="27" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1096" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1096" s="30"/>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1097" s="27" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1097" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1097" s="30"/>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1098" s="27" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1098" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1098" s="30"/>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1099" s="27" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1099" s="27" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1099" s="30"/>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1100" s="27" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1100" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1100" s="30"/>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1101" s="27" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1101" s="27" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1101" s="30"/>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1102" s="26" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1102" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1102" s="30"/>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1103" s="26" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1103" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1103" s="30"/>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1104" s="26" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1104" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1104" s="30"/>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1105" s="26" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1105" s="27" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1105" s="30"/>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1106" s="28" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1106" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D1106" s="30"/>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1107" s="28" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1107" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D1107" s="30" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1108" s="27" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1108" s="27" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D1108" s="30" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1109" s="27" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1109" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D1109" s="30" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1110" s="27" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1110" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D1110" s="30"/>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1111" s="27" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1111" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D1111" s="30" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1112" s="27" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1112" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D1112" s="30" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1113" s="27" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1113" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D1113" s="30" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1114" s="27" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1114" s="27" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D1114" s="30"/>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1115" s="28" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1115" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D1115" s="30" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1116" s="28" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1116" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D1116" s="30"/>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1117" s="27" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1117" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1117" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D1117" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B973"/>
@@ -19472,7 +20251,7 @@
           <x14:formula1>
             <xm:f>'\\altcc\CC\Отчетность ЦПК\Разметка чат-бот\Отчет по разметке\Разметка Войс-бот\ЮР лица\[Договоренности  таблица  ЮЛ 1.xlsx]Лист1'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B1039:C1070</xm:sqref>
+          <xm:sqref>B1039:B1070 C1039:C1069</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4041" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1767">
   <si>
     <t>обслуживание</t>
   </si>
@@ -6391,6 +6391,18 @@
   <si>
     <t>расчетный счет по бизнес карте</t>
   </si>
+  <si>
+    <t>🞄2025.10.22</t>
+  </si>
+  <si>
+    <t>🞄2025.10.24</t>
+  </si>
+  <si>
+    <t>🞄2025.10.28</t>
+  </si>
+  <si>
+    <t>🞄2025.10.31</t>
+  </si>
 </sst>
 </file>
 
@@ -6398,14 +6410,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="166" formatCode="\_xd83d_\_xdf84_yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="\_xd83d_\_xdf84_yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6663,75 +6683,75 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7387,8 +7407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1183" workbookViewId="0">
-      <selection activeCell="A1177" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1192" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21042,8 +21062,8 @@
       <c r="B1123" t="s">
         <v>1231</v>
       </c>
-      <c r="C1123" s="37">
-        <v>45952</v>
+      <c r="C1123" s="37" t="s">
+        <v>1763</v>
       </c>
     </row>
     <row r="1124" spans="1:3">
@@ -21053,8 +21073,8 @@
       <c r="B1124" t="s">
         <v>30</v>
       </c>
-      <c r="C1124" s="37">
-        <v>45952</v>
+      <c r="C1124" s="37" t="s">
+        <v>1763</v>
       </c>
     </row>
     <row r="1125" spans="1:3">
@@ -21064,8 +21084,8 @@
       <c r="B1125" t="s">
         <v>9</v>
       </c>
-      <c r="C1125" s="37">
-        <v>45952</v>
+      <c r="C1125" s="37" t="s">
+        <v>1763</v>
       </c>
     </row>
     <row r="1126" spans="1:3">
@@ -21075,8 +21095,8 @@
       <c r="B1126" t="s">
         <v>30</v>
       </c>
-      <c r="C1126" s="37">
-        <v>45953</v>
+      <c r="C1126" s="37" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="1127" spans="1:3">
@@ -21086,8 +21106,8 @@
       <c r="B1127" t="s">
         <v>1272</v>
       </c>
-      <c r="C1127" s="37">
-        <v>45953</v>
+      <c r="C1127" s="37" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="1128" spans="1:3">
@@ -21097,8 +21117,8 @@
       <c r="B1128" t="s">
         <v>1272</v>
       </c>
-      <c r="C1128" s="37">
-        <v>45953</v>
+      <c r="C1128" s="37" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="1129" spans="1:3">
@@ -21108,8 +21128,8 @@
       <c r="B1129" t="s">
         <v>9</v>
       </c>
-      <c r="C1129" s="37">
-        <v>45954</v>
+      <c r="C1129" s="37" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="1130" spans="1:3">
@@ -21119,8 +21139,8 @@
       <c r="B1130" t="s">
         <v>474</v>
       </c>
-      <c r="C1130" s="37">
-        <v>45958</v>
+      <c r="C1130" s="37" t="s">
+        <v>1765</v>
       </c>
     </row>
     <row r="1131" spans="1:3">
@@ -21130,8 +21150,8 @@
       <c r="B1131" t="s">
         <v>148</v>
       </c>
-      <c r="C1131" s="37">
-        <v>45958</v>
+      <c r="C1131" s="37" t="s">
+        <v>1765</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -21141,8 +21161,8 @@
       <c r="B1132" t="s">
         <v>242</v>
       </c>
-      <c r="C1132" s="37">
-        <v>45958</v>
+      <c r="C1132" s="37" t="s">
+        <v>1765</v>
       </c>
     </row>
     <row r="1133" spans="1:3">
@@ -21152,8 +21172,8 @@
       <c r="B1133" t="s">
         <v>7</v>
       </c>
-      <c r="C1133" s="37">
-        <v>45958</v>
+      <c r="C1133" s="37" t="s">
+        <v>1765</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
@@ -21163,8 +21183,8 @@
       <c r="B1134" t="s">
         <v>474</v>
       </c>
-      <c r="C1134" s="37">
-        <v>45958</v>
+      <c r="C1134" s="37" t="s">
+        <v>1765</v>
       </c>
     </row>
     <row r="1135" spans="1:3">
@@ -21174,8 +21194,8 @@
       <c r="B1135" t="s">
         <v>236</v>
       </c>
-      <c r="C1135" s="37">
-        <v>45961</v>
+      <c r="C1135" s="37" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="1136" spans="1:3">
@@ -21185,8 +21205,8 @@
       <c r="B1136" t="s">
         <v>71</v>
       </c>
-      <c r="C1136" s="37">
-        <v>45961</v>
+      <c r="C1136" s="37" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="1137" spans="1:3">

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2341B1-7041-443D-A9A1-5BF1F55B8521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8330204B-E14A-48AE-A449-051080901D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6624,12 +6624,20 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="\_xd83d_\_xdf84_yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6904,83 +6912,80 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7639,7 +7644,7 @@
   <dimension ref="A1:D1253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1239" workbookViewId="0">
-      <selection activeCell="A1245" sqref="A1245:XFD1245"/>
+      <selection activeCell="C1253" sqref="C1253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22250,7 +22255,7 @@
       <c r="B1210" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="C1210" s="37">
+      <c r="C1210" s="36">
         <v>45974</v>
       </c>
     </row>
@@ -22261,7 +22266,7 @@
       <c r="B1211" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C1211" s="37">
+      <c r="C1211" s="36">
         <v>45974</v>
       </c>
     </row>
@@ -22272,7 +22277,7 @@
       <c r="B1212" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="C1212" s="37">
+      <c r="C1212" s="36">
         <v>45974</v>
       </c>
     </row>
@@ -22283,7 +22288,7 @@
       <c r="B1213" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1213" s="37">
+      <c r="C1213" s="36">
         <v>45974</v>
       </c>
     </row>
@@ -22294,7 +22299,7 @@
       <c r="B1214" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="C1214" s="37">
+      <c r="C1214" s="36">
         <v>45974</v>
       </c>
     </row>
@@ -22305,7 +22310,7 @@
       <c r="B1215" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C1215" s="37">
+      <c r="C1215" s="36">
         <v>45975</v>
       </c>
       <c r="D1215" t="s">
@@ -22319,7 +22324,7 @@
       <c r="B1216" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C1216" s="37">
+      <c r="C1216" s="36">
         <v>45975</v>
       </c>
     </row>
@@ -22330,7 +22335,7 @@
       <c r="B1217" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C1217" s="37">
+      <c r="C1217" s="36">
         <v>45975</v>
       </c>
       <c r="D1217" s="35" t="s">
@@ -22344,7 +22349,7 @@
       <c r="B1218" s="31" t="s">
         <v>964</v>
       </c>
-      <c r="C1218" s="37">
+      <c r="C1218" s="36">
         <v>45978</v>
       </c>
       <c r="D1218" t="s">
@@ -22358,7 +22363,7 @@
       <c r="B1219" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C1219" s="37">
+      <c r="C1219" s="36">
         <v>45978</v>
       </c>
       <c r="D1219" t="s">
@@ -22372,7 +22377,7 @@
       <c r="B1220" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C1220" s="37">
+      <c r="C1220" s="36">
         <v>45978</v>
       </c>
     </row>
@@ -22383,7 +22388,7 @@
       <c r="B1221" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C1221" s="37">
+      <c r="C1221" s="36">
         <v>45978</v>
       </c>
       <c r="D1221" t="s">
@@ -22397,7 +22402,7 @@
       <c r="B1222" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C1222" s="37">
+      <c r="C1222" s="36">
         <v>45978</v>
       </c>
     </row>
@@ -22408,7 +22413,7 @@
       <c r="B1223" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C1223" s="37">
+      <c r="C1223" s="36">
         <v>45980</v>
       </c>
       <c r="D1223" t="s">
@@ -22422,7 +22427,7 @@
       <c r="B1224" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C1224" s="37">
+      <c r="C1224" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22433,7 +22438,7 @@
       <c r="B1225" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C1225" s="37">
+      <c r="C1225" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22444,7 +22449,7 @@
       <c r="B1226" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C1226" s="37">
+      <c r="C1226" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22455,7 +22460,7 @@
       <c r="B1227" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C1227" s="37">
+      <c r="C1227" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22466,7 +22471,7 @@
       <c r="B1228" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1228" s="37">
+      <c r="C1228" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22477,7 +22482,7 @@
       <c r="B1229" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C1229" s="37">
+      <c r="C1229" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22488,7 +22493,7 @@
       <c r="B1230" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C1230" s="37">
+      <c r="C1230" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22499,7 +22504,7 @@
       <c r="B1231" s="31" t="s">
         <v>1796</v>
       </c>
-      <c r="C1231" s="37">
+      <c r="C1231" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22510,7 +22515,7 @@
       <c r="B1232" s="31" t="s">
         <v>1798</v>
       </c>
-      <c r="C1232" s="37">
+      <c r="C1232" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22521,7 +22526,7 @@
       <c r="B1233" s="31" t="s">
         <v>1800</v>
       </c>
-      <c r="C1233" s="37">
+      <c r="C1233" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22532,7 +22537,7 @@
       <c r="B1234" s="31" t="s">
         <v>1802</v>
       </c>
-      <c r="C1234" s="37">
+      <c r="C1234" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22543,7 +22548,7 @@
       <c r="B1235" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="C1235" s="37">
+      <c r="C1235" s="36">
         <v>45980</v>
       </c>
       <c r="D1235" t="s">
@@ -22557,7 +22562,7 @@
       <c r="B1236" s="31" t="s">
         <v>1805</v>
       </c>
-      <c r="C1236" s="37">
+      <c r="C1236" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22568,7 +22573,7 @@
       <c r="B1237" s="31" t="s">
         <v>1807</v>
       </c>
-      <c r="C1237" s="37">
+      <c r="C1237" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22579,7 +22584,7 @@
       <c r="B1238" s="31" t="s">
         <v>1809</v>
       </c>
-      <c r="C1238" s="37">
+      <c r="C1238" s="36">
         <v>45980</v>
       </c>
     </row>
@@ -22590,7 +22595,7 @@
       <c r="B1239" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C1239" s="37">
+      <c r="C1239" s="36">
         <v>45981</v>
       </c>
     </row>
@@ -22601,7 +22606,7 @@
       <c r="B1240" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C1240" s="37">
+      <c r="C1240" s="36">
         <v>45982</v>
       </c>
     </row>
@@ -22612,7 +22617,7 @@
       <c r="B1241" s="31" t="s">
         <v>1813</v>
       </c>
-      <c r="C1241" s="37">
+      <c r="C1241" s="36">
         <v>45985</v>
       </c>
     </row>
@@ -22623,7 +22628,7 @@
       <c r="B1242" s="31" t="s">
         <v>1813</v>
       </c>
-      <c r="C1242" s="37">
+      <c r="C1242" s="36">
         <v>45985</v>
       </c>
     </row>
@@ -22634,7 +22639,7 @@
       <c r="B1243" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="C1243" s="37">
+      <c r="C1243" s="36">
         <v>45985</v>
       </c>
     </row>
@@ -22645,7 +22650,7 @@
       <c r="B1244" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="C1244" s="37">
+      <c r="C1244" s="36">
         <v>45985</v>
       </c>
     </row>
@@ -22656,7 +22661,7 @@
       <c r="B1245" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C1245" s="37">
+      <c r="C1245" s="36">
         <v>45985</v>
       </c>
       <c r="D1245" t="s">
@@ -22670,7 +22675,7 @@
       <c r="B1246" s="31" t="s">
         <v>1813</v>
       </c>
-      <c r="C1246" s="37">
+      <c r="C1246" s="36">
         <v>45985</v>
       </c>
     </row>
@@ -22681,7 +22686,7 @@
       <c r="B1247" s="31" t="s">
         <v>1813</v>
       </c>
-      <c r="C1247" s="37">
+      <c r="C1247" s="36">
         <v>45985</v>
       </c>
     </row>
@@ -22692,7 +22697,7 @@
       <c r="B1248" s="31" t="s">
         <v>1822</v>
       </c>
-      <c r="C1248" s="37">
+      <c r="C1248" s="36">
         <v>45985</v>
       </c>
     </row>
@@ -22703,7 +22708,7 @@
       <c r="B1249" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C1249" s="37">
+      <c r="C1249" s="36">
         <v>45985</v>
       </c>
     </row>
@@ -22714,7 +22719,7 @@
       <c r="B1250" s="31" t="s">
         <v>1825</v>
       </c>
-      <c r="C1250" s="37">
+      <c r="C1250" s="36">
         <v>45985</v>
       </c>
     </row>
@@ -22725,7 +22730,7 @@
       <c r="B1251" s="31" t="s">
         <v>1813</v>
       </c>
-      <c r="C1251" s="37">
+      <c r="C1251" s="36">
         <v>45985</v>
       </c>
     </row>
@@ -22736,7 +22741,7 @@
       <c r="B1252" s="31" t="s">
         <v>1800</v>
       </c>
-      <c r="C1252" s="37">
+      <c r="C1252" s="36">
         <v>45986</v>
       </c>
     </row>
@@ -22747,7 +22752,7 @@
       <c r="B1253" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="C1253" s="37">
+      <c r="C1253" s="36">
         <v>45985</v>
       </c>
       <c r="D1253" t="s">

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8330204B-E14A-48AE-A449-051080901D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E02CE-0D05-4900-8F02-BB8AE4578B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="1838">
   <si>
     <t>обслуживание</t>
   </si>
@@ -6614,6 +6614,33 @@
   </si>
   <si>
     <t>мне нужно nft нет</t>
+  </si>
+  <si>
+    <t>🞄2025.11.12</t>
+  </si>
+  <si>
+    <t>🞄2025.11.13</t>
+  </si>
+  <si>
+    <t>🞄2025.11.14</t>
+  </si>
+  <si>
+    <t>🞄2025.11.17</t>
+  </si>
+  <si>
+    <t>🞄2025.11.19</t>
+  </si>
+  <si>
+    <t>🞄2025.11.20</t>
+  </si>
+  <si>
+    <t>🞄2025.11.21</t>
+  </si>
+  <si>
+    <t>🞄2025.11.24</t>
+  </si>
+  <si>
+    <t>🞄2025.11.25</t>
   </si>
 </sst>
 </file>
@@ -6985,7 +7012,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7643,8 +7670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1239" workbookViewId="0">
-      <selection activeCell="C1253" sqref="C1253"/>
+    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
+      <selection activeCell="B1254" sqref="B1254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22244,8 +22271,8 @@
       <c r="B1209" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="C1209" s="36">
-        <v>45973</v>
+      <c r="C1209" s="36" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.3">
@@ -22255,8 +22282,8 @@
       <c r="B1210" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="C1210" s="36">
-        <v>45974</v>
+      <c r="C1210" s="36" t="s">
+        <v>1830</v>
       </c>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.3">
@@ -22266,8 +22293,8 @@
       <c r="B1211" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C1211" s="36">
-        <v>45974</v>
+      <c r="C1211" s="36" t="s">
+        <v>1830</v>
       </c>
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.3">
@@ -22277,8 +22304,8 @@
       <c r="B1212" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="C1212" s="36">
-        <v>45974</v>
+      <c r="C1212" s="36" t="s">
+        <v>1830</v>
       </c>
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.3">
@@ -22288,8 +22315,8 @@
       <c r="B1213" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1213" s="36">
-        <v>45974</v>
+      <c r="C1213" s="36" t="s">
+        <v>1830</v>
       </c>
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.3">
@@ -22299,8 +22326,8 @@
       <c r="B1214" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="C1214" s="36">
-        <v>45974</v>
+      <c r="C1214" s="36" t="s">
+        <v>1830</v>
       </c>
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.3">
@@ -22310,8 +22337,8 @@
       <c r="B1215" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C1215" s="36">
-        <v>45975</v>
+      <c r="C1215" s="36" t="s">
+        <v>1831</v>
       </c>
       <c r="D1215" t="s">
         <v>1774</v>
@@ -22324,8 +22351,8 @@
       <c r="B1216" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C1216" s="36">
-        <v>45975</v>
+      <c r="C1216" s="36" t="s">
+        <v>1831</v>
       </c>
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
@@ -22335,8 +22362,8 @@
       <c r="B1217" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C1217" s="36">
-        <v>45975</v>
+      <c r="C1217" s="36" t="s">
+        <v>1831</v>
       </c>
       <c r="D1217" s="35" t="s">
         <v>1777</v>
@@ -22349,8 +22376,8 @@
       <c r="B1218" s="31" t="s">
         <v>964</v>
       </c>
-      <c r="C1218" s="36">
-        <v>45978</v>
+      <c r="C1218" s="36" t="s">
+        <v>1832</v>
       </c>
       <c r="D1218" t="s">
         <v>1779</v>
@@ -22363,8 +22390,8 @@
       <c r="B1219" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C1219" s="36">
-        <v>45978</v>
+      <c r="C1219" s="36" t="s">
+        <v>1832</v>
       </c>
       <c r="D1219" t="s">
         <v>1781</v>
@@ -22377,8 +22404,8 @@
       <c r="B1220" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C1220" s="36">
-        <v>45978</v>
+      <c r="C1220" s="36" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
@@ -22388,8 +22415,8 @@
       <c r="B1221" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C1221" s="36">
-        <v>45978</v>
+      <c r="C1221" s="36" t="s">
+        <v>1832</v>
       </c>
       <c r="D1221" t="s">
         <v>1784</v>
@@ -22402,8 +22429,8 @@
       <c r="B1222" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C1222" s="36">
-        <v>45978</v>
+      <c r="C1222" s="36" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.3">
@@ -22413,8 +22440,8 @@
       <c r="B1223" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C1223" s="36">
-        <v>45980</v>
+      <c r="C1223" s="36" t="s">
+        <v>1833</v>
       </c>
       <c r="D1223" t="s">
         <v>1787</v>
@@ -22427,8 +22454,8 @@
       <c r="B1224" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C1224" s="36">
-        <v>45980</v>
+      <c r="C1224" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
@@ -22438,8 +22465,8 @@
       <c r="B1225" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C1225" s="36">
-        <v>45980</v>
+      <c r="C1225" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.3">
@@ -22449,8 +22476,8 @@
       <c r="B1226" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C1226" s="36">
-        <v>45980</v>
+      <c r="C1226" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
@@ -22460,8 +22487,8 @@
       <c r="B1227" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C1227" s="36">
-        <v>45980</v>
+      <c r="C1227" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
@@ -22471,8 +22498,8 @@
       <c r="B1228" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1228" s="36">
-        <v>45980</v>
+      <c r="C1228" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.3">
@@ -22482,8 +22509,8 @@
       <c r="B1229" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C1229" s="36">
-        <v>45980</v>
+      <c r="C1229" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.3">
@@ -22493,8 +22520,8 @@
       <c r="B1230" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C1230" s="36">
-        <v>45980</v>
+      <c r="C1230" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
@@ -22504,8 +22531,8 @@
       <c r="B1231" s="31" t="s">
         <v>1796</v>
       </c>
-      <c r="C1231" s="36">
-        <v>45980</v>
+      <c r="C1231" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
@@ -22515,8 +22542,8 @@
       <c r="B1232" s="31" t="s">
         <v>1798</v>
       </c>
-      <c r="C1232" s="36">
-        <v>45980</v>
+      <c r="C1232" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
@@ -22526,8 +22553,8 @@
       <c r="B1233" s="31" t="s">
         <v>1800</v>
       </c>
-      <c r="C1233" s="36">
-        <v>45980</v>
+      <c r="C1233" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.3">
@@ -22537,8 +22564,8 @@
       <c r="B1234" s="31" t="s">
         <v>1802</v>
       </c>
-      <c r="C1234" s="36">
-        <v>45980</v>
+      <c r="C1234" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
@@ -22548,8 +22575,8 @@
       <c r="B1235" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="C1235" s="36">
-        <v>45980</v>
+      <c r="C1235" s="36" t="s">
+        <v>1833</v>
       </c>
       <c r="D1235" t="s">
         <v>855</v>
@@ -22562,8 +22589,8 @@
       <c r="B1236" s="31" t="s">
         <v>1805</v>
       </c>
-      <c r="C1236" s="36">
-        <v>45980</v>
+      <c r="C1236" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
@@ -22573,8 +22600,8 @@
       <c r="B1237" s="31" t="s">
         <v>1807</v>
       </c>
-      <c r="C1237" s="36">
-        <v>45980</v>
+      <c r="C1237" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
@@ -22584,8 +22611,8 @@
       <c r="B1238" s="31" t="s">
         <v>1809</v>
       </c>
-      <c r="C1238" s="36">
-        <v>45980</v>
+      <c r="C1238" s="36" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
@@ -22595,8 +22622,8 @@
       <c r="B1239" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C1239" s="36">
-        <v>45981</v>
+      <c r="C1239" s="36" t="s">
+        <v>1834</v>
       </c>
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
@@ -22606,8 +22633,8 @@
       <c r="B1240" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C1240" s="36">
-        <v>45982</v>
+      <c r="C1240" s="36" t="s">
+        <v>1835</v>
       </c>
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
@@ -22617,8 +22644,8 @@
       <c r="B1241" s="31" t="s">
         <v>1813</v>
       </c>
-      <c r="C1241" s="36">
-        <v>45985</v>
+      <c r="C1241" s="36" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
@@ -22628,8 +22655,8 @@
       <c r="B1242" s="31" t="s">
         <v>1813</v>
       </c>
-      <c r="C1242" s="36">
-        <v>45985</v>
+      <c r="C1242" s="36" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
@@ -22639,8 +22666,8 @@
       <c r="B1243" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="C1243" s="36">
-        <v>45985</v>
+      <c r="C1243" s="36" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1244" spans="1:4" x14ac:dyDescent="0.3">
@@ -22650,8 +22677,8 @@
       <c r="B1244" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="C1244" s="36">
-        <v>45985</v>
+      <c r="C1244" s="36" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
@@ -22661,8 +22688,8 @@
       <c r="B1245" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C1245" s="36">
-        <v>45985</v>
+      <c r="C1245" s="36" t="s">
+        <v>1836</v>
       </c>
       <c r="D1245" t="s">
         <v>1818</v>
@@ -22675,8 +22702,8 @@
       <c r="B1246" s="31" t="s">
         <v>1813</v>
       </c>
-      <c r="C1246" s="36">
-        <v>45985</v>
+      <c r="C1246" s="36" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1247" spans="1:4" x14ac:dyDescent="0.3">
@@ -22686,8 +22713,8 @@
       <c r="B1247" s="31" t="s">
         <v>1813</v>
       </c>
-      <c r="C1247" s="36">
-        <v>45985</v>
+      <c r="C1247" s="36" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
@@ -22697,8 +22724,8 @@
       <c r="B1248" s="31" t="s">
         <v>1822</v>
       </c>
-      <c r="C1248" s="36">
-        <v>45985</v>
+      <c r="C1248" s="36" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
@@ -22708,8 +22735,8 @@
       <c r="B1249" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C1249" s="36">
-        <v>45985</v>
+      <c r="C1249" s="36" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.3">
@@ -22719,8 +22746,8 @@
       <c r="B1250" s="31" t="s">
         <v>1825</v>
       </c>
-      <c r="C1250" s="36">
-        <v>45985</v>
+      <c r="C1250" s="36" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
@@ -22730,33 +22757,33 @@
       <c r="B1251" s="31" t="s">
         <v>1813</v>
       </c>
-      <c r="C1251" s="36">
-        <v>45985</v>
+      <c r="C1251" s="36" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1252" s="31" t="s">
+      <c r="A1252" s="34" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1252" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1252" s="36" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1253" s="31" t="s">
         <v>1827</v>
       </c>
-      <c r="B1252" s="31" t="s">
+      <c r="B1253" s="31" t="s">
         <v>1800</v>
       </c>
-      <c r="C1252" s="36">
-        <v>45986</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1253" s="34" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B1253" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1253" s="36">
-        <v>45985</v>
-      </c>
-      <c r="D1253" t="s">
-        <v>855</v>
+      <c r="C1253" s="36" t="s">
+        <v>1837</v>
       </c>
     </row>
   </sheetData>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E02CE-0D05-4900-8F02-BB8AE4578B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CE8287-2EAC-4729-AD37-BF42B83C5232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4331" uniqueCount="1899">
   <si>
     <t>обслуживание</t>
   </si>
@@ -6642,6 +6642,250 @@
   <si>
     <t>🞄2025.11.25</t>
   </si>
+  <si>
+    <t>новый ип|новый клиент</t>
+  </si>
+  <si>
+    <t>а как сделать чарджбэк</t>
+  </si>
+  <si>
+    <t>в бз  - операция возврата</t>
+  </si>
+  <si>
+    <t>установить чек корректор</t>
+  </si>
+  <si>
+    <r>
+      <t>Чек коррекции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> — это </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>фискальный документ, который формируется при выявлении ошибок в ранее проведённых расчётах</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <t>вопрос по сервису it пэй нет</t>
+  </si>
+  <si>
+    <t>расскажи</t>
+  </si>
+  <si>
+    <t>OS_Operator</t>
+  </si>
+  <si>
+    <t>Апельсиновая карта</t>
+  </si>
+  <si>
+    <t>«Апельсиновая карта» от «Альфа-Банка» предназначена для физических лиц.</t>
+  </si>
+  <si>
+    <t>Альфа смарт</t>
+  </si>
+  <si>
+    <t>ускорить проведение платежа</t>
+  </si>
+  <si>
+    <t>у меня почему то сторонние банки блокируют перевод на бизнес карту</t>
+  </si>
+  <si>
+    <t>OS_Balance</t>
+  </si>
+  <si>
+    <t>баланс по зарплатной карте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обслуживание бизнеса </t>
+  </si>
+  <si>
+    <t>блокировка регистрации бизнеса</t>
+  </si>
+  <si>
+    <t>проблемы с диспутом прислали письмо претензию диспут мне надо разобраться</t>
+  </si>
+  <si>
+    <t>Диспут по операции СБП — это досудебное урегулирование спора между плательщиком и продавцом.</t>
+  </si>
+  <si>
+    <t>АУСН|если робот услышит аусм</t>
+  </si>
+  <si>
+    <t>АУСН (Автоматизированная упрощенная система налогообложения) применяется для ИП и ООО с 1 июля 2022 года по 31 декабря 2027 года</t>
+  </si>
+  <si>
+    <t>сертификат</t>
+  </si>
+  <si>
+    <t>Деньги сверху</t>
+  </si>
+  <si>
+    <t>Кэшбэк (OS_Cashback)</t>
+  </si>
+  <si>
+    <t>БА из ТЗ</t>
+  </si>
+  <si>
+    <t>Альфа выгодно</t>
+  </si>
+  <si>
+    <t>Акции (OS_Promotions)</t>
+  </si>
+  <si>
+    <t>Альфа пятница</t>
+  </si>
+  <si>
+    <t>Кэшбэк по карте</t>
+  </si>
+  <si>
+    <t>Кэшбэк по карте для бизнеса</t>
+  </si>
+  <si>
+    <t>Партнерство</t>
+  </si>
+  <si>
+    <t>Приведи друга (OS_Referrer_Bonus)</t>
+  </si>
+  <si>
+    <t>Свой в альфа</t>
+  </si>
+  <si>
+    <t>Купи легко</t>
+  </si>
+  <si>
+    <t>Долями</t>
+  </si>
+  <si>
+    <t>Сплит</t>
+  </si>
+  <si>
+    <t>Подели</t>
+  </si>
+  <si>
+    <t>программа для таксопарков</t>
+  </si>
+  <si>
+    <t>Сервис</t>
+  </si>
+  <si>
+    <t>вознаграждение</t>
+  </si>
+  <si>
+    <t>вознаграждение за открытие счета| бонусы за открытие счета| кэшбэк за открытие счета</t>
+  </si>
+  <si>
+    <t>есть ли программа приоритет копить мили</t>
+  </si>
+  <si>
+    <t>текущий месяц</t>
+  </si>
+  <si>
+    <t>Кэшбэк за текущий месяц (OS_Cashback_Accruals_Current)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Подробная информация о кэшбэке в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>этом месяце</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сумма </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в этом месяце</t>
+    </r>
+  </si>
+  <si>
+    <t>Где находится вознаграждение за приглашённого друга</t>
+  </si>
+  <si>
+    <t>Не пришли баллы за друга (OS_Referrer_Bonus_problem)</t>
+  </si>
+  <si>
+    <t>на что его можно обменять</t>
+  </si>
+  <si>
+    <t>На что можно обменять кэшбэк (OS_Cashback_Details_Spend)</t>
+  </si>
+  <si>
+    <t>на что можно обменять</t>
+  </si>
+  <si>
+    <t>🞄2025.11.27</t>
+  </si>
+  <si>
+    <t>🞄2025.11.28</t>
+  </si>
+  <si>
+    <t>🞄2025.12.02</t>
+  </si>
+  <si>
+    <t>🞄2025.12.03</t>
+  </si>
+  <si>
+    <t>🞄2025.12.04</t>
+  </si>
+  <si>
+    <t>🞄2025.12.09</t>
+  </si>
+  <si>
+    <t>🞄2025.12.10</t>
+  </si>
+  <si>
+    <t>🞄2025.12.15</t>
+  </si>
+  <si>
+    <t>албо</t>
+  </si>
+  <si>
+    <t>Начисления по кэшбэку (OS_Cashback_Accruals)</t>
+  </si>
 </sst>
 </file>
 
@@ -6651,7 +6895,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="\_xd83d_\_xdf84_yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6898,6 +7142,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6949,7 +7208,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7012,9 +7271,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -7396,10 +7656,16 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Sheet1"/>
       <sheetName val="Лист1"/>
+      <sheetName val="англ"/>
+      <sheetName val="Изменения Иерархии"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7668,10 +7934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1253"/>
+  <dimension ref="A1:D1291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="B1254" sqref="B1254"/>
+    <sheetView tabSelected="1" topLeftCell="A1273" workbookViewId="0">
+      <selection activeCell="A1291" sqref="A1291:XFD1291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8475,7 +8741,7 @@
         <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>1898</v>
       </c>
       <c r="C68" s="27" t="s">
         <v>1431</v>
@@ -10833,7 +11099,7 @@
         <v>1370</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>1864</v>
       </c>
       <c r="C263" s="27" t="s">
         <v>1492</v>
@@ -13643,7 +13909,7 @@
         <v>519</v>
       </c>
       <c r="B492" t="s">
-        <v>9</v>
+        <v>1869</v>
       </c>
       <c r="C492" s="27" t="s">
         <v>1555</v>
@@ -14012,7 +14278,7 @@
         <v>1042</v>
       </c>
       <c r="B522" t="s">
-        <v>9</v>
+        <v>1861</v>
       </c>
       <c r="C522" s="27" t="s">
         <v>1560</v>
@@ -17316,7 +17582,7 @@
         <v>798</v>
       </c>
       <c r="B788" t="s">
-        <v>9</v>
+        <v>1864</v>
       </c>
       <c r="C788" s="27" t="s">
         <v>1611</v>
@@ -18169,11 +18435,11 @@
       </c>
     </row>
     <row r="853" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A853" s="14" t="s">
+      <c r="A853" t="s">
         <v>967</v>
       </c>
       <c r="B853" t="s">
-        <v>9</v>
+        <v>1869</v>
       </c>
       <c r="C853" s="27" t="s">
         <v>1627</v>
@@ -22784,6 +23050,478 @@
       </c>
       <c r="C1253" s="36" t="s">
         <v>1837</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1254" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1254" s="4" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1255" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1255" s="4" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1256" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1256" s="4" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1257" s="13" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1257" s="4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D1257" s="37" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1258" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1258" s="4" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1259" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1259" s="4" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1260" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1260" s="4" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1261" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1261" s="4" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1262" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1262" s="4" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1263" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C1263" s="4" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1264" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1264" s="4" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1265" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1265" s="4" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1266" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1266" s="4" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1267" s="13" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1267" s="4" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1268" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1268" s="4" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1269" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1269" s="4" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1270" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1270" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1271" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C1271" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1272" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C1272" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1273" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1273" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1274" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1274" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1275" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1275" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1276" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1276" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1277" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1277" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1278" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1278" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1279" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1279" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1280" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1280" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1281" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1281" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1282" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1282" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1283" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1283" s="4" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1284" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1284" s="4" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1285" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1285" s="4" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1286" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C1286" s="4" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1287" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C1287" s="4" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1288" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C1288" s="4" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1289" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1289" s="4" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1290" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1290" s="4" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1291" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1291" s="4" t="s">
+        <v>1896</v>
       </c>
     </row>
   </sheetData>
@@ -22802,11 +23540,11 @@
           <x14:formula1>
             <xm:f>'C:\Users\Константин\Desktop\[Договоренности_таблица_ЮЛ_актуальные.xlsx]Лист1'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A989 B2:B520 B522:B975 B977:B1122</xm:sqref>
+          <xm:sqref>A989 B977:B1122 B493:B520 B2:B67 B69:B262 B264:B491 B523:B787 B789:B852 B854:B975</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
-            <xm:f>'[Договоренности  таблица  ЮЛ актуальные.xlsx]Лист1'!#REF!</xm:f>
+            <xm:f>'\\altcc\CC\Отчетность ЦПК\Разметка чат-бот\Отчет по разметке\Разметка Войс-бот\ЮР лица\[Договоренности  таблица  ЮЛ актуальные.xlsx]Лист1'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B521 B976 B1200:B1208 B1123:B1136</xm:sqref>
         </x14:dataValidation>
